--- a/data/warn-scraper/cache/ri/WARN Report.xlsx
+++ b/data/warn-scraper/cache/ri/WARN Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmwilsonri/Desktop/warn-report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmwilsonri/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{823B934D-1CBC-FD42-B014-BAE0AE40BF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B15C4C06-1A23-224A-8784-8357D47AD502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="147">
   <si>
     <t>WARN Date</t>
   </si>
@@ -472,6 +472,9 @@
   </si>
   <si>
     <t>4/19/10, 4/30/10</t>
+  </si>
+  <si>
+    <t>Rubius Therapeutics</t>
   </si>
 </sst>
 </file>
@@ -889,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3738B5CD-B8C2-F94D-89AB-E4F2B5C04FF4}">
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I5" sqref="A5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -974,105 +977,105 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>44595</v>
+        <v>44817</v>
       </c>
       <c r="B5" s="4">
-        <v>44594</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="5">
-        <v>198</v>
+        <v>44817</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4">
+        <v>77</v>
       </c>
       <c r="F5" s="4">
-        <v>44659</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="2"/>
+        <v>44880</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>44334</v>
+        <v>44595</v>
       </c>
       <c r="B6" s="4">
-        <v>44336</v>
+        <v>44594</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E6" s="5">
-        <v>94</v>
+        <v>198</v>
       </c>
       <c r="F6" s="4">
-        <v>44394</v>
+        <v>44659</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>44342</v>
+        <v>44334</v>
       </c>
       <c r="B7" s="4">
-        <v>44342</v>
+        <v>44336</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E7" s="5">
-        <v>464</v>
+        <v>94</v>
       </c>
       <c r="F7" s="4">
-        <v>44403</v>
+        <v>44394</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>44105</v>
+        <v>44342</v>
       </c>
       <c r="B8" s="4">
-        <v>44104</v>
+        <v>44342</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5">
-        <v>13</v>
+        <v>464</v>
       </c>
       <c r="F8" s="4">
-        <v>44104</v>
+        <v>44403</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>10</v>
@@ -1084,22 +1087,22 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>44064</v>
+        <v>44105</v>
       </c>
       <c r="B9" s="4">
-        <v>44068</v>
+        <v>44104</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" s="5">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F9" s="4">
-        <v>44061</v>
+        <v>44104</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>10</v>
@@ -1111,22 +1114,22 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>44057</v>
+        <v>44064</v>
       </c>
       <c r="B10" s="4">
-        <v>44060</v>
+        <v>44068</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="5">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="F10" s="4">
-        <v>44057</v>
+        <v>44061</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>10</v>
@@ -1138,51 +1141,49 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>44049</v>
+        <v>44057</v>
       </c>
       <c r="B11" s="4">
-        <v>44056</v>
+        <v>44060</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="5">
-        <v>272</v>
+        <v>106</v>
       </c>
       <c r="F11" s="4">
-        <v>43914</v>
+        <v>44057</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>44054</v>
+        <v>44049</v>
       </c>
       <c r="B12" s="4">
-        <v>44040</v>
+        <v>44056</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E12" s="5">
-        <v>1043</v>
+        <v>272</v>
       </c>
       <c r="F12" s="4">
-        <v>44104</v>
+        <v>43914</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>10</v>
@@ -1202,13 +1203,13 @@
         <v>44040</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="5">
-        <v>296</v>
+        <v>1043</v>
       </c>
       <c r="F13" s="4">
         <v>44104</v>
@@ -1225,105 +1226,107 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>44046</v>
+        <v>44054</v>
       </c>
       <c r="B14" s="4">
-        <v>44042</v>
+        <v>44040</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E14" s="5">
-        <v>73</v>
+        <v>296</v>
       </c>
       <c r="F14" s="4">
-        <v>44075</v>
+        <v>44104</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>44027</v>
+        <v>44046</v>
       </c>
       <c r="B15" s="4">
-        <v>44022</v>
+        <v>44042</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E15" s="5">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="F15" s="4">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>44004</v>
+        <v>44027</v>
       </c>
       <c r="B16" s="4">
-        <v>44004</v>
+        <v>44022</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E16" s="5">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="F16" s="4">
-        <v>43973</v>
+        <v>44044</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>44012</v>
+        <v>44004</v>
       </c>
       <c r="B17" s="4">
-        <v>44012</v>
+        <v>44004</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E17" s="5">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F17" s="4">
-        <v>44012</v>
+        <v>43973</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>10</v>
@@ -1335,13 +1338,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>43985</v>
+        <v>44012</v>
       </c>
       <c r="B18" s="4">
-        <v>43985</v>
+        <v>44012</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>22</v>
@@ -1350,7 +1353,7 @@
         <v>65</v>
       </c>
       <c r="F18" s="4">
-        <v>43904</v>
+        <v>44012</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>10</v>
@@ -1362,76 +1365,76 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
+        <v>43985</v>
+      </c>
+      <c r="B19" s="4">
+        <v>43985</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="5">
+        <v>65</v>
+      </c>
+      <c r="F19" s="4">
+        <v>43904</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
         <v>43980</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B20" s="4">
         <v>43980</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="5">
-        <v>231</v>
-      </c>
-      <c r="F19" s="4">
-        <v>43980</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
-        <v>44063</v>
-      </c>
-      <c r="B20" s="7">
-        <v>44068</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="5">
+        <v>231</v>
+      </c>
+      <c r="F20" s="4">
+        <v>43980</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
+        <v>44063</v>
+      </c>
+      <c r="B21" s="7">
+        <v>44068</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="5">
         <v>72</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F21" s="4">
         <v>43958</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <v>43948</v>
-      </c>
-      <c r="B21" s="4">
-        <v>43948</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" s="5">
-        <v>136</v>
-      </c>
-      <c r="F21" s="4">
-        <v>43906</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>10</v>
@@ -1443,49 +1446,49 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
+        <v>43948</v>
+      </c>
+      <c r="B22" s="4">
+        <v>43948</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="5">
+        <v>136</v>
+      </c>
+      <c r="F22" s="4">
+        <v>43906</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
         <v>43942</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B23" s="4">
         <v>43942</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E23" s="5">
         <v>5</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F23" s="4">
         <v>43942</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>43941</v>
-      </c>
-      <c r="B23" s="4">
-        <v>43944</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4">
-        <v>43941</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>10</v>
@@ -1497,22 +1500,22 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>43907</v>
+        <v>43941</v>
       </c>
       <c r="B24" s="4">
-        <v>43938</v>
+        <v>43944</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E24" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F24" s="4">
-        <v>43938</v>
+        <v>43941</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>10</v>
@@ -1524,22 +1527,22 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>43927</v>
+        <v>43907</v>
       </c>
       <c r="B25" s="4">
-        <v>43935</v>
+        <v>43938</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E25" s="5">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="F25" s="4">
-        <v>43906</v>
+        <v>43938</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>10</v>
@@ -1551,22 +1554,22 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>43925</v>
+        <v>43927</v>
       </c>
       <c r="B26" s="4">
-        <v>43925</v>
+        <v>43935</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E26" s="5">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="F26" s="4">
-        <v>43927</v>
+        <v>43906</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>10</v>
@@ -1578,22 +1581,22 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>43916</v>
+        <v>43925</v>
       </c>
       <c r="B27" s="4">
-        <v>43917</v>
+        <v>43925</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E27" s="5">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="F27" s="4">
-        <v>43916</v>
+        <v>43927</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>10</v>
@@ -1608,75 +1611,75 @@
         <v>43916</v>
       </c>
       <c r="B28" s="4">
-        <v>43913</v>
+        <v>43917</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E28" s="5">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="F28" s="4">
-        <v>43898</v>
+        <v>43916</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>43910</v>
+        <v>43916</v>
       </c>
       <c r="B29" s="4">
-        <v>43910</v>
+        <v>43913</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E29" s="5">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="F29" s="4">
-        <v>43910</v>
+        <v>43898</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B30" s="4">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E30" s="5">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="F30" s="4">
-        <v>43906</v>
+        <v>43910</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>10</v>
@@ -1688,25 +1691,25 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>43509</v>
+        <v>43909</v>
       </c>
       <c r="B31" s="4">
-        <v>43510</v>
+        <v>43913</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E31" s="5">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="F31" s="4">
-        <v>43567</v>
+        <v>43906</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>10</v>
@@ -1715,22 +1718,22 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>43486</v>
+        <v>43509</v>
       </c>
       <c r="B32" s="4">
-        <v>43486</v>
+        <v>43510</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E32" s="5">
-        <v>59</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>140</v>
+        <v>1</v>
+      </c>
+      <c r="F32" s="4">
+        <v>43567</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>13</v>
@@ -1742,22 +1745,22 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>43479</v>
+        <v>43486</v>
       </c>
       <c r="B33" s="4">
-        <v>43479</v>
+        <v>43486</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E33" s="5">
-        <v>62</v>
-      </c>
-      <c r="F33" s="4">
-        <v>43542</v>
+        <v>59</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>13</v>
@@ -1769,25 +1772,25 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>43405</v>
+        <v>43479</v>
       </c>
       <c r="B34" s="4">
-        <v>43413</v>
+        <v>43479</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E34" s="5">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F34" s="4">
-        <v>43131</v>
+        <v>43542</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>10</v>
@@ -1796,25 +1799,25 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>76277</v>
+        <v>43405</v>
       </c>
       <c r="B35" s="4">
-        <v>43405</v>
+        <v>43413</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E35" s="5">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="F35" s="4">
-        <v>43465</v>
+        <v>43131</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>10</v>
@@ -1823,22 +1826,22 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>76268</v>
+        <v>76277</v>
       </c>
       <c r="B36" s="4">
         <v>43405</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E36" s="5">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="F36" s="4">
-        <v>43469</v>
+        <v>43465</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>13</v>
@@ -1850,22 +1853,22 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>43382</v>
+        <v>76268</v>
       </c>
       <c r="B37" s="4">
-        <v>43382</v>
+        <v>43405</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E37" s="5">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F37" s="4">
-        <v>43382</v>
+        <v>43469</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>13</v>
@@ -1877,22 +1880,22 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>43362</v>
+        <v>43382</v>
       </c>
       <c r="B38" s="4">
-        <v>43363</v>
+        <v>43382</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="E38" s="5">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="F38" s="4">
-        <v>43434</v>
+        <v>43382</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>13</v>
@@ -1904,134 +1907,134 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>43273</v>
+        <v>43362</v>
       </c>
       <c r="B39" s="4">
-        <v>43276</v>
+        <v>43363</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E39" s="5">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="F39" s="4">
-        <v>43339</v>
+        <v>43434</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>43252</v>
+        <v>43273</v>
       </c>
       <c r="B40" s="4">
-        <v>43252</v>
+        <v>43276</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="5">
         <v>64</v>
       </c>
-      <c r="E40" s="5">
-        <v>149</v>
-      </c>
       <c r="F40" s="4">
-        <v>43312</v>
+        <v>43339</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>43042</v>
+        <v>43252</v>
       </c>
       <c r="B41" s="4">
-        <v>43042</v>
+        <v>43252</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="E41" s="5">
-        <v>477</v>
+        <v>149</v>
       </c>
       <c r="F41" s="4">
-        <v>43112</v>
+        <v>43312</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>42986</v>
+        <v>43042</v>
       </c>
       <c r="B42" s="4">
-        <v>42990</v>
+        <v>43042</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E42" s="5">
-        <v>171</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>141</v>
+        <v>477</v>
+      </c>
+      <c r="F42" s="4">
+        <v>43112</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <v>42495</v>
+        <v>42986</v>
       </c>
       <c r="B43" s="4">
-        <v>42496</v>
+        <v>42990</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="E43" s="5">
-        <v>187</v>
-      </c>
-      <c r="F43" s="4">
-        <v>42492</v>
+        <v>171</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>13</v>
@@ -2043,81 +2046,81 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <v>42494</v>
+        <v>42495</v>
       </c>
       <c r="B44" s="4">
-        <v>42495</v>
+        <v>42496</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E44" s="5">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="F44" s="4">
-        <v>42551</v>
+        <v>42492</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <v>42468</v>
+        <v>42494</v>
       </c>
       <c r="B45" s="4">
-        <v>42468</v>
+        <v>42495</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="E45" s="5">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="F45" s="4">
-        <v>42528</v>
+        <v>42551</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>42401</v>
+        <v>42468</v>
       </c>
       <c r="B46" s="4">
-        <v>42401</v>
+        <v>42468</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E46" s="5">
-        <v>60</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>142</v>
+        <v>154</v>
+      </c>
+      <c r="F46" s="4">
+        <v>42528</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>10</v>
@@ -2126,22 +2129,22 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>42384</v>
+        <v>42401</v>
       </c>
       <c r="B47" s="4">
-        <v>42384</v>
+        <v>42401</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E47" s="5">
-        <v>131</v>
-      </c>
-      <c r="F47" s="4">
-        <v>42405</v>
+        <v>60</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>13</v>
@@ -2153,25 +2156,25 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
-        <v>42326</v>
+        <v>42384</v>
       </c>
       <c r="B48" s="4">
-        <v>42326</v>
+        <v>42384</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E48" s="5">
-        <v>241</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>77</v>
+        <v>131</v>
+      </c>
+      <c r="F48" s="4">
+        <v>42405</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>10</v>
@@ -2180,25 +2183,25 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
-        <v>42318</v>
+        <v>42326</v>
       </c>
       <c r="B49" s="4">
-        <v>42320</v>
+        <v>42326</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>79</v>
+        <v>22</v>
+      </c>
+      <c r="E49" s="5">
+        <v>241</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>10</v>
@@ -2207,25 +2210,25 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <v>42178</v>
+        <v>42318</v>
       </c>
       <c r="B50" s="4">
-        <v>42180</v>
+        <v>42320</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" s="5">
-        <v>70</v>
-      </c>
-      <c r="F50" s="4">
-        <v>42240</v>
+        <v>9</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>10</v>
@@ -2234,78 +2237,78 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
-        <v>42069</v>
+        <v>42178</v>
       </c>
       <c r="B51" s="4">
-        <v>42074</v>
+        <v>42180</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>83</v>
+        <v>22</v>
+      </c>
+      <c r="E51" s="5">
+        <v>70</v>
       </c>
       <c r="F51" s="4">
-        <v>42141</v>
+        <v>42240</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I51" s="2"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
-        <v>42062</v>
+        <v>42069</v>
       </c>
       <c r="B52" s="4">
-        <v>42065</v>
+        <v>42074</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="F52" s="4">
+        <v>42141</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
-        <v>41850</v>
+        <v>42062</v>
       </c>
       <c r="B53" s="4">
-        <v>41850</v>
+        <v>42065</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E53" s="5">
-        <v>5</v>
-      </c>
-      <c r="F53" s="4">
-        <v>41912</v>
+        <v>30</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>10</v>
@@ -2317,22 +2320,22 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
-        <v>41820</v>
+        <v>41850</v>
       </c>
       <c r="B54" s="4">
-        <v>41821</v>
+        <v>41850</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="E54" s="5">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="F54" s="4">
-        <v>41882</v>
+        <v>41912</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>10</v>
@@ -2344,78 +2347,78 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
-        <v>41724</v>
+        <v>41820</v>
       </c>
       <c r="B55" s="4">
-        <v>41729</v>
+        <v>41821</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E55" s="5">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="F55" s="4">
-        <v>41774</v>
+        <v>41882</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
-        <v>41593</v>
+        <v>41724</v>
       </c>
       <c r="B56" s="4">
-        <v>41596</v>
+        <v>41729</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E56" s="5">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="F56" s="4">
-        <v>41654</v>
+        <v>41774</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I56" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>41547</v>
+        <v>41593</v>
       </c>
       <c r="B57" s="4">
-        <v>41547</v>
+        <v>41596</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E57" s="5">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F57" s="4">
-        <v>41608</v>
+        <v>41654</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>13</v>
@@ -2427,25 +2430,25 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
-        <v>41495</v>
+        <v>41547</v>
       </c>
       <c r="B58" s="4">
-        <v>41502</v>
+        <v>41547</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E58" s="5">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="F58" s="4">
-        <v>41555</v>
+        <v>41608</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>10</v>
@@ -2454,25 +2457,25 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
-        <v>41425</v>
+        <v>41495</v>
       </c>
       <c r="B59" s="4">
-        <v>41438</v>
+        <v>41502</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E59" s="5">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="F59" s="4">
-        <v>41425</v>
+        <v>41555</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>10</v>
@@ -2481,76 +2484,76 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
-        <v>41416</v>
+        <v>41425</v>
       </c>
       <c r="B60" s="4">
-        <v>41417</v>
+        <v>41438</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E60" s="5">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="F60" s="4">
-        <v>41485</v>
+        <v>41425</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
-        <v>41285</v>
+        <v>41416</v>
       </c>
       <c r="B61" s="4">
-        <v>41285</v>
+        <v>41417</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>79</v>
+        <v>50</v>
+      </c>
+      <c r="E61" s="5">
+        <v>62</v>
       </c>
       <c r="F61" s="4">
-        <v>41347</v>
+        <v>41485</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
-        <v>41087</v>
+        <v>41285</v>
       </c>
       <c r="B62" s="4">
-        <v>41087</v>
+        <v>41285</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E62" s="5">
-        <v>51</v>
+        <v>98</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="F62" s="4">
-        <v>41148</v>
+        <v>41347</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>13</v>
@@ -2562,51 +2565,49 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
-        <v>41011</v>
+        <v>41087</v>
       </c>
       <c r="B63" s="4">
-        <v>41011</v>
+        <v>41087</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E63" s="5">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="F63" s="4">
-        <v>41071</v>
+        <v>41148</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>101</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
-        <v>40938</v>
+        <v>41011</v>
       </c>
       <c r="B64" s="4">
-        <v>40939</v>
+        <v>41011</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E64" s="5">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="F64" s="4">
-        <v>41000</v>
+        <v>41071</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>13</v>
@@ -2615,54 +2616,56 @@
         <v>13</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
-        <v>40833</v>
+        <v>40938</v>
       </c>
       <c r="B65" s="4">
-        <v>40833</v>
+        <v>40939</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E65" s="5">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="F65" s="4">
-        <v>40833</v>
+        <v>41000</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I65" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
-        <v>40785</v>
+        <v>40833</v>
       </c>
       <c r="B66" s="4">
-        <v>40788</v>
+        <v>40833</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E66" s="5">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="F66" s="4">
-        <v>40846</v>
+        <v>40833</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>13</v>
@@ -2674,22 +2677,22 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
-        <v>40752</v>
+        <v>40785</v>
       </c>
       <c r="B67" s="4">
-        <v>40758</v>
+        <v>40788</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E67" s="5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F67" s="4">
-        <v>40816</v>
+        <v>40846</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>13</v>
@@ -2701,22 +2704,22 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
-        <v>40753</v>
+        <v>40752</v>
       </c>
       <c r="B68" s="4">
-        <v>40756</v>
+        <v>40758</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E68" s="5">
-        <v>98</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>143</v>
+        <v>9</v>
+      </c>
+      <c r="F68" s="4">
+        <v>40816</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>13</v>
@@ -2728,22 +2731,22 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
-        <v>40688</v>
+        <v>40753</v>
       </c>
       <c r="B69" s="4">
-        <v>40690</v>
+        <v>40756</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="E69" s="5">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>13</v>
@@ -2755,22 +2758,22 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
-        <v>40634</v>
+        <v>40688</v>
       </c>
       <c r="B70" s="4">
-        <v>40634</v>
+        <v>40690</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="E70" s="5">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>13</v>
@@ -2782,25 +2785,25 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
-        <v>40589</v>
+        <v>40634</v>
       </c>
       <c r="B71" s="4">
-        <v>40589</v>
+        <v>40634</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="E71" s="5">
-        <v>5</v>
-      </c>
-      <c r="F71" s="4">
-        <v>40644</v>
+        <v>98</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>10</v>
@@ -2809,22 +2812,22 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
-        <v>40565</v>
+        <v>40589</v>
       </c>
       <c r="B72" s="4">
-        <v>40568</v>
+        <v>40589</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="E72" s="5">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="F72" s="4">
-        <v>40592</v>
+        <v>40644</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>10</v>
@@ -2836,22 +2839,22 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
-        <v>40410</v>
+        <v>40565</v>
       </c>
       <c r="B73" s="4">
-        <v>40413</v>
+        <v>40568</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E73" s="5">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="F73" s="4">
-        <v>40452</v>
+        <v>40592</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>10</v>
@@ -2863,22 +2866,22 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
-        <v>40392</v>
+        <v>40410</v>
       </c>
       <c r="B74" s="4">
-        <v>40217</v>
+        <v>40413</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="E74" s="5">
-        <v>26</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>118</v>
+        <v>89</v>
+      </c>
+      <c r="F74" s="4">
+        <v>40452</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>10</v>
@@ -2890,7 +2893,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
-        <v>40214</v>
+        <v>40392</v>
       </c>
       <c r="B75" s="4">
         <v>40217</v>
@@ -2902,10 +2905,10 @@
         <v>114</v>
       </c>
       <c r="E75" s="5">
-        <v>165</v>
-      </c>
-      <c r="F75" s="4">
-        <v>40217</v>
+        <v>26</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>10</v>
@@ -2917,25 +2920,25 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
-        <v>40178</v>
+        <v>40214</v>
       </c>
       <c r="B76" s="4">
-        <v>40182</v>
+        <v>40217</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="E76" s="5">
-        <v>8</v>
+        <v>165</v>
       </c>
       <c r="F76" s="4">
-        <v>40210</v>
+        <v>40217</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>10</v>
@@ -2944,22 +2947,22 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
-        <v>40137</v>
+        <v>40178</v>
       </c>
       <c r="B77" s="4">
-        <v>40141</v>
+        <v>40182</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E77" s="5">
-        <v>66</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>144</v>
+        <v>8</v>
+      </c>
+      <c r="F77" s="4">
+        <v>40210</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>13</v>
@@ -2977,72 +2980,72 @@
         <v>40141</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E78" s="5">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>122</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I78" s="1"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
-        <v>40094</v>
+        <v>40137</v>
       </c>
       <c r="B79" s="4">
-        <v>40094</v>
+        <v>40141</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F79" s="4">
-        <v>40147</v>
+        <v>26</v>
+      </c>
+      <c r="E79" s="5">
+        <v>103</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I79" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
-        <v>40091</v>
+        <v>40094</v>
       </c>
       <c r="B80" s="4">
-        <v>40091</v>
+        <v>40094</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E80" s="5">
-        <v>63</v>
+        <v>22</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="F80" s="4">
-        <v>40148</v>
+        <v>40147</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>10</v>
@@ -3054,10 +3057,10 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
-        <v>40046</v>
+        <v>40091</v>
       </c>
       <c r="B81" s="4">
-        <v>40050</v>
+        <v>40091</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>124</v>
@@ -3065,11 +3068,11 @@
       <c r="D81" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E81" s="5" t="s">
-        <v>125</v>
+      <c r="E81" s="5">
+        <v>63</v>
       </c>
       <c r="F81" s="4">
-        <v>39895</v>
+        <v>40148</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>10</v>
@@ -3081,25 +3084,25 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
-        <v>40007</v>
+        <v>40046</v>
       </c>
       <c r="B82" s="4">
-        <v>40008</v>
+        <v>40050</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E82" s="5">
-        <v>130</v>
+        <v>26</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="F82" s="4">
         <v>39895</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>10</v>
@@ -3114,16 +3117,16 @@
         <v>40008</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="E83" s="5">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="F83" s="4">
-        <v>40001</v>
+        <v>39895</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>13</v>
@@ -3135,25 +3138,25 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
-        <v>39995</v>
+        <v>40007</v>
       </c>
       <c r="B84" s="4">
-        <v>39895</v>
+        <v>40008</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="5">
         <v>26</v>
       </c>
-      <c r="E84" s="5">
-        <v>14</v>
-      </c>
       <c r="F84" s="4">
-        <v>39895</v>
+        <v>40001</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>10</v>
@@ -3162,22 +3165,22 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
-        <v>39980</v>
+        <v>39995</v>
       </c>
       <c r="B85" s="4">
-        <v>39996</v>
+        <v>39895</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="E85" s="5">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F85" s="4">
-        <v>40041</v>
+        <v>39895</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>10</v>
@@ -3189,78 +3192,78 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
-        <v>39931</v>
+        <v>39980</v>
       </c>
       <c r="B86" s="4">
-        <v>39932</v>
+        <v>39996</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="E86" s="5">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="F86" s="4">
-        <v>39994</v>
+        <v>40041</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>132</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I86" s="2"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
-        <v>39918</v>
+        <v>39931</v>
       </c>
       <c r="B87" s="4">
-        <v>39918</v>
+        <v>39932</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="E87" s="5">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="F87" s="4">
         <v>39994</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I87" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
-        <v>39883</v>
+        <v>39918</v>
       </c>
       <c r="B88" s="4">
-        <v>39882</v>
+        <v>39918</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="E88" s="5">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F88" s="4">
-        <v>39943</v>
+        <v>39994</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>13</v>
@@ -3272,25 +3275,25 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
-        <v>39881</v>
+        <v>39883</v>
       </c>
       <c r="B89" s="4">
-        <v>39881</v>
+        <v>39882</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E89" s="5">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="F89" s="4">
-        <v>39941</v>
+        <v>39943</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>10</v>
@@ -3299,25 +3302,25 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
-        <v>39876</v>
+        <v>39881</v>
       </c>
       <c r="B90" s="4">
-        <v>39878</v>
+        <v>39881</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E90" s="5">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F90" s="4">
-        <v>39935</v>
+        <v>39941</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>10</v>
@@ -3326,22 +3329,22 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
-        <v>39877</v>
+        <v>39876</v>
       </c>
       <c r="B91" s="4">
-        <v>39877</v>
+        <v>39878</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E91" s="5">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="F91" s="4">
-        <v>39943</v>
+        <v>39935</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>13</v>
@@ -3353,22 +3356,22 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
-        <v>39863</v>
+        <v>39877</v>
       </c>
       <c r="B92" s="4">
-        <v>39864</v>
+        <v>39877</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="E92" s="5">
-        <v>270</v>
+        <v>119</v>
       </c>
       <c r="F92" s="4">
-        <v>39828</v>
+        <v>39943</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>13</v>
@@ -3380,30 +3383,57 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
+        <v>39863</v>
+      </c>
+      <c r="B93" s="4">
+        <v>39864</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E93" s="5">
+        <v>270</v>
+      </c>
+      <c r="F93" s="4">
+        <v>39828</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I93" s="2"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
         <v>39832</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B94" s="4">
         <v>39825</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E93" s="5">
+      <c r="E94" s="5">
         <v>121</v>
       </c>
-      <c r="F93" s="4">
+      <c r="F94" s="4">
         <v>39821</v>
       </c>
-      <c r="G93" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I93" s="2"/>
+      <c r="G94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/warn-scraper/cache/ri/WARN Report.xlsx
+++ b/data/warn-scraper/cache/ri/WARN Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmwilsonri/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmwilsonri/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B15C4C06-1A23-224A-8784-8357D47AD502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C251B6-FC47-914B-9B18-78EF61270638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
   </bookViews>
@@ -555,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -577,6 +577,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,7 +898,7 @@
   <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I5" sqref="A5:I5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -988,7 +991,7 @@
       <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="10">
         <v>77</v>
       </c>
       <c r="F5" s="4">

--- a/data/warn-scraper/cache/ri/WARN Report.xlsx
+++ b/data/warn-scraper/cache/ri/WARN Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmwilsonri/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathaniel.M.Wilson\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C251B6-FC47-914B-9B18-78EF61270638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A80A1C-B2A9-4A9B-B2A3-315D9EBF778F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="148">
   <si>
     <t>WARN Date</t>
   </si>
@@ -475,15 +475,25 @@
   </si>
   <si>
     <t>Rubius Therapeutics</t>
+  </si>
+  <si>
+    <t>BayFirst Financial Corporation </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -528,6 +538,12 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -543,7 +559,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -551,35 +567,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD4D4D4"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD4D4D4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,50 +928,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3738B5CD-B8C2-F94D-89AB-E4F2B5C04FF4}">
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="92.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="92.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" ht="31" x14ac:dyDescent="0.2">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" ht="31.5">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -949,7 +982,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="21">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -978,244 +1011,242 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="16.5" thickBot="1">
       <c r="A5" s="4">
+        <v>44827</v>
+      </c>
+      <c r="B5" s="4">
+        <v>44831</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>44890</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="4">
         <v>44817</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B6" s="4">
         <v>44817</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E6" s="9">
         <v>77</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F6" s="4">
         <v>44880</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="G6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4">
         <v>44595</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B7" s="4">
         <v>44594</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E7" s="5">
         <v>198</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F7" s="4">
         <v>44659</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4">
         <v>44334</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B8" s="4">
         <v>44336</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E8" s="5">
         <v>94</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F8" s="4">
         <v>44394</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+    <row r="9" spans="1:9">
+      <c r="A9" s="4">
         <v>44342</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B9" s="4">
         <v>44342</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E9" s="5">
         <v>464</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F9" s="4">
         <v>44403</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4">
         <v>44105</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B10" s="4">
         <v>44104</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="5">
-        <v>13</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="E10" s="5">
+        <v>13</v>
+      </c>
+      <c r="F10" s="4">
         <v>44104</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="G10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="4">
         <v>44064</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B11" s="4">
         <v>44068</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E11" s="5">
         <v>40</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F11" s="4">
         <v>44061</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="G11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4">
         <v>44057</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B12" s="4">
         <v>44060</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="5">
-        <v>106</v>
-      </c>
-      <c r="F11" s="4">
-        <v>44057</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>44049</v>
-      </c>
-      <c r="B12" s="4">
-        <v>44056</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="5">
+        <v>106</v>
+      </c>
+      <c r="F12" s="4">
+        <v>44057</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="4">
+        <v>44049</v>
+      </c>
+      <c r="B13" s="4">
+        <v>44056</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="5">
         <v>272</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F13" s="4">
         <v>43914</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>44054</v>
-      </c>
-      <c r="B13" s="4">
-        <v>44040</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1043</v>
-      </c>
-      <c r="F13" s="4">
-        <v>44104</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>10</v>
@@ -1227,7 +1258,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="4">
         <v>44054</v>
       </c>
@@ -1235,13 +1266,13 @@
         <v>44040</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="5">
-        <v>296</v>
+        <v>1043</v>
       </c>
       <c r="F14" s="4">
         <v>44104</v>
@@ -1256,125 +1287,127 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="4">
+        <v>44054</v>
+      </c>
+      <c r="B15" s="4">
+        <v>44040</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="5">
+        <v>296</v>
+      </c>
+      <c r="F15" s="4">
+        <v>44104</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="4">
         <v>44046</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B16" s="4">
         <v>44042</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E16" s="5">
         <v>73</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F16" s="4">
         <v>44075</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="4">
         <v>44027</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B17" s="4">
         <v>44022</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E17" s="5">
         <v>127</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F17" s="4">
         <v>44044</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+    <row r="18" spans="1:9">
+      <c r="A18" s="4">
         <v>44004</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B18" s="4">
         <v>44004</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E18" s="5">
         <v>71</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F18" s="4">
         <v>43973</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="G18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="4">
         <v>44012</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B19" s="4">
         <v>44012</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="5">
-        <v>65</v>
-      </c>
-      <c r="F18" s="4">
-        <v>44012</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>43985</v>
-      </c>
-      <c r="B19" s="4">
-        <v>43985</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>22</v>
@@ -1383,251 +1416,251 @@
         <v>65</v>
       </c>
       <c r="F19" s="4">
+        <v>44012</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="4">
+        <v>43985</v>
+      </c>
+      <c r="B20" s="4">
+        <v>43985</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="5">
+        <v>65</v>
+      </c>
+      <c r="F20" s="4">
         <v>43904</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="G20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="4">
         <v>43980</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B21" s="4">
         <v>43980</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="5">
-        <v>231</v>
-      </c>
-      <c r="F20" s="4">
-        <v>43980</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
-        <v>44063</v>
-      </c>
-      <c r="B21" s="7">
-        <v>44068</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="5">
+        <v>231</v>
+      </c>
+      <c r="F21" s="4">
+        <v>43980</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="8">
+        <v>44063</v>
+      </c>
+      <c r="B22" s="7">
+        <v>44068</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="5">
         <v>72</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F22" s="4">
         <v>43958</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+      <c r="G22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="7">
         <v>43948</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B23" s="4">
         <v>43948</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E23" s="5">
         <v>136</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F23" s="4">
         <v>43906</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
+      <c r="G23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="7">
         <v>43942</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B24" s="4">
         <v>43942</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E24" s="5">
         <v>5</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F24" s="4">
         <v>43942</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+      <c r="G24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="4">
         <v>43941</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B25" s="4">
         <v>43944</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E25" s="5">
         <v>1</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F25" s="4">
         <v>43941</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="G25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="4">
         <v>43907</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B26" s="4">
         <v>43938</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="5">
-        <v>13</v>
-      </c>
-      <c r="F25" s="4">
+      <c r="E26" s="5">
+        <v>13</v>
+      </c>
+      <c r="F26" s="4">
         <v>43938</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+      <c r="G26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="4">
         <v>43927</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B27" s="4">
         <v>43935</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E27" s="5">
         <v>51</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F27" s="4">
         <v>43906</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+      <c r="G27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="4">
         <v>43925</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B28" s="4">
         <v>43925</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E28" s="5">
         <v>110</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F28" s="4">
         <v>43927</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>43916</v>
-      </c>
-      <c r="B28" s="4">
-        <v>43917</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="5">
-        <v>37</v>
-      </c>
-      <c r="F28" s="4">
-        <v>43916</v>
-      </c>
       <c r="G28" s="1" t="s">
         <v>10</v>
       </c>
@@ -1636,1294 +1669,1294 @@
       </c>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="4">
         <v>43916</v>
       </c>
       <c r="B29" s="4">
+        <v>43917</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="5">
+        <v>37</v>
+      </c>
+      <c r="F29" s="4">
+        <v>43916</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="4">
+        <v>43916</v>
+      </c>
+      <c r="B30" s="4">
         <v>43913</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E30" s="5">
         <v>146</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F30" s="4">
         <v>43898</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="1" t="s">
+      <c r="G30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+    <row r="31" spans="1:9">
+      <c r="A31" s="4">
         <v>43910</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B31" s="4">
         <v>43910</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E31" s="5">
         <v>87</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F31" s="4">
         <v>43910</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+      <c r="G31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="4">
         <v>43909</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B32" s="4">
         <v>43913</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E32" s="5">
         <v>110</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F32" s="4">
         <v>43906</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+      <c r="G32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="4">
         <v>43509</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B33" s="4">
         <v>43510</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E33" s="5">
         <v>1</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F33" s="4">
         <v>43567</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+      <c r="G33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="4">
         <v>43486</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B34" s="4">
         <v>43486</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E34" s="5">
         <v>59</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+      <c r="G34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="4">
         <v>43479</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B35" s="4">
         <v>43479</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E35" s="5">
         <v>62</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F35" s="4">
         <v>43542</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+      <c r="G35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="4">
         <v>43405</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B36" s="4">
         <v>43413</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="5">
-        <v>51</v>
-      </c>
-      <c r="F35" s="4">
-        <v>43131</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
-        <v>76277</v>
-      </c>
-      <c r="B36" s="4">
-        <v>43405</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E36" s="5">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="F36" s="4">
-        <v>43465</v>
+        <v>43131</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="4">
-        <v>76268</v>
+        <v>76277</v>
       </c>
       <c r="B37" s="4">
         <v>43405</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="5">
+        <v>92</v>
+      </c>
+      <c r="F37" s="4">
+        <v>43465</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="4">
+        <v>76268</v>
+      </c>
+      <c r="B38" s="4">
+        <v>43405</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E38" s="5">
         <v>181</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F38" s="4">
         <v>43469</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
+      <c r="G38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="4">
         <v>43382</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B39" s="4">
         <v>43382</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E39" s="5">
         <v>180</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F39" s="4">
         <v>43382</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
+      <c r="G39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="4">
         <v>43362</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B40" s="4">
         <v>43363</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E40" s="5">
         <v>83</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F40" s="4">
         <v>43434</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
+      <c r="G40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="4">
         <v>43273</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B41" s="4">
         <v>43276</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E41" s="5">
         <v>64</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F41" s="4">
         <v>43339</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" s="1" t="s">
+      <c r="G41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
+    <row r="42" spans="1:9">
+      <c r="A42" s="4">
         <v>43252</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B42" s="4">
         <v>43252</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E42" s="5">
         <v>149</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F42" s="4">
         <v>43312</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
+      <c r="G42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="4">
         <v>43042</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B43" s="4">
         <v>43042</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E43" s="5">
         <v>477</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F43" s="4">
         <v>43112</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" s="1" t="s">
+      <c r="G43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
+    <row r="44" spans="1:9">
+      <c r="A44" s="4">
         <v>42986</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B44" s="4">
         <v>42990</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E44" s="5">
         <v>171</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F44" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
+      <c r="G44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="4">
         <v>42495</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B45" s="4">
         <v>42496</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E45" s="5">
         <v>187</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F45" s="4">
         <v>42492</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
+      <c r="G45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="4">
         <v>42494</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B46" s="4">
         <v>42495</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E46" s="5">
         <v>20</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F46" s="4">
         <v>42551</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I45" s="1" t="s">
+      <c r="G46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
+    <row r="47" spans="1:9">
+      <c r="A47" s="4">
         <v>42468</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B47" s="4">
         <v>42468</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E47" s="5">
         <v>154</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F47" s="4">
         <v>42528</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
+      <c r="G47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="4">
         <v>42401</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B48" s="4">
         <v>42401</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E48" s="5">
         <v>60</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F48" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
+      <c r="G48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="4">
         <v>42384</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B49" s="4">
         <v>42384</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E49" s="5">
         <v>131</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F49" s="4">
         <v>42405</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
+      <c r="G49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="4">
         <v>42326</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B50" s="4">
         <v>42326</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E50" s="5">
         <v>241</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F50" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
+      <c r="G50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="4">
         <v>42318</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B51" s="4">
         <v>42320</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E51" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F51" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
+      <c r="G51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="4">
         <v>42178</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B52" s="4">
         <v>42180</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E52" s="5">
         <v>70</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F52" s="4">
         <v>42240</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
+      <c r="G52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="4">
         <v>42069</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B53" s="4">
         <v>42074</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E53" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F53" s="4">
         <v>42141</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" s="1" t="s">
+      <c r="G53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
+    <row r="54" spans="1:9">
+      <c r="A54" s="4">
         <v>42062</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B54" s="4">
         <v>42065</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E54" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F54" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
+      <c r="G54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="4">
         <v>41850</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B55" s="4">
         <v>41850</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E55" s="5">
         <v>5</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F55" s="4">
         <v>41912</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
+      <c r="G55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="4">
         <v>41820</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B56" s="4">
         <v>41821</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E56" s="5">
         <v>142</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F56" s="4">
         <v>41882</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
+      <c r="G56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="4">
         <v>41724</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B57" s="4">
         <v>41729</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E57" s="5">
         <v>115</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F57" s="4">
         <v>41774</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I56" s="1" t="s">
+      <c r="G57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
+    <row r="58" spans="1:9">
+      <c r="A58" s="4">
         <v>41593</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B58" s="4">
         <v>41596</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E58" s="5">
         <v>49</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F58" s="4">
         <v>41654</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
+      <c r="G58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="4">
         <v>41547</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B59" s="4">
         <v>41547</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E58" s="5">
-        <v>1</v>
-      </c>
-      <c r="F58" s="4">
-        <v>41608</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
-        <v>41495</v>
-      </c>
-      <c r="B59" s="4">
-        <v>41502</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E59" s="5">
+        <v>1</v>
+      </c>
+      <c r="F59" s="4">
+        <v>41608</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="4">
+        <v>41495</v>
+      </c>
+      <c r="B60" s="4">
+        <v>41502</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E60" s="5">
         <v>66</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F60" s="4">
         <v>41555</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
+      <c r="G60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="4">
         <v>41425</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B61" s="4">
         <v>41438</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E61" s="5">
         <v>3</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F61" s="4">
         <v>41425</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
+      <c r="G61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="4">
         <v>41416</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B62" s="4">
         <v>41417</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E62" s="5">
         <v>62</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F62" s="4">
         <v>41485</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
+      <c r="G62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="4">
         <v>41285</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B63" s="4">
         <v>41285</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E63" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F63" s="4">
         <v>41347</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
+      <c r="G63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="4">
         <v>41087</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B64" s="4">
         <v>41087</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E64" s="5">
         <v>51</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F64" s="4">
         <v>41148</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
+      <c r="G64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="4">
         <v>41011</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B65" s="4">
         <v>41011</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E64" s="5">
-        <v>150</v>
-      </c>
-      <c r="F64" s="4">
-        <v>41071</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
-        <v>40938</v>
-      </c>
-      <c r="B65" s="4">
-        <v>40939</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E65" s="5">
+        <v>150</v>
+      </c>
+      <c r="F65" s="4">
+        <v>41071</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="4">
+        <v>40938</v>
+      </c>
+      <c r="B66" s="4">
+        <v>40939</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E66" s="5">
         <v>70</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F66" s="4">
         <v>41000</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I65" s="1" t="s">
+      <c r="G66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
+    <row r="67" spans="1:9">
+      <c r="A67" s="4">
         <v>40833</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B67" s="4">
         <v>40833</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E67" s="5">
         <v>110</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F67" s="4">
         <v>40833</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
+      <c r="G67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="4">
         <v>40785</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B68" s="4">
         <v>40788</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E67" s="5">
-        <v>16</v>
-      </c>
-      <c r="F67" s="4">
-        <v>40846</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
-        <v>40752</v>
-      </c>
-      <c r="B68" s="4">
-        <v>40758</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E68" s="5">
+        <v>16</v>
+      </c>
+      <c r="F68" s="4">
+        <v>40846</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="4">
+        <v>40752</v>
+      </c>
+      <c r="B69" s="4">
+        <v>40758</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" s="5">
         <v>9</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F69" s="4">
         <v>40816</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
+      <c r="G69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="4">
         <v>40753</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B70" s="4">
         <v>40756</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E70" s="5">
         <v>98</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F70" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
+      <c r="G70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="4">
         <v>40688</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B71" s="4">
         <v>40690</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E71" s="5">
         <v>21</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F71" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
+      <c r="G71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="4">
         <v>40634</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B72" s="4">
         <v>40634</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E72" s="5">
         <v>98</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F72" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
+      <c r="G72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="4">
         <v>40589</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B73" s="4">
         <v>40589</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E73" s="5">
         <v>5</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F73" s="4">
         <v>40644</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
+      <c r="G73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="4">
         <v>40565</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B74" s="4">
         <v>40568</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E74" s="5">
         <v>122</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F74" s="4">
         <v>40592</v>
       </c>
-      <c r="G73" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
+      <c r="G74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="4">
         <v>40410</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B75" s="4">
         <v>40413</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E75" s="5">
         <v>89</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F75" s="4">
         <v>40452</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
+      <c r="G75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="4">
         <v>40392</v>
-      </c>
-      <c r="B75" s="4">
-        <v>40217</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E75" s="5">
-        <v>26</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
-        <v>40214</v>
       </c>
       <c r="B76" s="4">
         <v>40217</v>
@@ -2935,64 +2968,64 @@
         <v>114</v>
       </c>
       <c r="E76" s="5">
+        <v>26</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="4">
+        <v>40214</v>
+      </c>
+      <c r="B77" s="4">
+        <v>40217</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E77" s="5">
         <v>165</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F77" s="4">
         <v>40217</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
+      <c r="G77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="4">
         <v>40178</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B78" s="4">
         <v>40182</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E77" s="5">
-        <v>8</v>
-      </c>
-      <c r="F77" s="4">
-        <v>40210</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
-        <v>40137</v>
-      </c>
-      <c r="B78" s="4">
-        <v>40141</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E78" s="5">
-        <v>66</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>144</v>
+        <v>8</v>
+      </c>
+      <c r="F78" s="4">
+        <v>40210</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>13</v>
@@ -3002,7 +3035,7 @@
       </c>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9">
       <c r="A79" s="4">
         <v>40137</v>
       </c>
@@ -3010,87 +3043,87 @@
         <v>40141</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E79" s="5">
+        <v>66</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="4">
+        <v>40137</v>
+      </c>
+      <c r="B80" s="4">
+        <v>40141</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E80" s="5">
         <v>103</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="F80" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I79" s="1" t="s">
+      <c r="G80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="4">
+    <row r="81" spans="1:9">
+      <c r="A81" s="4">
         <v>40094</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B81" s="4">
         <v>40094</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E81" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F80" s="4">
+      <c r="F81" s="4">
         <v>40147</v>
       </c>
-      <c r="G80" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I80" s="2"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
+      <c r="G81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="4">
         <v>40091</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B82" s="4">
         <v>40091</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E81" s="5">
-        <v>63</v>
-      </c>
-      <c r="F81" s="4">
-        <v>40148</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I81" s="2"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
-        <v>40046</v>
-      </c>
-      <c r="B82" s="4">
-        <v>40050</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>124</v>
@@ -3098,48 +3131,48 @@
       <c r="D82" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E82" s="5">
+        <v>63</v>
+      </c>
+      <c r="F82" s="4">
+        <v>40148</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="4">
+        <v>40046</v>
+      </c>
+      <c r="B83" s="4">
+        <v>40050</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E83" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="F82" s="4">
-        <v>39895</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I82" s="2"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
-        <v>40007</v>
-      </c>
-      <c r="B83" s="4">
-        <v>40008</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E83" s="5">
-        <v>130</v>
       </c>
       <c r="F83" s="4">
         <v>39895</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9">
       <c r="A84" s="4">
         <v>40007</v>
       </c>
@@ -3147,302 +3180,329 @@
         <v>40008</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E84" s="5">
+        <v>130</v>
+      </c>
+      <c r="F84" s="4">
+        <v>39895</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="4">
+        <v>40007</v>
+      </c>
+      <c r="B85" s="4">
+        <v>40008</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E85" s="5">
         <v>26</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F85" s="4">
         <v>40001</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I84" s="2"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="4">
+      <c r="G85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="4">
         <v>39995</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B86" s="4">
         <v>39895</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E86" s="5">
         <v>14</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F86" s="4">
         <v>39895</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I85" s="2"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="4">
+      <c r="G86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="4">
         <v>39980</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B87" s="4">
         <v>39996</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E86" s="5">
-        <v>10</v>
-      </c>
-      <c r="F86" s="4">
+      <c r="E87" s="5">
+        <v>10</v>
+      </c>
+      <c r="F87" s="4">
         <v>40041</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I86" s="2"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="4">
+      <c r="G87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="4">
         <v>39931</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B88" s="4">
         <v>39932</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E87" s="5">
+      <c r="E88" s="5">
         <v>171</v>
-      </c>
-      <c r="F87" s="4">
-        <v>39994</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="4">
-        <v>39918</v>
-      </c>
-      <c r="B88" s="4">
-        <v>39918</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E88" s="5">
-        <v>55</v>
       </c>
       <c r="F88" s="4">
         <v>39994</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I88" s="2"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="4">
+        <v>39918</v>
+      </c>
+      <c r="B89" s="4">
+        <v>39918</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E89" s="5">
+        <v>55</v>
+      </c>
+      <c r="F89" s="4">
+        <v>39994</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I89" s="2"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="4">
         <v>39883</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B90" s="4">
         <v>39882</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E89" s="5">
+      <c r="E90" s="5">
         <v>29</v>
       </c>
-      <c r="F89" s="4">
+      <c r="F90" s="4">
         <v>39943</v>
       </c>
-      <c r="G89" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I89" s="2"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="4">
+      <c r="G90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="4">
         <v>39881</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B91" s="4">
         <v>39881</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E90" s="5">
+      <c r="E91" s="5">
         <v>71</v>
       </c>
-      <c r="F90" s="4">
+      <c r="F91" s="4">
         <v>39941</v>
       </c>
-      <c r="G90" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I90" s="2"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="4">
+      <c r="G91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="4">
         <v>39876</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B92" s="4">
         <v>39878</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E91" s="5">
+      <c r="E92" s="5">
         <v>54</v>
       </c>
-      <c r="F91" s="4">
+      <c r="F92" s="4">
         <v>39935</v>
       </c>
-      <c r="G91" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I91" s="2"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="4">
+      <c r="G92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I92" s="2"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="4">
         <v>39877</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B93" s="4">
         <v>39877</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E92" s="5">
+      <c r="E93" s="5">
         <v>119</v>
       </c>
-      <c r="F92" s="4">
+      <c r="F93" s="4">
         <v>39943</v>
       </c>
-      <c r="G92" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I92" s="2"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="4">
+      <c r="G93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I93" s="2"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="4">
         <v>39863</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B94" s="4">
         <v>39864</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E93" s="5">
+      <c r="E94" s="5">
         <v>270</v>
       </c>
-      <c r="F93" s="4">
+      <c r="F94" s="4">
         <v>39828</v>
       </c>
-      <c r="G93" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I93" s="2"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="4">
+      <c r="G94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="4">
         <v>39832</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B95" s="4">
         <v>39825</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E94" s="5">
+      <c r="E95" s="5">
         <v>121</v>
       </c>
-      <c r="F94" s="4">
+      <c r="F95" s="4">
         <v>39821</v>
       </c>
-      <c r="G94" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I94" s="2"/>
+      <c r="G95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I95" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/warn-scraper/cache/ri/WARN Report.xlsx
+++ b/data/warn-scraper/cache/ri/WARN Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathaniel.M.Wilson\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marjorie.Cassion\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A80A1C-B2A9-4A9B-B2A3-315D9EBF778F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B67A57A7-C071-4270-839E-EB95DB8A3E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="150">
   <si>
     <t>WARN Date</t>
   </si>
@@ -478,13 +478,19 @@
   </si>
   <si>
     <t>BayFirst Financial Corporation </t>
+  </si>
+  <si>
+    <t>Monitronics International Inc (Brinks Home)</t>
+  </si>
+  <si>
+    <t>Dallas, Texas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -544,6 +550,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Nue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helevetica Nue"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -582,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -614,6 +630,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -928,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3738B5CD-B8C2-F94D-89AB-E4F2B5C04FF4}">
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
@@ -1011,161 +1035,161 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A5" s="4">
+    <row r="5" spans="1:9" ht="21">
+      <c r="A5" s="13">
+        <v>44930</v>
+      </c>
+      <c r="B5" s="13">
+        <v>44937</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="15">
+        <v>81</v>
+      </c>
+      <c r="F5" s="13">
+        <v>44990</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A6" s="4">
         <v>44827</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B6" s="4">
         <v>44831</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E6" s="9">
         <v>1</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F6" s="4">
         <v>44890</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="4">
-        <v>44817</v>
-      </c>
-      <c r="B6" s="4">
-        <v>44817</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="9">
-        <v>77</v>
-      </c>
-      <c r="F6" s="4">
-        <v>44880</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="4"/>
+      <c r="G6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4">
-        <v>44595</v>
+        <v>44817</v>
       </c>
       <c r="B7" s="4">
-        <v>44594</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="5">
-        <v>198</v>
+        <v>44817</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="9">
+        <v>77</v>
       </c>
       <c r="F7" s="4">
-        <v>44659</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="2"/>
+        <v>44880</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4">
-        <v>44334</v>
+        <v>44595</v>
       </c>
       <c r="B8" s="4">
-        <v>44336</v>
+        <v>44594</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E8" s="5">
-        <v>94</v>
+        <v>198</v>
       </c>
       <c r="F8" s="4">
-        <v>44394</v>
+        <v>44659</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4">
-        <v>44342</v>
+        <v>44334</v>
       </c>
       <c r="B9" s="4">
-        <v>44342</v>
+        <v>44336</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E9" s="5">
-        <v>464</v>
+        <v>94</v>
       </c>
       <c r="F9" s="4">
-        <v>44403</v>
+        <v>44394</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="4">
-        <v>44105</v>
+        <v>44342</v>
       </c>
       <c r="B10" s="4">
-        <v>44104</v>
+        <v>44342</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" s="5">
-        <v>13</v>
+        <v>464</v>
       </c>
       <c r="F10" s="4">
-        <v>44104</v>
+        <v>44403</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>10</v>
@@ -1177,22 +1201,22 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4">
-        <v>44064</v>
+        <v>44105</v>
       </c>
       <c r="B11" s="4">
-        <v>44068</v>
+        <v>44104</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11" s="5">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F11" s="4">
-        <v>44061</v>
+        <v>44104</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>10</v>
@@ -1204,22 +1228,22 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4">
-        <v>44057</v>
+        <v>44064</v>
       </c>
       <c r="B12" s="4">
-        <v>44060</v>
+        <v>44068</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" s="5">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="F12" s="4">
-        <v>44057</v>
+        <v>44061</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>10</v>
@@ -1231,51 +1255,49 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="4">
-        <v>44049</v>
+        <v>44057</v>
       </c>
       <c r="B13" s="4">
-        <v>44056</v>
+        <v>44060</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="5">
-        <v>272</v>
+        <v>106</v>
       </c>
       <c r="F13" s="4">
-        <v>43914</v>
+        <v>44057</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="4">
-        <v>44054</v>
+        <v>44049</v>
       </c>
       <c r="B14" s="4">
-        <v>44040</v>
+        <v>44056</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14" s="5">
-        <v>1043</v>
+        <v>272</v>
       </c>
       <c r="F14" s="4">
-        <v>44104</v>
+        <v>43914</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>10</v>
@@ -1295,13 +1317,13 @@
         <v>44040</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="5">
-        <v>296</v>
+        <v>1043</v>
       </c>
       <c r="F15" s="4">
         <v>44104</v>
@@ -1318,105 +1340,107 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4">
-        <v>44046</v>
+        <v>44054</v>
       </c>
       <c r="B16" s="4">
-        <v>44042</v>
+        <v>44040</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E16" s="5">
-        <v>73</v>
+        <v>296</v>
       </c>
       <c r="F16" s="4">
-        <v>44075</v>
+        <v>44104</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4">
-        <v>44027</v>
+        <v>44046</v>
       </c>
       <c r="B17" s="4">
-        <v>44022</v>
+        <v>44042</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E17" s="5">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="F17" s="4">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4">
-        <v>44004</v>
+        <v>44027</v>
       </c>
       <c r="B18" s="4">
-        <v>44004</v>
+        <v>44022</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E18" s="5">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="F18" s="4">
-        <v>43973</v>
+        <v>44044</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4">
-        <v>44012</v>
+        <v>44004</v>
       </c>
       <c r="B19" s="4">
-        <v>44012</v>
+        <v>44004</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E19" s="5">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F19" s="4">
-        <v>44012</v>
+        <v>43973</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>10</v>
@@ -1428,13 +1452,13 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4">
-        <v>43985</v>
+        <v>44012</v>
       </c>
       <c r="B20" s="4">
-        <v>43985</v>
+        <v>44012</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>22</v>
@@ -1443,7 +1467,7 @@
         <v>65</v>
       </c>
       <c r="F20" s="4">
-        <v>43904</v>
+        <v>44012</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>10</v>
@@ -1455,76 +1479,76 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4">
+        <v>43985</v>
+      </c>
+      <c r="B21" s="4">
+        <v>43985</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="5">
+        <v>65</v>
+      </c>
+      <c r="F21" s="4">
+        <v>43904</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="4">
         <v>43980</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B22" s="4">
         <v>43980</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="5">
-        <v>231</v>
-      </c>
-      <c r="F21" s="4">
-        <v>43980</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="8">
-        <v>44063</v>
-      </c>
-      <c r="B22" s="7">
-        <v>44068</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="5">
+        <v>231</v>
+      </c>
+      <c r="F22" s="4">
+        <v>43980</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="8">
+        <v>44063</v>
+      </c>
+      <c r="B23" s="7">
+        <v>44068</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="5">
         <v>72</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F23" s="4">
         <v>43958</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="7">
-        <v>43948</v>
-      </c>
-      <c r="B23" s="4">
-        <v>43948</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E23" s="5">
-        <v>136</v>
-      </c>
-      <c r="F23" s="4">
-        <v>43906</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>10</v>
@@ -1536,49 +1560,49 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="7">
+        <v>43948</v>
+      </c>
+      <c r="B24" s="4">
+        <v>43948</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="5">
+        <v>136</v>
+      </c>
+      <c r="F24" s="4">
+        <v>43906</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="7">
         <v>43942</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B25" s="4">
         <v>43942</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E25" s="5">
         <v>5</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F25" s="4">
         <v>43942</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="4">
-        <v>43941</v>
-      </c>
-      <c r="B25" s="4">
-        <v>43944</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="5">
-        <v>1</v>
-      </c>
-      <c r="F25" s="4">
-        <v>43941</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>10</v>
@@ -1590,22 +1614,22 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4">
-        <v>43907</v>
+        <v>43941</v>
       </c>
       <c r="B26" s="4">
-        <v>43938</v>
+        <v>43944</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E26" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F26" s="4">
-        <v>43938</v>
+        <v>43941</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>10</v>
@@ -1617,22 +1641,22 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="4">
-        <v>43927</v>
+        <v>43907</v>
       </c>
       <c r="B27" s="4">
-        <v>43935</v>
+        <v>43938</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E27" s="5">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="F27" s="4">
-        <v>43906</v>
+        <v>43938</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>10</v>
@@ -1644,22 +1668,22 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="4">
-        <v>43925</v>
+        <v>43927</v>
       </c>
       <c r="B28" s="4">
-        <v>43925</v>
+        <v>43935</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E28" s="5">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="F28" s="4">
-        <v>43927</v>
+        <v>43906</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>10</v>
@@ -1671,22 +1695,22 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="4">
-        <v>43916</v>
+        <v>43925</v>
       </c>
       <c r="B29" s="4">
-        <v>43917</v>
+        <v>43925</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E29" s="5">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="F29" s="4">
-        <v>43916</v>
+        <v>43927</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>10</v>
@@ -1701,75 +1725,75 @@
         <v>43916</v>
       </c>
       <c r="B30" s="4">
-        <v>43913</v>
+        <v>43917</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E30" s="5">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="F30" s="4">
-        <v>43898</v>
+        <v>43916</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="4">
-        <v>43910</v>
+        <v>43916</v>
       </c>
       <c r="B31" s="4">
-        <v>43910</v>
+        <v>43913</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E31" s="5">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="F31" s="4">
-        <v>43910</v>
+        <v>43898</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="4">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B32" s="4">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E32" s="5">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="F32" s="4">
-        <v>43906</v>
+        <v>43910</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>10</v>
@@ -1781,25 +1805,25 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="4">
-        <v>43509</v>
+        <v>43909</v>
       </c>
       <c r="B33" s="4">
-        <v>43510</v>
+        <v>43913</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E33" s="5">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="F33" s="4">
-        <v>43567</v>
+        <v>43906</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>10</v>
@@ -1808,22 +1832,22 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="4">
-        <v>43486</v>
+        <v>43509</v>
       </c>
       <c r="B34" s="4">
-        <v>43486</v>
+        <v>43510</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E34" s="5">
-        <v>59</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>140</v>
+        <v>1</v>
+      </c>
+      <c r="F34" s="4">
+        <v>43567</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>13</v>
@@ -1835,22 +1859,22 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="4">
-        <v>43479</v>
+        <v>43486</v>
       </c>
       <c r="B35" s="4">
-        <v>43479</v>
+        <v>43486</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E35" s="5">
-        <v>62</v>
-      </c>
-      <c r="F35" s="4">
-        <v>43542</v>
+        <v>59</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>13</v>
@@ -1862,25 +1886,25 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="4">
-        <v>43405</v>
+        <v>43479</v>
       </c>
       <c r="B36" s="4">
-        <v>43413</v>
+        <v>43479</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E36" s="5">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F36" s="4">
-        <v>43131</v>
+        <v>43542</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>10</v>
@@ -1889,25 +1913,25 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="4">
-        <v>76277</v>
+        <v>43405</v>
       </c>
       <c r="B37" s="4">
-        <v>43405</v>
+        <v>43413</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E37" s="5">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="F37" s="4">
-        <v>43465</v>
+        <v>43131</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>10</v>
@@ -1916,22 +1940,22 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="4">
-        <v>76268</v>
+        <v>76277</v>
       </c>
       <c r="B38" s="4">
         <v>43405</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E38" s="5">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="F38" s="4">
-        <v>43469</v>
+        <v>43465</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>13</v>
@@ -1943,22 +1967,22 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4">
-        <v>43382</v>
+        <v>76268</v>
       </c>
       <c r="B39" s="4">
-        <v>43382</v>
+        <v>43405</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E39" s="5">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F39" s="4">
-        <v>43382</v>
+        <v>43469</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>13</v>
@@ -1970,22 +1994,22 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4">
-        <v>43362</v>
+        <v>43382</v>
       </c>
       <c r="B40" s="4">
-        <v>43363</v>
+        <v>43382</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="E40" s="5">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="F40" s="4">
-        <v>43434</v>
+        <v>43382</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>13</v>
@@ -1997,134 +2021,134 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="4">
-        <v>43273</v>
+        <v>43362</v>
       </c>
       <c r="B41" s="4">
-        <v>43276</v>
+        <v>43363</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E41" s="5">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="F41" s="4">
-        <v>43339</v>
+        <v>43434</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4">
-        <v>43252</v>
+        <v>43273</v>
       </c>
       <c r="B42" s="4">
-        <v>43252</v>
+        <v>43276</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="5">
         <v>64</v>
       </c>
-      <c r="E42" s="5">
-        <v>149</v>
-      </c>
       <c r="F42" s="4">
-        <v>43312</v>
+        <v>43339</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="4">
-        <v>43042</v>
+        <v>43252</v>
       </c>
       <c r="B43" s="4">
-        <v>43042</v>
+        <v>43252</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="E43" s="5">
-        <v>477</v>
+        <v>149</v>
       </c>
       <c r="F43" s="4">
-        <v>43112</v>
+        <v>43312</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="4">
-        <v>42986</v>
+        <v>43042</v>
       </c>
       <c r="B44" s="4">
-        <v>42990</v>
+        <v>43042</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E44" s="5">
-        <v>171</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>141</v>
+        <v>477</v>
+      </c>
+      <c r="F44" s="4">
+        <v>43112</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="4">
-        <v>42495</v>
+        <v>42986</v>
       </c>
       <c r="B45" s="4">
-        <v>42496</v>
+        <v>42990</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="E45" s="5">
-        <v>187</v>
-      </c>
-      <c r="F45" s="4">
-        <v>42492</v>
+        <v>171</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>13</v>
@@ -2136,81 +2160,81 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="4">
-        <v>42494</v>
+        <v>42495</v>
       </c>
       <c r="B46" s="4">
-        <v>42495</v>
+        <v>42496</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E46" s="5">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="F46" s="4">
-        <v>42551</v>
+        <v>42492</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="4">
-        <v>42468</v>
+        <v>42494</v>
       </c>
       <c r="B47" s="4">
-        <v>42468</v>
+        <v>42495</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="E47" s="5">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="F47" s="4">
-        <v>42528</v>
+        <v>42551</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="4">
-        <v>42401</v>
+        <v>42468</v>
       </c>
       <c r="B48" s="4">
-        <v>42401</v>
+        <v>42468</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E48" s="5">
-        <v>60</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>142</v>
+        <v>154</v>
+      </c>
+      <c r="F48" s="4">
+        <v>42528</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>10</v>
@@ -2219,22 +2243,22 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="4">
-        <v>42384</v>
+        <v>42401</v>
       </c>
       <c r="B49" s="4">
-        <v>42384</v>
+        <v>42401</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E49" s="5">
-        <v>131</v>
-      </c>
-      <c r="F49" s="4">
-        <v>42405</v>
+        <v>60</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>13</v>
@@ -2246,25 +2270,25 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="4">
-        <v>42326</v>
+        <v>42384</v>
       </c>
       <c r="B50" s="4">
-        <v>42326</v>
+        <v>42384</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E50" s="5">
-        <v>241</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>77</v>
+        <v>131</v>
+      </c>
+      <c r="F50" s="4">
+        <v>42405</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>10</v>
@@ -2273,25 +2297,25 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="4">
-        <v>42318</v>
+        <v>42326</v>
       </c>
       <c r="B51" s="4">
-        <v>42320</v>
+        <v>42326</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>79</v>
+        <v>22</v>
+      </c>
+      <c r="E51" s="5">
+        <v>241</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>10</v>
@@ -2300,25 +2324,25 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="4">
-        <v>42178</v>
+        <v>42318</v>
       </c>
       <c r="B52" s="4">
-        <v>42180</v>
+        <v>42320</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" s="5">
-        <v>70</v>
-      </c>
-      <c r="F52" s="4">
-        <v>42240</v>
+        <v>9</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>10</v>
@@ -2327,78 +2351,78 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="4">
-        <v>42069</v>
+        <v>42178</v>
       </c>
       <c r="B53" s="4">
-        <v>42074</v>
+        <v>42180</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>83</v>
+        <v>22</v>
+      </c>
+      <c r="E53" s="5">
+        <v>70</v>
       </c>
       <c r="F53" s="4">
-        <v>42141</v>
+        <v>42240</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="4">
-        <v>42062</v>
+        <v>42069</v>
       </c>
       <c r="B54" s="4">
-        <v>42065</v>
+        <v>42074</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="F54" s="4">
+        <v>42141</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I54" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="4">
-        <v>41850</v>
+        <v>42062</v>
       </c>
       <c r="B55" s="4">
-        <v>41850</v>
+        <v>42065</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E55" s="5">
-        <v>5</v>
-      </c>
-      <c r="F55" s="4">
-        <v>41912</v>
+        <v>30</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>10</v>
@@ -2410,22 +2434,22 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="4">
-        <v>41820</v>
+        <v>41850</v>
       </c>
       <c r="B56" s="4">
-        <v>41821</v>
+        <v>41850</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="E56" s="5">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="F56" s="4">
-        <v>41882</v>
+        <v>41912</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>10</v>
@@ -2437,78 +2461,78 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="4">
-        <v>41724</v>
+        <v>41820</v>
       </c>
       <c r="B57" s="4">
-        <v>41729</v>
+        <v>41821</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E57" s="5">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="F57" s="4">
-        <v>41774</v>
+        <v>41882</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="4">
-        <v>41593</v>
+        <v>41724</v>
       </c>
       <c r="B58" s="4">
-        <v>41596</v>
+        <v>41729</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E58" s="5">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="F58" s="4">
-        <v>41654</v>
+        <v>41774</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I58" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="4">
-        <v>41547</v>
+        <v>41593</v>
       </c>
       <c r="B59" s="4">
-        <v>41547</v>
+        <v>41596</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E59" s="5">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F59" s="4">
-        <v>41608</v>
+        <v>41654</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>13</v>
@@ -2520,25 +2544,25 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="4">
-        <v>41495</v>
+        <v>41547</v>
       </c>
       <c r="B60" s="4">
-        <v>41502</v>
+        <v>41547</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E60" s="5">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="F60" s="4">
-        <v>41555</v>
+        <v>41608</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>10</v>
@@ -2547,25 +2571,25 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="4">
-        <v>41425</v>
+        <v>41495</v>
       </c>
       <c r="B61" s="4">
-        <v>41438</v>
+        <v>41502</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E61" s="5">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="F61" s="4">
-        <v>41425</v>
+        <v>41555</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>10</v>
@@ -2574,76 +2598,76 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="4">
-        <v>41416</v>
+        <v>41425</v>
       </c>
       <c r="B62" s="4">
-        <v>41417</v>
+        <v>41438</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E62" s="5">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="F62" s="4">
-        <v>41485</v>
+        <v>41425</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="4">
-        <v>41285</v>
+        <v>41416</v>
       </c>
       <c r="B63" s="4">
-        <v>41285</v>
+        <v>41417</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>79</v>
+        <v>50</v>
+      </c>
+      <c r="E63" s="5">
+        <v>62</v>
       </c>
       <c r="F63" s="4">
-        <v>41347</v>
+        <v>41485</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="4">
-        <v>41087</v>
+        <v>41285</v>
       </c>
       <c r="B64" s="4">
-        <v>41087</v>
+        <v>41285</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E64" s="5">
-        <v>51</v>
+        <v>98</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="F64" s="4">
-        <v>41148</v>
+        <v>41347</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>13</v>
@@ -2655,51 +2679,49 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="4">
-        <v>41011</v>
+        <v>41087</v>
       </c>
       <c r="B65" s="4">
-        <v>41011</v>
+        <v>41087</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E65" s="5">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="F65" s="4">
-        <v>41071</v>
+        <v>41148</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>101</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="4">
-        <v>40938</v>
+        <v>41011</v>
       </c>
       <c r="B66" s="4">
-        <v>40939</v>
+        <v>41011</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E66" s="5">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="F66" s="4">
-        <v>41000</v>
+        <v>41071</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>13</v>
@@ -2708,54 +2730,56 @@
         <v>13</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="4">
-        <v>40833</v>
+        <v>40938</v>
       </c>
       <c r="B67" s="4">
-        <v>40833</v>
+        <v>40939</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E67" s="5">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="F67" s="4">
-        <v>40833</v>
+        <v>41000</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I67" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="4">
-        <v>40785</v>
+        <v>40833</v>
       </c>
       <c r="B68" s="4">
-        <v>40788</v>
+        <v>40833</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E68" s="5">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="F68" s="4">
-        <v>40846</v>
+        <v>40833</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>13</v>
@@ -2767,22 +2791,22 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="4">
-        <v>40752</v>
+        <v>40785</v>
       </c>
       <c r="B69" s="4">
-        <v>40758</v>
+        <v>40788</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E69" s="5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F69" s="4">
-        <v>40816</v>
+        <v>40846</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>13</v>
@@ -2794,22 +2818,22 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="4">
-        <v>40753</v>
+        <v>40752</v>
       </c>
       <c r="B70" s="4">
-        <v>40756</v>
+        <v>40758</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E70" s="5">
-        <v>98</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>143</v>
+        <v>9</v>
+      </c>
+      <c r="F70" s="4">
+        <v>40816</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>13</v>
@@ -2821,22 +2845,22 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="4">
-        <v>40688</v>
+        <v>40753</v>
       </c>
       <c r="B71" s="4">
-        <v>40690</v>
+        <v>40756</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="E71" s="5">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>13</v>
@@ -2848,22 +2872,22 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="4">
-        <v>40634</v>
+        <v>40688</v>
       </c>
       <c r="B72" s="4">
-        <v>40634</v>
+        <v>40690</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="E72" s="5">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>13</v>
@@ -2875,25 +2899,25 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="4">
-        <v>40589</v>
+        <v>40634</v>
       </c>
       <c r="B73" s="4">
-        <v>40589</v>
+        <v>40634</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="E73" s="5">
-        <v>5</v>
-      </c>
-      <c r="F73" s="4">
-        <v>40644</v>
+        <v>98</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>10</v>
@@ -2902,22 +2926,22 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="4">
-        <v>40565</v>
+        <v>40589</v>
       </c>
       <c r="B74" s="4">
-        <v>40568</v>
+        <v>40589</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="E74" s="5">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="F74" s="4">
-        <v>40592</v>
+        <v>40644</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>10</v>
@@ -2929,22 +2953,22 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="4">
-        <v>40410</v>
+        <v>40565</v>
       </c>
       <c r="B75" s="4">
-        <v>40413</v>
+        <v>40568</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E75" s="5">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="F75" s="4">
-        <v>40452</v>
+        <v>40592</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>10</v>
@@ -2956,22 +2980,22 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="4">
-        <v>40392</v>
+        <v>40410</v>
       </c>
       <c r="B76" s="4">
-        <v>40217</v>
+        <v>40413</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="E76" s="5">
-        <v>26</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>118</v>
+        <v>89</v>
+      </c>
+      <c r="F76" s="4">
+        <v>40452</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>10</v>
@@ -2983,7 +3007,7 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="4">
-        <v>40214</v>
+        <v>40392</v>
       </c>
       <c r="B77" s="4">
         <v>40217</v>
@@ -2995,10 +3019,10 @@
         <v>114</v>
       </c>
       <c r="E77" s="5">
-        <v>165</v>
-      </c>
-      <c r="F77" s="4">
-        <v>40217</v>
+        <v>26</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>10</v>
@@ -3010,25 +3034,25 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="4">
-        <v>40178</v>
+        <v>40214</v>
       </c>
       <c r="B78" s="4">
-        <v>40182</v>
+        <v>40217</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="E78" s="5">
-        <v>8</v>
+        <v>165</v>
       </c>
       <c r="F78" s="4">
-        <v>40210</v>
+        <v>40217</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>10</v>
@@ -3037,22 +3061,22 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="4">
-        <v>40137</v>
+        <v>40178</v>
       </c>
       <c r="B79" s="4">
-        <v>40141</v>
+        <v>40182</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E79" s="5">
-        <v>66</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>144</v>
+        <v>8</v>
+      </c>
+      <c r="F79" s="4">
+        <v>40210</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>13</v>
@@ -3070,72 +3094,72 @@
         <v>40141</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E80" s="5">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>122</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I80" s="1"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="4">
-        <v>40094</v>
+        <v>40137</v>
       </c>
       <c r="B81" s="4">
-        <v>40094</v>
+        <v>40141</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F81" s="4">
-        <v>40147</v>
+        <v>26</v>
+      </c>
+      <c r="E81" s="5">
+        <v>103</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I81" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="4">
-        <v>40091</v>
+        <v>40094</v>
       </c>
       <c r="B82" s="4">
-        <v>40091</v>
+        <v>40094</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E82" s="5">
-        <v>63</v>
+        <v>22</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="F82" s="4">
-        <v>40148</v>
+        <v>40147</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>10</v>
@@ -3147,10 +3171,10 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="4">
-        <v>40046</v>
+        <v>40091</v>
       </c>
       <c r="B83" s="4">
-        <v>40050</v>
+        <v>40091</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>124</v>
@@ -3158,11 +3182,11 @@
       <c r="D83" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E83" s="5" t="s">
-        <v>125</v>
+      <c r="E83" s="5">
+        <v>63</v>
       </c>
       <c r="F83" s="4">
-        <v>39895</v>
+        <v>40148</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>10</v>
@@ -3174,25 +3198,25 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="4">
-        <v>40007</v>
+        <v>40046</v>
       </c>
       <c r="B84" s="4">
-        <v>40008</v>
+        <v>40050</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E84" s="5">
-        <v>130</v>
+        <v>26</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="F84" s="4">
         <v>39895</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>10</v>
@@ -3207,16 +3231,16 @@
         <v>40008</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="E85" s="5">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="F85" s="4">
-        <v>40001</v>
+        <v>39895</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>13</v>
@@ -3228,25 +3252,25 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="4">
-        <v>39995</v>
+        <v>40007</v>
       </c>
       <c r="B86" s="4">
-        <v>39895</v>
+        <v>40008</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="5">
         <v>26</v>
       </c>
-      <c r="E86" s="5">
-        <v>14</v>
-      </c>
       <c r="F86" s="4">
-        <v>39895</v>
+        <v>40001</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>10</v>
@@ -3255,22 +3279,22 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="4">
-        <v>39980</v>
+        <v>39995</v>
       </c>
       <c r="B87" s="4">
-        <v>39996</v>
+        <v>39895</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="E87" s="5">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F87" s="4">
-        <v>40041</v>
+        <v>39895</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>10</v>
@@ -3282,78 +3306,78 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="4">
-        <v>39931</v>
+        <v>39980</v>
       </c>
       <c r="B88" s="4">
-        <v>39932</v>
+        <v>39996</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="E88" s="5">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="F88" s="4">
-        <v>39994</v>
+        <v>40041</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>132</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I88" s="2"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="4">
-        <v>39918</v>
+        <v>39931</v>
       </c>
       <c r="B89" s="4">
-        <v>39918</v>
+        <v>39932</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="E89" s="5">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="F89" s="4">
         <v>39994</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I89" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="4">
-        <v>39883</v>
+        <v>39918</v>
       </c>
       <c r="B90" s="4">
-        <v>39882</v>
+        <v>39918</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="E90" s="5">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F90" s="4">
-        <v>39943</v>
+        <v>39994</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>13</v>
@@ -3365,25 +3389,25 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="4">
-        <v>39881</v>
+        <v>39883</v>
       </c>
       <c r="B91" s="4">
-        <v>39881</v>
+        <v>39882</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E91" s="5">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="F91" s="4">
-        <v>39941</v>
+        <v>39943</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>10</v>
@@ -3392,25 +3416,25 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="4">
-        <v>39876</v>
+        <v>39881</v>
       </c>
       <c r="B92" s="4">
-        <v>39878</v>
+        <v>39881</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E92" s="5">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F92" s="4">
-        <v>39935</v>
+        <v>39941</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>10</v>
@@ -3419,22 +3443,22 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="4">
-        <v>39877</v>
+        <v>39876</v>
       </c>
       <c r="B93" s="4">
-        <v>39877</v>
+        <v>39878</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E93" s="5">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="F93" s="4">
-        <v>39943</v>
+        <v>39935</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>13</v>
@@ -3446,22 +3470,22 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="4">
-        <v>39863</v>
+        <v>39877</v>
       </c>
       <c r="B94" s="4">
-        <v>39864</v>
+        <v>39877</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="E94" s="5">
-        <v>270</v>
+        <v>119</v>
       </c>
       <c r="F94" s="4">
-        <v>39828</v>
+        <v>39943</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>13</v>
@@ -3473,30 +3497,57 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="4">
+        <v>39863</v>
+      </c>
+      <c r="B95" s="4">
+        <v>39864</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E95" s="5">
+        <v>270</v>
+      </c>
+      <c r="F95" s="4">
+        <v>39828</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I95" s="2"/>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="4">
         <v>39832</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B96" s="4">
         <v>39825</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E95" s="5">
+      <c r="E96" s="5">
         <v>121</v>
       </c>
-      <c r="F95" s="4">
+      <c r="F96" s="4">
         <v>39821</v>
       </c>
-      <c r="G95" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I95" s="2"/>
+      <c r="G96" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I96" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/warn-scraper/cache/ri/WARN Report.xlsx
+++ b/data/warn-scraper/cache/ri/WARN Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marjorie.Cassion\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B67A57A7-C071-4270-839E-EB95DB8A3E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73CA29DE-2DAA-4A45-A1DC-1CA62EA6CD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="151">
   <si>
     <t>WARN Date</t>
   </si>
@@ -484,6 +484,9 @@
   </si>
   <si>
     <t>Dallas, Texas</t>
+  </si>
+  <si>
+    <t>Northeast Transportation Services LLC</t>
   </si>
 </sst>
 </file>
@@ -598,7 +601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -627,9 +630,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -638,6 +638,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -952,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3738B5CD-B8C2-F94D-89AB-E4F2B5C04FF4}">
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
@@ -972,28 +984,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="31.5">
       <c r="A3" s="6"/>
@@ -1035,188 +1047,190 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="21">
-      <c r="A5" s="13">
+    <row r="5" spans="1:9">
+      <c r="A5" s="18">
+        <v>44949</v>
+      </c>
+      <c r="B5" s="17">
+        <v>44950</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="19">
+        <v>70</v>
+      </c>
+      <c r="F5" s="17">
+        <v>45010</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="21">
+      <c r="A6" s="12">
         <v>44930</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B6" s="12">
         <v>44937</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E6" s="14">
         <v>81</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F6" s="12">
         <v>44990</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A6" s="4">
+      <c r="G6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A7" s="4">
         <v>44827</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B7" s="4">
         <v>44831</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E7" s="9">
         <v>1</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F7" s="4">
         <v>44890</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="4">
-        <v>44817</v>
-      </c>
-      <c r="B7" s="4">
-        <v>44817</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="9">
-        <v>77</v>
-      </c>
-      <c r="F7" s="4">
-        <v>44880</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="4"/>
+      <c r="G7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4">
-        <v>44595</v>
+        <v>44817</v>
       </c>
       <c r="B8" s="4">
-        <v>44594</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="5">
-        <v>198</v>
+        <v>44817</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="9">
+        <v>77</v>
       </c>
       <c r="F8" s="4">
-        <v>44659</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="2"/>
+        <v>44880</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4">
-        <v>44334</v>
+        <v>44595</v>
       </c>
       <c r="B9" s="4">
-        <v>44336</v>
+        <v>44594</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E9" s="5">
-        <v>94</v>
+        <v>198</v>
       </c>
       <c r="F9" s="4">
-        <v>44394</v>
+        <v>44659</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="4">
-        <v>44342</v>
+        <v>44334</v>
       </c>
       <c r="B10" s="4">
-        <v>44342</v>
+        <v>44336</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E10" s="5">
-        <v>464</v>
+        <v>94</v>
       </c>
       <c r="F10" s="4">
-        <v>44403</v>
+        <v>44394</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4">
-        <v>44105</v>
+        <v>44342</v>
       </c>
       <c r="B11" s="4">
-        <v>44104</v>
+        <v>44342</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E11" s="5">
-        <v>13</v>
+        <v>464</v>
       </c>
       <c r="F11" s="4">
-        <v>44104</v>
+        <v>44403</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>10</v>
@@ -1228,22 +1242,22 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4">
-        <v>44064</v>
+        <v>44105</v>
       </c>
       <c r="B12" s="4">
-        <v>44068</v>
+        <v>44104</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E12" s="5">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F12" s="4">
-        <v>44061</v>
+        <v>44104</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>10</v>
@@ -1255,22 +1269,22 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="4">
-        <v>44057</v>
+        <v>44064</v>
       </c>
       <c r="B13" s="4">
-        <v>44060</v>
+        <v>44068</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" s="5">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="F13" s="4">
-        <v>44057</v>
+        <v>44061</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>10</v>
@@ -1282,51 +1296,49 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="4">
-        <v>44049</v>
+        <v>44057</v>
       </c>
       <c r="B14" s="4">
-        <v>44056</v>
+        <v>44060</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="5">
-        <v>272</v>
+        <v>106</v>
       </c>
       <c r="F14" s="4">
-        <v>43914</v>
+        <v>44057</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="4">
-        <v>44054</v>
+        <v>44049</v>
       </c>
       <c r="B15" s="4">
-        <v>44040</v>
+        <v>44056</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15" s="5">
-        <v>1043</v>
+        <v>272</v>
       </c>
       <c r="F15" s="4">
-        <v>44104</v>
+        <v>43914</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>10</v>
@@ -1346,13 +1358,13 @@
         <v>44040</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="5">
-        <v>296</v>
+        <v>1043</v>
       </c>
       <c r="F16" s="4">
         <v>44104</v>
@@ -1369,105 +1381,107 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4">
-        <v>44046</v>
+        <v>44054</v>
       </c>
       <c r="B17" s="4">
-        <v>44042</v>
+        <v>44040</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E17" s="5">
-        <v>73</v>
+        <v>296</v>
       </c>
       <c r="F17" s="4">
-        <v>44075</v>
+        <v>44104</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4">
-        <v>44027</v>
+        <v>44046</v>
       </c>
       <c r="B18" s="4">
-        <v>44022</v>
+        <v>44042</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E18" s="5">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="F18" s="4">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4">
-        <v>44004</v>
+        <v>44027</v>
       </c>
       <c r="B19" s="4">
-        <v>44004</v>
+        <v>44022</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E19" s="5">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="F19" s="4">
-        <v>43973</v>
+        <v>44044</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4">
-        <v>44012</v>
+        <v>44004</v>
       </c>
       <c r="B20" s="4">
-        <v>44012</v>
+        <v>44004</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E20" s="5">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F20" s="4">
-        <v>44012</v>
+        <v>43973</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>10</v>
@@ -1479,13 +1493,13 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4">
-        <v>43985</v>
+        <v>44012</v>
       </c>
       <c r="B21" s="4">
-        <v>43985</v>
+        <v>44012</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>22</v>
@@ -1494,7 +1508,7 @@
         <v>65</v>
       </c>
       <c r="F21" s="4">
-        <v>43904</v>
+        <v>44012</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>10</v>
@@ -1506,76 +1520,76 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="4">
+        <v>43985</v>
+      </c>
+      <c r="B22" s="4">
+        <v>43985</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="5">
+        <v>65</v>
+      </c>
+      <c r="F22" s="4">
+        <v>43904</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="4">
         <v>43980</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B23" s="4">
         <v>43980</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="5">
-        <v>231</v>
-      </c>
-      <c r="F22" s="4">
-        <v>43980</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="8">
-        <v>44063</v>
-      </c>
-      <c r="B23" s="7">
-        <v>44068</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="5">
+        <v>231</v>
+      </c>
+      <c r="F23" s="4">
+        <v>43980</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="8">
+        <v>44063</v>
+      </c>
+      <c r="B24" s="7">
+        <v>44068</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="5">
         <v>72</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F24" s="4">
         <v>43958</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="7">
-        <v>43948</v>
-      </c>
-      <c r="B24" s="4">
-        <v>43948</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E24" s="5">
-        <v>136</v>
-      </c>
-      <c r="F24" s="4">
-        <v>43906</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>10</v>
@@ -1587,49 +1601,49 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="7">
+        <v>43948</v>
+      </c>
+      <c r="B25" s="4">
+        <v>43948</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="5">
+        <v>136</v>
+      </c>
+      <c r="F25" s="4">
+        <v>43906</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="7">
         <v>43942</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B26" s="4">
         <v>43942</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E26" s="5">
         <v>5</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F26" s="4">
         <v>43942</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="4">
-        <v>43941</v>
-      </c>
-      <c r="B26" s="4">
-        <v>43944</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="5">
-        <v>1</v>
-      </c>
-      <c r="F26" s="4">
-        <v>43941</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>10</v>
@@ -1641,22 +1655,22 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="4">
-        <v>43907</v>
+        <v>43941</v>
       </c>
       <c r="B27" s="4">
-        <v>43938</v>
+        <v>43944</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E27" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F27" s="4">
-        <v>43938</v>
+        <v>43941</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>10</v>
@@ -1668,22 +1682,22 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="4">
-        <v>43927</v>
+        <v>43907</v>
       </c>
       <c r="B28" s="4">
-        <v>43935</v>
+        <v>43938</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E28" s="5">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="F28" s="4">
-        <v>43906</v>
+        <v>43938</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>10</v>
@@ -1695,22 +1709,22 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="4">
-        <v>43925</v>
+        <v>43927</v>
       </c>
       <c r="B29" s="4">
-        <v>43925</v>
+        <v>43935</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E29" s="5">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="F29" s="4">
-        <v>43927</v>
+        <v>43906</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>10</v>
@@ -1722,22 +1736,22 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="4">
-        <v>43916</v>
+        <v>43925</v>
       </c>
       <c r="B30" s="4">
-        <v>43917</v>
+        <v>43925</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E30" s="5">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="F30" s="4">
-        <v>43916</v>
+        <v>43927</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>10</v>
@@ -1752,75 +1766,75 @@
         <v>43916</v>
       </c>
       <c r="B31" s="4">
-        <v>43913</v>
+        <v>43917</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E31" s="5">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="F31" s="4">
-        <v>43898</v>
+        <v>43916</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="4">
-        <v>43910</v>
+        <v>43916</v>
       </c>
       <c r="B32" s="4">
-        <v>43910</v>
+        <v>43913</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E32" s="5">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="F32" s="4">
-        <v>43910</v>
+        <v>43898</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="4">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B33" s="4">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E33" s="5">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="F33" s="4">
-        <v>43906</v>
+        <v>43910</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>10</v>
@@ -1832,25 +1846,25 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="4">
-        <v>43509</v>
+        <v>43909</v>
       </c>
       <c r="B34" s="4">
-        <v>43510</v>
+        <v>43913</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E34" s="5">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="F34" s="4">
-        <v>43567</v>
+        <v>43906</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>10</v>
@@ -1859,22 +1873,22 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="4">
-        <v>43486</v>
+        <v>43509</v>
       </c>
       <c r="B35" s="4">
-        <v>43486</v>
+        <v>43510</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E35" s="5">
-        <v>59</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>140</v>
+        <v>1</v>
+      </c>
+      <c r="F35" s="4">
+        <v>43567</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>13</v>
@@ -1886,22 +1900,22 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="4">
-        <v>43479</v>
+        <v>43486</v>
       </c>
       <c r="B36" s="4">
-        <v>43479</v>
+        <v>43486</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E36" s="5">
-        <v>62</v>
-      </c>
-      <c r="F36" s="4">
-        <v>43542</v>
+        <v>59</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>13</v>
@@ -1913,25 +1927,25 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="4">
-        <v>43405</v>
+        <v>43479</v>
       </c>
       <c r="B37" s="4">
-        <v>43413</v>
+        <v>43479</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E37" s="5">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F37" s="4">
-        <v>43131</v>
+        <v>43542</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>10</v>
@@ -1940,25 +1954,25 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="4">
-        <v>76277</v>
+        <v>43405</v>
       </c>
       <c r="B38" s="4">
-        <v>43405</v>
+        <v>43413</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E38" s="5">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="F38" s="4">
-        <v>43465</v>
+        <v>43131</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>10</v>
@@ -1967,22 +1981,22 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4">
-        <v>76268</v>
+        <v>76277</v>
       </c>
       <c r="B39" s="4">
         <v>43405</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E39" s="5">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="F39" s="4">
-        <v>43469</v>
+        <v>43465</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>13</v>
@@ -1994,22 +2008,22 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4">
-        <v>43382</v>
+        <v>76268</v>
       </c>
       <c r="B40" s="4">
-        <v>43382</v>
+        <v>43405</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E40" s="5">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F40" s="4">
-        <v>43382</v>
+        <v>43469</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>13</v>
@@ -2021,22 +2035,22 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="4">
-        <v>43362</v>
+        <v>43382</v>
       </c>
       <c r="B41" s="4">
-        <v>43363</v>
+        <v>43382</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="E41" s="5">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="F41" s="4">
-        <v>43434</v>
+        <v>43382</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>13</v>
@@ -2048,134 +2062,134 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4">
-        <v>43273</v>
+        <v>43362</v>
       </c>
       <c r="B42" s="4">
-        <v>43276</v>
+        <v>43363</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E42" s="5">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="F42" s="4">
-        <v>43339</v>
+        <v>43434</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="4">
-        <v>43252</v>
+        <v>43273</v>
       </c>
       <c r="B43" s="4">
-        <v>43252</v>
+        <v>43276</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="5">
         <v>64</v>
       </c>
-      <c r="E43" s="5">
-        <v>149</v>
-      </c>
       <c r="F43" s="4">
-        <v>43312</v>
+        <v>43339</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="4">
-        <v>43042</v>
+        <v>43252</v>
       </c>
       <c r="B44" s="4">
-        <v>43042</v>
+        <v>43252</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="E44" s="5">
-        <v>477</v>
+        <v>149</v>
       </c>
       <c r="F44" s="4">
-        <v>43112</v>
+        <v>43312</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="4">
-        <v>42986</v>
+        <v>43042</v>
       </c>
       <c r="B45" s="4">
-        <v>42990</v>
+        <v>43042</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E45" s="5">
-        <v>171</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>141</v>
+        <v>477</v>
+      </c>
+      <c r="F45" s="4">
+        <v>43112</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="4">
-        <v>42495</v>
+        <v>42986</v>
       </c>
       <c r="B46" s="4">
-        <v>42496</v>
+        <v>42990</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="E46" s="5">
-        <v>187</v>
-      </c>
-      <c r="F46" s="4">
-        <v>42492</v>
+        <v>171</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>13</v>
@@ -2187,81 +2201,81 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="4">
-        <v>42494</v>
+        <v>42495</v>
       </c>
       <c r="B47" s="4">
-        <v>42495</v>
+        <v>42496</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E47" s="5">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="F47" s="4">
-        <v>42551</v>
+        <v>42492</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="4">
-        <v>42468</v>
+        <v>42494</v>
       </c>
       <c r="B48" s="4">
-        <v>42468</v>
+        <v>42495</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="E48" s="5">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="F48" s="4">
-        <v>42528</v>
+        <v>42551</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I48" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="4">
-        <v>42401</v>
+        <v>42468</v>
       </c>
       <c r="B49" s="4">
-        <v>42401</v>
+        <v>42468</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E49" s="5">
-        <v>60</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>142</v>
+        <v>154</v>
+      </c>
+      <c r="F49" s="4">
+        <v>42528</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>10</v>
@@ -2270,22 +2284,22 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="4">
-        <v>42384</v>
+        <v>42401</v>
       </c>
       <c r="B50" s="4">
-        <v>42384</v>
+        <v>42401</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E50" s="5">
-        <v>131</v>
-      </c>
-      <c r="F50" s="4">
-        <v>42405</v>
+        <v>60</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>13</v>
@@ -2297,25 +2311,25 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="4">
-        <v>42326</v>
+        <v>42384</v>
       </c>
       <c r="B51" s="4">
-        <v>42326</v>
+        <v>42384</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E51" s="5">
-        <v>241</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>77</v>
+        <v>131</v>
+      </c>
+      <c r="F51" s="4">
+        <v>42405</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>10</v>
@@ -2324,25 +2338,25 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="4">
-        <v>42318</v>
+        <v>42326</v>
       </c>
       <c r="B52" s="4">
-        <v>42320</v>
+        <v>42326</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>79</v>
+        <v>22</v>
+      </c>
+      <c r="E52" s="5">
+        <v>241</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>10</v>
@@ -2351,25 +2365,25 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="4">
-        <v>42178</v>
+        <v>42318</v>
       </c>
       <c r="B53" s="4">
-        <v>42180</v>
+        <v>42320</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E53" s="5">
-        <v>70</v>
-      </c>
-      <c r="F53" s="4">
-        <v>42240</v>
+        <v>9</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>10</v>
@@ -2378,78 +2392,78 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="4">
-        <v>42069</v>
+        <v>42178</v>
       </c>
       <c r="B54" s="4">
-        <v>42074</v>
+        <v>42180</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>83</v>
+        <v>22</v>
+      </c>
+      <c r="E54" s="5">
+        <v>70</v>
       </c>
       <c r="F54" s="4">
-        <v>42141</v>
+        <v>42240</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="4">
-        <v>42062</v>
+        <v>42069</v>
       </c>
       <c r="B55" s="4">
-        <v>42065</v>
+        <v>42074</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="F55" s="4">
+        <v>42141</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I55" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="4">
-        <v>41850</v>
+        <v>42062</v>
       </c>
       <c r="B56" s="4">
-        <v>41850</v>
+        <v>42065</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E56" s="5">
-        <v>5</v>
-      </c>
-      <c r="F56" s="4">
-        <v>41912</v>
+        <v>30</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>10</v>
@@ -2461,22 +2475,22 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="4">
-        <v>41820</v>
+        <v>41850</v>
       </c>
       <c r="B57" s="4">
-        <v>41821</v>
+        <v>41850</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="E57" s="5">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="F57" s="4">
-        <v>41882</v>
+        <v>41912</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>10</v>
@@ -2488,78 +2502,78 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="4">
-        <v>41724</v>
+        <v>41820</v>
       </c>
       <c r="B58" s="4">
-        <v>41729</v>
+        <v>41821</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E58" s="5">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="F58" s="4">
-        <v>41774</v>
+        <v>41882</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="4">
-        <v>41593</v>
+        <v>41724</v>
       </c>
       <c r="B59" s="4">
-        <v>41596</v>
+        <v>41729</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E59" s="5">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="F59" s="4">
-        <v>41654</v>
+        <v>41774</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I59" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="4">
-        <v>41547</v>
+        <v>41593</v>
       </c>
       <c r="B60" s="4">
-        <v>41547</v>
+        <v>41596</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E60" s="5">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F60" s="4">
-        <v>41608</v>
+        <v>41654</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>13</v>
@@ -2571,25 +2585,25 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="4">
-        <v>41495</v>
+        <v>41547</v>
       </c>
       <c r="B61" s="4">
-        <v>41502</v>
+        <v>41547</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E61" s="5">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="F61" s="4">
-        <v>41555</v>
+        <v>41608</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>10</v>
@@ -2598,25 +2612,25 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="4">
-        <v>41425</v>
+        <v>41495</v>
       </c>
       <c r="B62" s="4">
-        <v>41438</v>
+        <v>41502</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E62" s="5">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="F62" s="4">
-        <v>41425</v>
+        <v>41555</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>10</v>
@@ -2625,76 +2639,76 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="4">
-        <v>41416</v>
+        <v>41425</v>
       </c>
       <c r="B63" s="4">
-        <v>41417</v>
+        <v>41438</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E63" s="5">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="F63" s="4">
-        <v>41485</v>
+        <v>41425</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="4">
-        <v>41285</v>
+        <v>41416</v>
       </c>
       <c r="B64" s="4">
-        <v>41285</v>
+        <v>41417</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>79</v>
+        <v>50</v>
+      </c>
+      <c r="E64" s="5">
+        <v>62</v>
       </c>
       <c r="F64" s="4">
-        <v>41347</v>
+        <v>41485</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="4">
-        <v>41087</v>
+        <v>41285</v>
       </c>
       <c r="B65" s="4">
-        <v>41087</v>
+        <v>41285</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E65" s="5">
-        <v>51</v>
+        <v>98</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="F65" s="4">
-        <v>41148</v>
+        <v>41347</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>13</v>
@@ -2706,51 +2720,49 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="4">
-        <v>41011</v>
+        <v>41087</v>
       </c>
       <c r="B66" s="4">
-        <v>41011</v>
+        <v>41087</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E66" s="5">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="F66" s="4">
-        <v>41071</v>
+        <v>41148</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>101</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="4">
-        <v>40938</v>
+        <v>41011</v>
       </c>
       <c r="B67" s="4">
-        <v>40939</v>
+        <v>41011</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E67" s="5">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="F67" s="4">
-        <v>41000</v>
+        <v>41071</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>13</v>
@@ -2759,54 +2771,56 @@
         <v>13</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="4">
-        <v>40833</v>
+        <v>40938</v>
       </c>
       <c r="B68" s="4">
-        <v>40833</v>
+        <v>40939</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E68" s="5">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="F68" s="4">
-        <v>40833</v>
+        <v>41000</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I68" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="4">
-        <v>40785</v>
+        <v>40833</v>
       </c>
       <c r="B69" s="4">
-        <v>40788</v>
+        <v>40833</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E69" s="5">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="F69" s="4">
-        <v>40846</v>
+        <v>40833</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>13</v>
@@ -2818,22 +2832,22 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="4">
-        <v>40752</v>
+        <v>40785</v>
       </c>
       <c r="B70" s="4">
-        <v>40758</v>
+        <v>40788</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E70" s="5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F70" s="4">
-        <v>40816</v>
+        <v>40846</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>13</v>
@@ -2845,22 +2859,22 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="4">
-        <v>40753</v>
+        <v>40752</v>
       </c>
       <c r="B71" s="4">
-        <v>40756</v>
+        <v>40758</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E71" s="5">
-        <v>98</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>143</v>
+        <v>9</v>
+      </c>
+      <c r="F71" s="4">
+        <v>40816</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>13</v>
@@ -2872,22 +2886,22 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="4">
-        <v>40688</v>
+        <v>40753</v>
       </c>
       <c r="B72" s="4">
-        <v>40690</v>
+        <v>40756</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="E72" s="5">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>13</v>
@@ -2899,22 +2913,22 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="4">
-        <v>40634</v>
+        <v>40688</v>
       </c>
       <c r="B73" s="4">
-        <v>40634</v>
+        <v>40690</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="E73" s="5">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>13</v>
@@ -2926,25 +2940,25 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="4">
-        <v>40589</v>
+        <v>40634</v>
       </c>
       <c r="B74" s="4">
-        <v>40589</v>
+        <v>40634</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="E74" s="5">
-        <v>5</v>
-      </c>
-      <c r="F74" s="4">
-        <v>40644</v>
+        <v>98</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>10</v>
@@ -2953,22 +2967,22 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="4">
-        <v>40565</v>
+        <v>40589</v>
       </c>
       <c r="B75" s="4">
-        <v>40568</v>
+        <v>40589</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="E75" s="5">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="F75" s="4">
-        <v>40592</v>
+        <v>40644</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>10</v>
@@ -2980,22 +2994,22 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="4">
-        <v>40410</v>
+        <v>40565</v>
       </c>
       <c r="B76" s="4">
-        <v>40413</v>
+        <v>40568</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E76" s="5">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="F76" s="4">
-        <v>40452</v>
+        <v>40592</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>10</v>
@@ -3007,22 +3021,22 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="4">
-        <v>40392</v>
+        <v>40410</v>
       </c>
       <c r="B77" s="4">
-        <v>40217</v>
+        <v>40413</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="E77" s="5">
-        <v>26</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>118</v>
+        <v>89</v>
+      </c>
+      <c r="F77" s="4">
+        <v>40452</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>10</v>
@@ -3034,7 +3048,7 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="4">
-        <v>40214</v>
+        <v>40392</v>
       </c>
       <c r="B78" s="4">
         <v>40217</v>
@@ -3046,10 +3060,10 @@
         <v>114</v>
       </c>
       <c r="E78" s="5">
-        <v>165</v>
-      </c>
-      <c r="F78" s="4">
-        <v>40217</v>
+        <v>26</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>10</v>
@@ -3061,25 +3075,25 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="4">
-        <v>40178</v>
+        <v>40214</v>
       </c>
       <c r="B79" s="4">
-        <v>40182</v>
+        <v>40217</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="E79" s="5">
-        <v>8</v>
+        <v>165</v>
       </c>
       <c r="F79" s="4">
-        <v>40210</v>
+        <v>40217</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>10</v>
@@ -3088,22 +3102,22 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="4">
-        <v>40137</v>
+        <v>40178</v>
       </c>
       <c r="B80" s="4">
-        <v>40141</v>
+        <v>40182</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E80" s="5">
-        <v>66</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>144</v>
+        <v>8</v>
+      </c>
+      <c r="F80" s="4">
+        <v>40210</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>13</v>
@@ -3121,72 +3135,72 @@
         <v>40141</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E81" s="5">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>122</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I81" s="1"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="4">
-        <v>40094</v>
+        <v>40137</v>
       </c>
       <c r="B82" s="4">
-        <v>40094</v>
+        <v>40141</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F82" s="4">
-        <v>40147</v>
+        <v>26</v>
+      </c>
+      <c r="E82" s="5">
+        <v>103</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I82" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="4">
-        <v>40091</v>
+        <v>40094</v>
       </c>
       <c r="B83" s="4">
-        <v>40091</v>
+        <v>40094</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E83" s="5">
-        <v>63</v>
+        <v>22</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="F83" s="4">
-        <v>40148</v>
+        <v>40147</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>10</v>
@@ -3198,10 +3212,10 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="4">
-        <v>40046</v>
+        <v>40091</v>
       </c>
       <c r="B84" s="4">
-        <v>40050</v>
+        <v>40091</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>124</v>
@@ -3209,11 +3223,11 @@
       <c r="D84" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E84" s="5" t="s">
-        <v>125</v>
+      <c r="E84" s="5">
+        <v>63</v>
       </c>
       <c r="F84" s="4">
-        <v>39895</v>
+        <v>40148</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>10</v>
@@ -3225,25 +3239,25 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="4">
-        <v>40007</v>
+        <v>40046</v>
       </c>
       <c r="B85" s="4">
-        <v>40008</v>
+        <v>40050</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E85" s="5">
-        <v>130</v>
+        <v>26</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="F85" s="4">
         <v>39895</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>10</v>
@@ -3258,16 +3272,16 @@
         <v>40008</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="E86" s="5">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="F86" s="4">
-        <v>40001</v>
+        <v>39895</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>13</v>
@@ -3279,25 +3293,25 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="4">
-        <v>39995</v>
+        <v>40007</v>
       </c>
       <c r="B87" s="4">
-        <v>39895</v>
+        <v>40008</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D87" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="5">
         <v>26</v>
       </c>
-      <c r="E87" s="5">
-        <v>14</v>
-      </c>
       <c r="F87" s="4">
-        <v>39895</v>
+        <v>40001</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>10</v>
@@ -3306,22 +3320,22 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="4">
-        <v>39980</v>
+        <v>39995</v>
       </c>
       <c r="B88" s="4">
-        <v>39996</v>
+        <v>39895</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="E88" s="5">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F88" s="4">
-        <v>40041</v>
+        <v>39895</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>10</v>
@@ -3333,78 +3347,78 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="4">
-        <v>39931</v>
+        <v>39980</v>
       </c>
       <c r="B89" s="4">
-        <v>39932</v>
+        <v>39996</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="E89" s="5">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="F89" s="4">
-        <v>39994</v>
+        <v>40041</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>132</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="4">
-        <v>39918</v>
+        <v>39931</v>
       </c>
       <c r="B90" s="4">
-        <v>39918</v>
+        <v>39932</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="E90" s="5">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="F90" s="4">
         <v>39994</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I90" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="4">
-        <v>39883</v>
+        <v>39918</v>
       </c>
       <c r="B91" s="4">
-        <v>39882</v>
+        <v>39918</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="E91" s="5">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F91" s="4">
-        <v>39943</v>
+        <v>39994</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>13</v>
@@ -3416,25 +3430,25 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="4">
-        <v>39881</v>
+        <v>39883</v>
       </c>
       <c r="B92" s="4">
-        <v>39881</v>
+        <v>39882</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E92" s="5">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="F92" s="4">
-        <v>39941</v>
+        <v>39943</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>10</v>
@@ -3443,25 +3457,25 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="4">
-        <v>39876</v>
+        <v>39881</v>
       </c>
       <c r="B93" s="4">
-        <v>39878</v>
+        <v>39881</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E93" s="5">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F93" s="4">
-        <v>39935</v>
+        <v>39941</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>10</v>
@@ -3470,22 +3484,22 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="4">
-        <v>39877</v>
+        <v>39876</v>
       </c>
       <c r="B94" s="4">
-        <v>39877</v>
+        <v>39878</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E94" s="5">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="F94" s="4">
-        <v>39943</v>
+        <v>39935</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>13</v>
@@ -3497,22 +3511,22 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="4">
-        <v>39863</v>
+        <v>39877</v>
       </c>
       <c r="B95" s="4">
-        <v>39864</v>
+        <v>39877</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="E95" s="5">
-        <v>270</v>
+        <v>119</v>
       </c>
       <c r="F95" s="4">
-        <v>39828</v>
+        <v>39943</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>13</v>
@@ -3524,30 +3538,57 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="4">
+        <v>39863</v>
+      </c>
+      <c r="B96" s="4">
+        <v>39864</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E96" s="5">
+        <v>270</v>
+      </c>
+      <c r="F96" s="4">
+        <v>39828</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="4">
         <v>39832</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B97" s="4">
         <v>39825</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E96" s="5">
+      <c r="E97" s="5">
         <v>121</v>
       </c>
-      <c r="F96" s="4">
+      <c r="F97" s="4">
         <v>39821</v>
       </c>
-      <c r="G96" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I96" s="2"/>
+      <c r="G97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I97" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/warn-scraper/cache/ri/WARN Report.xlsx
+++ b/data/warn-scraper/cache/ri/WARN Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marjorie.Cassion\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmwilsonri/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73CA29DE-2DAA-4A45-A1DC-1CA62EA6CD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953E6B41-A707-8E44-9591-79412C3D9577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
+    <workbookView xWindow="32260" yWindow="-2960" windowWidth="29040" windowHeight="15840" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -601,7 +601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -637,10 +637,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -649,6 +645,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -967,47 +966,47 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="92.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="92.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" spans="1:9" ht="31.5">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" ht="31">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1048,31 +1047,31 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="18">
+      <c r="A5" s="16">
         <v>44949</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="15">
         <v>44950</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="19">
-        <v>70</v>
-      </c>
-      <c r="F5" s="17">
+      <c r="E5" s="17">
+        <v>75</v>
+      </c>
+      <c r="F5" s="15">
         <v>45010</v>
       </c>
-      <c r="G5" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="19" t="s">
+      <c r="G5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="17" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1098,12 +1097,12 @@
       <c r="G6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5" thickBot="1">
+    <row r="7" spans="1:9" ht="17" thickBot="1">
       <c r="A7" s="4">
         <v>44827</v>
       </c>

--- a/data/warn-scraper/cache/ri/WARN Report.xlsx
+++ b/data/warn-scraper/cache/ri/WARN Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmwilsonri/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marjorie.Cassion\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953E6B41-A707-8E44-9591-79412C3D9577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3BEF223-6DF7-40E2-94E1-F4546A11B607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32260" yWindow="-2960" windowWidth="29040" windowHeight="15840" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="153">
   <si>
     <t>WARN Date</t>
   </si>
@@ -487,6 +487,12 @@
   </si>
   <si>
     <t>Northeast Transportation Services LLC</t>
+  </si>
+  <si>
+    <t>Sodexo, Inc and Affiliates</t>
+  </si>
+  <si>
+    <t>Local Union 1033, 410 S Main Street 3rd floor, Providence, RI 02906</t>
   </si>
 </sst>
 </file>
@@ -963,23 +969,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3738B5CD-B8C2-F94D-89AB-E4F2B5C04FF4}">
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="92.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="92.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1006,7 +1012,7 @@
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
     </row>
-    <row r="3" spans="1:9" ht="31">
+    <row r="3" spans="1:9" ht="31.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1046,217 +1052,219 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="16">
-        <v>44949</v>
+    <row r="5" spans="1:9" s="13" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A5" s="15">
+        <v>45063</v>
       </c>
       <c r="B5" s="15">
-        <v>44950</v>
+        <v>42522</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="17">
+        <v>169</v>
+      </c>
+      <c r="F5" s="15">
+        <v>45086</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="16">
+        <v>44949</v>
+      </c>
+      <c r="B6" s="15">
+        <v>44950</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="17">
         <v>75</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F6" s="15">
         <v>45010</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="17" t="s">
+      <c r="G6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="21">
-      <c r="A6" s="12">
+    <row r="7" spans="1:9" ht="21">
+      <c r="A7" s="12">
         <v>44930</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B7" s="12">
         <v>44937</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C7" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E7" s="14">
         <v>81</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F7" s="12">
         <v>44990</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="17" thickBot="1">
-      <c r="A7" s="4">
+      <c r="G7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A8" s="4">
         <v>44827</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B8" s="4">
         <v>44831</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E8" s="9">
         <v>1</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F8" s="4">
         <v>44890</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="4">
-        <v>44817</v>
-      </c>
-      <c r="B8" s="4">
-        <v>44817</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="9">
-        <v>77</v>
-      </c>
-      <c r="F8" s="4">
-        <v>44880</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="4"/>
+      <c r="G8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4">
-        <v>44595</v>
+        <v>44817</v>
       </c>
       <c r="B9" s="4">
-        <v>44594</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="5">
-        <v>198</v>
+        <v>44817</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="9">
+        <v>77</v>
       </c>
       <c r="F9" s="4">
-        <v>44659</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="2"/>
+        <v>44880</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="4">
-        <v>44334</v>
+        <v>44595</v>
       </c>
       <c r="B10" s="4">
-        <v>44336</v>
+        <v>44594</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E10" s="5">
-        <v>94</v>
+        <v>198</v>
       </c>
       <c r="F10" s="4">
-        <v>44394</v>
+        <v>44659</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4">
-        <v>44342</v>
+        <v>44334</v>
       </c>
       <c r="B11" s="4">
-        <v>44342</v>
+        <v>44336</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E11" s="5">
-        <v>464</v>
+        <v>94</v>
       </c>
       <c r="F11" s="4">
-        <v>44403</v>
+        <v>44394</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4">
-        <v>44105</v>
+        <v>44342</v>
       </c>
       <c r="B12" s="4">
-        <v>44104</v>
+        <v>44342</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12" s="5">
-        <v>13</v>
+        <v>464</v>
       </c>
       <c r="F12" s="4">
-        <v>44104</v>
+        <v>44403</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>10</v>
@@ -1268,22 +1276,22 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="4">
-        <v>44064</v>
+        <v>44105</v>
       </c>
       <c r="B13" s="4">
-        <v>44068</v>
+        <v>44104</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E13" s="5">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F13" s="4">
-        <v>44061</v>
+        <v>44104</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>10</v>
@@ -1295,22 +1303,22 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="4">
-        <v>44057</v>
+        <v>44064</v>
       </c>
       <c r="B14" s="4">
-        <v>44060</v>
+        <v>44068</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14" s="5">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="F14" s="4">
-        <v>44057</v>
+        <v>44061</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>10</v>
@@ -1322,51 +1330,49 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="4">
-        <v>44049</v>
+        <v>44057</v>
       </c>
       <c r="B15" s="4">
-        <v>44056</v>
+        <v>44060</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="5">
-        <v>272</v>
+        <v>106</v>
       </c>
       <c r="F15" s="4">
-        <v>43914</v>
+        <v>44057</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4">
-        <v>44054</v>
+        <v>44049</v>
       </c>
       <c r="B16" s="4">
-        <v>44040</v>
+        <v>44056</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16" s="5">
-        <v>1043</v>
+        <v>272</v>
       </c>
       <c r="F16" s="4">
-        <v>44104</v>
+        <v>43914</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>10</v>
@@ -1386,13 +1392,13 @@
         <v>44040</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="5">
-        <v>296</v>
+        <v>1043</v>
       </c>
       <c r="F17" s="4">
         <v>44104</v>
@@ -1409,105 +1415,107 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4">
-        <v>44046</v>
+        <v>44054</v>
       </c>
       <c r="B18" s="4">
-        <v>44042</v>
+        <v>44040</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E18" s="5">
-        <v>73</v>
+        <v>296</v>
       </c>
       <c r="F18" s="4">
-        <v>44075</v>
+        <v>44104</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4">
-        <v>44027</v>
+        <v>44046</v>
       </c>
       <c r="B19" s="4">
-        <v>44022</v>
+        <v>44042</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E19" s="5">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="F19" s="4">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4">
-        <v>44004</v>
+        <v>44027</v>
       </c>
       <c r="B20" s="4">
-        <v>44004</v>
+        <v>44022</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E20" s="5">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="F20" s="4">
-        <v>43973</v>
+        <v>44044</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4">
-        <v>44012</v>
+        <v>44004</v>
       </c>
       <c r="B21" s="4">
-        <v>44012</v>
+        <v>44004</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E21" s="5">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F21" s="4">
-        <v>44012</v>
+        <v>43973</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>10</v>
@@ -1519,13 +1527,13 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="4">
-        <v>43985</v>
+        <v>44012</v>
       </c>
       <c r="B22" s="4">
-        <v>43985</v>
+        <v>44012</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>22</v>
@@ -1534,7 +1542,7 @@
         <v>65</v>
       </c>
       <c r="F22" s="4">
-        <v>43904</v>
+        <v>44012</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>10</v>
@@ -1546,76 +1554,76 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="4">
+        <v>43985</v>
+      </c>
+      <c r="B23" s="4">
+        <v>43985</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="5">
+        <v>65</v>
+      </c>
+      <c r="F23" s="4">
+        <v>43904</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="4">
         <v>43980</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B24" s="4">
         <v>43980</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="5">
-        <v>231</v>
-      </c>
-      <c r="F23" s="4">
-        <v>43980</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="8">
-        <v>44063</v>
-      </c>
-      <c r="B24" s="7">
-        <v>44068</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E24" s="5">
+        <v>231</v>
+      </c>
+      <c r="F24" s="4">
+        <v>43980</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="8">
+        <v>44063</v>
+      </c>
+      <c r="B25" s="7">
+        <v>44068</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="5">
         <v>72</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F25" s="4">
         <v>43958</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="7">
-        <v>43948</v>
-      </c>
-      <c r="B25" s="4">
-        <v>43948</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" s="5">
-        <v>136</v>
-      </c>
-      <c r="F25" s="4">
-        <v>43906</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>10</v>
@@ -1627,49 +1635,49 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="7">
+        <v>43948</v>
+      </c>
+      <c r="B26" s="4">
+        <v>43948</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="5">
+        <v>136</v>
+      </c>
+      <c r="F26" s="4">
+        <v>43906</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="7">
         <v>43942</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B27" s="4">
         <v>43942</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E27" s="5">
         <v>5</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F27" s="4">
         <v>43942</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="4">
-        <v>43941</v>
-      </c>
-      <c r="B27" s="4">
-        <v>43944</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="5">
-        <v>1</v>
-      </c>
-      <c r="F27" s="4">
-        <v>43941</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>10</v>
@@ -1681,22 +1689,22 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="4">
-        <v>43907</v>
+        <v>43941</v>
       </c>
       <c r="B28" s="4">
-        <v>43938</v>
+        <v>43944</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E28" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F28" s="4">
-        <v>43938</v>
+        <v>43941</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>10</v>
@@ -1708,22 +1716,22 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="4">
-        <v>43927</v>
+        <v>43907</v>
       </c>
       <c r="B29" s="4">
-        <v>43935</v>
+        <v>43938</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E29" s="5">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="F29" s="4">
-        <v>43906</v>
+        <v>43938</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>10</v>
@@ -1735,22 +1743,22 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="4">
-        <v>43925</v>
+        <v>43927</v>
       </c>
       <c r="B30" s="4">
-        <v>43925</v>
+        <v>43935</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E30" s="5">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="F30" s="4">
-        <v>43927</v>
+        <v>43906</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>10</v>
@@ -1762,22 +1770,22 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="4">
-        <v>43916</v>
+        <v>43925</v>
       </c>
       <c r="B31" s="4">
-        <v>43917</v>
+        <v>43925</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E31" s="5">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="F31" s="4">
-        <v>43916</v>
+        <v>43927</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>10</v>
@@ -1792,75 +1800,75 @@
         <v>43916</v>
       </c>
       <c r="B32" s="4">
-        <v>43913</v>
+        <v>43917</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E32" s="5">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="F32" s="4">
-        <v>43898</v>
+        <v>43916</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="4">
-        <v>43910</v>
+        <v>43916</v>
       </c>
       <c r="B33" s="4">
-        <v>43910</v>
+        <v>43913</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E33" s="5">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="F33" s="4">
-        <v>43910</v>
+        <v>43898</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="4">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B34" s="4">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E34" s="5">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="F34" s="4">
-        <v>43906</v>
+        <v>43910</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>10</v>
@@ -1872,25 +1880,25 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="4">
-        <v>43509</v>
+        <v>43909</v>
       </c>
       <c r="B35" s="4">
-        <v>43510</v>
+        <v>43913</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E35" s="5">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="F35" s="4">
-        <v>43567</v>
+        <v>43906</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>10</v>
@@ -1899,22 +1907,22 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="4">
-        <v>43486</v>
+        <v>43509</v>
       </c>
       <c r="B36" s="4">
-        <v>43486</v>
+        <v>43510</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E36" s="5">
-        <v>59</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>140</v>
+        <v>1</v>
+      </c>
+      <c r="F36" s="4">
+        <v>43567</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>13</v>
@@ -1926,22 +1934,22 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="4">
-        <v>43479</v>
+        <v>43486</v>
       </c>
       <c r="B37" s="4">
-        <v>43479</v>
+        <v>43486</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E37" s="5">
-        <v>62</v>
-      </c>
-      <c r="F37" s="4">
-        <v>43542</v>
+        <v>59</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>13</v>
@@ -1953,25 +1961,25 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="4">
-        <v>43405</v>
+        <v>43479</v>
       </c>
       <c r="B38" s="4">
-        <v>43413</v>
+        <v>43479</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E38" s="5">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F38" s="4">
-        <v>43131</v>
+        <v>43542</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>10</v>
@@ -1980,25 +1988,25 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4">
-        <v>76277</v>
+        <v>43405</v>
       </c>
       <c r="B39" s="4">
-        <v>43405</v>
+        <v>43413</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E39" s="5">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="F39" s="4">
-        <v>43465</v>
+        <v>43131</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>10</v>
@@ -2007,22 +2015,22 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4">
-        <v>76268</v>
+        <v>76277</v>
       </c>
       <c r="B40" s="4">
         <v>43405</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E40" s="5">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="F40" s="4">
-        <v>43469</v>
+        <v>43465</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>13</v>
@@ -2034,22 +2042,22 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="4">
-        <v>43382</v>
+        <v>76268</v>
       </c>
       <c r="B41" s="4">
-        <v>43382</v>
+        <v>43405</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E41" s="5">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F41" s="4">
-        <v>43382</v>
+        <v>43469</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>13</v>
@@ -2061,22 +2069,22 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4">
-        <v>43362</v>
+        <v>43382</v>
       </c>
       <c r="B42" s="4">
-        <v>43363</v>
+        <v>43382</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="E42" s="5">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="F42" s="4">
-        <v>43434</v>
+        <v>43382</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>13</v>
@@ -2088,134 +2096,134 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="4">
-        <v>43273</v>
+        <v>43362</v>
       </c>
       <c r="B43" s="4">
-        <v>43276</v>
+        <v>43363</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E43" s="5">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="F43" s="4">
-        <v>43339</v>
+        <v>43434</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="4">
-        <v>43252</v>
+        <v>43273</v>
       </c>
       <c r="B44" s="4">
-        <v>43252</v>
+        <v>43276</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="5">
         <v>64</v>
       </c>
-      <c r="E44" s="5">
-        <v>149</v>
-      </c>
       <c r="F44" s="4">
-        <v>43312</v>
+        <v>43339</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="4">
-        <v>43042</v>
+        <v>43252</v>
       </c>
       <c r="B45" s="4">
-        <v>43042</v>
+        <v>43252</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="E45" s="5">
-        <v>477</v>
+        <v>149</v>
       </c>
       <c r="F45" s="4">
-        <v>43112</v>
+        <v>43312</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="4">
-        <v>42986</v>
+        <v>43042</v>
       </c>
       <c r="B46" s="4">
-        <v>42990</v>
+        <v>43042</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E46" s="5">
-        <v>171</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>141</v>
+        <v>477</v>
+      </c>
+      <c r="F46" s="4">
+        <v>43112</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="4">
-        <v>42495</v>
+        <v>42986</v>
       </c>
       <c r="B47" s="4">
-        <v>42496</v>
+        <v>42990</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="E47" s="5">
-        <v>187</v>
-      </c>
-      <c r="F47" s="4">
-        <v>42492</v>
+        <v>171</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>13</v>
@@ -2227,81 +2235,81 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="4">
-        <v>42494</v>
+        <v>42495</v>
       </c>
       <c r="B48" s="4">
-        <v>42495</v>
+        <v>42496</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E48" s="5">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="F48" s="4">
-        <v>42551</v>
+        <v>42492</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="4">
-        <v>42468</v>
+        <v>42494</v>
       </c>
       <c r="B49" s="4">
-        <v>42468</v>
+        <v>42495</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="E49" s="5">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="F49" s="4">
-        <v>42528</v>
+        <v>42551</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="4">
-        <v>42401</v>
+        <v>42468</v>
       </c>
       <c r="B50" s="4">
-        <v>42401</v>
+        <v>42468</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E50" s="5">
-        <v>60</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>142</v>
+        <v>154</v>
+      </c>
+      <c r="F50" s="4">
+        <v>42528</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>10</v>
@@ -2310,22 +2318,22 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="4">
-        <v>42384</v>
+        <v>42401</v>
       </c>
       <c r="B51" s="4">
-        <v>42384</v>
+        <v>42401</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E51" s="5">
-        <v>131</v>
-      </c>
-      <c r="F51" s="4">
-        <v>42405</v>
+        <v>60</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>13</v>
@@ -2337,25 +2345,25 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="4">
-        <v>42326</v>
+        <v>42384</v>
       </c>
       <c r="B52" s="4">
-        <v>42326</v>
+        <v>42384</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E52" s="5">
-        <v>241</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>77</v>
+        <v>131</v>
+      </c>
+      <c r="F52" s="4">
+        <v>42405</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>10</v>
@@ -2364,25 +2372,25 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="4">
-        <v>42318</v>
+        <v>42326</v>
       </c>
       <c r="B53" s="4">
-        <v>42320</v>
+        <v>42326</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>79</v>
+        <v>22</v>
+      </c>
+      <c r="E53" s="5">
+        <v>241</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>10</v>
@@ -2391,25 +2399,25 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="4">
-        <v>42178</v>
+        <v>42318</v>
       </c>
       <c r="B54" s="4">
-        <v>42180</v>
+        <v>42320</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" s="5">
-        <v>70</v>
-      </c>
-      <c r="F54" s="4">
-        <v>42240</v>
+        <v>9</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>10</v>
@@ -2418,78 +2426,78 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="4">
-        <v>42069</v>
+        <v>42178</v>
       </c>
       <c r="B55" s="4">
-        <v>42074</v>
+        <v>42180</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>83</v>
+        <v>22</v>
+      </c>
+      <c r="E55" s="5">
+        <v>70</v>
       </c>
       <c r="F55" s="4">
-        <v>42141</v>
+        <v>42240</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="4">
-        <v>42062</v>
+        <v>42069</v>
       </c>
       <c r="B56" s="4">
-        <v>42065</v>
+        <v>42074</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="F56" s="4">
+        <v>42141</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I56" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="4">
-        <v>41850</v>
+        <v>42062</v>
       </c>
       <c r="B57" s="4">
-        <v>41850</v>
+        <v>42065</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E57" s="5">
-        <v>5</v>
-      </c>
-      <c r="F57" s="4">
-        <v>41912</v>
+        <v>30</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>10</v>
@@ -2501,22 +2509,22 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="4">
-        <v>41820</v>
+        <v>41850</v>
       </c>
       <c r="B58" s="4">
-        <v>41821</v>
+        <v>41850</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="E58" s="5">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="F58" s="4">
-        <v>41882</v>
+        <v>41912</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>10</v>
@@ -2528,78 +2536,78 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="4">
-        <v>41724</v>
+        <v>41820</v>
       </c>
       <c r="B59" s="4">
-        <v>41729</v>
+        <v>41821</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E59" s="5">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="F59" s="4">
-        <v>41774</v>
+        <v>41882</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="4">
-        <v>41593</v>
+        <v>41724</v>
       </c>
       <c r="B60" s="4">
-        <v>41596</v>
+        <v>41729</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E60" s="5">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="F60" s="4">
-        <v>41654</v>
+        <v>41774</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I60" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="4">
-        <v>41547</v>
+        <v>41593</v>
       </c>
       <c r="B61" s="4">
-        <v>41547</v>
+        <v>41596</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E61" s="5">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F61" s="4">
-        <v>41608</v>
+        <v>41654</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>13</v>
@@ -2611,25 +2619,25 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="4">
-        <v>41495</v>
+        <v>41547</v>
       </c>
       <c r="B62" s="4">
-        <v>41502</v>
+        <v>41547</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E62" s="5">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="F62" s="4">
-        <v>41555</v>
+        <v>41608</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>10</v>
@@ -2638,25 +2646,25 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="4">
-        <v>41425</v>
+        <v>41495</v>
       </c>
       <c r="B63" s="4">
-        <v>41438</v>
+        <v>41502</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E63" s="5">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="F63" s="4">
-        <v>41425</v>
+        <v>41555</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>10</v>
@@ -2665,76 +2673,76 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="4">
-        <v>41416</v>
+        <v>41425</v>
       </c>
       <c r="B64" s="4">
-        <v>41417</v>
+        <v>41438</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E64" s="5">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="F64" s="4">
-        <v>41485</v>
+        <v>41425</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="4">
-        <v>41285</v>
+        <v>41416</v>
       </c>
       <c r="B65" s="4">
-        <v>41285</v>
+        <v>41417</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>79</v>
+        <v>50</v>
+      </c>
+      <c r="E65" s="5">
+        <v>62</v>
       </c>
       <c r="F65" s="4">
-        <v>41347</v>
+        <v>41485</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="4">
-        <v>41087</v>
+        <v>41285</v>
       </c>
       <c r="B66" s="4">
-        <v>41087</v>
+        <v>41285</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E66" s="5">
-        <v>51</v>
+        <v>98</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="F66" s="4">
-        <v>41148</v>
+        <v>41347</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>13</v>
@@ -2746,51 +2754,49 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="4">
-        <v>41011</v>
+        <v>41087</v>
       </c>
       <c r="B67" s="4">
-        <v>41011</v>
+        <v>41087</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E67" s="5">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="F67" s="4">
-        <v>41071</v>
+        <v>41148</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>101</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="4">
-        <v>40938</v>
+        <v>41011</v>
       </c>
       <c r="B68" s="4">
-        <v>40939</v>
+        <v>41011</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E68" s="5">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="F68" s="4">
-        <v>41000</v>
+        <v>41071</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>13</v>
@@ -2799,54 +2805,56 @@
         <v>13</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="4">
-        <v>40833</v>
+        <v>40938</v>
       </c>
       <c r="B69" s="4">
-        <v>40833</v>
+        <v>40939</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E69" s="5">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="F69" s="4">
-        <v>40833</v>
+        <v>41000</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I69" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="4">
-        <v>40785</v>
+        <v>40833</v>
       </c>
       <c r="B70" s="4">
-        <v>40788</v>
+        <v>40833</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E70" s="5">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="F70" s="4">
-        <v>40846</v>
+        <v>40833</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>13</v>
@@ -2858,22 +2866,22 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="4">
-        <v>40752</v>
+        <v>40785</v>
       </c>
       <c r="B71" s="4">
-        <v>40758</v>
+        <v>40788</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E71" s="5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F71" s="4">
-        <v>40816</v>
+        <v>40846</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>13</v>
@@ -2885,22 +2893,22 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="4">
-        <v>40753</v>
+        <v>40752</v>
       </c>
       <c r="B72" s="4">
-        <v>40756</v>
+        <v>40758</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E72" s="5">
-        <v>98</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>143</v>
+        <v>9</v>
+      </c>
+      <c r="F72" s="4">
+        <v>40816</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>13</v>
@@ -2912,22 +2920,22 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="4">
-        <v>40688</v>
+        <v>40753</v>
       </c>
       <c r="B73" s="4">
-        <v>40690</v>
+        <v>40756</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="E73" s="5">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>13</v>
@@ -2939,22 +2947,22 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="4">
-        <v>40634</v>
+        <v>40688</v>
       </c>
       <c r="B74" s="4">
-        <v>40634</v>
+        <v>40690</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="E74" s="5">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>13</v>
@@ -2966,25 +2974,25 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="4">
-        <v>40589</v>
+        <v>40634</v>
       </c>
       <c r="B75" s="4">
-        <v>40589</v>
+        <v>40634</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="E75" s="5">
-        <v>5</v>
-      </c>
-      <c r="F75" s="4">
-        <v>40644</v>
+        <v>98</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>10</v>
@@ -2993,22 +3001,22 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="4">
-        <v>40565</v>
+        <v>40589</v>
       </c>
       <c r="B76" s="4">
-        <v>40568</v>
+        <v>40589</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="E76" s="5">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="F76" s="4">
-        <v>40592</v>
+        <v>40644</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>10</v>
@@ -3020,22 +3028,22 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="4">
-        <v>40410</v>
+        <v>40565</v>
       </c>
       <c r="B77" s="4">
-        <v>40413</v>
+        <v>40568</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E77" s="5">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="F77" s="4">
-        <v>40452</v>
+        <v>40592</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>10</v>
@@ -3047,22 +3055,22 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="4">
-        <v>40392</v>
+        <v>40410</v>
       </c>
       <c r="B78" s="4">
-        <v>40217</v>
+        <v>40413</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="E78" s="5">
-        <v>26</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>118</v>
+        <v>89</v>
+      </c>
+      <c r="F78" s="4">
+        <v>40452</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>10</v>
@@ -3074,7 +3082,7 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="4">
-        <v>40214</v>
+        <v>40392</v>
       </c>
       <c r="B79" s="4">
         <v>40217</v>
@@ -3086,10 +3094,10 @@
         <v>114</v>
       </c>
       <c r="E79" s="5">
-        <v>165</v>
-      </c>
-      <c r="F79" s="4">
-        <v>40217</v>
+        <v>26</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>10</v>
@@ -3101,25 +3109,25 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="4">
-        <v>40178</v>
+        <v>40214</v>
       </c>
       <c r="B80" s="4">
-        <v>40182</v>
+        <v>40217</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="E80" s="5">
-        <v>8</v>
+        <v>165</v>
       </c>
       <c r="F80" s="4">
-        <v>40210</v>
+        <v>40217</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>10</v>
@@ -3128,22 +3136,22 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="4">
-        <v>40137</v>
+        <v>40178</v>
       </c>
       <c r="B81" s="4">
-        <v>40141</v>
+        <v>40182</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E81" s="5">
-        <v>66</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>144</v>
+        <v>8</v>
+      </c>
+      <c r="F81" s="4">
+        <v>40210</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>13</v>
@@ -3161,72 +3169,72 @@
         <v>40141</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E82" s="5">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>122</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I82" s="1"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="4">
-        <v>40094</v>
+        <v>40137</v>
       </c>
       <c r="B83" s="4">
-        <v>40094</v>
+        <v>40141</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F83" s="4">
-        <v>40147</v>
+        <v>26</v>
+      </c>
+      <c r="E83" s="5">
+        <v>103</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I83" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="4">
-        <v>40091</v>
+        <v>40094</v>
       </c>
       <c r="B84" s="4">
-        <v>40091</v>
+        <v>40094</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E84" s="5">
-        <v>63</v>
+        <v>22</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="F84" s="4">
-        <v>40148</v>
+        <v>40147</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>10</v>
@@ -3238,10 +3246,10 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="4">
-        <v>40046</v>
+        <v>40091</v>
       </c>
       <c r="B85" s="4">
-        <v>40050</v>
+        <v>40091</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>124</v>
@@ -3249,11 +3257,11 @@
       <c r="D85" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E85" s="5" t="s">
-        <v>125</v>
+      <c r="E85" s="5">
+        <v>63</v>
       </c>
       <c r="F85" s="4">
-        <v>39895</v>
+        <v>40148</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>10</v>
@@ -3265,25 +3273,25 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="4">
-        <v>40007</v>
+        <v>40046</v>
       </c>
       <c r="B86" s="4">
-        <v>40008</v>
+        <v>40050</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E86" s="5">
-        <v>130</v>
+        <v>26</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="F86" s="4">
         <v>39895</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>10</v>
@@ -3298,16 +3306,16 @@
         <v>40008</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="E87" s="5">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="F87" s="4">
-        <v>40001</v>
+        <v>39895</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>13</v>
@@ -3319,25 +3327,25 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="4">
-        <v>39995</v>
+        <v>40007</v>
       </c>
       <c r="B88" s="4">
-        <v>39895</v>
+        <v>40008</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="5">
         <v>26</v>
       </c>
-      <c r="E88" s="5">
-        <v>14</v>
-      </c>
       <c r="F88" s="4">
-        <v>39895</v>
+        <v>40001</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>10</v>
@@ -3346,22 +3354,22 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="4">
-        <v>39980</v>
+        <v>39995</v>
       </c>
       <c r="B89" s="4">
-        <v>39996</v>
+        <v>39895</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="E89" s="5">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F89" s="4">
-        <v>40041</v>
+        <v>39895</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>10</v>
@@ -3373,78 +3381,78 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="4">
-        <v>39931</v>
+        <v>39980</v>
       </c>
       <c r="B90" s="4">
-        <v>39932</v>
+        <v>39996</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="E90" s="5">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="F90" s="4">
-        <v>39994</v>
+        <v>40041</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>132</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="4">
-        <v>39918</v>
+        <v>39931</v>
       </c>
       <c r="B91" s="4">
-        <v>39918</v>
+        <v>39932</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="E91" s="5">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="F91" s="4">
         <v>39994</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I91" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="4">
-        <v>39883</v>
+        <v>39918</v>
       </c>
       <c r="B92" s="4">
-        <v>39882</v>
+        <v>39918</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="E92" s="5">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F92" s="4">
-        <v>39943</v>
+        <v>39994</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>13</v>
@@ -3456,25 +3464,25 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="4">
-        <v>39881</v>
+        <v>39883</v>
       </c>
       <c r="B93" s="4">
-        <v>39881</v>
+        <v>39882</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E93" s="5">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="F93" s="4">
-        <v>39941</v>
+        <v>39943</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>10</v>
@@ -3483,25 +3491,25 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="4">
-        <v>39876</v>
+        <v>39881</v>
       </c>
       <c r="B94" s="4">
-        <v>39878</v>
+        <v>39881</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E94" s="5">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F94" s="4">
-        <v>39935</v>
+        <v>39941</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>10</v>
@@ -3510,22 +3518,22 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="4">
-        <v>39877</v>
+        <v>39876</v>
       </c>
       <c r="B95" s="4">
-        <v>39877</v>
+        <v>39878</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E95" s="5">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="F95" s="4">
-        <v>39943</v>
+        <v>39935</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>13</v>
@@ -3537,22 +3545,22 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="4">
-        <v>39863</v>
+        <v>39877</v>
       </c>
       <c r="B96" s="4">
-        <v>39864</v>
+        <v>39877</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="E96" s="5">
-        <v>270</v>
+        <v>119</v>
       </c>
       <c r="F96" s="4">
-        <v>39828</v>
+        <v>39943</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>13</v>
@@ -3564,30 +3572,57 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="4">
+        <v>39863</v>
+      </c>
+      <c r="B97" s="4">
+        <v>39864</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E97" s="5">
+        <v>270</v>
+      </c>
+      <c r="F97" s="4">
+        <v>39828</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I97" s="2"/>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="4">
         <v>39832</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B98" s="4">
         <v>39825</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E97" s="5">
+      <c r="E98" s="5">
         <v>121</v>
       </c>
-      <c r="F97" s="4">
+      <c r="F98" s="4">
         <v>39821</v>
       </c>
-      <c r="G97" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I97" s="2"/>
+      <c r="G98" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I98" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/warn-scraper/cache/ri/WARN Report.xlsx
+++ b/data/warn-scraper/cache/ri/WARN Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marjorie.Cassion\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3BEF223-6DF7-40E2-94E1-F4546A11B607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50D5E95D-352E-4109-8C5C-3126E270250C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="157">
   <si>
     <t>WARN Date</t>
   </si>
@@ -493,6 +493,18 @@
   </si>
   <si>
     <t>Local Union 1033, 410 S Main Street 3rd floor, Providence, RI 02906</t>
+  </si>
+  <si>
+    <t>Aramark Facility Services, LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Providence</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>226 South Main Street #2 Providence, RI 02903</t>
   </si>
 </sst>
 </file>
@@ -969,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3738B5CD-B8C2-F94D-89AB-E4F2B5C04FF4}">
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1052,219 +1064,221 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="13" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="5" spans="1:9" s="17" customFormat="1" ht="13.2">
       <c r="A5" s="15">
+        <v>45112</v>
+      </c>
+      <c r="B5" s="15">
+        <v>45112</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="17">
+        <v>211</v>
+      </c>
+      <c r="F5" s="15">
+        <v>45138</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="17" customFormat="1" ht="13.2">
+      <c r="A6" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B6" s="15">
+        <v>45111</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="17">
+        <v>249</v>
+      </c>
+      <c r="F6" s="15">
+        <v>45138</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="13" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A7" s="15">
         <v>45063</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B7" s="15">
         <v>42522</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C7" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E7" s="17">
         <v>169</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F7" s="15">
         <v>45086</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="13" t="s">
+      <c r="G7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="16">
+    <row r="8" spans="1:9">
+      <c r="A8" s="16">
         <v>44949</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B8" s="15">
         <v>44950</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C8" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E8" s="17">
         <v>75</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F8" s="15">
         <v>45010</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="17" t="s">
+      <c r="G8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="21">
-      <c r="A7" s="12">
+    <row r="9" spans="1:9" ht="21">
+      <c r="A9" s="12">
         <v>44930</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B9" s="12">
         <v>44937</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E9" s="14">
         <v>81</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F9" s="12">
         <v>44990</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A8" s="4">
+      <c r="G9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A10" s="4">
         <v>44827</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B10" s="4">
         <v>44831</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E10" s="9">
         <v>1</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F10" s="4">
         <v>44890</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="4">
-        <v>44817</v>
-      </c>
-      <c r="B9" s="4">
-        <v>44817</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="9">
-        <v>77</v>
-      </c>
-      <c r="F9" s="4">
-        <v>44880</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="4">
-        <v>44595</v>
-      </c>
-      <c r="B10" s="4">
-        <v>44594</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="5">
-        <v>198</v>
-      </c>
-      <c r="F10" s="4">
-        <v>44659</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="2"/>
+      <c r="G10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4">
-        <v>44334</v>
+        <v>44817</v>
       </c>
       <c r="B11" s="4">
-        <v>44336</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="5">
-        <v>94</v>
+        <v>44817</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="9">
+        <v>77</v>
       </c>
       <c r="F11" s="4">
-        <v>44394</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>44880</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4">
-        <v>44342</v>
+        <v>44595</v>
       </c>
       <c r="B12" s="4">
-        <v>44342</v>
+        <v>44594</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E12" s="5">
-        <v>464</v>
+        <v>198</v>
       </c>
       <c r="F12" s="4">
-        <v>44403</v>
+        <v>44659</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>10</v>
@@ -1276,49 +1290,51 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="4">
-        <v>44105</v>
+        <v>44334</v>
       </c>
       <c r="B13" s="4">
-        <v>44104</v>
+        <v>44336</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E13" s="5">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="F13" s="4">
-        <v>44104</v>
+        <v>44394</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="4">
-        <v>44064</v>
+        <v>44342</v>
       </c>
       <c r="B14" s="4">
-        <v>44068</v>
+        <v>44342</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E14" s="5">
-        <v>40</v>
+        <v>464</v>
       </c>
       <c r="F14" s="4">
-        <v>44061</v>
+        <v>44403</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>10</v>
@@ -1330,22 +1346,22 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="4">
-        <v>44057</v>
+        <v>44105</v>
       </c>
       <c r="B15" s="4">
-        <v>44060</v>
+        <v>44104</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E15" s="5">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="F15" s="4">
-        <v>44057</v>
+        <v>44104</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>10</v>
@@ -1357,80 +1373,76 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4">
-        <v>44049</v>
+        <v>44064</v>
       </c>
       <c r="B16" s="4">
-        <v>44056</v>
+        <v>44068</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16" s="5">
-        <v>272</v>
+        <v>40</v>
       </c>
       <c r="F16" s="4">
-        <v>43914</v>
+        <v>44061</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4">
-        <v>44054</v>
+        <v>44057</v>
       </c>
       <c r="B17" s="4">
-        <v>44040</v>
+        <v>44060</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E17" s="5">
-        <v>1043</v>
+        <v>106</v>
       </c>
       <c r="F17" s="4">
-        <v>44104</v>
+        <v>44057</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4">
-        <v>44054</v>
+        <v>44049</v>
       </c>
       <c r="B18" s="4">
-        <v>44040</v>
+        <v>44056</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E18" s="5">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="F18" s="4">
-        <v>44104</v>
+        <v>43914</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>10</v>
@@ -1444,81 +1456,83 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4">
-        <v>44046</v>
+        <v>44054</v>
       </c>
       <c r="B19" s="4">
-        <v>44042</v>
+        <v>44040</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E19" s="5">
-        <v>73</v>
+        <v>1043</v>
       </c>
       <c r="F19" s="4">
-        <v>44075</v>
+        <v>44104</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4">
-        <v>44027</v>
+        <v>44054</v>
       </c>
       <c r="B20" s="4">
-        <v>44022</v>
+        <v>44040</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E20" s="5">
-        <v>127</v>
+        <v>296</v>
       </c>
       <c r="F20" s="4">
-        <v>44044</v>
+        <v>44104</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4">
-        <v>44004</v>
+        <v>44046</v>
       </c>
       <c r="B21" s="4">
-        <v>44004</v>
+        <v>44042</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E21" s="5">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F21" s="4">
-        <v>43973</v>
+        <v>44075</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>10</v>
@@ -1527,49 +1541,51 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="B22" s="4">
-        <v>44012</v>
+        <v>44022</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E22" s="5">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="F22" s="4">
-        <v>44012</v>
+        <v>44044</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="4">
-        <v>43985</v>
+        <v>44004</v>
       </c>
       <c r="B23" s="4">
-        <v>43985</v>
+        <v>44004</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E23" s="5">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F23" s="4">
-        <v>43904</v>
+        <v>43973</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>10</v>
@@ -1581,157 +1597,157 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4">
+        <v>44012</v>
+      </c>
+      <c r="B24" s="4">
+        <v>44012</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="5">
+        <v>65</v>
+      </c>
+      <c r="F24" s="4">
+        <v>44012</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="4">
+        <v>43985</v>
+      </c>
+      <c r="B25" s="4">
+        <v>43985</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="5">
+        <v>65</v>
+      </c>
+      <c r="F25" s="4">
+        <v>43904</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="4">
         <v>43980</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B26" s="4">
         <v>43980</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E26" s="5">
         <v>231</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F26" s="4">
         <v>43980</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="8">
+      <c r="G26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="8">
         <v>44063</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B27" s="7">
         <v>44068</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E27" s="5">
         <v>72</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F27" s="4">
         <v>43958</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="7">
+      <c r="G27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="7">
         <v>43948</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B28" s="4">
         <v>43948</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E28" s="5">
         <v>136</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F28" s="4">
         <v>43906</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="7">
+      <c r="G28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="7">
         <v>43942</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B29" s="4">
         <v>43942</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E29" s="5">
         <v>5</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F29" s="4">
         <v>43942</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="4">
-        <v>43941</v>
-      </c>
-      <c r="B28" s="4">
-        <v>43944</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="5">
-        <v>1</v>
-      </c>
-      <c r="F28" s="4">
-        <v>43941</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="4">
-        <v>43907</v>
-      </c>
-      <c r="B29" s="4">
-        <v>43938</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="5">
-        <v>13</v>
-      </c>
-      <c r="F29" s="4">
-        <v>43938</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>10</v>
@@ -1743,22 +1759,22 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="4">
-        <v>43927</v>
+        <v>43941</v>
       </c>
       <c r="B30" s="4">
-        <v>43935</v>
+        <v>43944</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E30" s="5">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="F30" s="4">
-        <v>43906</v>
+        <v>43941</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>10</v>
@@ -1770,22 +1786,22 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="4">
-        <v>43925</v>
+        <v>43907</v>
       </c>
       <c r="B31" s="4">
-        <v>43925</v>
+        <v>43938</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E31" s="5">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="F31" s="4">
-        <v>43927</v>
+        <v>43938</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>10</v>
@@ -1797,22 +1813,22 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="4">
-        <v>43916</v>
+        <v>43927</v>
       </c>
       <c r="B32" s="4">
-        <v>43917</v>
+        <v>43935</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E32" s="5">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F32" s="4">
-        <v>43916</v>
+        <v>43906</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>10</v>
@@ -1824,51 +1840,49 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="4">
-        <v>43916</v>
+        <v>43925</v>
       </c>
       <c r="B33" s="4">
-        <v>43913</v>
+        <v>43925</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E33" s="5">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="F33" s="4">
-        <v>43898</v>
+        <v>43927</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="4">
-        <v>43910</v>
+        <v>43916</v>
       </c>
       <c r="B34" s="4">
-        <v>43910</v>
+        <v>43917</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E34" s="5">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="F34" s="4">
-        <v>43910</v>
+        <v>43916</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>10</v>
@@ -1880,52 +1894,54 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="4">
-        <v>43909</v>
+        <v>43916</v>
       </c>
       <c r="B35" s="4">
         <v>43913</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E35" s="5">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="F35" s="4">
-        <v>43906</v>
+        <v>43898</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="4">
-        <v>43509</v>
+        <v>43910</v>
       </c>
       <c r="B36" s="4">
-        <v>43510</v>
+        <v>43910</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="E36" s="5">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="F36" s="4">
-        <v>43567</v>
+        <v>43910</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>10</v>
@@ -1934,25 +1950,25 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="4">
-        <v>43486</v>
+        <v>43909</v>
       </c>
       <c r="B37" s="4">
-        <v>43486</v>
+        <v>43913</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E37" s="5">
-        <v>59</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>140</v>
+        <v>110</v>
+      </c>
+      <c r="F37" s="4">
+        <v>43906</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>10</v>
@@ -1961,22 +1977,22 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="4">
-        <v>43479</v>
+        <v>43509</v>
       </c>
       <c r="B38" s="4">
-        <v>43479</v>
+        <v>43510</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E38" s="5">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="F38" s="4">
-        <v>43542</v>
+        <v>43567</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>13</v>
@@ -1988,25 +2004,25 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4">
-        <v>43405</v>
+        <v>43486</v>
       </c>
       <c r="B39" s="4">
-        <v>43413</v>
+        <v>43486</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E39" s="5">
-        <v>51</v>
-      </c>
-      <c r="F39" s="4">
-        <v>43131</v>
+        <v>59</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>10</v>
@@ -2015,22 +2031,22 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4">
-        <v>76277</v>
+        <v>43479</v>
       </c>
       <c r="B40" s="4">
-        <v>43405</v>
+        <v>43479</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E40" s="5">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="F40" s="4">
-        <v>43465</v>
+        <v>43542</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>13</v>
@@ -2042,25 +2058,25 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="4">
-        <v>76268</v>
+        <v>43405</v>
       </c>
       <c r="B41" s="4">
-        <v>43405</v>
+        <v>43413</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E41" s="5">
-        <v>181</v>
+        <v>51</v>
       </c>
       <c r="F41" s="4">
-        <v>43469</v>
+        <v>43131</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>10</v>
@@ -2069,22 +2085,22 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4">
-        <v>43382</v>
+        <v>76277</v>
       </c>
       <c r="B42" s="4">
-        <v>43382</v>
+        <v>43405</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="E42" s="5">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="F42" s="4">
-        <v>43382</v>
+        <v>43465</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>13</v>
@@ -2096,22 +2112,22 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="4">
-        <v>43362</v>
+        <v>76268</v>
       </c>
       <c r="B43" s="4">
-        <v>43363</v>
+        <v>43405</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E43" s="5">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="F43" s="4">
-        <v>43434</v>
+        <v>43469</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>13</v>
@@ -2123,51 +2139,49 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="4">
-        <v>43273</v>
+        <v>43382</v>
       </c>
       <c r="B44" s="4">
-        <v>43276</v>
+        <v>43382</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E44" s="5">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="F44" s="4">
-        <v>43339</v>
+        <v>43382</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="4">
-        <v>43252</v>
+        <v>43362</v>
       </c>
       <c r="B45" s="4">
-        <v>43252</v>
+        <v>43363</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E45" s="5">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="F45" s="4">
-        <v>43312</v>
+        <v>43434</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>13</v>
@@ -2179,22 +2193,22 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="4">
-        <v>43042</v>
+        <v>43273</v>
       </c>
       <c r="B46" s="4">
-        <v>43042</v>
+        <v>43276</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E46" s="5">
-        <v>477</v>
+        <v>64</v>
       </c>
       <c r="F46" s="4">
-        <v>43112</v>
+        <v>43339</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>13</v>
@@ -2203,27 +2217,27 @@
         <v>13</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="4">
-        <v>42986</v>
+        <v>43252</v>
       </c>
       <c r="B47" s="4">
-        <v>42990</v>
+        <v>43252</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E47" s="5">
-        <v>171</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>141</v>
+        <v>149</v>
+      </c>
+      <c r="F47" s="4">
+        <v>43312</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>13</v>
@@ -2235,81 +2249,81 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="4">
-        <v>42495</v>
+        <v>43042</v>
       </c>
       <c r="B48" s="4">
-        <v>42496</v>
+        <v>43042</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E48" s="5">
-        <v>187</v>
+        <v>477</v>
       </c>
       <c r="F48" s="4">
-        <v>42492</v>
+        <v>43112</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I48" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="4">
-        <v>42494</v>
+        <v>42986</v>
       </c>
       <c r="B49" s="4">
-        <v>42495</v>
+        <v>42990</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="E49" s="5">
-        <v>20</v>
-      </c>
-      <c r="F49" s="4">
-        <v>42551</v>
+        <v>171</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="4">
-        <v>42468</v>
+        <v>42495</v>
       </c>
       <c r="B50" s="4">
-        <v>42468</v>
+        <v>42496</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E50" s="5">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="F50" s="4">
-        <v>42528</v>
+        <v>42492</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>10</v>
@@ -2318,52 +2332,54 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="4">
-        <v>42401</v>
+        <v>42494</v>
       </c>
       <c r="B51" s="4">
-        <v>42401</v>
+        <v>42495</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="E51" s="5">
-        <v>60</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>142</v>
+        <v>20</v>
+      </c>
+      <c r="F51" s="4">
+        <v>42551</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I51" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="4">
-        <v>42384</v>
+        <v>42468</v>
       </c>
       <c r="B52" s="4">
-        <v>42384</v>
+        <v>42468</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E52" s="5">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="F52" s="4">
-        <v>42405</v>
+        <v>42528</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>10</v>
@@ -2372,25 +2388,25 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="4">
-        <v>42326</v>
+        <v>42401</v>
       </c>
       <c r="B53" s="4">
-        <v>42326</v>
+        <v>42401</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E53" s="5">
-        <v>241</v>
+        <v>60</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>10</v>
@@ -2399,22 +2415,22 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="4">
-        <v>42318</v>
+        <v>42384</v>
       </c>
       <c r="B54" s="4">
-        <v>42320</v>
+        <v>42384</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>80</v>
+        <v>50</v>
+      </c>
+      <c r="E54" s="5">
+        <v>131</v>
+      </c>
+      <c r="F54" s="4">
+        <v>42405</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>13</v>
@@ -2426,22 +2442,22 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="4">
-        <v>42178</v>
+        <v>42326</v>
       </c>
       <c r="B55" s="4">
-        <v>42180</v>
+        <v>42326</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E55" s="5">
-        <v>70</v>
-      </c>
-      <c r="F55" s="4">
-        <v>42240</v>
+        <v>241</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>10</v>
@@ -2453,51 +2469,49 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="4">
-        <v>42069</v>
+        <v>42318</v>
       </c>
       <c r="B56" s="4">
-        <v>42074</v>
+        <v>42320</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F56" s="4">
-        <v>42141</v>
+        <v>79</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="4">
-        <v>42062</v>
+        <v>42178</v>
       </c>
       <c r="B57" s="4">
-        <v>42065</v>
+        <v>42180</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>86</v>
+        <v>22</v>
+      </c>
+      <c r="E57" s="5">
+        <v>70</v>
+      </c>
+      <c r="F57" s="4">
+        <v>42240</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>10</v>
@@ -2509,49 +2523,51 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="4">
-        <v>41850</v>
+        <v>42069</v>
       </c>
       <c r="B58" s="4">
-        <v>41850</v>
+        <v>42074</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E58" s="5">
-        <v>5</v>
+        <v>50</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="F58" s="4">
-        <v>41912</v>
+        <v>42141</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I58" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="4">
-        <v>41820</v>
+        <v>42062</v>
       </c>
       <c r="B59" s="4">
-        <v>41821</v>
+        <v>42065</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E59" s="5">
-        <v>142</v>
-      </c>
-      <c r="F59" s="4">
-        <v>41882</v>
+        <v>30</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>10</v>
@@ -2563,54 +2579,52 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="4">
-        <v>41724</v>
+        <v>41850</v>
       </c>
       <c r="B60" s="4">
-        <v>41729</v>
+        <v>41850</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="E60" s="5">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="F60" s="4">
-        <v>41774</v>
+        <v>41912</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="4">
-        <v>41593</v>
+        <v>41820</v>
       </c>
       <c r="B61" s="4">
-        <v>41596</v>
+        <v>41821</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E61" s="5">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="F61" s="4">
-        <v>41654</v>
+        <v>41882</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>10</v>
@@ -2619,52 +2633,54 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="4">
-        <v>41547</v>
+        <v>41724</v>
       </c>
       <c r="B62" s="4">
-        <v>41547</v>
+        <v>41729</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E62" s="5">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="F62" s="4">
-        <v>41608</v>
+        <v>41774</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I62" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="4">
-        <v>41495</v>
+        <v>41593</v>
       </c>
       <c r="B63" s="4">
-        <v>41502</v>
+        <v>41596</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E63" s="5">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="F63" s="4">
-        <v>41555</v>
+        <v>41654</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>10</v>
@@ -2673,22 +2689,22 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="4">
-        <v>41425</v>
+        <v>41547</v>
       </c>
       <c r="B64" s="4">
-        <v>41438</v>
+        <v>41547</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E64" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F64" s="4">
-        <v>41425</v>
+        <v>41608</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>13</v>
@@ -2700,49 +2716,49 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="4">
-        <v>41416</v>
+        <v>41495</v>
       </c>
       <c r="B65" s="4">
-        <v>41417</v>
+        <v>41502</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E65" s="5">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F65" s="4">
-        <v>41485</v>
+        <v>41555</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="4">
-        <v>41285</v>
+        <v>41425</v>
       </c>
       <c r="B66" s="4">
-        <v>41285</v>
+        <v>41438</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>79</v>
+        <v>30</v>
+      </c>
+      <c r="E66" s="5">
+        <v>3</v>
       </c>
       <c r="F66" s="4">
-        <v>41347</v>
+        <v>41425</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>13</v>
@@ -2754,161 +2770,161 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="4">
-        <v>41087</v>
+        <v>41416</v>
       </c>
       <c r="B67" s="4">
-        <v>41087</v>
+        <v>41417</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="E67" s="5">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F67" s="4">
-        <v>41148</v>
+        <v>41485</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="4">
-        <v>41011</v>
+        <v>41285</v>
       </c>
       <c r="B68" s="4">
-        <v>41011</v>
+        <v>41285</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E68" s="5">
-        <v>150</v>
+        <v>98</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="F68" s="4">
-        <v>41071</v>
+        <v>41347</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>101</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I68" s="2"/>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="4">
-        <v>40938</v>
+        <v>41087</v>
       </c>
       <c r="B69" s="4">
-        <v>40939</v>
+        <v>41087</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E69" s="5">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="F69" s="4">
-        <v>41000</v>
+        <v>41148</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I69" s="2"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="4">
-        <v>40833</v>
+        <v>41011</v>
       </c>
       <c r="B70" s="4">
-        <v>40833</v>
+        <v>41011</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E70" s="5">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="F70" s="4">
-        <v>40833</v>
+        <v>41071</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I70" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="4">
-        <v>40785</v>
+        <v>40938</v>
       </c>
       <c r="B71" s="4">
-        <v>40788</v>
+        <v>40939</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E71" s="5">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="F71" s="4">
-        <v>40846</v>
+        <v>41000</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I71" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="4">
-        <v>40752</v>
+        <v>40833</v>
       </c>
       <c r="B72" s="4">
-        <v>40758</v>
+        <v>40833</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E72" s="5">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="F72" s="4">
-        <v>40816</v>
+        <v>40833</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>13</v>
@@ -2920,22 +2936,22 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="4">
-        <v>40753</v>
+        <v>40785</v>
       </c>
       <c r="B73" s="4">
-        <v>40756</v>
+        <v>40788</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E73" s="5">
-        <v>98</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>143</v>
+        <v>16</v>
+      </c>
+      <c r="F73" s="4">
+        <v>40846</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>13</v>
@@ -2947,22 +2963,22 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="4">
-        <v>40688</v>
+        <v>40752</v>
       </c>
       <c r="B74" s="4">
-        <v>40690</v>
+        <v>40758</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="E74" s="5">
-        <v>21</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>110</v>
+        <v>9</v>
+      </c>
+      <c r="F74" s="4">
+        <v>40816</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>13</v>
@@ -2974,13 +2990,13 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="4">
-        <v>40634</v>
+        <v>40753</v>
       </c>
       <c r="B75" s="4">
-        <v>40634</v>
+        <v>40756</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>12</v>
@@ -2989,7 +3005,7 @@
         <v>98</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>13</v>
@@ -3001,25 +3017,25 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="4">
-        <v>40589</v>
+        <v>40688</v>
       </c>
       <c r="B76" s="4">
-        <v>40589</v>
+        <v>40690</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E76" s="5">
-        <v>5</v>
-      </c>
-      <c r="F76" s="4">
-        <v>40644</v>
+        <v>21</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>10</v>
@@ -3028,25 +3044,25 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="4">
-        <v>40565</v>
+        <v>40634</v>
       </c>
       <c r="B77" s="4">
-        <v>40568</v>
+        <v>40634</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="E77" s="5">
-        <v>122</v>
-      </c>
-      <c r="F77" s="4">
-        <v>40592</v>
+        <v>98</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>10</v>
@@ -3055,22 +3071,22 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="4">
-        <v>40410</v>
+        <v>40589</v>
       </c>
       <c r="B78" s="4">
-        <v>40413</v>
+        <v>40589</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="E78" s="5">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="F78" s="4">
-        <v>40452</v>
+        <v>40644</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>10</v>
@@ -3082,22 +3098,22 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="4">
-        <v>40392</v>
+        <v>40565</v>
       </c>
       <c r="B79" s="4">
-        <v>40217</v>
+        <v>40568</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="E79" s="5">
-        <v>26</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
+      </c>
+      <c r="F79" s="4">
+        <v>40592</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>10</v>
@@ -3109,22 +3125,22 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="4">
-        <v>40214</v>
+        <v>40410</v>
       </c>
       <c r="B80" s="4">
-        <v>40217</v>
+        <v>40413</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="E80" s="5">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="F80" s="4">
-        <v>40217</v>
+        <v>40452</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>10</v>
@@ -3136,25 +3152,25 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="4">
-        <v>40178</v>
+        <v>40392</v>
       </c>
       <c r="B81" s="4">
-        <v>40182</v>
+        <v>40217</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="E81" s="5">
-        <v>8</v>
-      </c>
-      <c r="F81" s="4">
-        <v>40210</v>
+        <v>26</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>10</v>
@@ -3163,25 +3179,25 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="4">
-        <v>40137</v>
+        <v>40214</v>
       </c>
       <c r="B82" s="4">
-        <v>40141</v>
+        <v>40217</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="E82" s="5">
-        <v>66</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>144</v>
+        <v>165</v>
+      </c>
+      <c r="F82" s="4">
+        <v>40217</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>10</v>
@@ -3190,105 +3206,105 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="4">
-        <v>40137</v>
+        <v>40178</v>
       </c>
       <c r="B83" s="4">
-        <v>40141</v>
+        <v>40182</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E83" s="5">
-        <v>103</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>145</v>
+        <v>8</v>
+      </c>
+      <c r="F83" s="4">
+        <v>40210</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>122</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I83" s="1"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="4">
-        <v>40094</v>
+        <v>40137</v>
       </c>
       <c r="B84" s="4">
-        <v>40094</v>
+        <v>40141</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F84" s="4">
-        <v>40147</v>
+        <v>50</v>
+      </c>
+      <c r="E84" s="5">
+        <v>66</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I84" s="2"/>
+      <c r="I84" s="1"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="4">
-        <v>40091</v>
+        <v>40137</v>
       </c>
       <c r="B85" s="4">
-        <v>40091</v>
+        <v>40141</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E85" s="5">
-        <v>63</v>
-      </c>
-      <c r="F85" s="4">
-        <v>40148</v>
+        <v>103</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I85" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="4">
-        <v>40046</v>
+        <v>40094</v>
       </c>
       <c r="B86" s="4">
-        <v>40050</v>
+        <v>40094</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F86" s="4">
-        <v>39895</v>
+        <v>40147</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>10</v>
@@ -3300,25 +3316,25 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="4">
-        <v>40007</v>
+        <v>40091</v>
       </c>
       <c r="B87" s="4">
-        <v>40008</v>
+        <v>40091</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="E87" s="5">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="F87" s="4">
-        <v>39895</v>
+        <v>40148</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>10</v>
@@ -3327,25 +3343,25 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="4">
-        <v>40007</v>
+        <v>40046</v>
       </c>
       <c r="B88" s="4">
-        <v>40008</v>
+        <v>40050</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88" s="5">
         <v>26</v>
       </c>
+      <c r="E88" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="F88" s="4">
-        <v>40001</v>
+        <v>39895</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>10</v>
@@ -3354,25 +3370,25 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="4">
-        <v>39995</v>
+        <v>40007</v>
       </c>
       <c r="B89" s="4">
-        <v>39895</v>
+        <v>40008</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="E89" s="5">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="F89" s="4">
         <v>39895</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>10</v>
@@ -3381,25 +3397,25 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="4">
-        <v>39980</v>
+        <v>40007</v>
       </c>
       <c r="B90" s="4">
-        <v>39996</v>
+        <v>40008</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="E90" s="5">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F90" s="4">
-        <v>40041</v>
+        <v>40001</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>10</v>
@@ -3408,54 +3424,52 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="4">
-        <v>39931</v>
+        <v>39995</v>
       </c>
       <c r="B91" s="4">
-        <v>39932</v>
+        <v>39895</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E91" s="5">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="F91" s="4">
-        <v>39994</v>
+        <v>39895</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>132</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I91" s="2"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="4">
-        <v>39918</v>
+        <v>39980</v>
       </c>
       <c r="B92" s="4">
-        <v>39918</v>
+        <v>39996</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E92" s="5">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="F92" s="4">
-        <v>39994</v>
+        <v>40041</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>10</v>
@@ -3464,52 +3478,54 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="4">
-        <v>39883</v>
+        <v>39931</v>
       </c>
       <c r="B93" s="4">
-        <v>39882</v>
+        <v>39932</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E93" s="5">
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="F93" s="4">
-        <v>39943</v>
+        <v>39994</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I93" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="4">
-        <v>39881</v>
+        <v>39918</v>
       </c>
       <c r="B94" s="4">
-        <v>39881</v>
+        <v>39918</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="E94" s="5">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F94" s="4">
-        <v>39941</v>
+        <v>39994</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>10</v>
@@ -3518,22 +3534,22 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="4">
-        <v>39876</v>
+        <v>39883</v>
       </c>
       <c r="B95" s="4">
-        <v>39878</v>
+        <v>39882</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E95" s="5">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="F95" s="4">
-        <v>39935</v>
+        <v>39943</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>13</v>
@@ -3545,25 +3561,25 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="4">
-        <v>39877</v>
+        <v>39881</v>
       </c>
       <c r="B96" s="4">
-        <v>39877</v>
+        <v>39881</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="E96" s="5">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="F96" s="4">
-        <v>39943</v>
+        <v>39941</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>10</v>
@@ -3572,22 +3588,22 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="4">
-        <v>39863</v>
+        <v>39876</v>
       </c>
       <c r="B97" s="4">
-        <v>39864</v>
+        <v>39878</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E97" s="5">
-        <v>270</v>
+        <v>54</v>
       </c>
       <c r="F97" s="4">
-        <v>39828</v>
+        <v>39935</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>13</v>
@@ -3599,30 +3615,84 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="4">
+        <v>39877</v>
+      </c>
+      <c r="B98" s="4">
+        <v>39877</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E98" s="5">
+        <v>119</v>
+      </c>
+      <c r="F98" s="4">
+        <v>39943</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I98" s="2"/>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="4">
+        <v>39863</v>
+      </c>
+      <c r="B99" s="4">
+        <v>39864</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E99" s="5">
+        <v>270</v>
+      </c>
+      <c r="F99" s="4">
+        <v>39828</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I99" s="2"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="4">
         <v>39832</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B100" s="4">
         <v>39825</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E98" s="5">
+      <c r="E100" s="5">
         <v>121</v>
       </c>
-      <c r="F98" s="4">
+      <c r="F100" s="4">
         <v>39821</v>
       </c>
-      <c r="G98" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I98" s="2"/>
+      <c r="G100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I100" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/warn-scraper/cache/ri/WARN Report.xlsx
+++ b/data/warn-scraper/cache/ri/WARN Report.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26803"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marjorie.Cassion\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50D5E95D-352E-4109-8C5C-3126E270250C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{E0478F4C-7C0D-4AD3-ADDC-5A875CA5E711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F2039BA-9917-4030-B927-3F4710941F6F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="159">
+  <si>
+    <t>Rhode Island WARN Report</t>
+  </si>
   <si>
     <t>WARN Date</t>
   </si>
@@ -42,6 +47,9 @@
     <t>Date Received</t>
   </si>
   <si>
+    <t>Company Name (* Denotes Covid 19 Related WARN)</t>
+  </si>
+  <si>
     <t>Location of Layoffs</t>
   </si>
   <si>
@@ -60,33 +68,81 @@
     <t>Union Address</t>
   </si>
   <si>
+    <t>TPI Composites Inc</t>
+  </si>
+  <si>
+    <t>Warren</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Aramark Facility Services, LLC</t>
+  </si>
+  <si>
+    <t>Providence</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>226 South Main Street #2 Providence, RI 02903</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Providence</t>
+  </si>
+  <si>
+    <t>Sodexo, Inc and Affiliates</t>
+  </si>
+  <si>
+    <t>Smithfield</t>
+  </si>
+  <si>
+    <t>Local Union 1033, 410 S Main Street 3rd floor, Providence, RI 02906</t>
+  </si>
+  <si>
+    <t>Northeast Transportation Services LLC</t>
+  </si>
+  <si>
+    <t>Teamster Local Union 251 121 Brightridge Ave. East Providence, RI 02914</t>
+  </si>
+  <si>
+    <t>Monitronics International Inc (Brinks Home)</t>
+  </si>
+  <si>
+    <t>Dallas, Texas</t>
+  </si>
+  <si>
+    <t>BayFirst Financial Corporation </t>
+  </si>
+  <si>
+    <t>Warwick</t>
+  </si>
+  <si>
+    <t>Rubius Therapeutics</t>
+  </si>
+  <si>
     <t>Santander</t>
   </si>
   <si>
     <t>East Providence</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Angelica</t>
   </si>
   <si>
     <t>Pawtucket</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Teamster Local Union 251, 121 Brightridge Ave., East Providence, RI 02914</t>
   </si>
   <si>
     <t>Honeywell</t>
   </si>
   <si>
-    <t>Smithfield</t>
-  </si>
-  <si>
     <t>Santander*</t>
   </si>
   <si>
@@ -102,9 +158,6 @@
     <t>Providence Mariott*</t>
   </si>
   <si>
-    <t>Providence</t>
-  </si>
-  <si>
     <t>Omni Hotel &amp; Resorts*</t>
   </si>
   <si>
@@ -129,9 +182,6 @@
     <t>Cranston</t>
   </si>
   <si>
-    <t>Teamster Local Union 251 121 Brightridge Ave. East Providence, RI 02914</t>
-  </si>
-  <si>
     <t>YMCA of Pawtucket *</t>
   </si>
   <si>
@@ -147,15 +197,18 @@
     <t>The Preservation Society of Newport County *</t>
   </si>
   <si>
+    <t>Bloomin Brands*</t>
+  </si>
+  <si>
+    <t>Warwick, Providence</t>
+  </si>
+  <si>
+    <t>Eastern Speciality/Check n GO*</t>
+  </si>
+  <si>
     <t>RI</t>
   </si>
   <si>
-    <t>Bloomin Brands*</t>
-  </si>
-  <si>
-    <t>Eastern Speciality/Check n GO*</t>
-  </si>
-  <si>
     <t>CB Chadwick-BaRoss*</t>
   </si>
   <si>
@@ -186,9 +239,6 @@
     <t>HM Host*</t>
   </si>
   <si>
-    <t>Warwick</t>
-  </si>
-  <si>
     <t>Spectrum Pharmaceuticals</t>
   </si>
   <si>
@@ -198,6 +248,9 @@
     <t>Tuition Management Systems</t>
   </si>
   <si>
+    <t>4/1/2019,  8/30/2019</t>
+  </si>
+  <si>
     <t>Agoda Travel Operations USA, Inc.</t>
   </si>
   <si>
@@ -240,6 +293,9 @@
     <t>Benny's</t>
   </si>
   <si>
+    <t>11/30/2017, 12/10/2017, and 12/31/2017</t>
+  </si>
+  <si>
     <t>Homemade Real Foods</t>
   </si>
   <si>
@@ -261,6 +317,9 @@
     <t>Optum</t>
   </si>
   <si>
+    <t>4/01/16, 4/07/16</t>
+  </si>
+  <si>
     <t>Sam's Club</t>
   </si>
   <si>
@@ -360,6 +419,9 @@
     <t>BNY Mellon</t>
   </si>
   <si>
+    <t>10/28/2011, 11/10/2011</t>
+  </si>
+  <si>
     <t>Flextronics Americas LLC</t>
   </si>
   <si>
@@ -399,9 +461,15 @@
     <t>Leviton Mfg</t>
   </si>
   <si>
+    <t>1/20/10, 2/19/10</t>
+  </si>
+  <si>
     <t>Liz Clayborne</t>
   </si>
   <si>
+    <t>4/19/10, 4/30/10</t>
+  </si>
+  <si>
     <t>NE Joint Board, Local 324, UNITE HERE</t>
   </si>
   <si>
@@ -445,73 +513,13 @@
   </si>
   <si>
     <t>East Providence and Providence</t>
-  </si>
-  <si>
-    <t>Company Name (* Denotes Covid 19 Related WARN)</t>
-  </si>
-  <si>
-    <t>2022 Rhode Island WARN Report</t>
-  </si>
-  <si>
-    <t>Warwick, Providence</t>
-  </si>
-  <si>
-    <t>4/1/2019,  8/30/2019</t>
-  </si>
-  <si>
-    <t>11/30/2017, 12/10/2017, and 12/31/2017</t>
-  </si>
-  <si>
-    <t>4/01/16, 4/07/16</t>
-  </si>
-  <si>
-    <t>10/28/2011, 11/10/2011</t>
-  </si>
-  <si>
-    <t>1/20/10, 2/19/10</t>
-  </si>
-  <si>
-    <t>4/19/10, 4/30/10</t>
-  </si>
-  <si>
-    <t>Rubius Therapeutics</t>
-  </si>
-  <si>
-    <t>BayFirst Financial Corporation </t>
-  </si>
-  <si>
-    <t>Monitronics International Inc (Brinks Home)</t>
-  </si>
-  <si>
-    <t>Dallas, Texas</t>
-  </si>
-  <si>
-    <t>Northeast Transportation Services LLC</t>
-  </si>
-  <si>
-    <t>Sodexo, Inc and Affiliates</t>
-  </si>
-  <si>
-    <t>Local Union 1033, 410 S Main Street 3rd floor, Providence, RI 02906</t>
-  </si>
-  <si>
-    <t>Aramark Facility Services, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Providence</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>226 South Main Street #2 Providence, RI 02903</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -552,12 +560,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -630,39 +632,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -981,28 +983,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3738B5CD-B8C2-F94D-89AB-E4F2B5C04FF4}">
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="92.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="92.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="18" t="s">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1024,288 +1026,287 @@
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
     </row>
-    <row r="3" spans="1:9" ht="31.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+    <row r="3" spans="1:9" ht="31.15">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="21">
       <c r="A4" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="13.15">
+      <c r="A5" s="10">
+        <v>45153</v>
+      </c>
+      <c r="B5" s="13">
+        <v>45153</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="17">
+        <v>52</v>
+      </c>
+      <c r="F5" s="10">
+        <v>45153</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="15" customFormat="1" ht="13.15">
+      <c r="A6" s="13">
+        <v>45112</v>
+      </c>
+      <c r="B6" s="13">
+        <v>45112</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="15">
+        <v>211</v>
+      </c>
+      <c r="F6" s="13">
+        <v>45138</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="15" customFormat="1" ht="13.15">
+      <c r="A7" s="13">
+        <v>45107</v>
+      </c>
+      <c r="B7" s="13">
+        <v>45111</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="15">
+        <v>249</v>
+      </c>
+      <c r="F7" s="13">
+        <v>45138</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A8" s="13">
+        <v>45063</v>
+      </c>
+      <c r="B8" s="13">
+        <v>42522</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="15">
+        <v>169</v>
+      </c>
+      <c r="F8" s="13">
+        <v>45086</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="14">
+        <v>44949</v>
+      </c>
+      <c r="B9" s="13">
+        <v>44950</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="15">
+        <v>75</v>
+      </c>
+      <c r="F9" s="13">
+        <v>45010</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="21">
+      <c r="A10" s="10">
+        <v>44930</v>
+      </c>
+      <c r="B10" s="10">
+        <v>44937</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="12">
+        <v>81</v>
+      </c>
+      <c r="F10" s="10">
+        <v>44990</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.149999999999999" thickBot="1">
+      <c r="A11" s="4">
+        <v>44827</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44831</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="17" customFormat="1" ht="13.2">
-      <c r="A5" s="15">
-        <v>45112</v>
-      </c>
-      <c r="B5" s="15">
-        <v>45112</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="17">
-        <v>211</v>
-      </c>
-      <c r="F5" s="15">
-        <v>45138</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="17" customFormat="1" ht="13.2">
-      <c r="A6" s="15">
-        <v>45107</v>
-      </c>
-      <c r="B6" s="15">
-        <v>45111</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="E6" s="17">
-        <v>249</v>
-      </c>
-      <c r="F6" s="15">
-        <v>45138</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="13" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A7" s="15">
-        <v>45063</v>
-      </c>
-      <c r="B7" s="15">
-        <v>42522</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="17">
-        <v>169</v>
-      </c>
-      <c r="F7" s="15">
-        <v>45086</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="16">
-        <v>44949</v>
-      </c>
-      <c r="B8" s="15">
-        <v>44950</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="17">
-        <v>75</v>
-      </c>
-      <c r="F8" s="15">
-        <v>45010</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="21">
-      <c r="A9" s="12">
-        <v>44930</v>
-      </c>
-      <c r="B9" s="12">
-        <v>44937</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="E9" s="14">
-        <v>81</v>
-      </c>
-      <c r="F9" s="12">
-        <v>44990</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A10" s="4">
-        <v>44827</v>
-      </c>
-      <c r="B10" s="4">
-        <v>44831</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="9">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="F11" s="4">
         <v>44890</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="4">
-        <v>44817</v>
-      </c>
-      <c r="B11" s="4">
-        <v>44817</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="9">
-        <v>77</v>
-      </c>
-      <c r="F11" s="4">
-        <v>44880</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="4"/>
+      <c r="G11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4">
-        <v>44595</v>
+        <v>44817</v>
       </c>
       <c r="B12" s="4">
-        <v>44594</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="5">
-        <v>198</v>
+        <v>44817</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="7">
+        <v>77</v>
       </c>
       <c r="F12" s="4">
-        <v>44659</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="2"/>
+        <v>44880</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="4">
-        <v>44334</v>
+        <v>44595</v>
       </c>
       <c r="B13" s="4">
-        <v>44336</v>
+        <v>44594</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E13" s="5">
-        <v>94</v>
+        <v>198</v>
       </c>
       <c r="F13" s="4">
-        <v>44394</v>
+        <v>44659</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>13</v>
@@ -1313,174 +1314,172 @@
       <c r="H13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="4">
-        <v>44342</v>
+        <v>44334</v>
       </c>
       <c r="B14" s="4">
-        <v>44342</v>
+        <v>44336</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E14" s="5">
-        <v>464</v>
+        <v>94</v>
       </c>
       <c r="F14" s="4">
-        <v>44403</v>
+        <v>44394</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="4">
-        <v>44105</v>
+        <v>44342</v>
       </c>
       <c r="B15" s="4">
-        <v>44104</v>
+        <v>44342</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E15" s="5">
-        <v>13</v>
+        <v>464</v>
       </c>
       <c r="F15" s="4">
-        <v>44104</v>
+        <v>44403</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4">
-        <v>44064</v>
+        <v>44105</v>
       </c>
       <c r="B16" s="4">
-        <v>44068</v>
+        <v>44104</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E16" s="5">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F16" s="4">
-        <v>44061</v>
+        <v>44104</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4">
-        <v>44057</v>
+        <v>44064</v>
       </c>
       <c r="B17" s="4">
-        <v>44060</v>
+        <v>44068</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E17" s="5">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="F17" s="4">
-        <v>44057</v>
+        <v>44061</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4">
-        <v>44049</v>
+        <v>44057</v>
       </c>
       <c r="B18" s="4">
-        <v>44056</v>
+        <v>44060</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E18" s="5">
-        <v>272</v>
+        <v>106</v>
       </c>
       <c r="F18" s="4">
-        <v>43914</v>
+        <v>44057</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4">
-        <v>44054</v>
+        <v>44049</v>
       </c>
       <c r="B19" s="4">
-        <v>44040</v>
+        <v>44056</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E19" s="5">
-        <v>1043</v>
+        <v>272</v>
       </c>
       <c r="F19" s="4">
-        <v>44104</v>
+        <v>43914</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1491,404 +1490,406 @@
         <v>44040</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E20" s="5">
-        <v>296</v>
+        <v>1043</v>
       </c>
       <c r="F20" s="4">
         <v>44104</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4">
-        <v>44046</v>
+        <v>44054</v>
       </c>
       <c r="B21" s="4">
-        <v>44042</v>
+        <v>44040</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E21" s="5">
-        <v>73</v>
+        <v>296</v>
       </c>
       <c r="F21" s="4">
-        <v>44075</v>
+        <v>44104</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="4">
-        <v>44027</v>
+        <v>44046</v>
       </c>
       <c r="B22" s="4">
-        <v>44022</v>
+        <v>44042</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E22" s="5">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="F22" s="4">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="4">
-        <v>44004</v>
+        <v>44027</v>
       </c>
       <c r="B23" s="4">
-        <v>44004</v>
+        <v>44022</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E23" s="5">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="F23" s="4">
-        <v>43973</v>
+        <v>44044</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4">
-        <v>44012</v>
+        <v>44004</v>
       </c>
       <c r="B24" s="4">
-        <v>44012</v>
+        <v>44004</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="E24" s="5">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F24" s="4">
-        <v>44012</v>
+        <v>43973</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="4">
-        <v>43985</v>
+        <v>44012</v>
       </c>
       <c r="B25" s="4">
-        <v>43985</v>
+        <v>44012</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E25" s="5">
         <v>65</v>
       </c>
       <c r="F25" s="4">
-        <v>43904</v>
+        <v>44012</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4">
+        <v>43985</v>
+      </c>
+      <c r="B26" s="4">
+        <v>43985</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="5">
+        <v>65</v>
+      </c>
+      <c r="F26" s="4">
+        <v>43904</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="4">
         <v>43980</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B27" s="4">
         <v>43980</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="5">
+      <c r="C27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="5">
         <v>231</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F27" s="4">
         <v>43980</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="8">
+      <c r="G27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="6">
         <v>44063</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B28" s="6">
         <v>44068</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="5">
+      <c r="C28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="5">
         <v>72</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F28" s="4">
         <v>43958</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="7">
+      <c r="G28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="6">
         <v>43948</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B29" s="4">
         <v>43948</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E28" s="5">
+      <c r="C29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="5">
         <v>136</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F29" s="4">
         <v>43906</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="7">
+      <c r="G29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="6">
         <v>43942</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B30" s="4">
         <v>43942</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="5">
+      <c r="C30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="5">
         <v>5</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F30" s="4">
         <v>43942</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="4">
-        <v>43941</v>
-      </c>
-      <c r="B30" s="4">
-        <v>43944</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="5">
-        <v>1</v>
-      </c>
-      <c r="F30" s="4">
-        <v>43941</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="4">
-        <v>43907</v>
+        <v>43941</v>
       </c>
       <c r="B31" s="4">
-        <v>43938</v>
+        <v>43944</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E31" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F31" s="4">
-        <v>43938</v>
+        <v>43941</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="4">
-        <v>43927</v>
+        <v>43907</v>
       </c>
       <c r="B32" s="4">
-        <v>43935</v>
+        <v>43938</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E32" s="5">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="F32" s="4">
-        <v>43906</v>
+        <v>43938</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="4">
-        <v>43925</v>
+        <v>43927</v>
       </c>
       <c r="B33" s="4">
-        <v>43925</v>
+        <v>43935</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E33" s="5">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="F33" s="4">
-        <v>43927</v>
+        <v>43906</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="4">
-        <v>43916</v>
+        <v>43925</v>
       </c>
       <c r="B34" s="4">
-        <v>43917</v>
+        <v>43925</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E34" s="5">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="F34" s="4">
-        <v>43916</v>
+        <v>43927</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I34" s="2"/>
     </row>
@@ -1897,648 +1898,648 @@
         <v>43916</v>
       </c>
       <c r="B35" s="4">
-        <v>43913</v>
+        <v>43917</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E35" s="5">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="F35" s="4">
-        <v>43898</v>
+        <v>43916</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="4">
-        <v>43910</v>
+        <v>43916</v>
       </c>
       <c r="B36" s="4">
-        <v>43910</v>
+        <v>43913</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E36" s="5">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="F36" s="4">
-        <v>43910</v>
+        <v>43898</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="4">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B37" s="4">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E37" s="5">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="F37" s="4">
-        <v>43906</v>
+        <v>43910</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="4">
-        <v>43509</v>
+        <v>43909</v>
       </c>
       <c r="B38" s="4">
-        <v>43510</v>
+        <v>43913</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="E38" s="5">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="F38" s="4">
-        <v>43567</v>
+        <v>43906</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4">
-        <v>43486</v>
+        <v>43509</v>
       </c>
       <c r="B39" s="4">
-        <v>43486</v>
+        <v>43510</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E39" s="5">
-        <v>59</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>140</v>
+        <v>1</v>
+      </c>
+      <c r="F39" s="4">
+        <v>43567</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4">
-        <v>43479</v>
+        <v>43486</v>
       </c>
       <c r="B40" s="4">
-        <v>43479</v>
+        <v>43486</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E40" s="5">
-        <v>62</v>
-      </c>
-      <c r="F40" s="4">
-        <v>43542</v>
+        <v>59</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="4">
-        <v>43405</v>
+        <v>43479</v>
       </c>
       <c r="B41" s="4">
-        <v>43413</v>
+        <v>43479</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E41" s="5">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F41" s="4">
-        <v>43131</v>
+        <v>43542</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4">
-        <v>76277</v>
+        <v>43405</v>
       </c>
       <c r="B42" s="4">
-        <v>43405</v>
+        <v>43413</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E42" s="5">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="F42" s="4">
-        <v>43465</v>
+        <v>43131</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="4">
-        <v>76268</v>
+        <v>76277</v>
       </c>
       <c r="B43" s="4">
         <v>43405</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E43" s="5">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="F43" s="4">
-        <v>43469</v>
+        <v>43465</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="4">
-        <v>43382</v>
+        <v>76268</v>
       </c>
       <c r="B44" s="4">
-        <v>43382</v>
+        <v>43405</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E44" s="5">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F44" s="4">
-        <v>43382</v>
+        <v>43469</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="4">
-        <v>43362</v>
+        <v>43382</v>
       </c>
       <c r="B45" s="4">
-        <v>43363</v>
+        <v>43382</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="E45" s="5">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="F45" s="4">
-        <v>43434</v>
+        <v>43382</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="4">
-        <v>43273</v>
+        <v>43362</v>
       </c>
       <c r="B46" s="4">
-        <v>43276</v>
+        <v>43363</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="E46" s="5">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="F46" s="4">
-        <v>43339</v>
+        <v>43434</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I46" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="4">
-        <v>43252</v>
+        <v>43273</v>
       </c>
       <c r="B47" s="4">
-        <v>43252</v>
+        <v>43276</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="5">
         <v>64</v>
       </c>
-      <c r="E47" s="5">
-        <v>149</v>
-      </c>
       <c r="F47" s="4">
-        <v>43312</v>
+        <v>43339</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="4">
-        <v>43042</v>
+        <v>43252</v>
       </c>
       <c r="B48" s="4">
-        <v>43042</v>
+        <v>43252</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E48" s="5">
-        <v>477</v>
+        <v>149</v>
       </c>
       <c r="F48" s="4">
-        <v>43112</v>
+        <v>43312</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="4">
-        <v>42986</v>
+        <v>43042</v>
       </c>
       <c r="B49" s="4">
-        <v>42990</v>
+        <v>43042</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E49" s="5">
-        <v>171</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>141</v>
+        <v>477</v>
+      </c>
+      <c r="F49" s="4">
+        <v>43112</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="4">
-        <v>42495</v>
+        <v>42986</v>
       </c>
       <c r="B50" s="4">
-        <v>42496</v>
+        <v>42990</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="E50" s="5">
-        <v>187</v>
-      </c>
-      <c r="F50" s="4">
-        <v>42492</v>
+        <v>171</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="4">
-        <v>42494</v>
+        <v>42495</v>
       </c>
       <c r="B51" s="4">
-        <v>42495</v>
+        <v>42496</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E51" s="5">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="F51" s="4">
-        <v>42551</v>
+        <v>42492</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="I51" s="2"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="4">
-        <v>42468</v>
+        <v>42494</v>
       </c>
       <c r="B52" s="4">
-        <v>42468</v>
+        <v>42495</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="E52" s="5">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="F52" s="4">
-        <v>42528</v>
+        <v>42551</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="4">
-        <v>42401</v>
+        <v>42468</v>
       </c>
       <c r="B53" s="4">
-        <v>42401</v>
+        <v>42468</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E53" s="5">
-        <v>60</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>142</v>
+        <v>154</v>
+      </c>
+      <c r="F53" s="4">
+        <v>42528</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="4">
-        <v>42384</v>
+        <v>42401</v>
       </c>
       <c r="B54" s="4">
-        <v>42384</v>
+        <v>42401</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E54" s="5">
-        <v>131</v>
-      </c>
-      <c r="F54" s="4">
-        <v>42405</v>
+        <v>60</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="4">
-        <v>42326</v>
+        <v>42384</v>
       </c>
       <c r="B55" s="4">
-        <v>42326</v>
+        <v>42384</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E55" s="5">
-        <v>241</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>77</v>
+        <v>131</v>
+      </c>
+      <c r="F55" s="4">
+        <v>42405</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="4">
-        <v>42318</v>
+        <v>42326</v>
       </c>
       <c r="B56" s="4">
-        <v>42320</v>
+        <v>42326</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>79</v>
+        <v>15</v>
+      </c>
+      <c r="E56" s="5">
+        <v>241</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="4">
-        <v>42178</v>
+        <v>42318</v>
       </c>
       <c r="B57" s="4">
-        <v>42180</v>
+        <v>42320</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E57" s="5">
-        <v>70</v>
-      </c>
-      <c r="F57" s="4">
-        <v>42240</v>
+        <v>30</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="4">
-        <v>42069</v>
+        <v>42178</v>
       </c>
       <c r="B58" s="4">
-        <v>42074</v>
+        <v>42180</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>83</v>
+        <v>15</v>
+      </c>
+      <c r="E58" s="5">
+        <v>70</v>
       </c>
       <c r="F58" s="4">
-        <v>42141</v>
+        <v>42240</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>13</v>
@@ -2546,109 +2547,109 @@
       <c r="H58" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="4">
-        <v>42062</v>
+        <v>42069</v>
       </c>
       <c r="B59" s="4">
-        <v>42065</v>
+        <v>42074</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>86</v>
+        <v>102</v>
+      </c>
+      <c r="F59" s="4">
+        <v>42141</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I59" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="4">
-        <v>41850</v>
+        <v>42062</v>
       </c>
       <c r="B60" s="4">
-        <v>41850</v>
+        <v>42065</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E60" s="5">
-        <v>5</v>
-      </c>
-      <c r="F60" s="4">
-        <v>41912</v>
+        <v>47</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="4">
-        <v>41820</v>
+        <v>41850</v>
       </c>
       <c r="B61" s="4">
-        <v>41821</v>
+        <v>41850</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="E61" s="5">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="F61" s="4">
-        <v>41882</v>
+        <v>41912</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="4">
-        <v>41724</v>
+        <v>41820</v>
       </c>
       <c r="B62" s="4">
-        <v>41729</v>
+        <v>41821</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E62" s="5">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="F62" s="4">
-        <v>41774</v>
+        <v>41882</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>13</v>
@@ -2656,139 +2657,139 @@
       <c r="H62" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I62" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="4">
-        <v>41593</v>
+        <v>41724</v>
       </c>
       <c r="B63" s="4">
-        <v>41596</v>
+        <v>41729</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E63" s="5">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="F63" s="4">
-        <v>41654</v>
+        <v>41774</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I63" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="4">
-        <v>41547</v>
+        <v>41593</v>
       </c>
       <c r="B64" s="4">
-        <v>41547</v>
+        <v>41596</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E64" s="5">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F64" s="4">
-        <v>41608</v>
+        <v>41654</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="4">
-        <v>41495</v>
+        <v>41547</v>
       </c>
       <c r="B65" s="4">
-        <v>41502</v>
+        <v>41547</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E65" s="5">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="F65" s="4">
-        <v>41555</v>
+        <v>41608</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="4">
-        <v>41425</v>
+        <v>41495</v>
       </c>
       <c r="B66" s="4">
-        <v>41438</v>
+        <v>41502</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E66" s="5">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="F66" s="4">
-        <v>41425</v>
+        <v>41555</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="4">
-        <v>41416</v>
+        <v>41425</v>
       </c>
       <c r="B67" s="4">
-        <v>41417</v>
+        <v>41438</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E67" s="5">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="F67" s="4">
-        <v>41485</v>
+        <v>41425</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>13</v>
@@ -2797,464 +2798,464 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="4">
-        <v>41285</v>
+        <v>41416</v>
       </c>
       <c r="B68" s="4">
-        <v>41285</v>
+        <v>41417</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>79</v>
+        <v>27</v>
+      </c>
+      <c r="E68" s="5">
+        <v>62</v>
       </c>
       <c r="F68" s="4">
-        <v>41347</v>
+        <v>41485</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I68" s="2"/>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="4">
-        <v>41087</v>
+        <v>41285</v>
       </c>
       <c r="B69" s="4">
-        <v>41087</v>
+        <v>41285</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E69" s="5">
-        <v>51</v>
+        <v>117</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="F69" s="4">
-        <v>41148</v>
+        <v>41347</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I69" s="2"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="4">
-        <v>41011</v>
+        <v>41087</v>
       </c>
       <c r="B70" s="4">
-        <v>41011</v>
+        <v>41087</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="E70" s="5">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="F70" s="4">
-        <v>41071</v>
+        <v>41148</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I70" s="1" t="s">
-        <v>101</v>
-      </c>
+      <c r="I70" s="2"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="4">
-        <v>40938</v>
+        <v>41011</v>
       </c>
       <c r="B71" s="4">
-        <v>40939</v>
+        <v>41011</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E71" s="5">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="F71" s="4">
-        <v>41000</v>
+        <v>41071</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="4">
-        <v>40833</v>
+        <v>40938</v>
       </c>
       <c r="B72" s="4">
-        <v>40833</v>
+        <v>40939</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E72" s="5">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="F72" s="4">
-        <v>40833</v>
+        <v>41000</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I72" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="4">
-        <v>40785</v>
+        <v>40833</v>
       </c>
       <c r="B73" s="4">
-        <v>40788</v>
+        <v>40833</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="E73" s="5">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="F73" s="4">
-        <v>40846</v>
+        <v>40833</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="4">
-        <v>40752</v>
+        <v>40785</v>
       </c>
       <c r="B74" s="4">
-        <v>40758</v>
+        <v>40788</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E74" s="5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F74" s="4">
-        <v>40816</v>
+        <v>40846</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="4">
-        <v>40753</v>
+        <v>40752</v>
       </c>
       <c r="B75" s="4">
-        <v>40756</v>
+        <v>40758</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E75" s="5">
-        <v>98</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>143</v>
+        <v>9</v>
+      </c>
+      <c r="F75" s="4">
+        <v>40816</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="4">
-        <v>40688</v>
+        <v>40753</v>
       </c>
       <c r="B76" s="4">
-        <v>40690</v>
+        <v>40756</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="E76" s="5">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="4">
-        <v>40634</v>
+        <v>40688</v>
       </c>
       <c r="B77" s="4">
-        <v>40634</v>
+        <v>40690</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="E77" s="5">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I77" s="1"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="4">
-        <v>40589</v>
+        <v>40634</v>
       </c>
       <c r="B78" s="4">
-        <v>40589</v>
+        <v>40634</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="E78" s="5">
-        <v>5</v>
-      </c>
-      <c r="F78" s="4">
-        <v>40644</v>
+        <v>98</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I78" s="1"/>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="4">
-        <v>40565</v>
+        <v>40589</v>
       </c>
       <c r="B79" s="4">
-        <v>40568</v>
+        <v>40589</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="E79" s="5">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="F79" s="4">
-        <v>40592</v>
+        <v>40644</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="4">
-        <v>40410</v>
+        <v>40565</v>
       </c>
       <c r="B80" s="4">
-        <v>40413</v>
+        <v>40568</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E80" s="5">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="F80" s="4">
-        <v>40452</v>
+        <v>40592</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I80" s="1"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="4">
-        <v>40392</v>
+        <v>40410</v>
       </c>
       <c r="B81" s="4">
-        <v>40217</v>
+        <v>40413</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="E81" s="5">
-        <v>26</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>118</v>
+        <v>89</v>
+      </c>
+      <c r="F81" s="4">
+        <v>40452</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I81" s="1"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="4">
-        <v>40214</v>
+        <v>40392</v>
       </c>
       <c r="B82" s="4">
         <v>40217</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="E82" s="5">
-        <v>165</v>
-      </c>
-      <c r="F82" s="4">
-        <v>40217</v>
+        <v>26</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I82" s="1"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="4">
-        <v>40178</v>
+        <v>40214</v>
       </c>
       <c r="B83" s="4">
-        <v>40182</v>
+        <v>40217</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="E83" s="5">
-        <v>8</v>
+        <v>165</v>
       </c>
       <c r="F83" s="4">
-        <v>40210</v>
+        <v>40217</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I83" s="1"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="4">
-        <v>40137</v>
+        <v>40178</v>
       </c>
       <c r="B84" s="4">
-        <v>40141</v>
+        <v>40182</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E84" s="5">
-        <v>66</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>144</v>
+        <v>8</v>
+      </c>
+      <c r="F84" s="4">
+        <v>40210</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I84" s="1"/>
     </row>
@@ -3266,123 +3267,123 @@
         <v>40141</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E85" s="5">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I85" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="I85" s="1"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="4">
-        <v>40094</v>
+        <v>40137</v>
       </c>
       <c r="B86" s="4">
-        <v>40094</v>
+        <v>40141</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F86" s="4">
-        <v>40147</v>
+        <v>43</v>
+      </c>
+      <c r="E86" s="5">
+        <v>103</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I86" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="4">
-        <v>40091</v>
+        <v>40094</v>
       </c>
       <c r="B87" s="4">
-        <v>40091</v>
+        <v>40094</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E87" s="5">
-        <v>63</v>
+        <v>15</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="F87" s="4">
-        <v>40148</v>
+        <v>40147</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="4">
-        <v>40046</v>
+        <v>40091</v>
       </c>
       <c r="B88" s="4">
-        <v>40050</v>
+        <v>40091</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>125</v>
+        <v>43</v>
+      </c>
+      <c r="E88" s="5">
+        <v>63</v>
       </c>
       <c r="F88" s="4">
-        <v>39895</v>
+        <v>40148</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I88" s="2"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="4">
-        <v>40007</v>
+        <v>40046</v>
       </c>
       <c r="B89" s="4">
-        <v>40008</v>
+        <v>40050</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E89" s="5">
-        <v>130</v>
+        <v>43</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="F89" s="4">
         <v>39895</v>
@@ -3391,7 +3392,7 @@
         <v>13</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I89" s="2"/>
     </row>
@@ -3403,123 +3404,121 @@
         <v>40008</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>9</v>
+        <v>149</v>
       </c>
       <c r="E90" s="5">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="F90" s="4">
-        <v>40001</v>
+        <v>39895</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="4">
-        <v>39995</v>
+        <v>40007</v>
       </c>
       <c r="B91" s="4">
-        <v>39895</v>
+        <v>40008</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="D91" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E91" s="5">
         <v>26</v>
       </c>
-      <c r="E91" s="5">
-        <v>14</v>
-      </c>
       <c r="F91" s="4">
-        <v>39895</v>
+        <v>40001</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I91" s="2"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="4">
-        <v>39980</v>
+        <v>39995</v>
       </c>
       <c r="B92" s="4">
-        <v>39996</v>
+        <v>39895</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="E92" s="5">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F92" s="4">
-        <v>40041</v>
+        <v>39895</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I92" s="2"/>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="4">
-        <v>39931</v>
+        <v>39980</v>
       </c>
       <c r="B93" s="4">
-        <v>39932</v>
+        <v>39996</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="E93" s="5">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="F93" s="4">
-        <v>39994</v>
+        <v>40041</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I93" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="I93" s="2"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="4">
-        <v>39918</v>
+        <v>39931</v>
       </c>
       <c r="B94" s="4">
-        <v>39918</v>
+        <v>39932</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="E94" s="5">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="F94" s="4">
         <v>39994</v>
@@ -3528,171 +3527,200 @@
         <v>13</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I94" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="4">
-        <v>39883</v>
+        <v>39918</v>
       </c>
       <c r="B95" s="4">
-        <v>39882</v>
+        <v>39918</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="E95" s="5">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F95" s="4">
-        <v>39943</v>
+        <v>39994</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I95" s="2"/>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="4">
-        <v>39881</v>
+        <v>39883</v>
       </c>
       <c r="B96" s="4">
-        <v>39881</v>
+        <v>39882</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E96" s="5">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="F96" s="4">
-        <v>39941</v>
+        <v>39943</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I96" s="2"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="4">
-        <v>39876</v>
+        <v>39881</v>
       </c>
       <c r="B97" s="4">
-        <v>39878</v>
+        <v>39881</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E97" s="5">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F97" s="4">
-        <v>39935</v>
+        <v>39941</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I97" s="2"/>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="4">
-        <v>39877</v>
+        <v>39876</v>
       </c>
       <c r="B98" s="4">
-        <v>39877</v>
+        <v>39878</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E98" s="5">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="F98" s="4">
-        <v>39943</v>
+        <v>39935</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="4">
-        <v>39863</v>
+        <v>39877</v>
       </c>
       <c r="B99" s="4">
-        <v>39864</v>
+        <v>39877</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="E99" s="5">
-        <v>270</v>
+        <v>119</v>
       </c>
       <c r="F99" s="4">
-        <v>39828</v>
+        <v>39943</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I99" s="2"/>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="4">
+        <v>39863</v>
+      </c>
+      <c r="B100" s="4">
+        <v>39864</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E100" s="5">
+        <v>270</v>
+      </c>
+      <c r="F100" s="4">
+        <v>39828</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I100" s="2"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="4">
         <v>39832</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B101" s="4">
         <v>39825</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E100" s="5">
+      <c r="C101" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E101" s="5">
         <v>121</v>
       </c>
-      <c r="F100" s="4">
+      <c r="F101" s="4">
         <v>39821</v>
       </c>
-      <c r="G100" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I100" s="2"/>
+      <c r="G101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I101" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/warn-scraper/cache/ri/WARN Report.xlsx
+++ b/data/warn-scraper/cache/ri/WARN Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marjorie.Cassion\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmwilsonri/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{E0478F4C-7C0D-4AD3-ADDC-5A875CA5E711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F2039BA-9917-4030-B927-3F4710941F6F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1475A8D2-8A13-E641-A5BA-13F2C90F9F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
+    <workbookView xWindow="31140" yWindow="200" windowWidth="23260" windowHeight="12580" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="162">
   <si>
     <t>Rhode Island WARN Report</t>
   </si>
@@ -513,6 +513,15 @@
   </si>
   <si>
     <t>East Providence and Providence</t>
+  </si>
+  <si>
+    <t>10/21/23 &amp; 12/30/23</t>
+  </si>
+  <si>
+    <t>CVS Health</t>
+  </si>
+  <si>
+    <t>Cumberland/Woonsocket</t>
   </si>
 </sst>
 </file>
@@ -983,23 +992,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3738B5CD-B8C2-F94D-89AB-E4F2B5C04FF4}">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="92.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="92.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1026,7 +1035,7 @@
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
     </row>
-    <row r="3" spans="1:9" ht="31.15">
+    <row r="3" spans="1:9" ht="31">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -1066,76 +1075,74 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="13.15">
-      <c r="A5" s="10">
+    <row r="5" spans="1:9" ht="21">
+      <c r="A5" s="13">
+        <v>45156</v>
+      </c>
+      <c r="B5" s="13">
+        <v>45156</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="17">
+        <v>198</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" s="11" customFormat="1" ht="13">
+      <c r="A6" s="10">
         <v>45153</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B6" s="13">
         <v>45153</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E6" s="17">
         <v>52</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F6" s="10">
         <v>45153</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="15" customFormat="1" ht="13.15">
-      <c r="A6" s="13">
+      <c r="G6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="15" customFormat="1" ht="13">
+      <c r="A7" s="13">
         <v>45112</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B7" s="13">
         <v>45112</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="15">
-        <v>211</v>
-      </c>
-      <c r="F6" s="13">
-        <v>45138</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="15" customFormat="1" ht="13.15">
-      <c r="A7" s="13">
-        <v>45107</v>
-      </c>
-      <c r="B7" s="13">
-        <v>45111</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E7" s="15">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="F7" s="13">
         <v>45138</v>
@@ -1150,246 +1157,248 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="8" spans="1:9" s="15" customFormat="1" ht="13">
       <c r="A8" s="13">
+        <v>45107</v>
+      </c>
+      <c r="B8" s="13">
+        <v>45111</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="15">
+        <v>249</v>
+      </c>
+      <c r="F8" s="13">
+        <v>45138</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="11" customFormat="1" ht="18.5" customHeight="1">
+      <c r="A9" s="13">
         <v>45063</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B9" s="13">
         <v>42522</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C9" s="15" t="s">
         <v>19</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="15">
-        <v>169</v>
-      </c>
-      <c r="F8" s="13">
-        <v>45086</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="14">
-        <v>44949</v>
-      </c>
-      <c r="B9" s="13">
-        <v>44950</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>22</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="15">
+        <v>169</v>
+      </c>
+      <c r="F9" s="13">
+        <v>45086</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="14">
+        <v>44949</v>
+      </c>
+      <c r="B10" s="13">
+        <v>44950</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="15">
         <v>75</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F10" s="13">
         <v>45010</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="15" t="s">
+      <c r="G10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="21">
-      <c r="A10" s="10">
+    <row r="11" spans="1:9" ht="21">
+      <c r="A11" s="10">
         <v>44930</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B11" s="10">
         <v>44937</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E11" s="12">
         <v>81</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F11" s="10">
         <v>44990</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.149999999999999" thickBot="1">
-      <c r="A11" s="4">
+      <c r="G11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" ht="17" thickBot="1">
+      <c r="A12" s="4">
         <v>44827</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B12" s="4">
         <v>44831</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E12" s="7">
         <v>1</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F12" s="4">
         <v>44890</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="4">
-        <v>44817</v>
-      </c>
-      <c r="B12" s="4">
-        <v>44817</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="7">
-        <v>77</v>
-      </c>
-      <c r="F12" s="4">
-        <v>44880</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="4"/>
+      <c r="G12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="4">
-        <v>44595</v>
+        <v>44817</v>
       </c>
       <c r="B13" s="4">
-        <v>44594</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="5">
-        <v>198</v>
+        <v>44817</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="7">
+        <v>77</v>
       </c>
       <c r="F13" s="4">
-        <v>44659</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="2"/>
+        <v>44880</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="4">
-        <v>44334</v>
+        <v>44595</v>
       </c>
       <c r="B14" s="4">
-        <v>44336</v>
+        <v>44594</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E14" s="5">
-        <v>94</v>
+        <v>198</v>
       </c>
       <c r="F14" s="4">
-        <v>44394</v>
+        <v>44659</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="4">
-        <v>44342</v>
+        <v>44334</v>
       </c>
       <c r="B15" s="4">
-        <v>44342</v>
+        <v>44336</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E15" s="5">
-        <v>464</v>
+        <v>94</v>
       </c>
       <c r="F15" s="4">
-        <v>44403</v>
+        <v>44394</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4">
-        <v>44105</v>
+        <v>44342</v>
       </c>
       <c r="B16" s="4">
-        <v>44104</v>
+        <v>44342</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E16" s="5">
-        <v>13</v>
+        <v>464</v>
       </c>
       <c r="F16" s="4">
-        <v>44104</v>
+        <v>44403</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>13</v>
@@ -1401,22 +1410,22 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4">
-        <v>44064</v>
+        <v>44105</v>
       </c>
       <c r="B17" s="4">
-        <v>44068</v>
+        <v>44104</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E17" s="5">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F17" s="4">
-        <v>44061</v>
+        <v>44104</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>13</v>
@@ -1428,22 +1437,22 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4">
-        <v>44057</v>
+        <v>44064</v>
       </c>
       <c r="B18" s="4">
-        <v>44060</v>
+        <v>44068</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E18" s="5">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="F18" s="4">
-        <v>44057</v>
+        <v>44061</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>13</v>
@@ -1455,51 +1464,49 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4">
-        <v>44049</v>
+        <v>44057</v>
       </c>
       <c r="B19" s="4">
-        <v>44056</v>
+        <v>44060</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="5">
-        <v>272</v>
+        <v>106</v>
       </c>
       <c r="F19" s="4">
-        <v>43914</v>
+        <v>44057</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4">
-        <v>44054</v>
+        <v>44049</v>
       </c>
       <c r="B20" s="4">
-        <v>44040</v>
+        <v>44056</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E20" s="5">
-        <v>1043</v>
+        <v>272</v>
       </c>
       <c r="F20" s="4">
-        <v>44104</v>
+        <v>43914</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>13</v>
@@ -1519,13 +1526,13 @@
         <v>44040</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E21" s="5">
-        <v>296</v>
+        <v>1043</v>
       </c>
       <c r="F21" s="4">
         <v>44104</v>
@@ -1542,105 +1549,107 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="4">
-        <v>44046</v>
+        <v>44054</v>
       </c>
       <c r="B22" s="4">
-        <v>44042</v>
+        <v>44040</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E22" s="5">
-        <v>73</v>
+        <v>296</v>
       </c>
       <c r="F22" s="4">
-        <v>44075</v>
+        <v>44104</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="4">
-        <v>44027</v>
+        <v>44046</v>
       </c>
       <c r="B23" s="4">
-        <v>44022</v>
+        <v>44042</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E23" s="5">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="F23" s="4">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4">
-        <v>44004</v>
+        <v>44027</v>
       </c>
       <c r="B24" s="4">
-        <v>44004</v>
+        <v>44022</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E24" s="5">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="F24" s="4">
-        <v>43973</v>
+        <v>44044</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="4">
-        <v>44012</v>
+        <v>44004</v>
       </c>
       <c r="B25" s="4">
-        <v>44012</v>
+        <v>44004</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E25" s="5">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F25" s="4">
-        <v>44012</v>
+        <v>43973</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>13</v>
@@ -1652,13 +1661,13 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4">
-        <v>43985</v>
+        <v>44012</v>
       </c>
       <c r="B26" s="4">
-        <v>43985</v>
+        <v>44012</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>15</v>
@@ -1667,7 +1676,7 @@
         <v>65</v>
       </c>
       <c r="F26" s="4">
-        <v>43904</v>
+        <v>44012</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>13</v>
@@ -1679,49 +1688,49 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="4">
+        <v>43985</v>
+      </c>
+      <c r="B27" s="4">
+        <v>43985</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="5">
+        <v>65</v>
+      </c>
+      <c r="F27" s="4">
+        <v>43904</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="4">
         <v>43980</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B28" s="4">
         <v>43980</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="5">
-        <v>231</v>
-      </c>
-      <c r="F27" s="4">
-        <v>43980</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="6">
-        <v>44063</v>
-      </c>
-      <c r="B28" s="6">
-        <v>44068</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E28" s="5">
-        <v>72</v>
+        <v>231</v>
       </c>
       <c r="F28" s="4">
-        <v>43958</v>
+        <v>43980</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>13</v>
@@ -1733,22 +1742,22 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="6">
-        <v>43948</v>
-      </c>
-      <c r="B29" s="4">
-        <v>43948</v>
+        <v>44063</v>
+      </c>
+      <c r="B29" s="6">
+        <v>44068</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E29" s="5">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="F29" s="4">
-        <v>43906</v>
+        <v>43958</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>13</v>
@@ -1760,49 +1769,49 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B30" s="4">
+        <v>43948</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="5">
+        <v>136</v>
+      </c>
+      <c r="F30" s="4">
+        <v>43906</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="6">
         <v>43942</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B31" s="4">
         <v>43942</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E31" s="5">
         <v>5</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F31" s="4">
         <v>43942</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="4">
-        <v>43941</v>
-      </c>
-      <c r="B31" s="4">
-        <v>43944</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="5">
-        <v>1</v>
-      </c>
-      <c r="F31" s="4">
-        <v>43941</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>13</v>
@@ -1814,22 +1823,22 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="4">
-        <v>43907</v>
+        <v>43941</v>
       </c>
       <c r="B32" s="4">
-        <v>43938</v>
+        <v>43944</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E32" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F32" s="4">
-        <v>43938</v>
+        <v>43941</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>13</v>
@@ -1841,22 +1850,22 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="4">
-        <v>43927</v>
+        <v>43907</v>
       </c>
       <c r="B33" s="4">
-        <v>43935</v>
+        <v>43938</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E33" s="5">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="F33" s="4">
-        <v>43906</v>
+        <v>43938</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>13</v>
@@ -1868,22 +1877,22 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="4">
-        <v>43925</v>
+        <v>43927</v>
       </c>
       <c r="B34" s="4">
-        <v>43925</v>
+        <v>43935</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E34" s="5">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="F34" s="4">
-        <v>43927</v>
+        <v>43906</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>13</v>
@@ -1895,22 +1904,22 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="4">
-        <v>43916</v>
+        <v>43925</v>
       </c>
       <c r="B35" s="4">
-        <v>43917</v>
+        <v>43925</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E35" s="5">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="F35" s="4">
-        <v>43916</v>
+        <v>43927</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>13</v>
@@ -1925,75 +1934,75 @@
         <v>43916</v>
       </c>
       <c r="B36" s="4">
-        <v>43913</v>
+        <v>43917</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E36" s="5">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="F36" s="4">
-        <v>43898</v>
+        <v>43916</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="4">
-        <v>43910</v>
+        <v>43916</v>
       </c>
       <c r="B37" s="4">
-        <v>43910</v>
+        <v>43913</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E37" s="5">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="F37" s="4">
-        <v>43910</v>
+        <v>43898</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="4">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B38" s="4">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E38" s="5">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="F38" s="4">
-        <v>43906</v>
+        <v>43910</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>13</v>
@@ -2005,25 +2014,25 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4">
-        <v>43509</v>
+        <v>43909</v>
       </c>
       <c r="B39" s="4">
-        <v>43510</v>
+        <v>43913</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="E39" s="5">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="F39" s="4">
-        <v>43567</v>
+        <v>43906</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>13</v>
@@ -2032,22 +2041,22 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4">
-        <v>43486</v>
+        <v>43509</v>
       </c>
       <c r="B40" s="4">
-        <v>43486</v>
+        <v>43510</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E40" s="5">
-        <v>59</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>70</v>
+        <v>1</v>
+      </c>
+      <c r="F40" s="4">
+        <v>43567</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>12</v>
@@ -2059,22 +2068,22 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="4">
-        <v>43479</v>
+        <v>43486</v>
       </c>
       <c r="B41" s="4">
-        <v>43479</v>
+        <v>43486</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E41" s="5">
-        <v>62</v>
-      </c>
-      <c r="F41" s="4">
-        <v>43542</v>
+        <v>59</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>12</v>
@@ -2086,25 +2095,25 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4">
-        <v>43405</v>
+        <v>43479</v>
       </c>
       <c r="B42" s="4">
-        <v>43413</v>
+        <v>43479</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E42" s="5">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F42" s="4">
-        <v>43131</v>
+        <v>43542</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>13</v>
@@ -2113,25 +2122,25 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="4">
-        <v>76277</v>
+        <v>43405</v>
       </c>
       <c r="B43" s="4">
-        <v>43405</v>
+        <v>43413</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E43" s="5">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="F43" s="4">
-        <v>43465</v>
+        <v>43131</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>13</v>
@@ -2140,22 +2149,22 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="4">
-        <v>76268</v>
+        <v>76277</v>
       </c>
       <c r="B44" s="4">
         <v>43405</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E44" s="5">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="F44" s="4">
-        <v>43469</v>
+        <v>43465</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>12</v>
@@ -2167,22 +2176,22 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="4">
-        <v>43382</v>
+        <v>76268</v>
       </c>
       <c r="B45" s="4">
-        <v>43382</v>
+        <v>43405</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E45" s="5">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F45" s="4">
-        <v>43382</v>
+        <v>43469</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>12</v>
@@ -2194,22 +2203,22 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="4">
-        <v>43362</v>
+        <v>43382</v>
       </c>
       <c r="B46" s="4">
-        <v>43363</v>
+        <v>43382</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="E46" s="5">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="F46" s="4">
-        <v>43434</v>
+        <v>43382</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>12</v>
@@ -2221,134 +2230,134 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="4">
-        <v>43273</v>
+        <v>43362</v>
       </c>
       <c r="B47" s="4">
-        <v>43276</v>
+        <v>43363</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="E47" s="5">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="F47" s="4">
-        <v>43339</v>
+        <v>43434</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>79</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="4">
-        <v>43252</v>
+        <v>43273</v>
       </c>
       <c r="B48" s="4">
-        <v>43252</v>
+        <v>43276</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="E48" s="5">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="F48" s="4">
-        <v>43312</v>
+        <v>43339</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="4">
-        <v>43042</v>
+        <v>43252</v>
       </c>
       <c r="B49" s="4">
-        <v>43042</v>
+        <v>43252</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="E49" s="5">
-        <v>477</v>
+        <v>149</v>
       </c>
       <c r="F49" s="4">
-        <v>43112</v>
+        <v>43312</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="4">
-        <v>42986</v>
+        <v>43042</v>
       </c>
       <c r="B50" s="4">
-        <v>42990</v>
+        <v>43042</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E50" s="5">
-        <v>171</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>85</v>
+        <v>477</v>
+      </c>
+      <c r="F50" s="4">
+        <v>43112</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I50" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="4">
-        <v>42495</v>
+        <v>42986</v>
       </c>
       <c r="B51" s="4">
-        <v>42496</v>
+        <v>42990</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="E51" s="5">
-        <v>187</v>
-      </c>
-      <c r="F51" s="4">
-        <v>42492</v>
+        <v>171</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>12</v>
@@ -2360,81 +2369,81 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="4">
-        <v>42494</v>
+        <v>42495</v>
       </c>
       <c r="B52" s="4">
-        <v>42495</v>
+        <v>42496</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E52" s="5">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="F52" s="4">
-        <v>42551</v>
+        <v>42492</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="4">
-        <v>42468</v>
+        <v>42494</v>
       </c>
       <c r="B53" s="4">
-        <v>42468</v>
+        <v>42495</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E53" s="5">
         <v>20</v>
       </c>
-      <c r="E53" s="5">
-        <v>154</v>
-      </c>
       <c r="F53" s="4">
-        <v>42528</v>
+        <v>42551</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="4">
-        <v>42401</v>
+        <v>42468</v>
       </c>
       <c r="B54" s="4">
-        <v>42401</v>
+        <v>42468</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E54" s="5">
-        <v>60</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>93</v>
+        <v>154</v>
+      </c>
+      <c r="F54" s="4">
+        <v>42528</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>13</v>
@@ -2443,22 +2452,22 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="4">
-        <v>42384</v>
+        <v>42401</v>
       </c>
       <c r="B55" s="4">
-        <v>42384</v>
+        <v>42401</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E55" s="5">
-        <v>131</v>
-      </c>
-      <c r="F55" s="4">
-        <v>42405</v>
+        <v>60</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>12</v>
@@ -2470,25 +2479,25 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="4">
-        <v>42326</v>
+        <v>42384</v>
       </c>
       <c r="B56" s="4">
-        <v>42326</v>
+        <v>42384</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E56" s="5">
-        <v>241</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>96</v>
+        <v>131</v>
+      </c>
+      <c r="F56" s="4">
+        <v>42405</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>13</v>
@@ -2497,25 +2506,25 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="4">
-        <v>42318</v>
+        <v>42326</v>
       </c>
       <c r="B57" s="4">
-        <v>42320</v>
+        <v>42326</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>98</v>
+        <v>15</v>
+      </c>
+      <c r="E57" s="5">
+        <v>241</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>13</v>
@@ -2524,25 +2533,25 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="4">
-        <v>42178</v>
+        <v>42318</v>
       </c>
       <c r="B58" s="4">
-        <v>42180</v>
+        <v>42320</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58" s="5">
-        <v>70</v>
-      </c>
-      <c r="F58" s="4">
-        <v>42240</v>
+        <v>30</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>13</v>
@@ -2551,78 +2560,78 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="4">
-        <v>42069</v>
+        <v>42178</v>
       </c>
       <c r="B59" s="4">
-        <v>42074</v>
+        <v>42180</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>102</v>
+        <v>15</v>
+      </c>
+      <c r="E59" s="5">
+        <v>70</v>
       </c>
       <c r="F59" s="4">
-        <v>42141</v>
+        <v>42240</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="4">
-        <v>42062</v>
+        <v>42069</v>
       </c>
       <c r="B60" s="4">
-        <v>42065</v>
+        <v>42074</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
+      </c>
+      <c r="F60" s="4">
+        <v>42141</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I60" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="4">
-        <v>41850</v>
+        <v>42062</v>
       </c>
       <c r="B61" s="4">
-        <v>41850</v>
+        <v>42065</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E61" s="5">
-        <v>5</v>
-      </c>
-      <c r="F61" s="4">
-        <v>41912</v>
+        <v>47</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>13</v>
@@ -2634,22 +2643,22 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="4">
-        <v>41820</v>
+        <v>41850</v>
       </c>
       <c r="B62" s="4">
-        <v>41821</v>
+        <v>41850</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="E62" s="5">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="F62" s="4">
-        <v>41882</v>
+        <v>41912</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>13</v>
@@ -2661,78 +2670,78 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="4">
-        <v>41724</v>
+        <v>41820</v>
       </c>
       <c r="B63" s="4">
-        <v>41729</v>
+        <v>41821</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E63" s="5">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="F63" s="4">
-        <v>41774</v>
+        <v>41882</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>110</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="4">
-        <v>41593</v>
+        <v>41724</v>
       </c>
       <c r="B64" s="4">
-        <v>41596</v>
+        <v>41729</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E64" s="5">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="F64" s="4">
-        <v>41654</v>
+        <v>41774</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="4">
-        <v>41547</v>
+        <v>41593</v>
       </c>
       <c r="B65" s="4">
-        <v>41547</v>
+        <v>41596</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E65" s="5">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F65" s="4">
-        <v>41608</v>
+        <v>41654</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>12</v>
@@ -2744,25 +2753,25 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="4">
-        <v>41495</v>
+        <v>41547</v>
       </c>
       <c r="B66" s="4">
-        <v>41502</v>
+        <v>41547</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E66" s="5">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="F66" s="4">
-        <v>41555</v>
+        <v>41608</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>13</v>
@@ -2771,25 +2780,25 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="4">
-        <v>41425</v>
+        <v>41495</v>
       </c>
       <c r="B67" s="4">
-        <v>41438</v>
+        <v>41502</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E67" s="5">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="F67" s="4">
-        <v>41425</v>
+        <v>41555</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>13</v>
@@ -2798,76 +2807,76 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="4">
-        <v>41416</v>
+        <v>41425</v>
       </c>
       <c r="B68" s="4">
-        <v>41417</v>
+        <v>41438</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E68" s="5">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="F68" s="4">
-        <v>41485</v>
+        <v>41425</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I68" s="2"/>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="4">
-        <v>41285</v>
+        <v>41416</v>
       </c>
       <c r="B69" s="4">
-        <v>41285</v>
+        <v>41417</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>98</v>
+        <v>27</v>
+      </c>
+      <c r="E69" s="5">
+        <v>62</v>
       </c>
       <c r="F69" s="4">
-        <v>41347</v>
+        <v>41485</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I69" s="2"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="4">
-        <v>41087</v>
+        <v>41285</v>
       </c>
       <c r="B70" s="4">
-        <v>41087</v>
+        <v>41285</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E70" s="5">
-        <v>51</v>
+        <v>117</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="F70" s="4">
-        <v>41148</v>
+        <v>41347</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>12</v>
@@ -2879,51 +2888,49 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="4">
-        <v>41011</v>
+        <v>41087</v>
       </c>
       <c r="B71" s="4">
-        <v>41011</v>
+        <v>41087</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="E71" s="5">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="F71" s="4">
-        <v>41071</v>
+        <v>41148</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>120</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I71" s="2"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="4">
-        <v>40938</v>
+        <v>41011</v>
       </c>
       <c r="B72" s="4">
-        <v>40939</v>
+        <v>41011</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E72" s="5">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="F72" s="4">
-        <v>41000</v>
+        <v>41071</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>12</v>
@@ -2932,54 +2939,56 @@
         <v>12</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="4">
-        <v>40833</v>
+        <v>40938</v>
       </c>
       <c r="B73" s="4">
-        <v>40833</v>
+        <v>40939</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="E73" s="5">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="F73" s="4">
-        <v>40833</v>
+        <v>41000</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I73" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="4">
-        <v>40785</v>
+        <v>40833</v>
       </c>
       <c r="B74" s="4">
-        <v>40788</v>
+        <v>40833</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E74" s="5">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="F74" s="4">
-        <v>40846</v>
+        <v>40833</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>12</v>
@@ -2991,22 +3000,22 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="4">
-        <v>40752</v>
+        <v>40785</v>
       </c>
       <c r="B75" s="4">
-        <v>40758</v>
+        <v>40788</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E75" s="5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F75" s="4">
-        <v>40816</v>
+        <v>40846</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>12</v>
@@ -3018,22 +3027,22 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="4">
-        <v>40753</v>
+        <v>40752</v>
       </c>
       <c r="B76" s="4">
-        <v>40756</v>
+        <v>40758</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E76" s="5">
-        <v>98</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>127</v>
+        <v>9</v>
+      </c>
+      <c r="F76" s="4">
+        <v>40816</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>12</v>
@@ -3045,22 +3054,22 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="4">
-        <v>40688</v>
+        <v>40753</v>
       </c>
       <c r="B77" s="4">
-        <v>40690</v>
+        <v>40756</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="E77" s="5">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>12</v>
@@ -3072,22 +3081,22 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="4">
-        <v>40634</v>
+        <v>40688</v>
       </c>
       <c r="B78" s="4">
-        <v>40634</v>
+        <v>40690</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="E78" s="5">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>12</v>
@@ -3099,25 +3108,25 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="4">
-        <v>40589</v>
+        <v>40634</v>
       </c>
       <c r="B79" s="4">
-        <v>40589</v>
+        <v>40634</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="E79" s="5">
-        <v>5</v>
-      </c>
-      <c r="F79" s="4">
-        <v>40644</v>
+        <v>98</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>13</v>
@@ -3126,22 +3135,22 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="4">
-        <v>40565</v>
+        <v>40589</v>
       </c>
       <c r="B80" s="4">
-        <v>40568</v>
+        <v>40589</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E80" s="5">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="F80" s="4">
-        <v>40592</v>
+        <v>40644</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>13</v>
@@ -3153,22 +3162,22 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="4">
-        <v>40410</v>
+        <v>40565</v>
       </c>
       <c r="B81" s="4">
-        <v>40413</v>
+        <v>40568</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E81" s="5">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="F81" s="4">
-        <v>40452</v>
+        <v>40592</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>13</v>
@@ -3180,22 +3189,22 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="4">
-        <v>40392</v>
+        <v>40410</v>
       </c>
       <c r="B82" s="4">
-        <v>40217</v>
+        <v>40413</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="E82" s="5">
-        <v>26</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>138</v>
+        <v>89</v>
+      </c>
+      <c r="F82" s="4">
+        <v>40452</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>13</v>
@@ -3207,7 +3216,7 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="4">
-        <v>40214</v>
+        <v>40392</v>
       </c>
       <c r="B83" s="4">
         <v>40217</v>
@@ -3219,10 +3228,10 @@
         <v>134</v>
       </c>
       <c r="E83" s="5">
-        <v>165</v>
-      </c>
-      <c r="F83" s="4">
-        <v>40217</v>
+        <v>26</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>13</v>
@@ -3234,25 +3243,25 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="4">
-        <v>40178</v>
+        <v>40214</v>
       </c>
       <c r="B84" s="4">
-        <v>40182</v>
+        <v>40217</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E84" s="5">
-        <v>8</v>
+        <v>165</v>
       </c>
       <c r="F84" s="4">
-        <v>40210</v>
+        <v>40217</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>13</v>
@@ -3261,22 +3270,22 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="4">
-        <v>40137</v>
+        <v>40178</v>
       </c>
       <c r="B85" s="4">
-        <v>40141</v>
+        <v>40182</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E85" s="5">
-        <v>66</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>141</v>
+        <v>8</v>
+      </c>
+      <c r="F85" s="4">
+        <v>40210</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>12</v>
@@ -3294,72 +3303,72 @@
         <v>40141</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E86" s="5">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>144</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I86" s="1"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="4">
-        <v>40094</v>
+        <v>40137</v>
       </c>
       <c r="B87" s="4">
-        <v>40094</v>
+        <v>40141</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F87" s="4">
-        <v>40147</v>
+        <v>43</v>
+      </c>
+      <c r="E87" s="5">
+        <v>103</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I87" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="4">
-        <v>40091</v>
+        <v>40094</v>
       </c>
       <c r="B88" s="4">
-        <v>40091</v>
+        <v>40094</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E88" s="5">
-        <v>63</v>
+        <v>15</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="F88" s="4">
-        <v>40148</v>
+        <v>40147</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>13</v>
@@ -3371,10 +3380,10 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="4">
-        <v>40046</v>
+        <v>40091</v>
       </c>
       <c r="B89" s="4">
-        <v>40050</v>
+        <v>40091</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>146</v>
@@ -3382,11 +3391,11 @@
       <c r="D89" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E89" s="5" t="s">
-        <v>147</v>
+      <c r="E89" s="5">
+        <v>63</v>
       </c>
       <c r="F89" s="4">
-        <v>39895</v>
+        <v>40148</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>13</v>
@@ -3398,25 +3407,25 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="4">
-        <v>40007</v>
+        <v>40046</v>
       </c>
       <c r="B90" s="4">
-        <v>40008</v>
+        <v>40050</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E90" s="5">
-        <v>130</v>
+        <v>43</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="F90" s="4">
         <v>39895</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>13</v>
@@ -3431,16 +3440,16 @@
         <v>40008</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="E91" s="5">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="F91" s="4">
-        <v>40001</v>
+        <v>39895</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>12</v>
@@ -3452,25 +3461,25 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="4">
-        <v>39995</v>
+        <v>40007</v>
       </c>
       <c r="B92" s="4">
-        <v>39895</v>
+        <v>40008</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E92" s="5">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F92" s="4">
-        <v>39895</v>
+        <v>40001</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>13</v>
@@ -3479,22 +3488,22 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="4">
-        <v>39980</v>
+        <v>39995</v>
       </c>
       <c r="B93" s="4">
-        <v>39996</v>
+        <v>39895</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="E93" s="5">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F93" s="4">
-        <v>40041</v>
+        <v>39895</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>13</v>
@@ -3506,78 +3515,78 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="4">
-        <v>39931</v>
+        <v>39980</v>
       </c>
       <c r="B94" s="4">
-        <v>39932</v>
+        <v>39996</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="E94" s="5">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="F94" s="4">
-        <v>39994</v>
+        <v>40041</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>154</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I94" s="2"/>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="4">
-        <v>39918</v>
+        <v>39931</v>
       </c>
       <c r="B95" s="4">
-        <v>39918</v>
+        <v>39932</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="E95" s="5">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="F95" s="4">
         <v>39994</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I95" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="4">
-        <v>39883</v>
+        <v>39918</v>
       </c>
       <c r="B96" s="4">
-        <v>39882</v>
+        <v>39918</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="E96" s="5">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F96" s="4">
-        <v>39943</v>
+        <v>39994</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>12</v>
@@ -3589,25 +3598,25 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="4">
-        <v>39881</v>
+        <v>39883</v>
       </c>
       <c r="B97" s="4">
-        <v>39881</v>
+        <v>39882</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E97" s="5">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="F97" s="4">
-        <v>39941</v>
+        <v>39943</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>13</v>
@@ -3616,25 +3625,25 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="4">
-        <v>39876</v>
+        <v>39881</v>
       </c>
       <c r="B98" s="4">
-        <v>39878</v>
+        <v>39881</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="E98" s="5">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F98" s="4">
-        <v>39935</v>
+        <v>39941</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>13</v>
@@ -3643,22 +3652,22 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="4">
-        <v>39877</v>
+        <v>39876</v>
       </c>
       <c r="B99" s="4">
-        <v>39877</v>
+        <v>39878</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="E99" s="5">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="F99" s="4">
-        <v>39943</v>
+        <v>39935</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>12</v>
@@ -3670,22 +3679,22 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="4">
-        <v>39863</v>
+        <v>39877</v>
       </c>
       <c r="B100" s="4">
-        <v>39864</v>
+        <v>39877</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="E100" s="5">
-        <v>270</v>
+        <v>119</v>
       </c>
       <c r="F100" s="4">
-        <v>39828</v>
+        <v>39943</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>12</v>
@@ -3697,30 +3706,57 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="4">
+        <v>39863</v>
+      </c>
+      <c r="B101" s="4">
+        <v>39864</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E101" s="5">
+        <v>270</v>
+      </c>
+      <c r="F101" s="4">
+        <v>39828</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I101" s="2"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="4">
         <v>39832</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B102" s="4">
         <v>39825</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E101" s="5">
+      <c r="E102" s="5">
         <v>121</v>
       </c>
-      <c r="F101" s="4">
+      <c r="F102" s="4">
         <v>39821</v>
       </c>
-      <c r="G101" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I101" s="2"/>
+      <c r="G102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I102" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/warn-scraper/cache/ri/WARN Report.xlsx
+++ b/data/warn-scraper/cache/ri/WARN Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmwilsonri/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marjorie.Cassion\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1475A8D2-8A13-E641-A5BA-13F2C90F9F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74E0A98F-61E8-4594-8727-F2BA585EC149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31140" yWindow="200" windowWidth="23260" windowHeight="12580" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="163">
   <si>
     <t>Rhode Island WARN Report</t>
   </si>
@@ -522,13 +522,16 @@
   </si>
   <si>
     <t>Cumberland/Woonsocket</t>
+  </si>
+  <si>
+    <t>Newport  Harbor Island Resort</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -592,6 +595,11 @@
       <color theme="1"/>
       <name val="Helevetica Nue"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Nue"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -630,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -677,6 +685,16 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -992,23 +1010,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3738B5CD-B8C2-F94D-89AB-E4F2B5C04FF4}">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="92.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="92.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1035,7 +1053,7 @@
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
     </row>
-    <row r="3" spans="1:9" ht="31">
+    <row r="3" spans="1:9" ht="31.2">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -1077,101 +1095,99 @@
     </row>
     <row r="5" spans="1:9" ht="21">
       <c r="A5" s="13">
+        <v>45191</v>
+      </c>
+      <c r="B5" s="19">
+        <v>45191</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="22">
+        <v>136</v>
+      </c>
+      <c r="F5" s="19">
+        <v>45252</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="21">
+      <c r="A6" s="13">
         <v>45156</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B6" s="13">
         <v>45156</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C6" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E6" s="17">
         <v>198</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" ht="13">
-      <c r="A6" s="10">
+      <c r="G6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" s="11" customFormat="1" ht="13.2">
+      <c r="A7" s="10">
         <v>45153</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B7" s="13">
         <v>45153</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E7" s="17">
         <v>52</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F7" s="10">
         <v>45153</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="15" customFormat="1" ht="13">
-      <c r="A7" s="13">
+      <c r="G7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="15" customFormat="1" ht="13.2">
+      <c r="A8" s="13">
         <v>45112</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B8" s="13">
         <v>45112</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="15">
-        <v>211</v>
-      </c>
-      <c r="F7" s="13">
-        <v>45138</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="15" customFormat="1" ht="13">
-      <c r="A8" s="13">
-        <v>45107</v>
-      </c>
-      <c r="B8" s="13">
-        <v>45111</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8" s="15">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="F8" s="13">
         <v>45138</v>
@@ -1186,246 +1202,248 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="11" customFormat="1" ht="18.5" customHeight="1">
+    <row r="9" spans="1:9" s="15" customFormat="1" ht="13.2">
       <c r="A9" s="13">
+        <v>45107</v>
+      </c>
+      <c r="B9" s="13">
+        <v>45111</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="15">
+        <v>249</v>
+      </c>
+      <c r="F9" s="13">
+        <v>45138</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="11" customFormat="1" ht="18.45" customHeight="1">
+      <c r="A10" s="13">
         <v>45063</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B10" s="13">
         <v>42522</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C10" s="15" t="s">
         <v>19</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="15">
-        <v>169</v>
-      </c>
-      <c r="F9" s="13">
-        <v>45086</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="14">
-        <v>44949</v>
-      </c>
-      <c r="B10" s="13">
-        <v>44950</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>22</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="15">
+        <v>169</v>
+      </c>
+      <c r="F10" s="13">
+        <v>45086</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="14">
+        <v>44949</v>
+      </c>
+      <c r="B11" s="13">
+        <v>44950</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="15">
         <v>75</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F11" s="13">
         <v>45010</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="15" t="s">
+      <c r="G11" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
-      <c r="A11" s="10">
+    <row r="12" spans="1:9" ht="21">
+      <c r="A12" s="10">
         <v>44930</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B12" s="10">
         <v>44937</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E12" s="12">
         <v>81</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F12" s="10">
         <v>44990</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="17" thickBot="1">
-      <c r="A12" s="4">
+      <c r="G12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A13" s="4">
         <v>44827</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B13" s="4">
         <v>44831</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E13" s="7">
         <v>1</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F13" s="4">
         <v>44890</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="4">
-        <v>44817</v>
-      </c>
-      <c r="B13" s="4">
-        <v>44817</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="7">
-        <v>77</v>
-      </c>
-      <c r="F13" s="4">
-        <v>44880</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="4"/>
+      <c r="G13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="4">
-        <v>44595</v>
+        <v>44817</v>
       </c>
       <c r="B14" s="4">
-        <v>44594</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="5">
-        <v>198</v>
+        <v>44817</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="7">
+        <v>77</v>
       </c>
       <c r="F14" s="4">
-        <v>44659</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="2"/>
+        <v>44880</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="4">
-        <v>44334</v>
+        <v>44595</v>
       </c>
       <c r="B15" s="4">
-        <v>44336</v>
+        <v>44594</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15" s="5">
-        <v>94</v>
+        <v>198</v>
       </c>
       <c r="F15" s="4">
-        <v>44394</v>
+        <v>44659</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4">
-        <v>44342</v>
+        <v>44334</v>
       </c>
       <c r="B16" s="4">
-        <v>44342</v>
+        <v>44336</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E16" s="5">
-        <v>464</v>
+        <v>94</v>
       </c>
       <c r="F16" s="4">
-        <v>44403</v>
+        <v>44394</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4">
-        <v>44105</v>
+        <v>44342</v>
       </c>
       <c r="B17" s="4">
-        <v>44104</v>
+        <v>44342</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E17" s="5">
-        <v>13</v>
+        <v>464</v>
       </c>
       <c r="F17" s="4">
-        <v>44104</v>
+        <v>44403</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>13</v>
@@ -1437,22 +1455,22 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4">
-        <v>44064</v>
+        <v>44105</v>
       </c>
       <c r="B18" s="4">
-        <v>44068</v>
+        <v>44104</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E18" s="5">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F18" s="4">
-        <v>44061</v>
+        <v>44104</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>13</v>
@@ -1464,22 +1482,22 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4">
-        <v>44057</v>
+        <v>44064</v>
       </c>
       <c r="B19" s="4">
-        <v>44060</v>
+        <v>44068</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E19" s="5">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="F19" s="4">
-        <v>44057</v>
+        <v>44061</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>13</v>
@@ -1491,51 +1509,49 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4">
-        <v>44049</v>
+        <v>44057</v>
       </c>
       <c r="B20" s="4">
-        <v>44056</v>
+        <v>44060</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="5">
-        <v>272</v>
+        <v>106</v>
       </c>
       <c r="F20" s="4">
-        <v>43914</v>
+        <v>44057</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4">
-        <v>44054</v>
+        <v>44049</v>
       </c>
       <c r="B21" s="4">
-        <v>44040</v>
+        <v>44056</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E21" s="5">
-        <v>1043</v>
+        <v>272</v>
       </c>
       <c r="F21" s="4">
-        <v>44104</v>
+        <v>43914</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>13</v>
@@ -1555,13 +1571,13 @@
         <v>44040</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="5">
-        <v>296</v>
+        <v>1043</v>
       </c>
       <c r="F22" s="4">
         <v>44104</v>
@@ -1578,105 +1594,107 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="4">
-        <v>44046</v>
+        <v>44054</v>
       </c>
       <c r="B23" s="4">
-        <v>44042</v>
+        <v>44040</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E23" s="5">
-        <v>73</v>
+        <v>296</v>
       </c>
       <c r="F23" s="4">
-        <v>44075</v>
+        <v>44104</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4">
-        <v>44027</v>
+        <v>44046</v>
       </c>
       <c r="B24" s="4">
-        <v>44022</v>
+        <v>44042</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E24" s="5">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="F24" s="4">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="4">
-        <v>44004</v>
+        <v>44027</v>
       </c>
       <c r="B25" s="4">
-        <v>44004</v>
+        <v>44022</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E25" s="5">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="F25" s="4">
-        <v>43973</v>
+        <v>44044</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4">
-        <v>44012</v>
+        <v>44004</v>
       </c>
       <c r="B26" s="4">
-        <v>44012</v>
+        <v>44004</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E26" s="5">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F26" s="4">
-        <v>44012</v>
+        <v>43973</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>13</v>
@@ -1688,13 +1706,13 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="4">
-        <v>43985</v>
+        <v>44012</v>
       </c>
       <c r="B27" s="4">
-        <v>43985</v>
+        <v>44012</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>15</v>
@@ -1703,7 +1721,7 @@
         <v>65</v>
       </c>
       <c r="F27" s="4">
-        <v>43904</v>
+        <v>44012</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>13</v>
@@ -1715,49 +1733,49 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="4">
+        <v>43985</v>
+      </c>
+      <c r="B28" s="4">
+        <v>43985</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="5">
+        <v>65</v>
+      </c>
+      <c r="F28" s="4">
+        <v>43904</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="4">
         <v>43980</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B29" s="4">
         <v>43980</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="5">
-        <v>231</v>
-      </c>
-      <c r="F28" s="4">
-        <v>43980</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="6">
-        <v>44063</v>
-      </c>
-      <c r="B29" s="6">
-        <v>44068</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="5">
-        <v>72</v>
+        <v>231</v>
       </c>
       <c r="F29" s="4">
-        <v>43958</v>
+        <v>43980</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>13</v>
@@ -1769,22 +1787,22 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="6">
-        <v>43948</v>
-      </c>
-      <c r="B30" s="4">
-        <v>43948</v>
+        <v>44063</v>
+      </c>
+      <c r="B30" s="6">
+        <v>44068</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E30" s="5">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="F30" s="4">
-        <v>43906</v>
+        <v>43958</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>13</v>
@@ -1796,49 +1814,49 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B31" s="4">
+        <v>43948</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="5">
+        <v>136</v>
+      </c>
+      <c r="F31" s="4">
+        <v>43906</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="6">
         <v>43942</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B32" s="4">
         <v>43942</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E32" s="5">
         <v>5</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F32" s="4">
         <v>43942</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="4">
-        <v>43941</v>
-      </c>
-      <c r="B32" s="4">
-        <v>43944</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="5">
-        <v>1</v>
-      </c>
-      <c r="F32" s="4">
-        <v>43941</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>13</v>
@@ -1850,22 +1868,22 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="4">
-        <v>43907</v>
+        <v>43941</v>
       </c>
       <c r="B33" s="4">
-        <v>43938</v>
+        <v>43944</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E33" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F33" s="4">
-        <v>43938</v>
+        <v>43941</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>13</v>
@@ -1877,22 +1895,22 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="4">
-        <v>43927</v>
+        <v>43907</v>
       </c>
       <c r="B34" s="4">
-        <v>43935</v>
+        <v>43938</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E34" s="5">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="F34" s="4">
-        <v>43906</v>
+        <v>43938</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>13</v>
@@ -1904,22 +1922,22 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="4">
-        <v>43925</v>
+        <v>43927</v>
       </c>
       <c r="B35" s="4">
-        <v>43925</v>
+        <v>43935</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E35" s="5">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="F35" s="4">
-        <v>43927</v>
+        <v>43906</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>13</v>
@@ -1931,22 +1949,22 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="4">
-        <v>43916</v>
+        <v>43925</v>
       </c>
       <c r="B36" s="4">
-        <v>43917</v>
+        <v>43925</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E36" s="5">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="F36" s="4">
-        <v>43916</v>
+        <v>43927</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>13</v>
@@ -1961,75 +1979,75 @@
         <v>43916</v>
       </c>
       <c r="B37" s="4">
-        <v>43913</v>
+        <v>43917</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E37" s="5">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="F37" s="4">
-        <v>43898</v>
+        <v>43916</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="4">
-        <v>43910</v>
+        <v>43916</v>
       </c>
       <c r="B38" s="4">
-        <v>43910</v>
+        <v>43913</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E38" s="5">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="F38" s="4">
-        <v>43910</v>
+        <v>43898</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B39" s="4">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E39" s="5">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="F39" s="4">
-        <v>43906</v>
+        <v>43910</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>13</v>
@@ -2041,25 +2059,25 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4">
-        <v>43509</v>
+        <v>43909</v>
       </c>
       <c r="B40" s="4">
-        <v>43510</v>
+        <v>43913</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="E40" s="5">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="F40" s="4">
-        <v>43567</v>
+        <v>43906</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>13</v>
@@ -2068,22 +2086,22 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="4">
-        <v>43486</v>
+        <v>43509</v>
       </c>
       <c r="B41" s="4">
-        <v>43486</v>
+        <v>43510</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E41" s="5">
-        <v>59</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>70</v>
+        <v>1</v>
+      </c>
+      <c r="F41" s="4">
+        <v>43567</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>12</v>
@@ -2095,22 +2113,22 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4">
-        <v>43479</v>
+        <v>43486</v>
       </c>
       <c r="B42" s="4">
-        <v>43479</v>
+        <v>43486</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E42" s="5">
-        <v>62</v>
-      </c>
-      <c r="F42" s="4">
-        <v>43542</v>
+        <v>59</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>12</v>
@@ -2122,25 +2140,25 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="4">
-        <v>43405</v>
+        <v>43479</v>
       </c>
       <c r="B43" s="4">
-        <v>43413</v>
+        <v>43479</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E43" s="5">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F43" s="4">
-        <v>43131</v>
+        <v>43542</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>13</v>
@@ -2149,25 +2167,25 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="4">
-        <v>76277</v>
+        <v>43405</v>
       </c>
       <c r="B44" s="4">
-        <v>43405</v>
+        <v>43413</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E44" s="5">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="F44" s="4">
-        <v>43465</v>
+        <v>43131</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>13</v>
@@ -2176,22 +2194,22 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="4">
-        <v>76268</v>
+        <v>76277</v>
       </c>
       <c r="B45" s="4">
         <v>43405</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E45" s="5">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="F45" s="4">
-        <v>43469</v>
+        <v>43465</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>12</v>
@@ -2203,22 +2221,22 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="4">
-        <v>43382</v>
+        <v>76268</v>
       </c>
       <c r="B46" s="4">
-        <v>43382</v>
+        <v>43405</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E46" s="5">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F46" s="4">
-        <v>43382</v>
+        <v>43469</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>12</v>
@@ -2230,22 +2248,22 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="4">
-        <v>43362</v>
+        <v>43382</v>
       </c>
       <c r="B47" s="4">
-        <v>43363</v>
+        <v>43382</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="E47" s="5">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="F47" s="4">
-        <v>43434</v>
+        <v>43382</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>12</v>
@@ -2257,134 +2275,134 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="4">
-        <v>43273</v>
+        <v>43362</v>
       </c>
       <c r="B48" s="4">
-        <v>43276</v>
+        <v>43363</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="E48" s="5">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="F48" s="4">
-        <v>43339</v>
+        <v>43434</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>79</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="4">
-        <v>43252</v>
+        <v>43273</v>
       </c>
       <c r="B49" s="4">
-        <v>43252</v>
+        <v>43276</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="E49" s="5">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="F49" s="4">
-        <v>43312</v>
+        <v>43339</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I49" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="4">
-        <v>43042</v>
+        <v>43252</v>
       </c>
       <c r="B50" s="4">
-        <v>43042</v>
+        <v>43252</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="E50" s="5">
-        <v>477</v>
+        <v>149</v>
       </c>
       <c r="F50" s="4">
-        <v>43112</v>
+        <v>43312</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="4">
-        <v>42986</v>
+        <v>43042</v>
       </c>
       <c r="B51" s="4">
-        <v>42990</v>
+        <v>43042</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E51" s="5">
-        <v>171</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>85</v>
+        <v>477</v>
+      </c>
+      <c r="F51" s="4">
+        <v>43112</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="4">
-        <v>42495</v>
+        <v>42986</v>
       </c>
       <c r="B52" s="4">
-        <v>42496</v>
+        <v>42990</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="E52" s="5">
-        <v>187</v>
-      </c>
-      <c r="F52" s="4">
-        <v>42492</v>
+        <v>171</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>12</v>
@@ -2396,81 +2414,81 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="4">
-        <v>42494</v>
+        <v>42495</v>
       </c>
       <c r="B53" s="4">
-        <v>42495</v>
+        <v>42496</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E53" s="5">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="F53" s="4">
-        <v>42551</v>
+        <v>42492</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="4">
-        <v>42468</v>
+        <v>42494</v>
       </c>
       <c r="B54" s="4">
-        <v>42468</v>
+        <v>42495</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" s="5">
         <v>20</v>
       </c>
-      <c r="E54" s="5">
-        <v>154</v>
-      </c>
       <c r="F54" s="4">
-        <v>42528</v>
+        <v>42551</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I54" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="4">
-        <v>42401</v>
+        <v>42468</v>
       </c>
       <c r="B55" s="4">
-        <v>42401</v>
+        <v>42468</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E55" s="5">
-        <v>60</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>93</v>
+        <v>154</v>
+      </c>
+      <c r="F55" s="4">
+        <v>42528</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>13</v>
@@ -2479,22 +2497,22 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="4">
-        <v>42384</v>
+        <v>42401</v>
       </c>
       <c r="B56" s="4">
-        <v>42384</v>
+        <v>42401</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E56" s="5">
-        <v>131</v>
-      </c>
-      <c r="F56" s="4">
-        <v>42405</v>
+        <v>60</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>12</v>
@@ -2506,25 +2524,25 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="4">
-        <v>42326</v>
+        <v>42384</v>
       </c>
       <c r="B57" s="4">
-        <v>42326</v>
+        <v>42384</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E57" s="5">
-        <v>241</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>96</v>
+        <v>131</v>
+      </c>
+      <c r="F57" s="4">
+        <v>42405</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>13</v>
@@ -2533,25 +2551,25 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="4">
-        <v>42318</v>
+        <v>42326</v>
       </c>
       <c r="B58" s="4">
-        <v>42320</v>
+        <v>42326</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>98</v>
+        <v>15</v>
+      </c>
+      <c r="E58" s="5">
+        <v>241</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>13</v>
@@ -2560,25 +2578,25 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="4">
-        <v>42178</v>
+        <v>42318</v>
       </c>
       <c r="B59" s="4">
-        <v>42180</v>
+        <v>42320</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" s="5">
-        <v>70</v>
-      </c>
-      <c r="F59" s="4">
-        <v>42240</v>
+        <v>30</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>13</v>
@@ -2587,78 +2605,78 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="4">
-        <v>42069</v>
+        <v>42178</v>
       </c>
       <c r="B60" s="4">
-        <v>42074</v>
+        <v>42180</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>102</v>
+        <v>15</v>
+      </c>
+      <c r="E60" s="5">
+        <v>70</v>
       </c>
       <c r="F60" s="4">
-        <v>42141</v>
+        <v>42240</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="4">
-        <v>42062</v>
+        <v>42069</v>
       </c>
       <c r="B61" s="4">
-        <v>42065</v>
+        <v>42074</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
+      </c>
+      <c r="F61" s="4">
+        <v>42141</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I61" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="4">
-        <v>41850</v>
+        <v>42062</v>
       </c>
       <c r="B62" s="4">
-        <v>41850</v>
+        <v>42065</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E62" s="5">
-        <v>5</v>
-      </c>
-      <c r="F62" s="4">
-        <v>41912</v>
+        <v>47</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>13</v>
@@ -2670,22 +2688,22 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="4">
-        <v>41820</v>
+        <v>41850</v>
       </c>
       <c r="B63" s="4">
-        <v>41821</v>
+        <v>41850</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="E63" s="5">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="F63" s="4">
-        <v>41882</v>
+        <v>41912</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>13</v>
@@ -2697,78 +2715,78 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="4">
-        <v>41724</v>
+        <v>41820</v>
       </c>
       <c r="B64" s="4">
-        <v>41729</v>
+        <v>41821</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E64" s="5">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="F64" s="4">
-        <v>41774</v>
+        <v>41882</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>110</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="4">
-        <v>41593</v>
+        <v>41724</v>
       </c>
       <c r="B65" s="4">
-        <v>41596</v>
+        <v>41729</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E65" s="5">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="F65" s="4">
-        <v>41654</v>
+        <v>41774</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I65" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="4">
-        <v>41547</v>
+        <v>41593</v>
       </c>
       <c r="B66" s="4">
-        <v>41547</v>
+        <v>41596</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E66" s="5">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F66" s="4">
-        <v>41608</v>
+        <v>41654</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>12</v>
@@ -2780,25 +2798,25 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="4">
-        <v>41495</v>
+        <v>41547</v>
       </c>
       <c r="B67" s="4">
-        <v>41502</v>
+        <v>41547</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E67" s="5">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="F67" s="4">
-        <v>41555</v>
+        <v>41608</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>13</v>
@@ -2807,25 +2825,25 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="4">
-        <v>41425</v>
+        <v>41495</v>
       </c>
       <c r="B68" s="4">
-        <v>41438</v>
+        <v>41502</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E68" s="5">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="F68" s="4">
-        <v>41425</v>
+        <v>41555</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>13</v>
@@ -2834,76 +2852,76 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="4">
-        <v>41416</v>
+        <v>41425</v>
       </c>
       <c r="B69" s="4">
-        <v>41417</v>
+        <v>41438</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E69" s="5">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="F69" s="4">
-        <v>41485</v>
+        <v>41425</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I69" s="2"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="4">
-        <v>41285</v>
+        <v>41416</v>
       </c>
       <c r="B70" s="4">
-        <v>41285</v>
+        <v>41417</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>98</v>
+        <v>27</v>
+      </c>
+      <c r="E70" s="5">
+        <v>62</v>
       </c>
       <c r="F70" s="4">
-        <v>41347</v>
+        <v>41485</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I70" s="2"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="4">
-        <v>41087</v>
+        <v>41285</v>
       </c>
       <c r="B71" s="4">
-        <v>41087</v>
+        <v>41285</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E71" s="5">
-        <v>51</v>
+        <v>117</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="F71" s="4">
-        <v>41148</v>
+        <v>41347</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>12</v>
@@ -2915,51 +2933,49 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="4">
-        <v>41011</v>
+        <v>41087</v>
       </c>
       <c r="B72" s="4">
-        <v>41011</v>
+        <v>41087</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="E72" s="5">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="F72" s="4">
-        <v>41071</v>
+        <v>41148</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>120</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I72" s="2"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="4">
-        <v>40938</v>
+        <v>41011</v>
       </c>
       <c r="B73" s="4">
-        <v>40939</v>
+        <v>41011</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E73" s="5">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="F73" s="4">
-        <v>41000</v>
+        <v>41071</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>12</v>
@@ -2968,54 +2984,56 @@
         <v>12</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="4">
-        <v>40833</v>
+        <v>40938</v>
       </c>
       <c r="B74" s="4">
-        <v>40833</v>
+        <v>40939</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="E74" s="5">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="F74" s="4">
-        <v>40833</v>
+        <v>41000</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I74" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="4">
-        <v>40785</v>
+        <v>40833</v>
       </c>
       <c r="B75" s="4">
-        <v>40788</v>
+        <v>40833</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E75" s="5">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="F75" s="4">
-        <v>40846</v>
+        <v>40833</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>12</v>
@@ -3027,22 +3045,22 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="4">
-        <v>40752</v>
+        <v>40785</v>
       </c>
       <c r="B76" s="4">
-        <v>40758</v>
+        <v>40788</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E76" s="5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F76" s="4">
-        <v>40816</v>
+        <v>40846</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>12</v>
@@ -3054,22 +3072,22 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="4">
-        <v>40753</v>
+        <v>40752</v>
       </c>
       <c r="B77" s="4">
-        <v>40756</v>
+        <v>40758</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E77" s="5">
-        <v>98</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>127</v>
+        <v>9</v>
+      </c>
+      <c r="F77" s="4">
+        <v>40816</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>12</v>
@@ -3081,22 +3099,22 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="4">
-        <v>40688</v>
+        <v>40753</v>
       </c>
       <c r="B78" s="4">
-        <v>40690</v>
+        <v>40756</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="E78" s="5">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>12</v>
@@ -3108,22 +3126,22 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="4">
-        <v>40634</v>
+        <v>40688</v>
       </c>
       <c r="B79" s="4">
-        <v>40634</v>
+        <v>40690</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="E79" s="5">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>12</v>
@@ -3135,25 +3153,25 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="4">
-        <v>40589</v>
+        <v>40634</v>
       </c>
       <c r="B80" s="4">
-        <v>40589</v>
+        <v>40634</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="E80" s="5">
-        <v>5</v>
-      </c>
-      <c r="F80" s="4">
-        <v>40644</v>
+        <v>98</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>13</v>
@@ -3162,22 +3180,22 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="4">
-        <v>40565</v>
+        <v>40589</v>
       </c>
       <c r="B81" s="4">
-        <v>40568</v>
+        <v>40589</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E81" s="5">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="F81" s="4">
-        <v>40592</v>
+        <v>40644</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>13</v>
@@ -3189,22 +3207,22 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="4">
-        <v>40410</v>
+        <v>40565</v>
       </c>
       <c r="B82" s="4">
-        <v>40413</v>
+        <v>40568</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E82" s="5">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="F82" s="4">
-        <v>40452</v>
+        <v>40592</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>13</v>
@@ -3216,22 +3234,22 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="4">
-        <v>40392</v>
+        <v>40410</v>
       </c>
       <c r="B83" s="4">
-        <v>40217</v>
+        <v>40413</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="E83" s="5">
-        <v>26</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>138</v>
+        <v>89</v>
+      </c>
+      <c r="F83" s="4">
+        <v>40452</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>13</v>
@@ -3243,7 +3261,7 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="4">
-        <v>40214</v>
+        <v>40392</v>
       </c>
       <c r="B84" s="4">
         <v>40217</v>
@@ -3255,10 +3273,10 @@
         <v>134</v>
       </c>
       <c r="E84" s="5">
-        <v>165</v>
-      </c>
-      <c r="F84" s="4">
-        <v>40217</v>
+        <v>26</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>13</v>
@@ -3270,25 +3288,25 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="4">
-        <v>40178</v>
+        <v>40214</v>
       </c>
       <c r="B85" s="4">
-        <v>40182</v>
+        <v>40217</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E85" s="5">
-        <v>8</v>
+        <v>165</v>
       </c>
       <c r="F85" s="4">
-        <v>40210</v>
+        <v>40217</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>13</v>
@@ -3297,22 +3315,22 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="4">
-        <v>40137</v>
+        <v>40178</v>
       </c>
       <c r="B86" s="4">
-        <v>40141</v>
+        <v>40182</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E86" s="5">
-        <v>66</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>141</v>
+        <v>8</v>
+      </c>
+      <c r="F86" s="4">
+        <v>40210</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>12</v>
@@ -3330,72 +3348,72 @@
         <v>40141</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E87" s="5">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>144</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="4">
-        <v>40094</v>
+        <v>40137</v>
       </c>
       <c r="B88" s="4">
-        <v>40094</v>
+        <v>40141</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F88" s="4">
-        <v>40147</v>
+        <v>43</v>
+      </c>
+      <c r="E88" s="5">
+        <v>103</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I88" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="4">
-        <v>40091</v>
+        <v>40094</v>
       </c>
       <c r="B89" s="4">
-        <v>40091</v>
+        <v>40094</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E89" s="5">
-        <v>63</v>
+        <v>15</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="F89" s="4">
-        <v>40148</v>
+        <v>40147</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>13</v>
@@ -3407,10 +3425,10 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="4">
-        <v>40046</v>
+        <v>40091</v>
       </c>
       <c r="B90" s="4">
-        <v>40050</v>
+        <v>40091</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>146</v>
@@ -3418,11 +3436,11 @@
       <c r="D90" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E90" s="5" t="s">
-        <v>147</v>
+      <c r="E90" s="5">
+        <v>63</v>
       </c>
       <c r="F90" s="4">
-        <v>39895</v>
+        <v>40148</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>13</v>
@@ -3434,25 +3452,25 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="4">
-        <v>40007</v>
+        <v>40046</v>
       </c>
       <c r="B91" s="4">
-        <v>40008</v>
+        <v>40050</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E91" s="5">
-        <v>130</v>
+        <v>43</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="F91" s="4">
         <v>39895</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>13</v>
@@ -3467,16 +3485,16 @@
         <v>40008</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="E92" s="5">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="F92" s="4">
-        <v>40001</v>
+        <v>39895</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>12</v>
@@ -3488,25 +3506,25 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="4">
-        <v>39995</v>
+        <v>40007</v>
       </c>
       <c r="B93" s="4">
-        <v>39895</v>
+        <v>40008</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E93" s="5">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F93" s="4">
-        <v>39895</v>
+        <v>40001</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>13</v>
@@ -3515,22 +3533,22 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="4">
-        <v>39980</v>
+        <v>39995</v>
       </c>
       <c r="B94" s="4">
-        <v>39996</v>
+        <v>39895</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="E94" s="5">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F94" s="4">
-        <v>40041</v>
+        <v>39895</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>13</v>
@@ -3542,78 +3560,78 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="4">
-        <v>39931</v>
+        <v>39980</v>
       </c>
       <c r="B95" s="4">
-        <v>39932</v>
+        <v>39996</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="E95" s="5">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="F95" s="4">
-        <v>39994</v>
+        <v>40041</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>154</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I95" s="2"/>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="4">
-        <v>39918</v>
+        <v>39931</v>
       </c>
       <c r="B96" s="4">
-        <v>39918</v>
+        <v>39932</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="E96" s="5">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="F96" s="4">
         <v>39994</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I96" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="4">
-        <v>39883</v>
+        <v>39918</v>
       </c>
       <c r="B97" s="4">
-        <v>39882</v>
+        <v>39918</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="E97" s="5">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F97" s="4">
-        <v>39943</v>
+        <v>39994</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>12</v>
@@ -3625,25 +3643,25 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="4">
-        <v>39881</v>
+        <v>39883</v>
       </c>
       <c r="B98" s="4">
-        <v>39881</v>
+        <v>39882</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E98" s="5">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="F98" s="4">
-        <v>39941</v>
+        <v>39943</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>13</v>
@@ -3652,25 +3670,25 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="4">
-        <v>39876</v>
+        <v>39881</v>
       </c>
       <c r="B99" s="4">
-        <v>39878</v>
+        <v>39881</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="E99" s="5">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F99" s="4">
-        <v>39935</v>
+        <v>39941</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>13</v>
@@ -3679,22 +3697,22 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="4">
-        <v>39877</v>
+        <v>39876</v>
       </c>
       <c r="B100" s="4">
-        <v>39877</v>
+        <v>39878</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="E100" s="5">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="F100" s="4">
-        <v>39943</v>
+        <v>39935</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>12</v>
@@ -3706,22 +3724,22 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="4">
-        <v>39863</v>
+        <v>39877</v>
       </c>
       <c r="B101" s="4">
-        <v>39864</v>
+        <v>39877</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="E101" s="5">
-        <v>270</v>
+        <v>119</v>
       </c>
       <c r="F101" s="4">
-        <v>39828</v>
+        <v>39943</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>12</v>
@@ -3733,30 +3751,57 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="4">
+        <v>39863</v>
+      </c>
+      <c r="B102" s="4">
+        <v>39864</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E102" s="5">
+        <v>270</v>
+      </c>
+      <c r="F102" s="4">
+        <v>39828</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I102" s="2"/>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="4">
         <v>39832</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B103" s="4">
         <v>39825</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E102" s="5">
+      <c r="E103" s="5">
         <v>121</v>
       </c>
-      <c r="F102" s="4">
+      <c r="F103" s="4">
         <v>39821</v>
       </c>
-      <c r="G102" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I102" s="2"/>
+      <c r="G103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I103" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/warn-scraper/cache/ri/WARN Report.xlsx
+++ b/data/warn-scraper/cache/ri/WARN Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marjorie.Cassion\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmwilsonri/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74E0A98F-61E8-4594-8727-F2BA585EC149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F8F07BF-07A0-8B47-9958-BD0F9E7A3C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
+    <workbookView xWindow="940" yWindow="640" windowWidth="26540" windowHeight="12580" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="164">
   <si>
     <t>Rhode Island WARN Report</t>
   </si>
@@ -525,6 +525,9 @@
   </si>
   <si>
     <t>Newport  Harbor Island Resort</t>
+  </si>
+  <si>
+    <t>309 *updated 10/26/23</t>
   </si>
 </sst>
 </file>
@@ -683,9 +686,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -695,6 +695,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1013,47 +1016,47 @@
   <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F13" sqref="E5:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="92.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="92.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-    </row>
-    <row r="3" spans="1:9" ht="31.2">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" ht="31">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -1097,25 +1100,25 @@
       <c r="A5" s="13">
         <v>45191</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>45191</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="21">
         <v>136</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>45252</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="20" t="s">
+      <c r="G5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="19" t="s">
         <v>13</v>
       </c>
       <c r="I5" s="3"/>
@@ -1133,8 +1136,8 @@
       <c r="D6" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="17">
-        <v>198</v>
+      <c r="E6" s="17" t="s">
+        <v>163</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>159</v>
@@ -1147,7 +1150,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" ht="13.2">
+    <row r="7" spans="1:9" s="11" customFormat="1" ht="13">
       <c r="A7" s="10">
         <v>45153</v>
       </c>
@@ -1173,7 +1176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="15" customFormat="1" ht="13.2">
+    <row r="8" spans="1:9" s="15" customFormat="1" ht="13">
       <c r="A8" s="13">
         <v>45112</v>
       </c>
@@ -1202,7 +1205,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="15" customFormat="1" ht="13.2">
+    <row r="9" spans="1:9" s="15" customFormat="1" ht="13">
       <c r="A9" s="13">
         <v>45107</v>
       </c>
@@ -1231,7 +1234,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="11" customFormat="1" ht="18.45" customHeight="1">
+    <row r="10" spans="1:9" s="11" customFormat="1" ht="18.5" customHeight="1">
       <c r="A10" s="13">
         <v>45063</v>
       </c>
@@ -1316,7 +1319,7 @@
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" ht="16.2" thickBot="1">
+    <row r="13" spans="1:9" ht="17" thickBot="1">
       <c r="A13" s="4">
         <v>44827</v>
       </c>

--- a/data/warn-scraper/cache/ri/WARN Report.xlsx
+++ b/data/warn-scraper/cache/ri/WARN Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmwilsonri/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathaniel.M.Wilson\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F8F07BF-07A0-8B47-9958-BD0F9E7A3C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A048BDE-2076-45A0-9BCB-7DE00F9CCE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="640" windowWidth="26540" windowHeight="12580" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="166">
   <si>
     <t>Rhode Island WARN Report</t>
   </si>
@@ -528,6 +528,12 @@
   </si>
   <si>
     <t>309 *updated 10/26/23</t>
+  </si>
+  <si>
+    <t>Los Angeles Times Communications LLC</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -1013,23 +1019,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3738B5CD-B8C2-F94D-89AB-E4F2B5C04FF4}">
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="E5:F13"/>
+      <selection activeCell="A5" sqref="A5:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="92.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="92.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1056,7 +1062,7 @@
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
     </row>
-    <row r="3" spans="1:9" ht="31">
+    <row r="3" spans="1:9" ht="31.5">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -1096,130 +1102,128 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="21">
+    <row r="5" spans="1:9">
       <c r="A5" s="13">
-        <v>45191</v>
-      </c>
-      <c r="B5" s="18">
-        <v>45191</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="21">
-        <v>136</v>
-      </c>
-      <c r="F5" s="18">
-        <v>45252</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="3"/>
+        <v>45316</v>
+      </c>
+      <c r="B5" s="13">
+        <v>45316</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="13">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13">
+        <v>45316</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" ht="21">
       <c r="A6" s="13">
+        <v>45191</v>
+      </c>
+      <c r="B6" s="18">
+        <v>45191</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="21">
+        <v>136</v>
+      </c>
+      <c r="F6" s="18">
+        <v>45252</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="21">
+      <c r="A7" s="13">
         <v>45156</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B7" s="13">
         <v>45156</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D7" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E7" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" ht="13">
-      <c r="A7" s="10">
+      <c r="G7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" s="11" customFormat="1" ht="12.75">
+      <c r="A8" s="10">
         <v>45153</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B8" s="13">
         <v>45153</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E8" s="17">
         <v>52</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F8" s="10">
         <v>45153</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="15" customFormat="1" ht="13">
-      <c r="A8" s="13">
+      <c r="G8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="15" customFormat="1" ht="12.75">
+      <c r="A9" s="13">
         <v>45112</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B9" s="13">
         <v>45112</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="15">
-        <v>211</v>
-      </c>
-      <c r="F8" s="13">
-        <v>45138</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="15" customFormat="1" ht="13">
-      <c r="A9" s="13">
-        <v>45107</v>
-      </c>
-      <c r="B9" s="13">
-        <v>45111</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E9" s="15">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="F9" s="13">
         <v>45138</v>
@@ -1234,246 +1238,248 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="11" customFormat="1" ht="18.5" customHeight="1">
+    <row r="10" spans="1:9" s="15" customFormat="1" ht="12.75">
       <c r="A10" s="13">
+        <v>45107</v>
+      </c>
+      <c r="B10" s="13">
+        <v>45111</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="15">
+        <v>249</v>
+      </c>
+      <c r="F10" s="13">
+        <v>45138</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A11" s="13">
         <v>45063</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B11" s="13">
         <v>42522</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C11" s="15" t="s">
         <v>19</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="15">
-        <v>169</v>
-      </c>
-      <c r="F10" s="13">
-        <v>45086</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="14">
-        <v>44949</v>
-      </c>
-      <c r="B11" s="13">
-        <v>44950</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>22</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="15">
+        <v>169</v>
+      </c>
+      <c r="F11" s="13">
+        <v>45086</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="14">
+        <v>44949</v>
+      </c>
+      <c r="B12" s="13">
+        <v>44950</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="15">
         <v>75</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F12" s="13">
         <v>45010</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="15" t="s">
+      <c r="G12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="21">
-      <c r="A12" s="10">
+    <row r="13" spans="1:9" ht="21">
+      <c r="A13" s="10">
         <v>44930</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B13" s="10">
         <v>44937</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E13" s="12">
         <v>81</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F13" s="10">
         <v>44990</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="17" thickBot="1">
-      <c r="A13" s="4">
+      <c r="G13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A14" s="4">
         <v>44827</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B14" s="4">
         <v>44831</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E14" s="7">
         <v>1</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F14" s="4">
         <v>44890</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="4">
-        <v>44817</v>
-      </c>
-      <c r="B14" s="4">
-        <v>44817</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="7">
-        <v>77</v>
-      </c>
-      <c r="F14" s="4">
-        <v>44880</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="4"/>
+      <c r="G14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="4">
-        <v>44595</v>
+        <v>44817</v>
       </c>
       <c r="B15" s="4">
-        <v>44594</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="5">
-        <v>198</v>
+        <v>44817</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="7">
+        <v>77</v>
       </c>
       <c r="F15" s="4">
-        <v>44659</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="2"/>
+        <v>44880</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4">
-        <v>44334</v>
+        <v>44595</v>
       </c>
       <c r="B16" s="4">
-        <v>44336</v>
+        <v>44594</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E16" s="5">
-        <v>94</v>
+        <v>198</v>
       </c>
       <c r="F16" s="4">
-        <v>44394</v>
+        <v>44659</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4">
-        <v>44342</v>
+        <v>44334</v>
       </c>
       <c r="B17" s="4">
-        <v>44342</v>
+        <v>44336</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E17" s="5">
-        <v>464</v>
+        <v>94</v>
       </c>
       <c r="F17" s="4">
-        <v>44403</v>
+        <v>44394</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4">
-        <v>44105</v>
+        <v>44342</v>
       </c>
       <c r="B18" s="4">
-        <v>44104</v>
+        <v>44342</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E18" s="5">
-        <v>13</v>
+        <v>464</v>
       </c>
       <c r="F18" s="4">
-        <v>44104</v>
+        <v>44403</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>13</v>
@@ -1485,22 +1491,22 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4">
-        <v>44064</v>
+        <v>44105</v>
       </c>
       <c r="B19" s="4">
-        <v>44068</v>
+        <v>44104</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E19" s="5">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F19" s="4">
-        <v>44061</v>
+        <v>44104</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>13</v>
@@ -1512,22 +1518,22 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4">
-        <v>44057</v>
+        <v>44064</v>
       </c>
       <c r="B20" s="4">
-        <v>44060</v>
+        <v>44068</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E20" s="5">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="F20" s="4">
-        <v>44057</v>
+        <v>44061</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>13</v>
@@ -1539,51 +1545,49 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4">
-        <v>44049</v>
+        <v>44057</v>
       </c>
       <c r="B21" s="4">
-        <v>44056</v>
+        <v>44060</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="5">
-        <v>272</v>
+        <v>106</v>
       </c>
       <c r="F21" s="4">
-        <v>43914</v>
+        <v>44057</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="4">
-        <v>44054</v>
+        <v>44049</v>
       </c>
       <c r="B22" s="4">
-        <v>44040</v>
+        <v>44056</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E22" s="5">
-        <v>1043</v>
+        <v>272</v>
       </c>
       <c r="F22" s="4">
-        <v>44104</v>
+        <v>43914</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>13</v>
@@ -1603,13 +1607,13 @@
         <v>44040</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E23" s="5">
-        <v>296</v>
+        <v>1043</v>
       </c>
       <c r="F23" s="4">
         <v>44104</v>
@@ -1626,105 +1630,107 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4">
-        <v>44046</v>
+        <v>44054</v>
       </c>
       <c r="B24" s="4">
-        <v>44042</v>
+        <v>44040</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E24" s="5">
-        <v>73</v>
+        <v>296</v>
       </c>
       <c r="F24" s="4">
-        <v>44075</v>
+        <v>44104</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="4">
-        <v>44027</v>
+        <v>44046</v>
       </c>
       <c r="B25" s="4">
-        <v>44022</v>
+        <v>44042</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E25" s="5">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="F25" s="4">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4">
-        <v>44004</v>
+        <v>44027</v>
       </c>
       <c r="B26" s="4">
-        <v>44004</v>
+        <v>44022</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E26" s="5">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="F26" s="4">
-        <v>43973</v>
+        <v>44044</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="4">
-        <v>44012</v>
+        <v>44004</v>
       </c>
       <c r="B27" s="4">
-        <v>44012</v>
+        <v>44004</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E27" s="5">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F27" s="4">
-        <v>44012</v>
+        <v>43973</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>13</v>
@@ -1736,13 +1742,13 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="4">
-        <v>43985</v>
+        <v>44012</v>
       </c>
       <c r="B28" s="4">
-        <v>43985</v>
+        <v>44012</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>15</v>
@@ -1751,7 +1757,7 @@
         <v>65</v>
       </c>
       <c r="F28" s="4">
-        <v>43904</v>
+        <v>44012</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>13</v>
@@ -1763,49 +1769,49 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="4">
+        <v>43985</v>
+      </c>
+      <c r="B29" s="4">
+        <v>43985</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="5">
+        <v>65</v>
+      </c>
+      <c r="F29" s="4">
+        <v>43904</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="4">
         <v>43980</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B30" s="4">
         <v>43980</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="5">
-        <v>231</v>
-      </c>
-      <c r="F29" s="4">
-        <v>43980</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="6">
-        <v>44063</v>
-      </c>
-      <c r="B30" s="6">
-        <v>44068</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E30" s="5">
-        <v>72</v>
+        <v>231</v>
       </c>
       <c r="F30" s="4">
-        <v>43958</v>
+        <v>43980</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>13</v>
@@ -1817,22 +1823,22 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="6">
-        <v>43948</v>
-      </c>
-      <c r="B31" s="4">
-        <v>43948</v>
+        <v>44063</v>
+      </c>
+      <c r="B31" s="6">
+        <v>44068</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E31" s="5">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="F31" s="4">
-        <v>43906</v>
+        <v>43958</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>13</v>
@@ -1844,49 +1850,49 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B32" s="4">
+        <v>43948</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="5">
+        <v>136</v>
+      </c>
+      <c r="F32" s="4">
+        <v>43906</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="6">
         <v>43942</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B33" s="4">
         <v>43942</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E33" s="5">
         <v>5</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F33" s="4">
         <v>43942</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="4">
-        <v>43941</v>
-      </c>
-      <c r="B33" s="4">
-        <v>43944</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="5">
-        <v>1</v>
-      </c>
-      <c r="F33" s="4">
-        <v>43941</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>13</v>
@@ -1898,22 +1904,22 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="4">
-        <v>43907</v>
+        <v>43941</v>
       </c>
       <c r="B34" s="4">
-        <v>43938</v>
+        <v>43944</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E34" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F34" s="4">
-        <v>43938</v>
+        <v>43941</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>13</v>
@@ -1925,22 +1931,22 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="4">
-        <v>43927</v>
+        <v>43907</v>
       </c>
       <c r="B35" s="4">
-        <v>43935</v>
+        <v>43938</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E35" s="5">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="F35" s="4">
-        <v>43906</v>
+        <v>43938</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>13</v>
@@ -1952,22 +1958,22 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="4">
-        <v>43925</v>
+        <v>43927</v>
       </c>
       <c r="B36" s="4">
-        <v>43925</v>
+        <v>43935</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E36" s="5">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="F36" s="4">
-        <v>43927</v>
+        <v>43906</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>13</v>
@@ -1979,22 +1985,22 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="4">
-        <v>43916</v>
+        <v>43925</v>
       </c>
       <c r="B37" s="4">
-        <v>43917</v>
+        <v>43925</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E37" s="5">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="F37" s="4">
-        <v>43916</v>
+        <v>43927</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>13</v>
@@ -2009,75 +2015,75 @@
         <v>43916</v>
       </c>
       <c r="B38" s="4">
-        <v>43913</v>
+        <v>43917</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E38" s="5">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="F38" s="4">
-        <v>43898</v>
+        <v>43916</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4">
-        <v>43910</v>
+        <v>43916</v>
       </c>
       <c r="B39" s="4">
-        <v>43910</v>
+        <v>43913</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E39" s="5">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="F39" s="4">
-        <v>43910</v>
+        <v>43898</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B40" s="4">
-        <v>43913</v>
+        <v>43910</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E40" s="5">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="F40" s="4">
-        <v>43906</v>
+        <v>43910</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>13</v>
@@ -2089,25 +2095,25 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="4">
-        <v>43509</v>
+        <v>43909</v>
       </c>
       <c r="B41" s="4">
-        <v>43510</v>
+        <v>43913</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="E41" s="5">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="F41" s="4">
-        <v>43567</v>
+        <v>43906</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>13</v>
@@ -2116,22 +2122,22 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4">
-        <v>43486</v>
+        <v>43509</v>
       </c>
       <c r="B42" s="4">
-        <v>43486</v>
+        <v>43510</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E42" s="5">
-        <v>59</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>70</v>
+        <v>1</v>
+      </c>
+      <c r="F42" s="4">
+        <v>43567</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>12</v>
@@ -2143,22 +2149,22 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="4">
-        <v>43479</v>
+        <v>43486</v>
       </c>
       <c r="B43" s="4">
-        <v>43479</v>
+        <v>43486</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E43" s="5">
-        <v>62</v>
-      </c>
-      <c r="F43" s="4">
-        <v>43542</v>
+        <v>59</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>12</v>
@@ -2170,25 +2176,25 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="4">
-        <v>43405</v>
+        <v>43479</v>
       </c>
       <c r="B44" s="4">
-        <v>43413</v>
+        <v>43479</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E44" s="5">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F44" s="4">
-        <v>43131</v>
+        <v>43542</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>13</v>
@@ -2197,25 +2203,25 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="4">
-        <v>76277</v>
+        <v>43405</v>
       </c>
       <c r="B45" s="4">
-        <v>43405</v>
+        <v>43413</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E45" s="5">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="F45" s="4">
-        <v>43465</v>
+        <v>43131</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>13</v>
@@ -2224,22 +2230,22 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="4">
-        <v>76268</v>
+        <v>76277</v>
       </c>
       <c r="B46" s="4">
         <v>43405</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E46" s="5">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="F46" s="4">
-        <v>43469</v>
+        <v>43465</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>12</v>
@@ -2251,22 +2257,22 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="4">
-        <v>43382</v>
+        <v>76268</v>
       </c>
       <c r="B47" s="4">
-        <v>43382</v>
+        <v>43405</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E47" s="5">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F47" s="4">
-        <v>43382</v>
+        <v>43469</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>12</v>
@@ -2278,22 +2284,22 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="4">
-        <v>43362</v>
+        <v>43382</v>
       </c>
       <c r="B48" s="4">
-        <v>43363</v>
+        <v>43382</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="E48" s="5">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="F48" s="4">
-        <v>43434</v>
+        <v>43382</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>12</v>
@@ -2305,134 +2311,134 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="4">
-        <v>43273</v>
+        <v>43362</v>
       </c>
       <c r="B49" s="4">
-        <v>43276</v>
+        <v>43363</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="E49" s="5">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="F49" s="4">
-        <v>43339</v>
+        <v>43434</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>79</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="4">
-        <v>43252</v>
+        <v>43273</v>
       </c>
       <c r="B50" s="4">
-        <v>43252</v>
+        <v>43276</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="E50" s="5">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="F50" s="4">
-        <v>43312</v>
+        <v>43339</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I50" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="4">
-        <v>43042</v>
+        <v>43252</v>
       </c>
       <c r="B51" s="4">
-        <v>43042</v>
+        <v>43252</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="E51" s="5">
-        <v>477</v>
+        <v>149</v>
       </c>
       <c r="F51" s="4">
-        <v>43112</v>
+        <v>43312</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I51" s="2"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="4">
-        <v>42986</v>
+        <v>43042</v>
       </c>
       <c r="B52" s="4">
-        <v>42990</v>
+        <v>43042</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E52" s="5">
-        <v>171</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>85</v>
+        <v>477</v>
+      </c>
+      <c r="F52" s="4">
+        <v>43112</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="4">
-        <v>42495</v>
+        <v>42986</v>
       </c>
       <c r="B53" s="4">
-        <v>42496</v>
+        <v>42990</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="E53" s="5">
-        <v>187</v>
-      </c>
-      <c r="F53" s="4">
-        <v>42492</v>
+        <v>171</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>12</v>
@@ -2444,81 +2450,81 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="4">
-        <v>42494</v>
+        <v>42495</v>
       </c>
       <c r="B54" s="4">
-        <v>42495</v>
+        <v>42496</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E54" s="5">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="F54" s="4">
-        <v>42551</v>
+        <v>42492</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="4">
-        <v>42468</v>
+        <v>42494</v>
       </c>
       <c r="B55" s="4">
-        <v>42468</v>
+        <v>42495</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" s="5">
         <v>20</v>
       </c>
-      <c r="E55" s="5">
-        <v>154</v>
-      </c>
       <c r="F55" s="4">
-        <v>42528</v>
+        <v>42551</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I55" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="4">
-        <v>42401</v>
+        <v>42468</v>
       </c>
       <c r="B56" s="4">
-        <v>42401</v>
+        <v>42468</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E56" s="5">
-        <v>60</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>93</v>
+        <v>154</v>
+      </c>
+      <c r="F56" s="4">
+        <v>42528</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>13</v>
@@ -2527,22 +2533,22 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="4">
-        <v>42384</v>
+        <v>42401</v>
       </c>
       <c r="B57" s="4">
-        <v>42384</v>
+        <v>42401</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E57" s="5">
-        <v>131</v>
-      </c>
-      <c r="F57" s="4">
-        <v>42405</v>
+        <v>60</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>12</v>
@@ -2554,25 +2560,25 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="4">
-        <v>42326</v>
+        <v>42384</v>
       </c>
       <c r="B58" s="4">
-        <v>42326</v>
+        <v>42384</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E58" s="5">
-        <v>241</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>96</v>
+        <v>131</v>
+      </c>
+      <c r="F58" s="4">
+        <v>42405</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>13</v>
@@ -2581,25 +2587,25 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="4">
-        <v>42318</v>
+        <v>42326</v>
       </c>
       <c r="B59" s="4">
-        <v>42320</v>
+        <v>42326</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>98</v>
+        <v>15</v>
+      </c>
+      <c r="E59" s="5">
+        <v>241</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>13</v>
@@ -2608,25 +2614,25 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="4">
-        <v>42178</v>
+        <v>42318</v>
       </c>
       <c r="B60" s="4">
-        <v>42180</v>
+        <v>42320</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E60" s="5">
-        <v>70</v>
-      </c>
-      <c r="F60" s="4">
-        <v>42240</v>
+        <v>30</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>13</v>
@@ -2635,78 +2641,78 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="4">
-        <v>42069</v>
+        <v>42178</v>
       </c>
       <c r="B61" s="4">
-        <v>42074</v>
+        <v>42180</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>102</v>
+        <v>15</v>
+      </c>
+      <c r="E61" s="5">
+        <v>70</v>
       </c>
       <c r="F61" s="4">
-        <v>42141</v>
+        <v>42240</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="4">
-        <v>42062</v>
+        <v>42069</v>
       </c>
       <c r="B62" s="4">
-        <v>42065</v>
+        <v>42074</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
+      </c>
+      <c r="F62" s="4">
+        <v>42141</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I62" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="4">
-        <v>41850</v>
+        <v>42062</v>
       </c>
       <c r="B63" s="4">
-        <v>41850</v>
+        <v>42065</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E63" s="5">
-        <v>5</v>
-      </c>
-      <c r="F63" s="4">
-        <v>41912</v>
+        <v>47</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>13</v>
@@ -2718,22 +2724,22 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="4">
-        <v>41820</v>
+        <v>41850</v>
       </c>
       <c r="B64" s="4">
-        <v>41821</v>
+        <v>41850</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="E64" s="5">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="F64" s="4">
-        <v>41882</v>
+        <v>41912</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>13</v>
@@ -2745,78 +2751,78 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="4">
-        <v>41724</v>
+        <v>41820</v>
       </c>
       <c r="B65" s="4">
-        <v>41729</v>
+        <v>41821</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E65" s="5">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="F65" s="4">
-        <v>41774</v>
+        <v>41882</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>110</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="4">
-        <v>41593</v>
+        <v>41724</v>
       </c>
       <c r="B66" s="4">
-        <v>41596</v>
+        <v>41729</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E66" s="5">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="F66" s="4">
-        <v>41654</v>
+        <v>41774</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I66" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="4">
-        <v>41547</v>
+        <v>41593</v>
       </c>
       <c r="B67" s="4">
-        <v>41547</v>
+        <v>41596</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E67" s="5">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F67" s="4">
-        <v>41608</v>
+        <v>41654</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>12</v>
@@ -2828,25 +2834,25 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="4">
-        <v>41495</v>
+        <v>41547</v>
       </c>
       <c r="B68" s="4">
-        <v>41502</v>
+        <v>41547</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E68" s="5">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="F68" s="4">
-        <v>41555</v>
+        <v>41608</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>13</v>
@@ -2855,25 +2861,25 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="4">
-        <v>41425</v>
+        <v>41495</v>
       </c>
       <c r="B69" s="4">
-        <v>41438</v>
+        <v>41502</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E69" s="5">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="F69" s="4">
-        <v>41425</v>
+        <v>41555</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>13</v>
@@ -2882,76 +2888,76 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="4">
-        <v>41416</v>
+        <v>41425</v>
       </c>
       <c r="B70" s="4">
-        <v>41417</v>
+        <v>41438</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E70" s="5">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="F70" s="4">
-        <v>41485</v>
+        <v>41425</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I70" s="2"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="4">
-        <v>41285</v>
+        <v>41416</v>
       </c>
       <c r="B71" s="4">
-        <v>41285</v>
+        <v>41417</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>98</v>
+        <v>27</v>
+      </c>
+      <c r="E71" s="5">
+        <v>62</v>
       </c>
       <c r="F71" s="4">
-        <v>41347</v>
+        <v>41485</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I71" s="2"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="4">
-        <v>41087</v>
+        <v>41285</v>
       </c>
       <c r="B72" s="4">
-        <v>41087</v>
+        <v>41285</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E72" s="5">
-        <v>51</v>
+        <v>117</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="F72" s="4">
-        <v>41148</v>
+        <v>41347</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>12</v>
@@ -2963,51 +2969,49 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="4">
-        <v>41011</v>
+        <v>41087</v>
       </c>
       <c r="B73" s="4">
-        <v>41011</v>
+        <v>41087</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="E73" s="5">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="F73" s="4">
-        <v>41071</v>
+        <v>41148</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>120</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I73" s="2"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="4">
-        <v>40938</v>
+        <v>41011</v>
       </c>
       <c r="B74" s="4">
-        <v>40939</v>
+        <v>41011</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E74" s="5">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="F74" s="4">
-        <v>41000</v>
+        <v>41071</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>12</v>
@@ -3016,54 +3020,56 @@
         <v>12</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="4">
-        <v>40833</v>
+        <v>40938</v>
       </c>
       <c r="B75" s="4">
-        <v>40833</v>
+        <v>40939</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="E75" s="5">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="F75" s="4">
-        <v>40833</v>
+        <v>41000</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="4">
-        <v>40785</v>
+        <v>40833</v>
       </c>
       <c r="B76" s="4">
-        <v>40788</v>
+        <v>40833</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E76" s="5">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="F76" s="4">
-        <v>40846</v>
+        <v>40833</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>12</v>
@@ -3075,22 +3081,22 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="4">
-        <v>40752</v>
+        <v>40785</v>
       </c>
       <c r="B77" s="4">
-        <v>40758</v>
+        <v>40788</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E77" s="5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F77" s="4">
-        <v>40816</v>
+        <v>40846</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>12</v>
@@ -3102,22 +3108,22 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="4">
-        <v>40753</v>
+        <v>40752</v>
       </c>
       <c r="B78" s="4">
-        <v>40756</v>
+        <v>40758</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E78" s="5">
-        <v>98</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>127</v>
+        <v>9</v>
+      </c>
+      <c r="F78" s="4">
+        <v>40816</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>12</v>
@@ -3129,22 +3135,22 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="4">
-        <v>40688</v>
+        <v>40753</v>
       </c>
       <c r="B79" s="4">
-        <v>40690</v>
+        <v>40756</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="E79" s="5">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>12</v>
@@ -3156,22 +3162,22 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="4">
-        <v>40634</v>
+        <v>40688</v>
       </c>
       <c r="B80" s="4">
-        <v>40634</v>
+        <v>40690</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="E80" s="5">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>12</v>
@@ -3183,25 +3189,25 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="4">
-        <v>40589</v>
+        <v>40634</v>
       </c>
       <c r="B81" s="4">
-        <v>40589</v>
+        <v>40634</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="E81" s="5">
-        <v>5</v>
-      </c>
-      <c r="F81" s="4">
-        <v>40644</v>
+        <v>98</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>13</v>
@@ -3210,22 +3216,22 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="4">
-        <v>40565</v>
+        <v>40589</v>
       </c>
       <c r="B82" s="4">
-        <v>40568</v>
+        <v>40589</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E82" s="5">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="F82" s="4">
-        <v>40592</v>
+        <v>40644</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>13</v>
@@ -3237,22 +3243,22 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="4">
-        <v>40410</v>
+        <v>40565</v>
       </c>
       <c r="B83" s="4">
-        <v>40413</v>
+        <v>40568</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E83" s="5">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="F83" s="4">
-        <v>40452</v>
+        <v>40592</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>13</v>
@@ -3264,22 +3270,22 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="4">
-        <v>40392</v>
+        <v>40410</v>
       </c>
       <c r="B84" s="4">
-        <v>40217</v>
+        <v>40413</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="E84" s="5">
-        <v>26</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>138</v>
+        <v>89</v>
+      </c>
+      <c r="F84" s="4">
+        <v>40452</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>13</v>
@@ -3291,7 +3297,7 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="4">
-        <v>40214</v>
+        <v>40392</v>
       </c>
       <c r="B85" s="4">
         <v>40217</v>
@@ -3303,10 +3309,10 @@
         <v>134</v>
       </c>
       <c r="E85" s="5">
-        <v>165</v>
-      </c>
-      <c r="F85" s="4">
-        <v>40217</v>
+        <v>26</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>13</v>
@@ -3318,25 +3324,25 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="4">
-        <v>40178</v>
+        <v>40214</v>
       </c>
       <c r="B86" s="4">
-        <v>40182</v>
+        <v>40217</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E86" s="5">
-        <v>8</v>
+        <v>165</v>
       </c>
       <c r="F86" s="4">
-        <v>40210</v>
+        <v>40217</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>13</v>
@@ -3345,22 +3351,22 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="4">
-        <v>40137</v>
+        <v>40178</v>
       </c>
       <c r="B87" s="4">
-        <v>40141</v>
+        <v>40182</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E87" s="5">
-        <v>66</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>141</v>
+        <v>8</v>
+      </c>
+      <c r="F87" s="4">
+        <v>40210</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>12</v>
@@ -3378,72 +3384,72 @@
         <v>40141</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E88" s="5">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>144</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I88" s="1"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="4">
-        <v>40094</v>
+        <v>40137</v>
       </c>
       <c r="B89" s="4">
-        <v>40094</v>
+        <v>40141</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F89" s="4">
-        <v>40147</v>
+        <v>43</v>
+      </c>
+      <c r="E89" s="5">
+        <v>103</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I89" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="4">
-        <v>40091</v>
+        <v>40094</v>
       </c>
       <c r="B90" s="4">
-        <v>40091</v>
+        <v>40094</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E90" s="5">
-        <v>63</v>
+        <v>15</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="F90" s="4">
-        <v>40148</v>
+        <v>40147</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>13</v>
@@ -3455,10 +3461,10 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="4">
-        <v>40046</v>
+        <v>40091</v>
       </c>
       <c r="B91" s="4">
-        <v>40050</v>
+        <v>40091</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>146</v>
@@ -3466,11 +3472,11 @@
       <c r="D91" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E91" s="5" t="s">
-        <v>147</v>
+      <c r="E91" s="5">
+        <v>63</v>
       </c>
       <c r="F91" s="4">
-        <v>39895</v>
+        <v>40148</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>13</v>
@@ -3482,25 +3488,25 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="4">
-        <v>40007</v>
+        <v>40046</v>
       </c>
       <c r="B92" s="4">
-        <v>40008</v>
+        <v>40050</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E92" s="5">
-        <v>130</v>
+        <v>43</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="F92" s="4">
         <v>39895</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>13</v>
@@ -3515,16 +3521,16 @@
         <v>40008</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="E93" s="5">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="F93" s="4">
-        <v>40001</v>
+        <v>39895</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>12</v>
@@ -3536,25 +3542,25 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="4">
-        <v>39995</v>
+        <v>40007</v>
       </c>
       <c r="B94" s="4">
-        <v>39895</v>
+        <v>40008</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E94" s="5">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F94" s="4">
-        <v>39895</v>
+        <v>40001</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>13</v>
@@ -3563,22 +3569,22 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="4">
-        <v>39980</v>
+        <v>39995</v>
       </c>
       <c r="B95" s="4">
-        <v>39996</v>
+        <v>39895</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="E95" s="5">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F95" s="4">
-        <v>40041</v>
+        <v>39895</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>13</v>
@@ -3590,78 +3596,78 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="4">
-        <v>39931</v>
+        <v>39980</v>
       </c>
       <c r="B96" s="4">
-        <v>39932</v>
+        <v>39996</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="E96" s="5">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="F96" s="4">
-        <v>39994</v>
+        <v>40041</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>154</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I96" s="2"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="4">
-        <v>39918</v>
+        <v>39931</v>
       </c>
       <c r="B97" s="4">
-        <v>39918</v>
+        <v>39932</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="E97" s="5">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="F97" s="4">
         <v>39994</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I97" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="4">
-        <v>39883</v>
+        <v>39918</v>
       </c>
       <c r="B98" s="4">
-        <v>39882</v>
+        <v>39918</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="E98" s="5">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F98" s="4">
-        <v>39943</v>
+        <v>39994</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>12</v>
@@ -3673,25 +3679,25 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="4">
-        <v>39881</v>
+        <v>39883</v>
       </c>
       <c r="B99" s="4">
-        <v>39881</v>
+        <v>39882</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E99" s="5">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="F99" s="4">
-        <v>39941</v>
+        <v>39943</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>13</v>
@@ -3700,25 +3706,25 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="4">
-        <v>39876</v>
+        <v>39881</v>
       </c>
       <c r="B100" s="4">
-        <v>39878</v>
+        <v>39881</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="E100" s="5">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F100" s="4">
-        <v>39935</v>
+        <v>39941</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>13</v>
@@ -3727,22 +3733,22 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="4">
-        <v>39877</v>
+        <v>39876</v>
       </c>
       <c r="B101" s="4">
-        <v>39877</v>
+        <v>39878</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="E101" s="5">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="F101" s="4">
-        <v>39943</v>
+        <v>39935</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>12</v>
@@ -3754,22 +3760,22 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="4">
-        <v>39863</v>
+        <v>39877</v>
       </c>
       <c r="B102" s="4">
-        <v>39864</v>
+        <v>39877</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="E102" s="5">
-        <v>270</v>
+        <v>119</v>
       </c>
       <c r="F102" s="4">
-        <v>39828</v>
+        <v>39943</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>12</v>
@@ -3781,30 +3787,57 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="4">
+        <v>39863</v>
+      </c>
+      <c r="B103" s="4">
+        <v>39864</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E103" s="5">
+        <v>270</v>
+      </c>
+      <c r="F103" s="4">
+        <v>39828</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I103" s="2"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="4">
         <v>39832</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B104" s="4">
         <v>39825</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E103" s="5">
+      <c r="E104" s="5">
         <v>121</v>
       </c>
-      <c r="F103" s="4">
+      <c r="F104" s="4">
         <v>39821</v>
       </c>
-      <c r="G103" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I103" s="2"/>
+      <c r="G104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I104" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/warn-scraper/cache/ri/WARN Report.xlsx
+++ b/data/warn-scraper/cache/ri/WARN Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathaniel.M.Wilson\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmwilsonri/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7452906C-B7A5-4595-B87D-338983C79C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBA632B8-8CF0-FE4B-B185-E43E47968B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="169">
   <si>
     <t>Rhode Island WARN Report</t>
   </si>
@@ -535,6 +535,15 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Teamsters Local 251, 121 Brightridge Avenue, East Providence, RI 02914</t>
   </si>
 </sst>
 </file>
@@ -706,8 +715,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1026,50 +1035,50 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="92.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="92.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-    </row>
-    <row r="3" spans="1:9" ht="31.5">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" ht="31">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -1111,130 +1120,148 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="13">
-        <v>45316</v>
+        <v>45323</v>
       </c>
       <c r="B5" s="13">
-        <v>45316</v>
+        <v>45328</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="13">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="E5" s="23">
+        <v>130</v>
       </c>
       <c r="F5" s="13">
-        <v>45316</v>
+        <v>45384</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>165</v>
       </c>
       <c r="H5" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13">
+        <v>45316</v>
+      </c>
+      <c r="B6" s="13">
+        <v>45316</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="23">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13">
+        <v>45316</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:9" ht="21">
-      <c r="A6" s="13"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="3"/>
+      <c r="H6" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="21">
       <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" s="11" customFormat="1" ht="12.75">
-      <c r="A8" s="10"/>
+    <row r="8" spans="1:9" ht="21">
+      <c r="A8" s="13"/>
       <c r="B8" s="13"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="17"/>
       <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" s="15" customFormat="1" ht="12.75">
-      <c r="A9" s="13"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" s="11" customFormat="1" ht="13">
+      <c r="A9" s="10"/>
       <c r="B9" s="13"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:9" s="15" customFormat="1" ht="12.75">
+      <c r="E9" s="17"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" s="15" customFormat="1" ht="13">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:9" s="11" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="11" spans="1:9" s="15" customFormat="1" ht="13">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="14"/>
+    <row r="12" spans="1:9" s="11" customFormat="1" ht="18.5" customHeight="1">
+      <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="1:9" ht="21">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:9">
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="14"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" ht="21">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="17" thickBot="1">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="7"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="5"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="2"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4"/>
@@ -1245,7 +1272,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4"/>
@@ -1256,7 +1283,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4"/>
@@ -1300,7 +1327,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="4"/>
@@ -1333,7 +1360,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="2"/>
+      <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4"/>
@@ -1344,7 +1371,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="4"/>
@@ -1355,7 +1382,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="2"/>
+      <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="4"/>
@@ -1391,8 +1418,8 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="5"/>
@@ -1403,7 +1430,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="6"/>
-      <c r="B32" s="4"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="5"/>
@@ -1424,7 +1451,7 @@
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="4"/>
+      <c r="A34" s="6"/>
       <c r="B34" s="4"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1487,7 +1514,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4"/>
@@ -1498,7 +1525,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="2"/>
+      <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="4"/>
@@ -1528,7 +1555,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+      <c r="F43" s="4"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="2"/>
@@ -1539,7 +1566,7 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="4"/>
+      <c r="F44" s="5"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="2"/>
@@ -1608,7 +1635,7 @@
       <c r="F50" s="4"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
+      <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="4"/>
@@ -1619,7 +1646,7 @@
       <c r="F51" s="4"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="2"/>
+      <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="4"/>
@@ -1630,7 +1657,7 @@
       <c r="F52" s="4"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
+      <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="4"/>
@@ -1638,10 +1665,10 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
+      <c r="F53" s="4"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-      <c r="I53" s="2"/>
+      <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="4"/>
@@ -1649,7 +1676,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="5"/>
-      <c r="F54" s="4"/>
+      <c r="F54" s="5"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="2"/>
@@ -1663,7 +1690,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
+      <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="4"/>
@@ -1674,7 +1701,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="2"/>
+      <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="4"/>
@@ -1682,7 +1709,7 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
+      <c r="F57" s="4"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="2"/>
@@ -1693,7 +1720,7 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="5"/>
-      <c r="F58" s="4"/>
+      <c r="F58" s="5"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="2"/>
@@ -1704,7 +1731,7 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
+      <c r="F59" s="4"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="2"/>
@@ -1726,7 +1753,7 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="5"/>
-      <c r="F61" s="4"/>
+      <c r="F61" s="5"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="2"/>
@@ -1740,7 +1767,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
+      <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="4"/>
@@ -1748,10 +1775,10 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
+      <c r="F63" s="4"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="2"/>
+      <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="4"/>
@@ -1759,7 +1786,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="5"/>
-      <c r="F64" s="4"/>
+      <c r="F64" s="5"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="2"/>
@@ -1784,7 +1811,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
+      <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="4"/>
@@ -1795,7 +1822,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="2"/>
+      <c r="I67" s="1"/>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="4"/>
@@ -1872,7 +1899,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
+      <c r="I74" s="2"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="4"/>
@@ -1924,7 +1951,7 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
+      <c r="F79" s="4"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -1957,7 +1984,7 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="5"/>
-      <c r="F82" s="4"/>
+      <c r="F82" s="5"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -1990,7 +2017,7 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
+      <c r="F85" s="4"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -2001,7 +2028,7 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="5"/>
-      <c r="F86" s="4"/>
+      <c r="F86" s="5"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -2023,7 +2050,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
+      <c r="F88" s="4"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -2045,10 +2072,10 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="5"/>
-      <c r="F90" s="4"/>
+      <c r="F90" s="5"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
-      <c r="I90" s="2"/>
+      <c r="I90" s="1"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="4"/>
@@ -2125,7 +2152,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
+      <c r="I97" s="2"/>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="4"/>
@@ -2136,7 +2163,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
-      <c r="I98" s="2"/>
+      <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="4"/>
@@ -2203,6 +2230,17 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="2"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2220,54 +2258,54 @@
   </sheetPr>
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-    </row>
-    <row r="3" spans="1:9" ht="31.5">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" ht="31">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="21">
       <c r="A4" s="3" t="s">
@@ -2522,7 +2560,7 @@
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" ht="16.5" thickBot="1">
+    <row r="13" spans="1:9" ht="17" thickBot="1">
       <c r="A13" s="4">
         <v>44827</v>
       </c>

--- a/data/warn-scraper/cache/ri/WARN Report.xlsx
+++ b/data/warn-scraper/cache/ri/WARN Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27424"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmwilsonri/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBA632B8-8CF0-FE4B-B185-E43E47968B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0FFE8D7-E600-442A-8259-0A5274CDD161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="169">
   <si>
     <t>Rhode Island WARN Report</t>
   </si>
@@ -48,25 +48,73 @@
     <t>Date Received</t>
   </si>
   <si>
+    <t xml:space="preserve">Company Name </t>
+  </si>
+  <si>
+    <t>Location of Layoffs</t>
+  </si>
+  <si>
+    <t>Number Affected</t>
+  </si>
+  <si>
+    <t>Effective Date</t>
+  </si>
+  <si>
+    <t>Closing Yes/No</t>
+  </si>
+  <si>
+    <t>Union Yes/No</t>
+  </si>
+  <si>
+    <t>Union Address</t>
+  </si>
+  <si>
+    <t>Lakeside Book Company</t>
+  </si>
+  <si>
+    <t>Cumberland</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>Warwick</t>
+  </si>
+  <si>
+    <t>Teamsters Local 251, 121 Brightridge Avenue, East Providence, RI 02914</t>
+  </si>
+  <si>
+    <t>Los Angeles Times Communications LLC</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
     <t>Company Name (* Denotes Covid 19 Related WARN)</t>
   </si>
   <si>
-    <t>Location of Layoffs</t>
-  </si>
-  <si>
-    <t>Number Affected</t>
-  </si>
-  <si>
-    <t>Effective Date</t>
-  </si>
-  <si>
-    <t>Closing Yes/No</t>
-  </si>
-  <si>
-    <t>Union Yes/No</t>
-  </si>
-  <si>
-    <t>Union Address</t>
+    <t>Newport  Harbor Island Resort</t>
+  </si>
+  <si>
+    <t>Newport</t>
+  </si>
+  <si>
+    <t>CVS Health</t>
+  </si>
+  <si>
+    <t>Cumberland/Woonsocket</t>
+  </si>
+  <si>
+    <t>309 *updated 10/26/23</t>
+  </si>
+  <si>
+    <t>10/21/23 &amp; 12/30/23</t>
   </si>
   <si>
     <t>TPI Composites Inc</t>
@@ -75,12 +123,6 @@
     <t>Warren</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Aramark Facility Services, LLC</t>
   </si>
   <si>
@@ -120,9 +162,6 @@
     <t>BayFirst Financial Corporation </t>
   </si>
   <si>
-    <t>Warwick</t>
-  </si>
-  <si>
     <t>Rubius Therapeutics</t>
   </si>
   <si>
@@ -147,15 +186,9 @@
     <t>Santander*</t>
   </si>
   <si>
-    <t>Rhode Island</t>
-  </si>
-  <si>
     <t>Hotel Viking*</t>
   </si>
   <si>
-    <t>Newport</t>
-  </si>
-  <si>
     <t>Providence Mariott*</t>
   </si>
   <si>
@@ -300,9 +333,6 @@
     <t>Homemade Real Foods</t>
   </si>
   <si>
-    <t>Cumberland</t>
-  </si>
-  <si>
     <t>First Student</t>
   </si>
   <si>
@@ -514,43 +544,13 @@
   </si>
   <si>
     <t>East Providence and Providence</t>
-  </si>
-  <si>
-    <t>10/21/23 &amp; 12/30/23</t>
-  </si>
-  <si>
-    <t>CVS Health</t>
-  </si>
-  <si>
-    <t>Cumberland/Woonsocket</t>
-  </si>
-  <si>
-    <t>Newport  Harbor Island Resort</t>
-  </si>
-  <si>
-    <t>309 *updated 10/26/23</t>
-  </si>
-  <si>
-    <t>Los Angeles Times Communications LLC</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>UPS</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Teamsters Local 251, 121 Brightridge Avenue, East Providence, RI 02914</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -619,6 +619,48 @@
       <color theme="1"/>
       <name val="Helvetica Nue"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -657,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -696,9 +738,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -712,11 +751,112 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1035,813 +1175,794 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="45.75" customWidth="1"/>
+    <col min="4" max="4" width="31.125" customWidth="1"/>
+    <col min="5" max="5" width="24.375" style="53" customWidth="1"/>
+    <col min="6" max="6" width="19.75" style="53" customWidth="1"/>
+    <col min="7" max="7" width="18.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="92.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="66.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-    </row>
-    <row r="3" spans="1:9" ht="31">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-    </row>
-    <row r="4" spans="1:9" ht="21">
-      <c r="A4" s="3" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+    </row>
+    <row r="3" spans="1:9" ht="30.95">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+    </row>
+    <row r="4" spans="1:9" s="56" customFormat="1" ht="18">
+      <c r="A4" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="57" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="13">
+    <row r="5" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A5" s="29">
+        <v>45349</v>
+      </c>
+      <c r="B5" s="29">
+        <v>45349</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="37">
+        <v>48</v>
+      </c>
+      <c r="F5" s="33">
+        <v>45611</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A6" s="29">
         <v>45323</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B6" s="29">
         <v>45328</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="23">
+      <c r="C6" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="37">
         <v>130</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F6" s="33">
         <v>45384</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="13">
+      <c r="G6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A7" s="29">
         <v>45316</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B7" s="29">
         <v>45316</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="23">
+      <c r="C7" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="37">
         <v>1</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F7" s="33">
         <v>45316</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:9" ht="21">
-      <c r="A7" s="13"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="21">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" s="11" customFormat="1" ht="13">
-      <c r="A9" s="10"/>
-      <c r="B9" s="13"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" s="15" customFormat="1" ht="13">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:9" s="15" customFormat="1" ht="13">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:9" s="11" customFormat="1" ht="18.5" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="14"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:9" ht="21">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="17" thickBot="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="6"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="6"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="2"/>
+      <c r="G7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:9" s="23" customFormat="1" ht="15">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="33"/>
+      <c r="I8" s="38"/>
+    </row>
+    <row r="9" spans="1:9" s="23" customFormat="1" ht="15">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="38"/>
+    </row>
+    <row r="10" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="33"/>
+    </row>
+    <row r="11" spans="1:9" s="24" customFormat="1" ht="14.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="33"/>
+    </row>
+    <row r="12" spans="1:9" s="24" customFormat="1" ht="14.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="33"/>
+    </row>
+    <row r="13" spans="1:9" s="23" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="33"/>
+    </row>
+    <row r="14" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+    </row>
+    <row r="15" spans="1:9" s="23" customFormat="1" ht="15">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="33"/>
+      <c r="I15" s="38"/>
+    </row>
+    <row r="16" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="26"/>
+    </row>
+    <row r="17" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+    </row>
+    <row r="18" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+    </row>
+    <row r="19" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+    </row>
+    <row r="20" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+    </row>
+    <row r="21" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+    </row>
+    <row r="22" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+    </row>
+    <row r="23" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+    </row>
+    <row r="24" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+    </row>
+    <row r="25" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+    </row>
+    <row r="26" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+    </row>
+    <row r="27" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+    </row>
+    <row r="28" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+    </row>
+    <row r="29" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+    </row>
+    <row r="30" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+    </row>
+    <row r="31" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+    </row>
+    <row r="32" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+    </row>
+    <row r="33" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+    </row>
+    <row r="34" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A34" s="28"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+    </row>
+    <row r="35" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A35" s="28"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+    </row>
+    <row r="36" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+    </row>
+    <row r="37" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+    </row>
+    <row r="38" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+    </row>
+    <row r="39" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+    </row>
+    <row r="40" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+    </row>
+    <row r="41" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+    </row>
+    <row r="42" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+    </row>
+    <row r="43" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+    </row>
+    <row r="44" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+    </row>
+    <row r="45" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A45" s="31"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+    </row>
+    <row r="46" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A46" s="31"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+    </row>
+    <row r="47" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+    </row>
+    <row r="48" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+    </row>
+    <row r="49" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+    </row>
+    <row r="50" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+    </row>
+    <row r="51" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+    </row>
+    <row r="52" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+    </row>
+    <row r="53" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+    </row>
+    <row r="54" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+    </row>
+    <row r="55" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+    </row>
+    <row r="56" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+    </row>
+    <row r="57" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+    </row>
+    <row r="58" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+    </row>
+    <row r="59" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+    </row>
+    <row r="60" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+    </row>
+    <row r="61" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+    </row>
+    <row r="62" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+    </row>
+    <row r="63" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+    </row>
+    <row r="64" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+    </row>
+    <row r="65" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+    </row>
+    <row r="66" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A66" s="25"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="4"/>
+      <c r="E67" s="52"/>
+      <c r="F67" s="51"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
+      <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="4"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="51"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
-      <c r="I68" s="2"/>
+      <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="4"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="51"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="2"/>
@@ -1851,8 +1972,8 @@
       <c r="B70" s="4"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="4"/>
+      <c r="E70" s="52"/>
+      <c r="F70" s="51"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="2"/>
@@ -1862,8 +1983,8 @@
       <c r="B71" s="4"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="4"/>
+      <c r="E71" s="52"/>
+      <c r="F71" s="51"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="2"/>
@@ -1873,8 +1994,8 @@
       <c r="B72" s="4"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="4"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="51"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="2"/>
@@ -1884,8 +2005,8 @@
       <c r="B73" s="4"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="4"/>
+      <c r="E73" s="52"/>
+      <c r="F73" s="51"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="2"/>
@@ -1895,8 +2016,8 @@
       <c r="B74" s="4"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="4"/>
+      <c r="E74" s="52"/>
+      <c r="F74" s="51"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="2"/>
@@ -1906,19 +2027,19 @@
       <c r="B75" s="4"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="4"/>
+      <c r="E75" s="52"/>
+      <c r="F75" s="51"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
+      <c r="I75" s="2"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="4"/>
+      <c r="E76" s="52"/>
+      <c r="F76" s="51"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -1928,8 +2049,8 @@
       <c r="B77" s="4"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="4"/>
+      <c r="E77" s="52"/>
+      <c r="F77" s="51"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -1939,8 +2060,8 @@
       <c r="B78" s="4"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="4"/>
+      <c r="E78" s="52"/>
+      <c r="F78" s="51"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -1950,8 +2071,8 @@
       <c r="B79" s="4"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="4"/>
+      <c r="E79" s="52"/>
+      <c r="F79" s="51"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -1961,8 +2082,8 @@
       <c r="B80" s="4"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
+      <c r="E80" s="52"/>
+      <c r="F80" s="51"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -1972,8 +2093,8 @@
       <c r="B81" s="4"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
+      <c r="E81" s="52"/>
+      <c r="F81" s="52"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -1983,8 +2104,8 @@
       <c r="B82" s="4"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
+      <c r="E82" s="52"/>
+      <c r="F82" s="52"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -1994,8 +2115,8 @@
       <c r="B83" s="4"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="4"/>
+      <c r="E83" s="52"/>
+      <c r="F83" s="52"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -2005,8 +2126,8 @@
       <c r="B84" s="4"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="4"/>
+      <c r="E84" s="52"/>
+      <c r="F84" s="51"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -2016,8 +2137,8 @@
       <c r="B85" s="4"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="4"/>
+      <c r="E85" s="52"/>
+      <c r="F85" s="51"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -2027,8 +2148,8 @@
       <c r="B86" s="4"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
+      <c r="E86" s="52"/>
+      <c r="F86" s="51"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -2038,8 +2159,8 @@
       <c r="B87" s="4"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="4"/>
+      <c r="E87" s="52"/>
+      <c r="F87" s="52"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -2049,8 +2170,8 @@
       <c r="B88" s="4"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="4"/>
+      <c r="E88" s="52"/>
+      <c r="F88" s="51"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -2060,8 +2181,8 @@
       <c r="B89" s="4"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
+      <c r="E89" s="52"/>
+      <c r="F89" s="51"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -2071,8 +2192,8 @@
       <c r="B90" s="4"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
+      <c r="E90" s="52"/>
+      <c r="F90" s="52"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -2082,19 +2203,19 @@
       <c r="B91" s="4"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="4"/>
+      <c r="E91" s="52"/>
+      <c r="F91" s="52"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
-      <c r="I91" s="2"/>
+      <c r="I91" s="1"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="4"/>
+      <c r="E92" s="52"/>
+      <c r="F92" s="51"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="2"/>
@@ -2104,8 +2225,8 @@
       <c r="B93" s="4"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="4"/>
+      <c r="E93" s="52"/>
+      <c r="F93" s="51"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="2"/>
@@ -2115,8 +2236,8 @@
       <c r="B94" s="4"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="4"/>
+      <c r="E94" s="52"/>
+      <c r="F94" s="51"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="2"/>
@@ -2126,8 +2247,8 @@
       <c r="B95" s="4"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="4"/>
+      <c r="E95" s="52"/>
+      <c r="F95" s="51"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="2"/>
@@ -2137,8 +2258,8 @@
       <c r="B96" s="4"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="4"/>
+      <c r="E96" s="52"/>
+      <c r="F96" s="51"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="2"/>
@@ -2148,8 +2269,8 @@
       <c r="B97" s="4"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="4"/>
+      <c r="E97" s="52"/>
+      <c r="F97" s="51"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="2"/>
@@ -2159,30 +2280,30 @@
       <c r="B98" s="4"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="4"/>
+      <c r="E98" s="52"/>
+      <c r="F98" s="51"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
+      <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="4"/>
+      <c r="E99" s="52"/>
+      <c r="F99" s="51"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
-      <c r="I99" s="2"/>
+      <c r="I99" s="1"/>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="4"/>
+      <c r="E100" s="52"/>
+      <c r="F100" s="51"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="2"/>
@@ -2192,8 +2313,8 @@
       <c r="B101" s="4"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="4"/>
+      <c r="E101" s="52"/>
+      <c r="F101" s="51"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="2"/>
@@ -2203,8 +2324,8 @@
       <c r="B102" s="4"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="4"/>
+      <c r="E102" s="52"/>
+      <c r="F102" s="51"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="2"/>
@@ -2214,8 +2335,8 @@
       <c r="B103" s="4"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="4"/>
+      <c r="E103" s="52"/>
+      <c r="F103" s="51"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="2"/>
@@ -2225,8 +2346,8 @@
       <c r="B104" s="4"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="4"/>
+      <c r="E104" s="52"/>
+      <c r="F104" s="51"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="2"/>
@@ -2236,11 +2357,22 @@
       <c r="B105" s="4"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="4"/>
+      <c r="E105" s="52"/>
+      <c r="F105" s="51"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="2"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="52"/>
+      <c r="F106" s="51"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2262,50 +2394,50 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-    </row>
-    <row r="3" spans="1:9" ht="31">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+    </row>
+    <row r="3" spans="1:9" ht="30.95">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
     </row>
     <row r="4" spans="1:9" ht="21">
       <c r="A4" s="3" t="s">
@@ -2315,7 +2447,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>4</v>
@@ -2340,25 +2472,25 @@
       <c r="A5" s="13">
         <v>45191</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>45191</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="21">
+      <c r="C5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="20">
         <v>136</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <v>45252</v>
       </c>
-      <c r="G5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="19" t="s">
+      <c r="G5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="18" t="s">
         <v>13</v>
       </c>
       <c r="I5" s="3"/>
@@ -2371,16 +2503,16 @@
         <v>45156</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>163</v>
+        <v>23</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>13</v>
@@ -2398,12 +2530,12 @@
         <v>45153</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="17">
+        <v>27</v>
+      </c>
+      <c r="E7" s="16">
         <v>52</v>
       </c>
       <c r="F7" s="10">
@@ -2425,10 +2557,10 @@
         <v>45112</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E8" s="15">
         <v>211</v>
@@ -2437,13 +2569,13 @@
         <v>45138</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2454,10 +2586,10 @@
         <v>45111</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E9" s="15">
         <v>249</v>
@@ -2466,13 +2598,13 @@
         <v>45138</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2483,10 +2615,10 @@
         <v>42522</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E10" s="15">
         <v>169</v>
@@ -2501,7 +2633,7 @@
         <v>12</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2512,10 +2644,10 @@
         <v>44950</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E11" s="15">
         <v>75</v>
@@ -2530,7 +2662,7 @@
         <v>12</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="21">
@@ -2541,10 +2673,10 @@
         <v>44937</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E12" s="12">
         <v>81</v>
@@ -2560,7 +2692,7 @@
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" ht="17" thickBot="1">
+    <row r="13" spans="1:9" ht="17.100000000000001" thickBot="1">
       <c r="A13" s="4">
         <v>44827</v>
       </c>
@@ -2568,10 +2700,10 @@
         <v>44831</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E13" s="7">
         <v>1</v>
@@ -2595,10 +2727,10 @@
         <v>44817</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E14" s="7">
         <v>77</v>
@@ -2622,10 +2754,10 @@
         <v>44594</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E15" s="5">
         <v>198</v>
@@ -2649,10 +2781,10 @@
         <v>44336</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E16" s="5">
         <v>94</v>
@@ -2667,7 +2799,7 @@
         <v>12</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2678,10 +2810,10 @@
         <v>44342</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E17" s="5">
         <v>464</v>
@@ -2705,10 +2837,10 @@
         <v>44104</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E18" s="5">
         <v>13</v>
@@ -2732,10 +2864,10 @@
         <v>44068</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E19" s="5">
         <v>40</v>
@@ -2759,10 +2891,10 @@
         <v>44060</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E20" s="5">
         <v>106</v>
@@ -2786,10 +2918,10 @@
         <v>44056</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E21" s="5">
         <v>272</v>
@@ -2804,7 +2936,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2815,10 +2947,10 @@
         <v>44040</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E22" s="5">
         <v>1043</v>
@@ -2833,7 +2965,7 @@
         <v>12</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2844,10 +2976,10 @@
         <v>44040</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E23" s="5">
         <v>296</v>
@@ -2862,7 +2994,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2873,10 +3005,10 @@
         <v>44042</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E24" s="5">
         <v>73</v>
@@ -2900,10 +3032,10 @@
         <v>44022</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E25" s="5">
         <v>127</v>
@@ -2918,7 +3050,7 @@
         <v>12</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2929,10 +3061,10 @@
         <v>44004</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E26" s="5">
         <v>71</v>
@@ -2956,10 +3088,10 @@
         <v>44012</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E27" s="5">
         <v>65</v>
@@ -2983,10 +3115,10 @@
         <v>43985</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E28" s="5">
         <v>65</v>
@@ -3010,10 +3142,10 @@
         <v>43980</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E29" s="5">
         <v>231</v>
@@ -3037,10 +3169,10 @@
         <v>44068</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E30" s="5">
         <v>72</v>
@@ -3064,10 +3196,10 @@
         <v>43948</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E31" s="5">
         <v>136</v>
@@ -3091,10 +3223,10 @@
         <v>43942</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E32" s="5">
         <v>5</v>
@@ -3118,10 +3250,10 @@
         <v>43944</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -3145,10 +3277,10 @@
         <v>43938</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E34" s="5">
         <v>13</v>
@@ -3172,10 +3304,10 @@
         <v>43935</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E35" s="5">
         <v>51</v>
@@ -3199,10 +3331,10 @@
         <v>43925</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E36" s="5">
         <v>110</v>
@@ -3226,10 +3358,10 @@
         <v>43917</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E37" s="5">
         <v>37</v>
@@ -3253,10 +3385,10 @@
         <v>43913</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E38" s="5">
         <v>146</v>
@@ -3271,7 +3403,7 @@
         <v>12</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -3282,10 +3414,10 @@
         <v>43910</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E39" s="5">
         <v>87</v>
@@ -3309,10 +3441,10 @@
         <v>43913</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E40" s="5">
         <v>110</v>
@@ -3336,10 +3468,10 @@
         <v>43510</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E41" s="5">
         <v>1</v>
@@ -3363,16 +3495,16 @@
         <v>43486</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E42" s="5">
         <v>59</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>12</v>
@@ -3390,10 +3522,10 @@
         <v>43479</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E43" s="5">
         <v>62</v>
@@ -3417,10 +3549,10 @@
         <v>43413</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E44" s="5">
         <v>51</v>
@@ -3444,10 +3576,10 @@
         <v>43405</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E45" s="5">
         <v>92</v>
@@ -3471,10 +3603,10 @@
         <v>43405</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E46" s="5">
         <v>181</v>
@@ -3498,10 +3630,10 @@
         <v>43382</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E47" s="5">
         <v>180</v>
@@ -3525,10 +3657,10 @@
         <v>43363</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E48" s="5">
         <v>83</v>
@@ -3552,10 +3684,10 @@
         <v>43276</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E49" s="5">
         <v>64</v>
@@ -3570,7 +3702,7 @@
         <v>12</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3581,10 +3713,10 @@
         <v>43252</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E50" s="5">
         <v>149</v>
@@ -3608,10 +3740,10 @@
         <v>43042</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E51" s="5">
         <v>477</v>
@@ -3626,7 +3758,7 @@
         <v>12</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3637,16 +3769,16 @@
         <v>42990</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E52" s="5">
         <v>171</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>12</v>
@@ -3664,10 +3796,10 @@
         <v>42496</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="E53" s="5">
         <v>187</v>
@@ -3691,10 +3823,10 @@
         <v>42495</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E54" s="5">
         <v>20</v>
@@ -3709,7 +3841,7 @@
         <v>12</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3720,10 +3852,10 @@
         <v>42468</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E55" s="5">
         <v>154</v>
@@ -3747,16 +3879,16 @@
         <v>42401</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E56" s="5">
         <v>60</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>12</v>
@@ -3774,10 +3906,10 @@
         <v>42384</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E57" s="5">
         <v>131</v>
@@ -3801,16 +3933,16 @@
         <v>42326</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E58" s="5">
         <v>241</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>13</v>
@@ -3828,16 +3960,16 @@
         <v>42320</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>12</v>
@@ -3855,10 +3987,10 @@
         <v>42180</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E60" s="5">
         <v>70</v>
@@ -3882,13 +4014,13 @@
         <v>42074</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="F61" s="4">
         <v>42141</v>
@@ -3900,7 +4032,7 @@
         <v>12</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3911,16 +4043,16 @@
         <v>42065</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>13</v>
@@ -3938,10 +4070,10 @@
         <v>41850</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E63" s="5">
         <v>5</v>
@@ -3965,10 +4097,10 @@
         <v>41821</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E64" s="5">
         <v>142</v>
@@ -3992,10 +4124,10 @@
         <v>41729</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E65" s="5">
         <v>115</v>
@@ -4010,7 +4142,7 @@
         <v>12</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -4021,10 +4153,10 @@
         <v>41596</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E66" s="5">
         <v>49</v>
@@ -4048,10 +4180,10 @@
         <v>41547</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E67" s="5">
         <v>1</v>
@@ -4075,10 +4207,10 @@
         <v>41502</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E68" s="5">
         <v>66</v>
@@ -4102,10 +4234,10 @@
         <v>41438</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E69" s="5">
         <v>3</v>
@@ -4129,10 +4261,10 @@
         <v>41417</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E70" s="5">
         <v>62</v>
@@ -4156,13 +4288,13 @@
         <v>41285</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F71" s="4">
         <v>41347</v>
@@ -4183,10 +4315,10 @@
         <v>41087</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="E72" s="5">
         <v>51</v>
@@ -4210,10 +4342,10 @@
         <v>41011</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E73" s="5">
         <v>150</v>
@@ -4228,7 +4360,7 @@
         <v>12</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -4239,10 +4371,10 @@
         <v>40939</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E74" s="5">
         <v>70</v>
@@ -4257,7 +4389,7 @@
         <v>12</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -4268,10 +4400,10 @@
         <v>40833</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E75" s="5">
         <v>110</v>
@@ -4295,10 +4427,10 @@
         <v>40788</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E76" s="5">
         <v>16</v>
@@ -4322,10 +4454,10 @@
         <v>40758</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E77" s="5">
         <v>9</v>
@@ -4349,16 +4481,16 @@
         <v>40756</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E78" s="5">
         <v>98</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>12</v>
@@ -4376,16 +4508,16 @@
         <v>40690</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E79" s="5">
         <v>21</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>12</v>
@@ -4403,16 +4535,16 @@
         <v>40634</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E80" s="5">
         <v>98</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>12</v>
@@ -4430,10 +4562,10 @@
         <v>40589</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E81" s="5">
         <v>5</v>
@@ -4457,10 +4589,10 @@
         <v>40568</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E82" s="5">
         <v>122</v>
@@ -4484,10 +4616,10 @@
         <v>40413</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E83" s="5">
         <v>89</v>
@@ -4511,16 +4643,16 @@
         <v>40217</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E84" s="5">
         <v>26</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>13</v>
@@ -4538,10 +4670,10 @@
         <v>40217</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E85" s="5">
         <v>165</v>
@@ -4565,10 +4697,10 @@
         <v>40182</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E86" s="5">
         <v>8</v>
@@ -4592,16 +4724,16 @@
         <v>40141</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E87" s="5">
         <v>66</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>12</v>
@@ -4619,16 +4751,16 @@
         <v>40141</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E88" s="5">
         <v>103</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>12</v>
@@ -4637,7 +4769,7 @@
         <v>12</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4648,13 +4780,13 @@
         <v>40094</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F89" s="4">
         <v>40147</v>
@@ -4675,10 +4807,10 @@
         <v>40091</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E90" s="5">
         <v>63</v>
@@ -4702,13 +4834,13 @@
         <v>40050</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="F91" s="4">
         <v>39895</v>
@@ -4729,10 +4861,10 @@
         <v>40008</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E92" s="5">
         <v>130</v>
@@ -4756,10 +4888,10 @@
         <v>40008</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E93" s="5">
         <v>26</v>
@@ -4783,10 +4915,10 @@
         <v>39895</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E94" s="5">
         <v>14</v>
@@ -4810,10 +4942,10 @@
         <v>39996</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E95" s="5">
         <v>10</v>
@@ -4837,10 +4969,10 @@
         <v>39932</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E96" s="5">
         <v>171</v>
@@ -4855,7 +4987,7 @@
         <v>12</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4866,10 +4998,10 @@
         <v>39918</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E97" s="5">
         <v>55</v>
@@ -4893,10 +5025,10 @@
         <v>39882</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E98" s="5">
         <v>29</v>
@@ -4920,10 +5052,10 @@
         <v>39881</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E99" s="5">
         <v>71</v>
@@ -4947,10 +5079,10 @@
         <v>39878</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E100" s="5">
         <v>54</v>
@@ -4974,10 +5106,10 @@
         <v>39877</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E101" s="5">
         <v>119</v>
@@ -5001,10 +5133,10 @@
         <v>39864</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="E102" s="5">
         <v>270</v>
@@ -5028,10 +5160,10 @@
         <v>39825</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E103" s="5">
         <v>121</v>
@@ -5053,4 +5185,175 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001D7CA4A7758DDF4F8A78677D3B22BD47" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3acca51fa395f9313e35082b17373cba">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e19eab3b-0a92-46fc-9552-a493c76cdc00" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="877bd2ecca759b9e790c141c767e061f" ns2:_="">
+    <xsd:import namespace="e19eab3b-0a92-46fc-9552-a493c76cdc00"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e19eab3b-0a92-46fc-9552-a493c76cdc00" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="11" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3BDC996-7CD8-43BD-838D-50E4C5CE2932}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{526D1213-C5F8-4F2A-BB65-47A3B48FEA3A}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0557A4BC-595F-498F-986F-63860A4E78D3}"/>
 </file>
--- a/data/warn-scraper/cache/ri/WARN Report.xlsx
+++ b/data/warn-scraper/cache/ri/WARN Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27424"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27525"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmwilsonri/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0FFE8D7-E600-442A-8259-0A5274CDD161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B96989A-2E71-4492-ACA2-17F694814402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="172">
   <si>
     <t>Rhode Island WARN Report</t>
   </si>
@@ -69,24 +69,36 @@
     <t>Union Address</t>
   </si>
   <si>
+    <t>UPS (updated Warn from previous one)</t>
+  </si>
+  <si>
+    <t>Warwick</t>
+  </si>
+  <si>
+    <t>16 (additional)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Volta Inc</t>
+  </si>
+  <si>
+    <t>Woonsocket</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>Lakeside Book Company</t>
   </si>
   <si>
     <t>Cumberland</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>UPS</t>
   </si>
   <si>
-    <t>Warwick</t>
-  </si>
-  <si>
     <t>Teamsters Local 251, 121 Brightridge Avenue, East Providence, RI 02914</t>
   </si>
   <si>
@@ -514,9 +526,6 @@
   </si>
   <si>
     <t>Portola</t>
-  </si>
-  <si>
-    <t>Woonsocket</t>
   </si>
   <si>
     <t>Victoria &amp; Company</t>
@@ -1175,10 +1184,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.95"/>
@@ -1258,67 +1267,66 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="23" customFormat="1" ht="14.25">
+    <row r="5" spans="1:9" s="23" customFormat="1" ht="15">
       <c r="A5" s="29">
-        <v>45349</v>
+        <v>45380</v>
       </c>
       <c r="B5" s="29">
-        <v>45349</v>
-      </c>
-      <c r="C5" s="29" t="s">
+        <v>45383</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="37">
-        <v>48</v>
+      <c r="E5" s="34" t="s">
+        <v>12</v>
       </c>
       <c r="F5" s="33">
-        <v>45611</v>
+        <v>45412</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" s="23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="I5" s="38"/>
+    </row>
+    <row r="6" spans="1:9" s="23" customFormat="1" ht="15">
       <c r="A6" s="29">
-        <v>45323</v>
+        <v>45380</v>
       </c>
       <c r="B6" s="29">
-        <v>45328</v>
-      </c>
-      <c r="C6" s="29" t="s">
+        <v>45383</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="37">
-        <v>130</v>
+      <c r="E6" s="34">
+        <v>1</v>
       </c>
       <c r="F6" s="33">
-        <v>45384</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>16</v>
-      </c>
+        <v>45443</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A7" s="29">
-        <v>45316</v>
+        <v>45349</v>
       </c>
       <c r="B7" s="29">
-        <v>45316</v>
+        <v>45349</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>17</v>
@@ -1327,38 +1335,73 @@
         <v>18</v>
       </c>
       <c r="E7" s="37">
+        <v>48</v>
+      </c>
+      <c r="F7" s="33">
+        <v>45611</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A8" s="29">
+        <v>45323</v>
+      </c>
+      <c r="B8" s="29">
+        <v>45328</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="37">
+        <v>130</v>
+      </c>
+      <c r="F8" s="33">
+        <v>45384</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A9" s="29">
+        <v>45316</v>
+      </c>
+      <c r="B9" s="29">
+        <v>45316</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="37">
         <v>1</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F9" s="33">
         <v>45316</v>
       </c>
-      <c r="G7" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="1:9" s="23" customFormat="1" ht="15">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="33"/>
-      <c r="I8" s="38"/>
-    </row>
-    <row r="9" spans="1:9" s="23" customFormat="1" ht="15">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="38"/>
+      <c r="G9" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A10" s="29"/>
@@ -2374,6 +2417,8 @@
       <c r="H106" s="1"/>
       <c r="I106" s="2"/>
     </row>
+    <row r="107" spans="1:9" ht="15.75"/>
+    <row r="108" spans="1:9" ht="15.75"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I2"/>
@@ -2447,7 +2492,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>4</v>
@@ -2476,10 +2521,10 @@
         <v>45191</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5" s="20">
         <v>136</v>
@@ -2488,7 +2533,7 @@
         <v>45252</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>13</v>
@@ -2503,16 +2548,16 @@
         <v>45156</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>13</v>
@@ -2530,10 +2575,10 @@
         <v>45153</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E7" s="16">
         <v>52</v>
@@ -2542,7 +2587,7 @@
         <v>45153</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>13</v>
@@ -2557,10 +2602,10 @@
         <v>45112</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E8" s="15">
         <v>211</v>
@@ -2569,13 +2614,13 @@
         <v>45138</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2586,10 +2631,10 @@
         <v>45111</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E9" s="15">
         <v>249</v>
@@ -2598,13 +2643,13 @@
         <v>45138</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2615,10 +2660,10 @@
         <v>42522</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E10" s="15">
         <v>169</v>
@@ -2627,13 +2672,13 @@
         <v>45086</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2644,10 +2689,10 @@
         <v>44950</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E11" s="15">
         <v>75</v>
@@ -2656,13 +2701,13 @@
         <v>45010</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="21">
@@ -2673,10 +2718,10 @@
         <v>44937</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E12" s="12">
         <v>81</v>
@@ -2700,10 +2745,10 @@
         <v>44831</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E13" s="7">
         <v>1</v>
@@ -2727,10 +2772,10 @@
         <v>44817</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E14" s="7">
         <v>77</v>
@@ -2754,10 +2799,10 @@
         <v>44594</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E15" s="5">
         <v>198</v>
@@ -2781,10 +2826,10 @@
         <v>44336</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E16" s="5">
         <v>94</v>
@@ -2793,13 +2838,13 @@
         <v>44394</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2810,10 +2855,10 @@
         <v>44342</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E17" s="5">
         <v>464</v>
@@ -2837,10 +2882,10 @@
         <v>44104</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E18" s="5">
         <v>13</v>
@@ -2864,10 +2909,10 @@
         <v>44068</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19" s="5">
         <v>40</v>
@@ -2891,10 +2936,10 @@
         <v>44060</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E20" s="5">
         <v>106</v>
@@ -2918,10 +2963,10 @@
         <v>44056</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E21" s="5">
         <v>272</v>
@@ -2933,10 +2978,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2947,10 +2992,10 @@
         <v>44040</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E22" s="5">
         <v>1043</v>
@@ -2962,10 +3007,10 @@
         <v>13</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2976,10 +3021,10 @@
         <v>44040</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E23" s="5">
         <v>296</v>
@@ -2991,10 +3036,10 @@
         <v>13</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3005,10 +3050,10 @@
         <v>44042</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E24" s="5">
         <v>73</v>
@@ -3017,7 +3062,7 @@
         <v>44075</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>13</v>
@@ -3032,10 +3077,10 @@
         <v>44022</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E25" s="5">
         <v>127</v>
@@ -3044,13 +3089,13 @@
         <v>44044</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3061,10 +3106,10 @@
         <v>44004</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E26" s="5">
         <v>71</v>
@@ -3088,10 +3133,10 @@
         <v>44012</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E27" s="5">
         <v>65</v>
@@ -3115,10 +3160,10 @@
         <v>43985</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E28" s="5">
         <v>65</v>
@@ -3142,10 +3187,10 @@
         <v>43980</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E29" s="5">
         <v>231</v>
@@ -3169,10 +3214,10 @@
         <v>44068</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E30" s="5">
         <v>72</v>
@@ -3196,10 +3241,10 @@
         <v>43948</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E31" s="5">
         <v>136</v>
@@ -3223,10 +3268,10 @@
         <v>43942</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E32" s="5">
         <v>5</v>
@@ -3250,10 +3295,10 @@
         <v>43944</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -3277,10 +3322,10 @@
         <v>43938</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E34" s="5">
         <v>13</v>
@@ -3304,10 +3349,10 @@
         <v>43935</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E35" s="5">
         <v>51</v>
@@ -3331,10 +3376,10 @@
         <v>43925</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E36" s="5">
         <v>110</v>
@@ -3358,10 +3403,10 @@
         <v>43917</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E37" s="5">
         <v>37</v>
@@ -3385,10 +3430,10 @@
         <v>43913</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E38" s="5">
         <v>146</v>
@@ -3400,10 +3445,10 @@
         <v>13</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -3414,10 +3459,10 @@
         <v>43910</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E39" s="5">
         <v>87</v>
@@ -3441,10 +3486,10 @@
         <v>43913</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E40" s="5">
         <v>110</v>
@@ -3468,10 +3513,10 @@
         <v>43510</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E41" s="5">
         <v>1</v>
@@ -3480,7 +3525,7 @@
         <v>43567</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>13</v>
@@ -3495,19 +3540,19 @@
         <v>43486</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E42" s="5">
         <v>59</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>13</v>
@@ -3522,10 +3567,10 @@
         <v>43479</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E43" s="5">
         <v>62</v>
@@ -3534,7 +3579,7 @@
         <v>43542</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>13</v>
@@ -3549,10 +3594,10 @@
         <v>43413</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E44" s="5">
         <v>51</v>
@@ -3576,10 +3621,10 @@
         <v>43405</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E45" s="5">
         <v>92</v>
@@ -3588,7 +3633,7 @@
         <v>43465</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>13</v>
@@ -3603,10 +3648,10 @@
         <v>43405</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E46" s="5">
         <v>181</v>
@@ -3615,7 +3660,7 @@
         <v>43469</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>13</v>
@@ -3630,10 +3675,10 @@
         <v>43382</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E47" s="5">
         <v>180</v>
@@ -3642,7 +3687,7 @@
         <v>43382</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>13</v>
@@ -3657,10 +3702,10 @@
         <v>43363</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E48" s="5">
         <v>83</v>
@@ -3669,7 +3714,7 @@
         <v>43434</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>13</v>
@@ -3684,10 +3729,10 @@
         <v>43276</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E49" s="5">
         <v>64</v>
@@ -3696,13 +3741,13 @@
         <v>43339</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3713,10 +3758,10 @@
         <v>43252</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E50" s="5">
         <v>149</v>
@@ -3725,7 +3770,7 @@
         <v>43312</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>13</v>
@@ -3740,10 +3785,10 @@
         <v>43042</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E51" s="5">
         <v>477</v>
@@ -3752,13 +3797,13 @@
         <v>43112</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3769,19 +3814,19 @@
         <v>42990</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E52" s="5">
         <v>171</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>13</v>
@@ -3796,10 +3841,10 @@
         <v>42496</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E53" s="5">
         <v>187</v>
@@ -3808,7 +3853,7 @@
         <v>42492</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>13</v>
@@ -3823,10 +3868,10 @@
         <v>42495</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E54" s="5">
         <v>20</v>
@@ -3835,13 +3880,13 @@
         <v>42551</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3852,10 +3897,10 @@
         <v>42468</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E55" s="5">
         <v>154</v>
@@ -3879,19 +3924,19 @@
         <v>42401</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E56" s="5">
         <v>60</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>13</v>
@@ -3906,10 +3951,10 @@
         <v>42384</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E57" s="5">
         <v>131</v>
@@ -3918,7 +3963,7 @@
         <v>42405</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>13</v>
@@ -3933,16 +3978,16 @@
         <v>42326</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E58" s="5">
         <v>241</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>13</v>
@@ -3960,19 +4005,19 @@
         <v>42320</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>13</v>
@@ -3987,10 +4032,10 @@
         <v>42180</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E60" s="5">
         <v>70</v>
@@ -4014,25 +4059,25 @@
         <v>42074</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F61" s="4">
         <v>42141</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4043,16 +4088,16 @@
         <v>42065</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>13</v>
@@ -4070,10 +4115,10 @@
         <v>41850</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E63" s="5">
         <v>5</v>
@@ -4097,10 +4142,10 @@
         <v>41821</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E64" s="5">
         <v>142</v>
@@ -4124,10 +4169,10 @@
         <v>41729</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E65" s="5">
         <v>115</v>
@@ -4136,13 +4181,13 @@
         <v>41774</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -4153,10 +4198,10 @@
         <v>41596</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E66" s="5">
         <v>49</v>
@@ -4165,7 +4210,7 @@
         <v>41654</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>13</v>
@@ -4180,10 +4225,10 @@
         <v>41547</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E67" s="5">
         <v>1</v>
@@ -4192,7 +4237,7 @@
         <v>41608</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>13</v>
@@ -4207,10 +4252,10 @@
         <v>41502</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E68" s="5">
         <v>66</v>
@@ -4234,10 +4279,10 @@
         <v>41438</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E69" s="5">
         <v>3</v>
@@ -4246,7 +4291,7 @@
         <v>41425</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>13</v>
@@ -4261,10 +4306,10 @@
         <v>41417</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E70" s="5">
         <v>62</v>
@@ -4273,10 +4318,10 @@
         <v>41485</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I70" s="2"/>
     </row>
@@ -4288,19 +4333,19 @@
         <v>41285</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F71" s="4">
         <v>41347</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>13</v>
@@ -4315,10 +4360,10 @@
         <v>41087</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E72" s="5">
         <v>51</v>
@@ -4327,7 +4372,7 @@
         <v>41148</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>13</v>
@@ -4342,10 +4387,10 @@
         <v>41011</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E73" s="5">
         <v>150</v>
@@ -4354,13 +4399,13 @@
         <v>41071</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -4371,10 +4416,10 @@
         <v>40939</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E74" s="5">
         <v>70</v>
@@ -4383,13 +4428,13 @@
         <v>41000</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -4400,10 +4445,10 @@
         <v>40833</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E75" s="5">
         <v>110</v>
@@ -4412,7 +4457,7 @@
         <v>40833</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>13</v>
@@ -4427,10 +4472,10 @@
         <v>40788</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E76" s="5">
         <v>16</v>
@@ -4439,7 +4484,7 @@
         <v>40846</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>13</v>
@@ -4454,10 +4499,10 @@
         <v>40758</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E77" s="5">
         <v>9</v>
@@ -4466,7 +4511,7 @@
         <v>40816</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>13</v>
@@ -4481,19 +4526,19 @@
         <v>40756</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E78" s="5">
         <v>98</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>13</v>
@@ -4508,19 +4553,19 @@
         <v>40690</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E79" s="5">
         <v>21</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>13</v>
@@ -4535,19 +4580,19 @@
         <v>40634</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E80" s="5">
         <v>98</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>13</v>
@@ -4562,10 +4607,10 @@
         <v>40589</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E81" s="5">
         <v>5</v>
@@ -4589,10 +4634,10 @@
         <v>40568</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E82" s="5">
         <v>122</v>
@@ -4616,10 +4661,10 @@
         <v>40413</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E83" s="5">
         <v>89</v>
@@ -4643,16 +4688,16 @@
         <v>40217</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E84" s="5">
         <v>26</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>13</v>
@@ -4670,10 +4715,10 @@
         <v>40217</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E85" s="5">
         <v>165</v>
@@ -4697,10 +4742,10 @@
         <v>40182</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E86" s="5">
         <v>8</v>
@@ -4709,7 +4754,7 @@
         <v>40210</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>13</v>
@@ -4724,19 +4769,19 @@
         <v>40141</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E87" s="5">
         <v>66</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>13</v>
@@ -4751,25 +4796,25 @@
         <v>40141</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E88" s="5">
         <v>103</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4780,13 +4825,13 @@
         <v>40094</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F89" s="4">
         <v>40147</v>
@@ -4807,10 +4852,10 @@
         <v>40091</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E90" s="5">
         <v>63</v>
@@ -4834,13 +4879,13 @@
         <v>40050</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F91" s="4">
         <v>39895</v>
@@ -4861,10 +4906,10 @@
         <v>40008</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c r="E92" s="5">
         <v>130</v>
@@ -4873,7 +4918,7 @@
         <v>39895</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>13</v>
@@ -4888,10 +4933,10 @@
         <v>40008</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E93" s="5">
         <v>26</v>
@@ -4900,7 +4945,7 @@
         <v>40001</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>13</v>
@@ -4915,10 +4960,10 @@
         <v>39895</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E94" s="5">
         <v>14</v>
@@ -4942,10 +4987,10 @@
         <v>39996</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E95" s="5">
         <v>10</v>
@@ -4969,10 +5014,10 @@
         <v>39932</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E96" s="5">
         <v>171</v>
@@ -4984,10 +5029,10 @@
         <v>13</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4998,10 +5043,10 @@
         <v>39918</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E97" s="5">
         <v>55</v>
@@ -5010,7 +5055,7 @@
         <v>39994</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>13</v>
@@ -5025,10 +5070,10 @@
         <v>39882</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E98" s="5">
         <v>29</v>
@@ -5037,7 +5082,7 @@
         <v>39943</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>13</v>
@@ -5052,10 +5097,10 @@
         <v>39881</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E99" s="5">
         <v>71</v>
@@ -5079,10 +5124,10 @@
         <v>39878</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E100" s="5">
         <v>54</v>
@@ -5091,7 +5136,7 @@
         <v>39935</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>13</v>
@@ -5106,10 +5151,10 @@
         <v>39877</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E101" s="5">
         <v>119</v>
@@ -5118,7 +5163,7 @@
         <v>39943</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>13</v>
@@ -5133,10 +5178,10 @@
         <v>39864</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E102" s="5">
         <v>270</v>
@@ -5145,7 +5190,7 @@
         <v>39828</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>13</v>
@@ -5160,10 +5205,10 @@
         <v>39825</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E103" s="5">
         <v>121</v>
@@ -5188,12 +5233,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001D7CA4A7758DDF4F8A78677D3B22BD47" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3acca51fa395f9313e35082b17373cba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e19eab3b-0a92-46fc-9552-a493c76cdc00" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="877bd2ecca759b9e790c141c767e061f" ns2:_="">
     <xsd:import namespace="e19eab3b-0a92-46fc-9552-a493c76cdc00"/>
@@ -5337,7 +5376,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5346,14 +5385,20 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3BDC996-7CD8-43BD-838D-50E4C5CE2932}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{526D1213-C5F8-4F2A-BB65-47A3B48FEA3A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{526D1213-C5F8-4F2A-BB65-47A3B48FEA3A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0557A4BC-595F-498F-986F-63860A4E78D3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0557A4BC-595F-498F-986F-63860A4E78D3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3BDC996-7CD8-43BD-838D-50E4C5CE2932}"/>
 </file>
--- a/data/warn-scraper/cache/ri/WARN Report.xlsx
+++ b/data/warn-scraper/cache/ri/WARN Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27525"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27618"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmwilsonri/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B96989A-2E71-4492-ACA2-17F694814402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2E7CD14-0DC4-4B66-BDE5-87974E2C24B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="175">
   <si>
     <t>Rhode Island WARN Report</t>
   </si>
@@ -69,6 +69,21 @@
     <t>Union Address</t>
   </si>
   <si>
+    <t>NMC</t>
+  </si>
+  <si>
+    <t>North Smithfield</t>
+  </si>
+  <si>
+    <t>5/2/24-7/1/24</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>UPS (updated Warn from previous one)</t>
   </si>
   <si>
@@ -78,16 +93,10 @@
     <t>16 (additional)</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Volta Inc</t>
   </si>
   <si>
     <t>Woonsocket</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <t>Lakeside Book Company</t>
@@ -1184,10 +1193,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.95"/>
@@ -1267,12 +1276,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="23" customFormat="1" ht="15">
+    <row r="5" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A5" s="29">
-        <v>45380</v>
+        <v>45414</v>
       </c>
       <c r="B5" s="29">
-        <v>45383</v>
+        <v>45414</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>10</v>
@@ -1280,19 +1289,18 @@
       <c r="D5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="34">
+        <v>36</v>
+      </c>
+      <c r="F5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="33">
-        <v>45412</v>
-      </c>
       <c r="G5" s="23" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="38"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:9" s="23" customFormat="1" ht="15">
       <c r="A6" s="29">
@@ -1302,124 +1310,146 @@
         <v>45383</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="34">
+        <v>16</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="33">
+        <v>45412</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="38"/>
+    </row>
+    <row r="7" spans="1:9" s="23" customFormat="1" ht="15">
+      <c r="A7" s="29">
+        <v>45380</v>
+      </c>
+      <c r="B7" s="29">
+        <v>45383</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="34">
         <v>1</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F7" s="33">
         <v>45443</v>
       </c>
-      <c r="G6" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="38"/>
-    </row>
-    <row r="7" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A7" s="29">
-        <v>45349</v>
-      </c>
-      <c r="B7" s="29">
-        <v>45349</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="37">
-        <v>48</v>
-      </c>
-      <c r="F7" s="33">
-        <v>45611</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="G7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="38"/>
     </row>
     <row r="8" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A8" s="29">
-        <v>45323</v>
+        <v>45349</v>
       </c>
       <c r="B8" s="29">
-        <v>45328</v>
+        <v>45349</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E8" s="37">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="F8" s="33">
-        <v>45384</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>20</v>
+        <v>45611</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A9" s="29">
+        <v>45323</v>
+      </c>
+      <c r="B9" s="29">
+        <v>45328</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="37">
+        <v>130</v>
+      </c>
+      <c r="F9" s="33">
+        <v>45384</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A10" s="29">
         <v>45316</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B10" s="29">
         <v>45316</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="37">
+      <c r="C10" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="37">
         <v>1</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F10" s="33">
         <v>45316</v>
       </c>
-      <c r="G9" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="22"/>
-    </row>
-    <row r="10" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="33"/>
-    </row>
-    <row r="11" spans="1:9" s="24" customFormat="1" ht="14.25">
+      <c r="G10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="34"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="33"/>
-    </row>
-    <row r="12" spans="1:9" s="24" customFormat="1" ht="14.25">
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="30"/>
@@ -1427,7 +1457,7 @@
       <c r="E12" s="34"/>
       <c r="F12" s="33"/>
     </row>
-    <row r="13" spans="1:9" s="23" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="13" spans="1:9" s="24" customFormat="1" ht="14.25">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="30"/>
@@ -1435,68 +1465,63 @@
       <c r="E13" s="34"/>
       <c r="F13" s="33"/>
     </row>
-    <row r="14" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A14" s="39"/>
+    <row r="14" spans="1:9" s="24" customFormat="1" ht="14.25">
+      <c r="A14" s="29"/>
       <c r="B14" s="29"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="E14" s="34"/>
       <c r="F14" s="33"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-    </row>
-    <row r="15" spans="1:9" s="23" customFormat="1" ht="15">
+    </row>
+    <row r="15" spans="1:9" s="23" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="E15" s="34"/>
       <c r="F15" s="33"/>
-      <c r="I15" s="38"/>
     </row>
     <row r="16" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="26"/>
-    </row>
-    <row r="17" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" spans="1:9" s="23" customFormat="1" ht="15">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="33"/>
+      <c r="I17" s="38"/>
     </row>
     <row r="18" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A18" s="40"/>
       <c r="B18" s="40"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="55"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="54"/>
       <c r="F18" s="48"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="26"/>
     </row>
     <row r="19" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A19" s="40"/>
       <c r="B19" s="40"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="55"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="54"/>
       <c r="F19" s="48"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
     </row>
     <row r="20" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A20" s="40"/>
@@ -1517,6 +1542,7 @@
       <c r="F21" s="48"/>
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
     </row>
     <row r="22" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A22" s="40"/>
@@ -1547,7 +1573,6 @@
       <c r="F24" s="48"/>
       <c r="G24" s="45"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
     </row>
     <row r="25" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A25" s="40"/>
@@ -1558,7 +1583,6 @@
       <c r="F25" s="48"/>
       <c r="G25" s="45"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
     </row>
     <row r="26" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A26" s="40"/>
@@ -1580,6 +1604,7 @@
       <c r="F27" s="48"/>
       <c r="G27" s="45"/>
       <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
     </row>
     <row r="28" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A28" s="40"/>
@@ -1592,25 +1617,26 @@
       <c r="H28" s="45"/>
       <c r="I28" s="45"/>
     </row>
-    <row r="29" spans="1:9" s="21" customFormat="1" ht="15">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-    </row>
-    <row r="30" spans="1:9" s="21" customFormat="1" ht="15">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
+    <row r="29" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+    </row>
+    <row r="30" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
     </row>
     <row r="31" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A31" s="31"/>
@@ -1633,8 +1659,8 @@
       <c r="H32" s="27"/>
     </row>
     <row r="33" spans="1:9" s="21" customFormat="1" ht="15">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="32"/>
       <c r="D33" s="32"/>
       <c r="E33" s="36"/>
@@ -1643,7 +1669,7 @@
       <c r="H33" s="27"/>
     </row>
     <row r="34" spans="1:9" s="21" customFormat="1" ht="15">
-      <c r="A34" s="28"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="31"/>
       <c r="C34" s="32"/>
       <c r="D34" s="32"/>
@@ -1654,7 +1680,7 @@
     </row>
     <row r="35" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A35" s="28"/>
-      <c r="B35" s="31"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="32"/>
       <c r="D35" s="32"/>
       <c r="E35" s="36"/>
@@ -1663,7 +1689,7 @@
       <c r="H35" s="27"/>
     </row>
     <row r="36" spans="1:9" s="21" customFormat="1" ht="15">
-      <c r="A36" s="31"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="31"/>
       <c r="C36" s="32"/>
       <c r="D36" s="32"/>
@@ -1673,7 +1699,7 @@
       <c r="H36" s="27"/>
     </row>
     <row r="37" spans="1:9" s="21" customFormat="1" ht="15">
-      <c r="A37" s="31"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="31"/>
       <c r="C37" s="32"/>
       <c r="D37" s="32"/>
@@ -1721,7 +1747,6 @@
       <c r="F41" s="35"/>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
     </row>
     <row r="42" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A42" s="31"/>
@@ -1742,6 +1767,7 @@
       <c r="F43" s="35"/>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
     </row>
     <row r="44" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A44" s="31"/>
@@ -1759,7 +1785,7 @@
       <c r="C45" s="32"/>
       <c r="D45" s="32"/>
       <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
+      <c r="F45" s="35"/>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
     </row>
@@ -1774,22 +1800,22 @@
       <c r="H46" s="27"/>
     </row>
     <row r="47" spans="1:9" s="21" customFormat="1" ht="15">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="49"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
     </row>
     <row r="48" spans="1:9" s="21" customFormat="1" ht="15">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="49"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="35"/>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
     </row>
@@ -1832,7 +1858,6 @@
       <c r="F52" s="49"/>
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
     </row>
     <row r="53" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A53" s="25"/>
@@ -1861,7 +1886,7 @@
       <c r="C55" s="27"/>
       <c r="D55" s="27"/>
       <c r="E55" s="50"/>
-      <c r="F55" s="50"/>
+      <c r="F55" s="49"/>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
     </row>
@@ -1874,6 +1899,7 @@
       <c r="F56" s="49"/>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
     </row>
     <row r="57" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A57" s="25"/>
@@ -1881,10 +1907,9 @@
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
       <c r="E57" s="50"/>
-      <c r="F57" s="49"/>
+      <c r="F57" s="50"/>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
     </row>
     <row r="58" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A58" s="25"/>
@@ -1902,9 +1927,10 @@
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
       <c r="E59" s="50"/>
-      <c r="F59" s="50"/>
+      <c r="F59" s="49"/>
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
     </row>
     <row r="60" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A60" s="25"/>
@@ -1932,7 +1958,7 @@
       <c r="C62" s="27"/>
       <c r="D62" s="27"/>
       <c r="E62" s="50"/>
-      <c r="F62" s="50"/>
+      <c r="F62" s="49"/>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
     </row>
@@ -1942,7 +1968,7 @@
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
       <c r="E63" s="50"/>
-      <c r="F63" s="49"/>
+      <c r="F63" s="50"/>
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
     </row>
@@ -1952,10 +1978,9 @@
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
       <c r="E64" s="50"/>
-      <c r="F64" s="49"/>
+      <c r="F64" s="50"/>
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
     </row>
     <row r="65" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A65" s="25"/>
@@ -1963,7 +1988,7 @@
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
       <c r="E65" s="50"/>
-      <c r="F65" s="50"/>
+      <c r="F65" s="49"/>
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
     </row>
@@ -1976,28 +2001,27 @@
       <c r="F66" s="49"/>
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="51"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="52"/>
-      <c r="F68" s="51"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
+      <c r="I66" s="27"/>
+    </row>
+    <row r="67" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A67" s="25"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+    </row>
+    <row r="68" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A68" s="25"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="4"/>
@@ -2019,7 +2043,7 @@
       <c r="F70" s="51"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="2"/>
+      <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="4"/>
@@ -2085,7 +2109,7 @@
       <c r="F76" s="51"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
+      <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="4"/>
@@ -2096,7 +2120,7 @@
       <c r="F77" s="51"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
+      <c r="I77" s="2"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="4"/>
@@ -2137,7 +2161,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="52"/>
-      <c r="F81" s="52"/>
+      <c r="F81" s="51"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -2148,7 +2172,7 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="52"/>
-      <c r="F82" s="52"/>
+      <c r="F82" s="51"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -2170,7 +2194,7 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="52"/>
-      <c r="F84" s="51"/>
+      <c r="F84" s="52"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -2181,7 +2205,7 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="52"/>
-      <c r="F85" s="51"/>
+      <c r="F85" s="52"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -2203,7 +2227,7 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="52"/>
-      <c r="F87" s="52"/>
+      <c r="F87" s="51"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -2225,7 +2249,7 @@
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="52"/>
-      <c r="F89" s="51"/>
+      <c r="F89" s="52"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -2236,7 +2260,7 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="52"/>
-      <c r="F90" s="52"/>
+      <c r="F90" s="51"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -2247,7 +2271,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="52"/>
-      <c r="F91" s="52"/>
+      <c r="F91" s="51"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -2258,10 +2282,10 @@
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="52"/>
-      <c r="F92" s="51"/>
+      <c r="F92" s="52"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
-      <c r="I92" s="2"/>
+      <c r="I92" s="1"/>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="4"/>
@@ -2269,10 +2293,10 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="52"/>
-      <c r="F93" s="51"/>
+      <c r="F93" s="52"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
-      <c r="I93" s="2"/>
+      <c r="I93" s="1"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="4"/>
@@ -2338,7 +2362,7 @@
       <c r="F99" s="51"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
+      <c r="I99" s="2"/>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="4"/>
@@ -2360,7 +2384,7 @@
       <c r="F101" s="51"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
-      <c r="I101" s="2"/>
+      <c r="I101" s="1"/>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="4"/>
@@ -2417,8 +2441,30 @@
       <c r="H106" s="1"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="1:9" ht="15.75"/>
-    <row r="108" spans="1:9" ht="15.75"/>
+    <row r="107" spans="1:9">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="52"/>
+      <c r="F107" s="51"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="2"/>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="52"/>
+      <c r="F108" s="51"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="2"/>
+    </row>
+    <row r="109" spans="1:9" ht="15.75"/>
+    <row r="110" spans="1:9" ht="15.75"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I2"/>
@@ -2492,7 +2538,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>4</v>
@@ -2521,10 +2567,10 @@
         <v>45191</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" s="20">
         <v>136</v>
@@ -2533,10 +2579,10 @@
         <v>45252</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -2548,22 +2594,22 @@
         <v>45156</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -2575,10 +2621,10 @@
         <v>45153</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E7" s="16">
         <v>52</v>
@@ -2587,10 +2633,10 @@
         <v>45153</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I7" s="11"/>
     </row>
@@ -2602,10 +2648,10 @@
         <v>45112</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E8" s="15">
         <v>211</v>
@@ -2614,13 +2660,13 @@
         <v>45138</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2631,10 +2677,10 @@
         <v>45111</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E9" s="15">
         <v>249</v>
@@ -2643,13 +2689,13 @@
         <v>45138</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2660,10 +2706,10 @@
         <v>42522</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E10" s="15">
         <v>169</v>
@@ -2672,13 +2718,13 @@
         <v>45086</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2689,10 +2735,10 @@
         <v>44950</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E11" s="15">
         <v>75</v>
@@ -2701,13 +2747,13 @@
         <v>45010</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="21">
@@ -2718,10 +2764,10 @@
         <v>44937</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E12" s="12">
         <v>81</v>
@@ -2730,10 +2776,10 @@
         <v>44990</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I12" s="3"/>
     </row>
@@ -2745,10 +2791,10 @@
         <v>44831</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E13" s="7">
         <v>1</v>
@@ -2757,10 +2803,10 @@
         <v>44890</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I13" s="9"/>
     </row>
@@ -2772,10 +2818,10 @@
         <v>44817</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E14" s="7">
         <v>77</v>
@@ -2784,10 +2830,10 @@
         <v>44880</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I14" s="4"/>
     </row>
@@ -2799,10 +2845,10 @@
         <v>44594</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E15" s="5">
         <v>198</v>
@@ -2811,10 +2857,10 @@
         <v>44659</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -2826,10 +2872,10 @@
         <v>44336</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E16" s="5">
         <v>94</v>
@@ -2838,13 +2884,13 @@
         <v>44394</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2855,10 +2901,10 @@
         <v>44342</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E17" s="5">
         <v>464</v>
@@ -2867,10 +2913,10 @@
         <v>44403</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -2882,10 +2928,10 @@
         <v>44104</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E18" s="5">
         <v>13</v>
@@ -2894,10 +2940,10 @@
         <v>44104</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -2909,10 +2955,10 @@
         <v>44068</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E19" s="5">
         <v>40</v>
@@ -2921,10 +2967,10 @@
         <v>44061</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I19" s="2"/>
     </row>
@@ -2936,10 +2982,10 @@
         <v>44060</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E20" s="5">
         <v>106</v>
@@ -2948,10 +2994,10 @@
         <v>44057</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -2963,10 +3009,10 @@
         <v>44056</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E21" s="5">
         <v>272</v>
@@ -2975,13 +3021,13 @@
         <v>43914</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2992,10 +3038,10 @@
         <v>44040</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E22" s="5">
         <v>1043</v>
@@ -3004,13 +3050,13 @@
         <v>44104</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3021,10 +3067,10 @@
         <v>44040</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E23" s="5">
         <v>296</v>
@@ -3033,13 +3079,13 @@
         <v>44104</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3050,10 +3096,10 @@
         <v>44042</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E24" s="5">
         <v>73</v>
@@ -3062,10 +3108,10 @@
         <v>44075</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I24" s="2"/>
     </row>
@@ -3077,10 +3123,10 @@
         <v>44022</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E25" s="5">
         <v>127</v>
@@ -3089,13 +3135,13 @@
         <v>44044</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3106,10 +3152,10 @@
         <v>44004</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E26" s="5">
         <v>71</v>
@@ -3118,10 +3164,10 @@
         <v>43973</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -3133,10 +3179,10 @@
         <v>44012</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E27" s="5">
         <v>65</v>
@@ -3145,10 +3191,10 @@
         <v>44012</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I27" s="2"/>
     </row>
@@ -3160,10 +3206,10 @@
         <v>43985</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E28" s="5">
         <v>65</v>
@@ -3172,10 +3218,10 @@
         <v>43904</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -3187,10 +3233,10 @@
         <v>43980</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E29" s="5">
         <v>231</v>
@@ -3199,10 +3245,10 @@
         <v>43980</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -3214,10 +3260,10 @@
         <v>44068</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E30" s="5">
         <v>72</v>
@@ -3226,10 +3272,10 @@
         <v>43958</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I30" s="2"/>
     </row>
@@ -3241,10 +3287,10 @@
         <v>43948</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E31" s="5">
         <v>136</v>
@@ -3253,10 +3299,10 @@
         <v>43906</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I31" s="2"/>
     </row>
@@ -3268,10 +3314,10 @@
         <v>43942</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E32" s="5">
         <v>5</v>
@@ -3280,10 +3326,10 @@
         <v>43942</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -3295,10 +3341,10 @@
         <v>43944</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -3307,10 +3353,10 @@
         <v>43941</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I33" s="2"/>
     </row>
@@ -3322,10 +3368,10 @@
         <v>43938</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E34" s="5">
         <v>13</v>
@@ -3334,10 +3380,10 @@
         <v>43938</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I34" s="2"/>
     </row>
@@ -3349,10 +3395,10 @@
         <v>43935</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E35" s="5">
         <v>51</v>
@@ -3361,10 +3407,10 @@
         <v>43906</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I35" s="2"/>
     </row>
@@ -3376,10 +3422,10 @@
         <v>43925</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E36" s="5">
         <v>110</v>
@@ -3388,10 +3434,10 @@
         <v>43927</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I36" s="2"/>
     </row>
@@ -3403,10 +3449,10 @@
         <v>43917</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E37" s="5">
         <v>37</v>
@@ -3415,10 +3461,10 @@
         <v>43916</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I37" s="2"/>
     </row>
@@ -3430,10 +3476,10 @@
         <v>43913</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E38" s="5">
         <v>146</v>
@@ -3442,13 +3488,13 @@
         <v>43898</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -3459,10 +3505,10 @@
         <v>43910</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E39" s="5">
         <v>87</v>
@@ -3471,10 +3517,10 @@
         <v>43910</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I39" s="2"/>
     </row>
@@ -3486,10 +3532,10 @@
         <v>43913</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E40" s="5">
         <v>110</v>
@@ -3498,10 +3544,10 @@
         <v>43906</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I40" s="2"/>
     </row>
@@ -3513,10 +3559,10 @@
         <v>43510</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E41" s="5">
         <v>1</v>
@@ -3525,10 +3571,10 @@
         <v>43567</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I41" s="2"/>
     </row>
@@ -3540,22 +3586,22 @@
         <v>43486</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E42" s="5">
         <v>59</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I42" s="2"/>
     </row>
@@ -3567,10 +3613,10 @@
         <v>43479</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E43" s="5">
         <v>62</v>
@@ -3579,10 +3625,10 @@
         <v>43542</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I43" s="2"/>
     </row>
@@ -3594,10 +3640,10 @@
         <v>43413</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E44" s="5">
         <v>51</v>
@@ -3606,10 +3652,10 @@
         <v>43131</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I44" s="2"/>
     </row>
@@ -3621,10 +3667,10 @@
         <v>43405</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E45" s="5">
         <v>92</v>
@@ -3633,10 +3679,10 @@
         <v>43465</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I45" s="2"/>
     </row>
@@ -3648,10 +3694,10 @@
         <v>43405</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E46" s="5">
         <v>181</v>
@@ -3660,10 +3706,10 @@
         <v>43469</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I46" s="2"/>
     </row>
@@ -3675,10 +3721,10 @@
         <v>43382</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E47" s="5">
         <v>180</v>
@@ -3687,10 +3733,10 @@
         <v>43382</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I47" s="2"/>
     </row>
@@ -3702,10 +3748,10 @@
         <v>43363</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E48" s="5">
         <v>83</v>
@@ -3714,10 +3760,10 @@
         <v>43434</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I48" s="2"/>
     </row>
@@ -3729,10 +3775,10 @@
         <v>43276</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E49" s="5">
         <v>64</v>
@@ -3741,13 +3787,13 @@
         <v>43339</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3758,10 +3804,10 @@
         <v>43252</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E50" s="5">
         <v>149</v>
@@ -3770,10 +3816,10 @@
         <v>43312</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I50" s="2"/>
     </row>
@@ -3785,10 +3831,10 @@
         <v>43042</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E51" s="5">
         <v>477</v>
@@ -3797,13 +3843,13 @@
         <v>43112</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3814,22 +3860,22 @@
         <v>42990</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E52" s="5">
         <v>171</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I52" s="2"/>
     </row>
@@ -3841,10 +3887,10 @@
         <v>42496</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E53" s="5">
         <v>187</v>
@@ -3853,10 +3899,10 @@
         <v>42492</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I53" s="2"/>
     </row>
@@ -3868,10 +3914,10 @@
         <v>42495</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E54" s="5">
         <v>20</v>
@@ -3880,13 +3926,13 @@
         <v>42551</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3897,10 +3943,10 @@
         <v>42468</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E55" s="5">
         <v>154</v>
@@ -3909,10 +3955,10 @@
         <v>42528</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I55" s="2"/>
     </row>
@@ -3924,22 +3970,22 @@
         <v>42401</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E56" s="5">
         <v>60</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I56" s="2"/>
     </row>
@@ -3951,10 +3997,10 @@
         <v>42384</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E57" s="5">
         <v>131</v>
@@ -3963,10 +4009,10 @@
         <v>42405</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I57" s="2"/>
     </row>
@@ -3978,22 +4024,22 @@
         <v>42326</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E58" s="5">
         <v>241</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I58" s="2"/>
     </row>
@@ -4005,22 +4051,22 @@
         <v>42320</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I59" s="2"/>
     </row>
@@ -4032,10 +4078,10 @@
         <v>42180</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E60" s="5">
         <v>70</v>
@@ -4044,10 +4090,10 @@
         <v>42240</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I60" s="2"/>
     </row>
@@ -4059,25 +4105,25 @@
         <v>42074</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F61" s="4">
         <v>42141</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4088,22 +4134,22 @@
         <v>42065</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I62" s="2"/>
     </row>
@@ -4115,10 +4161,10 @@
         <v>41850</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E63" s="5">
         <v>5</v>
@@ -4127,10 +4173,10 @@
         <v>41912</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I63" s="2"/>
     </row>
@@ -4142,10 +4188,10 @@
         <v>41821</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E64" s="5">
         <v>142</v>
@@ -4154,10 +4200,10 @@
         <v>41882</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I64" s="2"/>
     </row>
@@ -4169,10 +4215,10 @@
         <v>41729</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E65" s="5">
         <v>115</v>
@@ -4181,13 +4227,13 @@
         <v>41774</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -4198,10 +4244,10 @@
         <v>41596</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E66" s="5">
         <v>49</v>
@@ -4210,10 +4256,10 @@
         <v>41654</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I66" s="2"/>
     </row>
@@ -4225,10 +4271,10 @@
         <v>41547</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E67" s="5">
         <v>1</v>
@@ -4237,10 +4283,10 @@
         <v>41608</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I67" s="2"/>
     </row>
@@ -4252,10 +4298,10 @@
         <v>41502</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E68" s="5">
         <v>66</v>
@@ -4264,10 +4310,10 @@
         <v>41555</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I68" s="2"/>
     </row>
@@ -4279,10 +4325,10 @@
         <v>41438</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E69" s="5">
         <v>3</v>
@@ -4291,10 +4337,10 @@
         <v>41425</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I69" s="2"/>
     </row>
@@ -4306,10 +4352,10 @@
         <v>41417</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E70" s="5">
         <v>62</v>
@@ -4318,10 +4364,10 @@
         <v>41485</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I70" s="2"/>
     </row>
@@ -4333,22 +4379,22 @@
         <v>41285</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F71" s="4">
         <v>41347</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I71" s="2"/>
     </row>
@@ -4360,10 +4406,10 @@
         <v>41087</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E72" s="5">
         <v>51</v>
@@ -4372,10 +4418,10 @@
         <v>41148</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I72" s="2"/>
     </row>
@@ -4387,10 +4433,10 @@
         <v>41011</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E73" s="5">
         <v>150</v>
@@ -4399,13 +4445,13 @@
         <v>41071</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -4416,10 +4462,10 @@
         <v>40939</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E74" s="5">
         <v>70</v>
@@ -4428,13 +4474,13 @@
         <v>41000</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -4445,10 +4491,10 @@
         <v>40833</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E75" s="5">
         <v>110</v>
@@ -4457,10 +4503,10 @@
         <v>40833</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I75" s="1"/>
     </row>
@@ -4472,10 +4518,10 @@
         <v>40788</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E76" s="5">
         <v>16</v>
@@ -4484,10 +4530,10 @@
         <v>40846</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I76" s="1"/>
     </row>
@@ -4499,10 +4545,10 @@
         <v>40758</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E77" s="5">
         <v>9</v>
@@ -4511,10 +4557,10 @@
         <v>40816</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I77" s="1"/>
     </row>
@@ -4526,22 +4572,22 @@
         <v>40756</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E78" s="5">
         <v>98</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I78" s="1"/>
     </row>
@@ -4553,22 +4599,22 @@
         <v>40690</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E79" s="5">
         <v>21</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I79" s="1"/>
     </row>
@@ -4580,22 +4626,22 @@
         <v>40634</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E80" s="5">
         <v>98</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I80" s="1"/>
     </row>
@@ -4607,10 +4653,10 @@
         <v>40589</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E81" s="5">
         <v>5</v>
@@ -4619,10 +4665,10 @@
         <v>40644</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I81" s="1"/>
     </row>
@@ -4634,10 +4680,10 @@
         <v>40568</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E82" s="5">
         <v>122</v>
@@ -4646,10 +4692,10 @@
         <v>40592</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I82" s="1"/>
     </row>
@@ -4661,10 +4707,10 @@
         <v>40413</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E83" s="5">
         <v>89</v>
@@ -4673,10 +4719,10 @@
         <v>40452</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I83" s="1"/>
     </row>
@@ -4688,22 +4734,22 @@
         <v>40217</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="E84" s="5">
         <v>26</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I84" s="1"/>
     </row>
@@ -4715,10 +4761,10 @@
         <v>40217</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="E85" s="5">
         <v>165</v>
@@ -4727,10 +4773,10 @@
         <v>40217</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I85" s="1"/>
     </row>
@@ -4742,10 +4788,10 @@
         <v>40182</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E86" s="5">
         <v>8</v>
@@ -4754,10 +4800,10 @@
         <v>40210</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I86" s="1"/>
     </row>
@@ -4769,22 +4815,22 @@
         <v>40141</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E87" s="5">
         <v>66</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I87" s="1"/>
     </row>
@@ -4796,25 +4842,25 @@
         <v>40141</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E88" s="5">
         <v>103</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4825,22 +4871,22 @@
         <v>40094</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F89" s="4">
         <v>40147</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I89" s="2"/>
     </row>
@@ -4852,10 +4898,10 @@
         <v>40091</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E90" s="5">
         <v>63</v>
@@ -4864,10 +4910,10 @@
         <v>40148</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I90" s="2"/>
     </row>
@@ -4879,22 +4925,22 @@
         <v>40050</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F91" s="4">
         <v>39895</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I91" s="2"/>
     </row>
@@ -4906,10 +4952,10 @@
         <v>40008</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E92" s="5">
         <v>130</v>
@@ -4918,10 +4964,10 @@
         <v>39895</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I92" s="2"/>
     </row>
@@ -4933,10 +4979,10 @@
         <v>40008</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E93" s="5">
         <v>26</v>
@@ -4945,10 +4991,10 @@
         <v>40001</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I93" s="2"/>
     </row>
@@ -4960,10 +5006,10 @@
         <v>39895</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E94" s="5">
         <v>14</v>
@@ -4972,10 +5018,10 @@
         <v>39895</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I94" s="2"/>
     </row>
@@ -4987,10 +5033,10 @@
         <v>39996</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E95" s="5">
         <v>10</v>
@@ -4999,10 +5045,10 @@
         <v>40041</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I95" s="2"/>
     </row>
@@ -5014,10 +5060,10 @@
         <v>39932</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E96" s="5">
         <v>171</v>
@@ -5026,13 +5072,13 @@
         <v>39994</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5043,10 +5089,10 @@
         <v>39918</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E97" s="5">
         <v>55</v>
@@ -5055,10 +5101,10 @@
         <v>39994</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I97" s="2"/>
     </row>
@@ -5070,10 +5116,10 @@
         <v>39882</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E98" s="5">
         <v>29</v>
@@ -5082,10 +5128,10 @@
         <v>39943</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I98" s="2"/>
     </row>
@@ -5097,10 +5143,10 @@
         <v>39881</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E99" s="5">
         <v>71</v>
@@ -5109,10 +5155,10 @@
         <v>39941</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I99" s="2"/>
     </row>
@@ -5124,10 +5170,10 @@
         <v>39878</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E100" s="5">
         <v>54</v>
@@ -5136,10 +5182,10 @@
         <v>39935</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I100" s="2"/>
     </row>
@@ -5151,10 +5197,10 @@
         <v>39877</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E101" s="5">
         <v>119</v>
@@ -5163,10 +5209,10 @@
         <v>39943</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I101" s="2"/>
     </row>
@@ -5178,10 +5224,10 @@
         <v>39864</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E102" s="5">
         <v>270</v>
@@ -5190,10 +5236,10 @@
         <v>39828</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I102" s="2"/>
     </row>
@@ -5205,10 +5251,10 @@
         <v>39825</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E103" s="5">
         <v>121</v>
@@ -5217,10 +5263,10 @@
         <v>39821</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I103" s="2"/>
     </row>
@@ -5233,6 +5279,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001D7CA4A7758DDF4F8A78677D3B22BD47" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3acca51fa395f9313e35082b17373cba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e19eab3b-0a92-46fc-9552-a493c76cdc00" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="877bd2ecca759b9e790c141c767e061f" ns2:_="">
     <xsd:import namespace="e19eab3b-0a92-46fc-9552-a493c76cdc00"/>
@@ -5376,23 +5437,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{526D1213-C5F8-4F2A-BB65-47A3B48FEA3A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3BDC996-7CD8-43BD-838D-50E4C5CE2932}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5400,5 +5446,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3BDC996-7CD8-43BD-838D-50E4C5CE2932}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{526D1213-C5F8-4F2A-BB65-47A3B48FEA3A}"/>
 </file>
--- a/data/warn-scraper/cache/ri/WARN Report.xlsx
+++ b/data/warn-scraper/cache/ri/WARN Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27618"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27630"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmwilsonri/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2E7CD14-0DC4-4B66-BDE5-87974E2C24B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6882CA0-AE5A-46EC-AE6D-3C1841526444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="177">
   <si>
     <t>Rhode Island WARN Report</t>
   </si>
@@ -69,6 +69,15 @@
     <t>Union Address</t>
   </si>
   <si>
+    <t>5/4/204</t>
+  </si>
+  <si>
+    <t>ASM GLOBAL</t>
+  </si>
+  <si>
+    <t>Providence</t>
+  </si>
+  <si>
     <t>NMC</t>
   </si>
   <si>
@@ -145,9 +154,6 @@
   </si>
   <si>
     <t>Aramark Facility Services, LLC</t>
-  </si>
-  <si>
-    <t>Providence</t>
   </si>
   <si>
     <t>YES</t>
@@ -717,7 +723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -869,6 +875,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1193,10 +1202,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.95"/>
@@ -1213,39 +1222,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" ht="30.95">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="46"/>
       <c r="F3" s="46"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
     </row>
     <row r="4" spans="1:9" s="56" customFormat="1" ht="18">
       <c r="A4" s="47" t="s">
@@ -1277,57 +1286,50 @@
       </c>
     </row>
     <row r="5" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A5" s="29">
+      <c r="A5" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="29">
+        <v>45421</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="58">
+        <v>1029</v>
+      </c>
+      <c r="F5" s="33">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A6" s="29">
         <v>45414</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B6" s="29">
         <v>45414</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="34">
+      <c r="C6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="34">
         <v>36</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="23" customFormat="1" ht="15">
-      <c r="A6" s="29">
-        <v>45380</v>
-      </c>
-      <c r="B6" s="29">
-        <v>45383</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="F6" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="33">
-        <v>45412</v>
-      </c>
       <c r="G6" s="23" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="38"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:9" s="23" customFormat="1" ht="15">
       <c r="A7" s="29">
@@ -1342,122 +1344,141 @@
       <c r="D7" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="33">
+        <v>45412</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="38"/>
+    </row>
+    <row r="8" spans="1:9" s="23" customFormat="1" ht="15">
+      <c r="A8" s="29">
+        <v>45380</v>
+      </c>
+      <c r="B8" s="29">
+        <v>45383</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="34">
         <v>1</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F8" s="33">
         <v>45443</v>
       </c>
-      <c r="G7" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="38"/>
-    </row>
-    <row r="8" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A8" s="29">
-        <v>45349</v>
-      </c>
-      <c r="B8" s="29">
-        <v>45349</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="37">
-        <v>48</v>
-      </c>
-      <c r="F8" s="33">
-        <v>45611</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>14</v>
-      </c>
+      <c r="G8" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="38"/>
     </row>
     <row r="9" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A9" s="29">
-        <v>45323</v>
+        <v>45349</v>
       </c>
       <c r="B9" s="29">
-        <v>45328</v>
+        <v>45349</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E9" s="37">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="F9" s="33">
-        <v>45384</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>23</v>
+        <v>45611</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A10" s="29">
+        <v>45323</v>
+      </c>
+      <c r="B10" s="29">
+        <v>45328</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="37">
+        <v>130</v>
+      </c>
+      <c r="F10" s="33">
+        <v>45384</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A11" s="29">
         <v>45316</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B11" s="29">
         <v>45316</v>
       </c>
-      <c r="C10" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="37">
+      <c r="C11" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="37">
         <v>1</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F11" s="33">
         <v>45316</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="22"/>
-    </row>
-    <row r="11" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
+      <c r="G11" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>17</v>
+      </c>
       <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="34"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="33"/>
-    </row>
-    <row r="13" spans="1:9" s="24" customFormat="1" ht="14.25">
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="30"/>
@@ -1473,7 +1494,7 @@
       <c r="E14" s="34"/>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="1:9" s="23" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="15" spans="1:9" s="24" customFormat="1" ht="14.25">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
       <c r="C15" s="30"/>
@@ -1481,57 +1502,55 @@
       <c r="E15" s="34"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A16" s="39"/>
+    <row r="16" spans="1:9" s="23" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A16" s="29"/>
       <c r="B16" s="29"/>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="E16" s="34"/>
       <c r="F16" s="33"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-    </row>
-    <row r="17" spans="1:9" s="23" customFormat="1" ht="15">
-      <c r="A17" s="29"/>
+    </row>
+    <row r="17" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A17" s="39"/>
       <c r="B17" s="29"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="E17" s="34"/>
       <c r="F17" s="33"/>
-      <c r="I17" s="38"/>
-    </row>
-    <row r="18" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="26"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+    </row>
+    <row r="18" spans="1:9" s="23" customFormat="1" ht="15">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="33"/>
+      <c r="I18" s="38"/>
     </row>
     <row r="19" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A19" s="40"/>
       <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
       <c r="E19" s="54"/>
       <c r="F19" s="48"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="26"/>
     </row>
     <row r="20" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A20" s="40"/>
       <c r="B20" s="40"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="55"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="54"/>
       <c r="F20" s="48"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
     </row>
     <row r="21" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A21" s="40"/>
@@ -1542,7 +1561,6 @@
       <c r="F21" s="48"/>
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
     </row>
     <row r="22" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A22" s="40"/>
@@ -1553,6 +1571,7 @@
       <c r="F22" s="48"/>
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
     </row>
     <row r="23" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A23" s="40"/>
@@ -1593,7 +1612,6 @@
       <c r="F26" s="48"/>
       <c r="G26" s="45"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
     </row>
     <row r="27" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A27" s="40"/>
@@ -1626,6 +1644,7 @@
       <c r="F29" s="48"/>
       <c r="G29" s="45"/>
       <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
     </row>
     <row r="30" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A30" s="40"/>
@@ -1636,17 +1655,17 @@
       <c r="F30" s="48"/>
       <c r="G30" s="45"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-    </row>
-    <row r="31" spans="1:9" s="21" customFormat="1" ht="15">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
+    </row>
+    <row r="31" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
     </row>
     <row r="32" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A32" s="31"/>
@@ -1679,8 +1698,8 @@
       <c r="H34" s="27"/>
     </row>
     <row r="35" spans="1:9" s="21" customFormat="1" ht="15">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="32"/>
       <c r="D35" s="32"/>
       <c r="E35" s="36"/>
@@ -1690,7 +1709,7 @@
     </row>
     <row r="36" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A36" s="28"/>
-      <c r="B36" s="31"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="32"/>
       <c r="D36" s="32"/>
       <c r="E36" s="36"/>
@@ -1709,7 +1728,7 @@
       <c r="H37" s="27"/>
     </row>
     <row r="38" spans="1:9" s="21" customFormat="1" ht="15">
-      <c r="A38" s="31"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="31"/>
       <c r="C38" s="32"/>
       <c r="D38" s="32"/>
@@ -1767,7 +1786,6 @@
       <c r="F43" s="35"/>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
     </row>
     <row r="44" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A44" s="31"/>
@@ -1778,6 +1796,7 @@
       <c r="F44" s="35"/>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
     </row>
     <row r="45" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A45" s="31"/>
@@ -1805,7 +1824,7 @@
       <c r="C47" s="32"/>
       <c r="D47" s="32"/>
       <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
+      <c r="F47" s="35"/>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
     </row>
@@ -1815,17 +1834,17 @@
       <c r="C48" s="32"/>
       <c r="D48" s="32"/>
       <c r="E48" s="36"/>
-      <c r="F48" s="35"/>
+      <c r="F48" s="36"/>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
     </row>
     <row r="49" spans="1:9" s="21" customFormat="1" ht="15">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="49"/>
+      <c r="A49" s="31"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="35"/>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
     </row>
@@ -1878,7 +1897,6 @@
       <c r="F54" s="49"/>
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
     </row>
     <row r="55" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A55" s="25"/>
@@ -1889,6 +1907,7 @@
       <c r="F55" s="49"/>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
     </row>
     <row r="56" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A56" s="25"/>
@@ -1899,7 +1918,6 @@
       <c r="F56" s="49"/>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
     </row>
     <row r="57" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A57" s="25"/>
@@ -1907,9 +1925,10 @@
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
       <c r="E57" s="50"/>
-      <c r="F57" s="50"/>
+      <c r="F57" s="49"/>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
     </row>
     <row r="58" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A58" s="25"/>
@@ -1917,7 +1936,7 @@
       <c r="C58" s="27"/>
       <c r="D58" s="27"/>
       <c r="E58" s="50"/>
-      <c r="F58" s="49"/>
+      <c r="F58" s="50"/>
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
     </row>
@@ -1930,7 +1949,6 @@
       <c r="F59" s="49"/>
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
     </row>
     <row r="60" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A60" s="25"/>
@@ -1941,6 +1959,7 @@
       <c r="F60" s="49"/>
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
     </row>
     <row r="61" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A61" s="25"/>
@@ -1948,7 +1967,7 @@
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
       <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
+      <c r="F61" s="49"/>
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
     </row>
@@ -1958,7 +1977,7 @@
       <c r="C62" s="27"/>
       <c r="D62" s="27"/>
       <c r="E62" s="50"/>
-      <c r="F62" s="49"/>
+      <c r="F62" s="50"/>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
     </row>
@@ -1968,7 +1987,7 @@
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
       <c r="E63" s="50"/>
-      <c r="F63" s="50"/>
+      <c r="F63" s="49"/>
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
     </row>
@@ -1988,7 +2007,7 @@
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
       <c r="E65" s="50"/>
-      <c r="F65" s="49"/>
+      <c r="F65" s="50"/>
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
     </row>
@@ -2001,7 +2020,6 @@
       <c r="F66" s="49"/>
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
     </row>
     <row r="67" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A67" s="25"/>
@@ -2009,9 +2027,10 @@
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
       <c r="E67" s="50"/>
-      <c r="F67" s="50"/>
+      <c r="F67" s="49"/>
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
     </row>
     <row r="68" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A68" s="25"/>
@@ -2019,20 +2038,19 @@
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
       <c r="E68" s="50"/>
-      <c r="F68" s="49"/>
+      <c r="F68" s="50"/>
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
     </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="52"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="2"/>
+    <row r="69" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A69" s="25"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="4"/>
@@ -2043,7 +2061,7 @@
       <c r="F70" s="51"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
+      <c r="I70" s="2"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="4"/>
@@ -2054,7 +2072,7 @@
       <c r="F71" s="51"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="2"/>
+      <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="4"/>
@@ -2131,7 +2149,7 @@
       <c r="F78" s="51"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
+      <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="4"/>
@@ -2183,7 +2201,7 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="52"/>
-      <c r="F83" s="52"/>
+      <c r="F83" s="51"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -2216,7 +2234,7 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="52"/>
-      <c r="F86" s="51"/>
+      <c r="F86" s="52"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -2249,7 +2267,7 @@
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="52"/>
-      <c r="F89" s="52"/>
+      <c r="F89" s="51"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -2260,7 +2278,7 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="52"/>
-      <c r="F90" s="51"/>
+      <c r="F90" s="52"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -2282,7 +2300,7 @@
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="52"/>
-      <c r="F92" s="52"/>
+      <c r="F92" s="51"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -2304,10 +2322,10 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="52"/>
-      <c r="F94" s="51"/>
+      <c r="F94" s="52"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
-      <c r="I94" s="2"/>
+      <c r="I94" s="1"/>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="4"/>
@@ -2384,7 +2402,7 @@
       <c r="F101" s="51"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
+      <c r="I101" s="2"/>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="4"/>
@@ -2395,7 +2413,7 @@
       <c r="F102" s="51"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
-      <c r="I102" s="2"/>
+      <c r="I102" s="1"/>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="4"/>
@@ -2463,8 +2481,19 @@
       <c r="H108" s="1"/>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="1:9" ht="15.75"/>
+    <row r="109" spans="1:9">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="52"/>
+      <c r="F109" s="51"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="2"/>
+    </row>
     <row r="110" spans="1:9" ht="15.75"/>
+    <row r="111" spans="1:9" ht="15.75"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I2"/>
@@ -2496,39 +2525,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" ht="30.95">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
     </row>
     <row r="4" spans="1:9" ht="21">
       <c r="A4" s="3" t="s">
@@ -2538,7 +2567,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>4</v>
@@ -2567,10 +2596,10 @@
         <v>45191</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E5" s="20">
         <v>136</v>
@@ -2579,10 +2608,10 @@
         <v>45252</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -2594,22 +2623,22 @@
         <v>45156</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -2621,10 +2650,10 @@
         <v>45153</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E7" s="16">
         <v>52</v>
@@ -2633,10 +2662,10 @@
         <v>45153</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I7" s="11"/>
     </row>
@@ -2648,10 +2677,10 @@
         <v>45112</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E8" s="15">
         <v>211</v>
@@ -2660,13 +2689,13 @@
         <v>45138</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2677,10 +2706,10 @@
         <v>45111</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E9" s="15">
         <v>249</v>
@@ -2689,13 +2718,13 @@
         <v>45138</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2706,10 +2735,10 @@
         <v>42522</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E10" s="15">
         <v>169</v>
@@ -2718,13 +2747,13 @@
         <v>45086</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2735,10 +2764,10 @@
         <v>44950</v>
       </c>
       <c r="C11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>43</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>41</v>
       </c>
       <c r="E11" s="15">
         <v>75</v>
@@ -2747,13 +2776,13 @@
         <v>45010</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="21">
@@ -2764,10 +2793,10 @@
         <v>44937</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E12" s="12">
         <v>81</v>
@@ -2776,10 +2805,10 @@
         <v>44990</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I12" s="3"/>
     </row>
@@ -2791,10 +2820,10 @@
         <v>44831</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E13" s="7">
         <v>1</v>
@@ -2803,10 +2832,10 @@
         <v>44890</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I13" s="9"/>
     </row>
@@ -2818,10 +2847,10 @@
         <v>44817</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E14" s="7">
         <v>77</v>
@@ -2830,10 +2859,10 @@
         <v>44880</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I14" s="4"/>
     </row>
@@ -2845,10 +2874,10 @@
         <v>44594</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E15" s="5">
         <v>198</v>
@@ -2857,10 +2886,10 @@
         <v>44659</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -2872,10 +2901,10 @@
         <v>44336</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E16" s="5">
         <v>94</v>
@@ -2884,13 +2913,13 @@
         <v>44394</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2901,10 +2930,10 @@
         <v>44342</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E17" s="5">
         <v>464</v>
@@ -2913,10 +2942,10 @@
         <v>44403</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -2928,10 +2957,10 @@
         <v>44104</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E18" s="5">
         <v>13</v>
@@ -2940,10 +2969,10 @@
         <v>44104</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -2955,10 +2984,10 @@
         <v>44068</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E19" s="5">
         <v>40</v>
@@ -2967,10 +2996,10 @@
         <v>44061</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I19" s="2"/>
     </row>
@@ -2982,10 +3011,10 @@
         <v>44060</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E20" s="5">
         <v>106</v>
@@ -2994,10 +3023,10 @@
         <v>44057</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -3009,10 +3038,10 @@
         <v>44056</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E21" s="5">
         <v>272</v>
@@ -3021,13 +3050,13 @@
         <v>43914</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3038,10 +3067,10 @@
         <v>44040</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E22" s="5">
         <v>1043</v>
@@ -3050,13 +3079,13 @@
         <v>44104</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3067,10 +3096,10 @@
         <v>44040</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E23" s="5">
         <v>296</v>
@@ -3079,13 +3108,13 @@
         <v>44104</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3096,10 +3125,10 @@
         <v>44042</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E24" s="5">
         <v>73</v>
@@ -3108,10 +3137,10 @@
         <v>44075</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I24" s="2"/>
     </row>
@@ -3123,10 +3152,10 @@
         <v>44022</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E25" s="5">
         <v>127</v>
@@ -3135,13 +3164,13 @@
         <v>44044</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3152,10 +3181,10 @@
         <v>44004</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E26" s="5">
         <v>71</v>
@@ -3164,10 +3193,10 @@
         <v>43973</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -3179,10 +3208,10 @@
         <v>44012</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E27" s="5">
         <v>65</v>
@@ -3191,10 +3220,10 @@
         <v>44012</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I27" s="2"/>
     </row>
@@ -3206,10 +3235,10 @@
         <v>43985</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E28" s="5">
         <v>65</v>
@@ -3218,10 +3247,10 @@
         <v>43904</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -3233,10 +3262,10 @@
         <v>43980</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E29" s="5">
         <v>231</v>
@@ -3245,10 +3274,10 @@
         <v>43980</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -3260,10 +3289,10 @@
         <v>44068</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E30" s="5">
         <v>72</v>
@@ -3272,10 +3301,10 @@
         <v>43958</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I30" s="2"/>
     </row>
@@ -3287,10 +3316,10 @@
         <v>43948</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E31" s="5">
         <v>136</v>
@@ -3299,10 +3328,10 @@
         <v>43906</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I31" s="2"/>
     </row>
@@ -3314,10 +3343,10 @@
         <v>43942</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E32" s="5">
         <v>5</v>
@@ -3326,10 +3355,10 @@
         <v>43942</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -3341,10 +3370,10 @@
         <v>43944</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -3353,10 +3382,10 @@
         <v>43941</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I33" s="2"/>
     </row>
@@ -3368,10 +3397,10 @@
         <v>43938</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E34" s="5">
         <v>13</v>
@@ -3380,10 +3409,10 @@
         <v>43938</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I34" s="2"/>
     </row>
@@ -3395,10 +3424,10 @@
         <v>43935</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E35" s="5">
         <v>51</v>
@@ -3407,10 +3436,10 @@
         <v>43906</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I35" s="2"/>
     </row>
@@ -3422,10 +3451,10 @@
         <v>43925</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E36" s="5">
         <v>110</v>
@@ -3434,10 +3463,10 @@
         <v>43927</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I36" s="2"/>
     </row>
@@ -3449,10 +3478,10 @@
         <v>43917</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E37" s="5">
         <v>37</v>
@@ -3461,10 +3490,10 @@
         <v>43916</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I37" s="2"/>
     </row>
@@ -3476,10 +3505,10 @@
         <v>43913</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E38" s="5">
         <v>146</v>
@@ -3488,13 +3517,13 @@
         <v>43898</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -3505,10 +3534,10 @@
         <v>43910</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E39" s="5">
         <v>87</v>
@@ -3517,10 +3546,10 @@
         <v>43910</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I39" s="2"/>
     </row>
@@ -3532,10 +3561,10 @@
         <v>43913</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E40" s="5">
         <v>110</v>
@@ -3544,10 +3573,10 @@
         <v>43906</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I40" s="2"/>
     </row>
@@ -3559,10 +3588,10 @@
         <v>43510</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E41" s="5">
         <v>1</v>
@@ -3571,10 +3600,10 @@
         <v>43567</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I41" s="2"/>
     </row>
@@ -3586,22 +3615,22 @@
         <v>43486</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E42" s="5">
         <v>59</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I42" s="2"/>
     </row>
@@ -3613,10 +3642,10 @@
         <v>43479</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E43" s="5">
         <v>62</v>
@@ -3625,10 +3654,10 @@
         <v>43542</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I43" s="2"/>
     </row>
@@ -3640,10 +3669,10 @@
         <v>43413</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E44" s="5">
         <v>51</v>
@@ -3652,10 +3681,10 @@
         <v>43131</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I44" s="2"/>
     </row>
@@ -3667,10 +3696,10 @@
         <v>43405</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E45" s="5">
         <v>92</v>
@@ -3679,10 +3708,10 @@
         <v>43465</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I45" s="2"/>
     </row>
@@ -3694,10 +3723,10 @@
         <v>43405</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E46" s="5">
         <v>181</v>
@@ -3706,10 +3735,10 @@
         <v>43469</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I46" s="2"/>
     </row>
@@ -3721,10 +3750,10 @@
         <v>43382</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E47" s="5">
         <v>180</v>
@@ -3733,10 +3762,10 @@
         <v>43382</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I47" s="2"/>
     </row>
@@ -3748,10 +3777,10 @@
         <v>43363</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E48" s="5">
         <v>83</v>
@@ -3760,10 +3789,10 @@
         <v>43434</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I48" s="2"/>
     </row>
@@ -3775,10 +3804,10 @@
         <v>43276</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E49" s="5">
         <v>64</v>
@@ -3787,13 +3816,13 @@
         <v>43339</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3804,10 +3833,10 @@
         <v>43252</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E50" s="5">
         <v>149</v>
@@ -3816,10 +3845,10 @@
         <v>43312</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I50" s="2"/>
     </row>
@@ -3831,10 +3860,10 @@
         <v>43042</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E51" s="5">
         <v>477</v>
@@ -3843,13 +3872,13 @@
         <v>43112</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3860,22 +3889,22 @@
         <v>42990</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E52" s="5">
         <v>171</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I52" s="2"/>
     </row>
@@ -3887,10 +3916,10 @@
         <v>42496</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E53" s="5">
         <v>187</v>
@@ -3899,10 +3928,10 @@
         <v>42492</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I53" s="2"/>
     </row>
@@ -3914,10 +3943,10 @@
         <v>42495</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E54" s="5">
         <v>20</v>
@@ -3926,13 +3955,13 @@
         <v>42551</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3943,10 +3972,10 @@
         <v>42468</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E55" s="5">
         <v>154</v>
@@ -3955,10 +3984,10 @@
         <v>42528</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I55" s="2"/>
     </row>
@@ -3970,22 +3999,22 @@
         <v>42401</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E56" s="5">
         <v>60</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I56" s="2"/>
     </row>
@@ -3997,10 +4026,10 @@
         <v>42384</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E57" s="5">
         <v>131</v>
@@ -4009,10 +4038,10 @@
         <v>42405</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I57" s="2"/>
     </row>
@@ -4024,22 +4053,22 @@
         <v>42326</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E58" s="5">
         <v>241</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I58" s="2"/>
     </row>
@@ -4051,22 +4080,22 @@
         <v>42320</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I59" s="2"/>
     </row>
@@ -4078,10 +4107,10 @@
         <v>42180</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E60" s="5">
         <v>70</v>
@@ -4090,10 +4119,10 @@
         <v>42240</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I60" s="2"/>
     </row>
@@ -4105,25 +4134,25 @@
         <v>42074</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F61" s="4">
         <v>42141</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4134,22 +4163,22 @@
         <v>42065</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I62" s="2"/>
     </row>
@@ -4161,10 +4190,10 @@
         <v>41850</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E63" s="5">
         <v>5</v>
@@ -4173,10 +4202,10 @@
         <v>41912</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I63" s="2"/>
     </row>
@@ -4188,10 +4217,10 @@
         <v>41821</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E64" s="5">
         <v>142</v>
@@ -4200,10 +4229,10 @@
         <v>41882</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I64" s="2"/>
     </row>
@@ -4215,10 +4244,10 @@
         <v>41729</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E65" s="5">
         <v>115</v>
@@ -4227,13 +4256,13 @@
         <v>41774</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -4244,10 +4273,10 @@
         <v>41596</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E66" s="5">
         <v>49</v>
@@ -4256,10 +4285,10 @@
         <v>41654</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I66" s="2"/>
     </row>
@@ -4271,10 +4300,10 @@
         <v>41547</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E67" s="5">
         <v>1</v>
@@ -4283,10 +4312,10 @@
         <v>41608</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I67" s="2"/>
     </row>
@@ -4298,10 +4327,10 @@
         <v>41502</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E68" s="5">
         <v>66</v>
@@ -4310,10 +4339,10 @@
         <v>41555</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I68" s="2"/>
     </row>
@@ -4325,10 +4354,10 @@
         <v>41438</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E69" s="5">
         <v>3</v>
@@ -4337,10 +4366,10 @@
         <v>41425</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I69" s="2"/>
     </row>
@@ -4352,10 +4381,10 @@
         <v>41417</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E70" s="5">
         <v>62</v>
@@ -4364,10 +4393,10 @@
         <v>41485</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I70" s="2"/>
     </row>
@@ -4379,22 +4408,22 @@
         <v>41285</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F71" s="4">
         <v>41347</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I71" s="2"/>
     </row>
@@ -4406,10 +4435,10 @@
         <v>41087</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E72" s="5">
         <v>51</v>
@@ -4418,10 +4447,10 @@
         <v>41148</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I72" s="2"/>
     </row>
@@ -4433,10 +4462,10 @@
         <v>41011</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E73" s="5">
         <v>150</v>
@@ -4445,13 +4474,13 @@
         <v>41071</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -4462,10 +4491,10 @@
         <v>40939</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E74" s="5">
         <v>70</v>
@@ -4474,13 +4503,13 @@
         <v>41000</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -4491,10 +4520,10 @@
         <v>40833</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E75" s="5">
         <v>110</v>
@@ -4503,10 +4532,10 @@
         <v>40833</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I75" s="1"/>
     </row>
@@ -4518,10 +4547,10 @@
         <v>40788</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E76" s="5">
         <v>16</v>
@@ -4530,10 +4559,10 @@
         <v>40846</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I76" s="1"/>
     </row>
@@ -4545,10 +4574,10 @@
         <v>40758</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E77" s="5">
         <v>9</v>
@@ -4557,10 +4586,10 @@
         <v>40816</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I77" s="1"/>
     </row>
@@ -4572,22 +4601,22 @@
         <v>40756</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E78" s="5">
         <v>98</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I78" s="1"/>
     </row>
@@ -4599,22 +4628,22 @@
         <v>40690</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E79" s="5">
         <v>21</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I79" s="1"/>
     </row>
@@ -4626,22 +4655,22 @@
         <v>40634</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E80" s="5">
         <v>98</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I80" s="1"/>
     </row>
@@ -4653,10 +4682,10 @@
         <v>40589</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E81" s="5">
         <v>5</v>
@@ -4665,10 +4694,10 @@
         <v>40644</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I81" s="1"/>
     </row>
@@ -4680,10 +4709,10 @@
         <v>40568</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E82" s="5">
         <v>122</v>
@@ -4692,10 +4721,10 @@
         <v>40592</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I82" s="1"/>
     </row>
@@ -4707,10 +4736,10 @@
         <v>40413</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E83" s="5">
         <v>89</v>
@@ -4719,10 +4748,10 @@
         <v>40452</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I83" s="1"/>
     </row>
@@ -4734,22 +4763,22 @@
         <v>40217</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E84" s="5">
         <v>26</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I84" s="1"/>
     </row>
@@ -4761,10 +4790,10 @@
         <v>40217</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E85" s="5">
         <v>165</v>
@@ -4773,10 +4802,10 @@
         <v>40217</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I85" s="1"/>
     </row>
@@ -4788,10 +4817,10 @@
         <v>40182</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E86" s="5">
         <v>8</v>
@@ -4800,10 +4829,10 @@
         <v>40210</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I86" s="1"/>
     </row>
@@ -4815,22 +4844,22 @@
         <v>40141</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E87" s="5">
         <v>66</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I87" s="1"/>
     </row>
@@ -4842,25 +4871,25 @@
         <v>40141</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E88" s="5">
         <v>103</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4871,22 +4900,22 @@
         <v>40094</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F89" s="4">
         <v>40147</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I89" s="2"/>
     </row>
@@ -4898,10 +4927,10 @@
         <v>40091</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E90" s="5">
         <v>63</v>
@@ -4910,10 +4939,10 @@
         <v>40148</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I90" s="2"/>
     </row>
@@ -4925,22 +4954,22 @@
         <v>40050</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F91" s="4">
         <v>39895</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I91" s="2"/>
     </row>
@@ -4952,10 +4981,10 @@
         <v>40008</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E92" s="5">
         <v>130</v>
@@ -4964,10 +4993,10 @@
         <v>39895</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I92" s="2"/>
     </row>
@@ -4979,10 +5008,10 @@
         <v>40008</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E93" s="5">
         <v>26</v>
@@ -4991,10 +5020,10 @@
         <v>40001</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I93" s="2"/>
     </row>
@@ -5006,10 +5035,10 @@
         <v>39895</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E94" s="5">
         <v>14</v>
@@ -5018,10 +5047,10 @@
         <v>39895</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I94" s="2"/>
     </row>
@@ -5033,10 +5062,10 @@
         <v>39996</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E95" s="5">
         <v>10</v>
@@ -5045,10 +5074,10 @@
         <v>40041</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I95" s="2"/>
     </row>
@@ -5060,10 +5089,10 @@
         <v>39932</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E96" s="5">
         <v>171</v>
@@ -5072,13 +5101,13 @@
         <v>39994</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5089,10 +5118,10 @@
         <v>39918</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E97" s="5">
         <v>55</v>
@@ -5101,10 +5130,10 @@
         <v>39994</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I97" s="2"/>
     </row>
@@ -5116,10 +5145,10 @@
         <v>39882</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="E98" s="5">
         <v>29</v>
@@ -5128,10 +5157,10 @@
         <v>39943</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I98" s="2"/>
     </row>
@@ -5143,10 +5172,10 @@
         <v>39881</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E99" s="5">
         <v>71</v>
@@ -5155,10 +5184,10 @@
         <v>39941</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I99" s="2"/>
     </row>
@@ -5170,10 +5199,10 @@
         <v>39878</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E100" s="5">
         <v>54</v>
@@ -5182,10 +5211,10 @@
         <v>39935</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I100" s="2"/>
     </row>
@@ -5197,10 +5226,10 @@
         <v>39877</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E101" s="5">
         <v>119</v>
@@ -5209,10 +5238,10 @@
         <v>39943</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I101" s="2"/>
     </row>
@@ -5224,10 +5253,10 @@
         <v>39864</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E102" s="5">
         <v>270</v>
@@ -5236,10 +5265,10 @@
         <v>39828</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I102" s="2"/>
     </row>
@@ -5251,10 +5280,10 @@
         <v>39825</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E103" s="5">
         <v>121</v>
@@ -5263,10 +5292,10 @@
         <v>39821</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I103" s="2"/>
     </row>
@@ -5279,18 +5308,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5438,11 +5467,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3BDC996-7CD8-43BD-838D-50E4C5CE2932}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0557A4BC-595F-498F-986F-63860A4E78D3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0557A4BC-595F-498F-986F-63860A4E78D3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3BDC996-7CD8-43BD-838D-50E4C5CE2932}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/warn-scraper/cache/ri/WARN Report.xlsx
+++ b/data/warn-scraper/cache/ri/WARN Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmwilsonri/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6882CA0-AE5A-46EC-AE6D-3C1841526444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01782BF9-7B1D-43F3-9A17-101EF4844693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="178">
   <si>
     <t>Rhode Island WARN Report</t>
   </si>
@@ -78,6 +78,15 @@
     <t>Providence</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>There are 8 Unions representing 800 workers. All 1,029 workers are being retained.</t>
+  </si>
+  <si>
     <t>NMC</t>
   </si>
   <si>
@@ -85,12 +94,6 @@
   </si>
   <si>
     <t>5/2/24-7/1/24</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>UPS (updated Warn from previous one)</t>
@@ -1204,8 +1207,8 @@
   </sheetPr>
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.95"/>
@@ -1218,7 +1221,7 @@
     <col min="6" max="6" width="19.75" style="53" customWidth="1"/>
     <col min="7" max="7" width="18.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="66.125" customWidth="1"/>
+    <col min="9" max="9" width="71.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1304,6 +1307,15 @@
       <c r="F5" s="33">
         <v>45473</v>
       </c>
+      <c r="G5" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A6" s="29">
@@ -1313,22 +1325,22 @@
         <v>45414</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" s="34">
         <v>36</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="23" customFormat="1" ht="15">
@@ -1339,22 +1351,22 @@
         <v>45383</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="33">
         <v>45412</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I7" s="38"/>
     </row>
@@ -1366,10 +1378,10 @@
         <v>45383</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" s="34">
         <v>1</v>
@@ -1378,10 +1390,10 @@
         <v>45443</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I8" s="38"/>
     </row>
@@ -1393,10 +1405,10 @@
         <v>45349</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="37">
         <v>48</v>
@@ -1405,10 +1417,10 @@
         <v>45611</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="23" customFormat="1" ht="14.25">
@@ -1419,10 +1431,10 @@
         <v>45328</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="37">
         <v>130</v>
@@ -1431,13 +1443,13 @@
         <v>45384</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="23" customFormat="1" ht="14.25">
@@ -1448,10 +1460,10 @@
         <v>45316</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="37">
         <v>1</v>
@@ -1460,10 +1472,10 @@
         <v>45316</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I11" s="22"/>
     </row>
@@ -2567,7 +2579,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>4</v>
@@ -2596,10 +2608,10 @@
         <v>45191</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" s="20">
         <v>136</v>
@@ -2608,10 +2620,10 @@
         <v>45252</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -2623,22 +2635,22 @@
         <v>45156</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -2650,10 +2662,10 @@
         <v>45153</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="16">
         <v>52</v>
@@ -2662,10 +2674,10 @@
         <v>45153</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I7" s="11"/>
     </row>
@@ -2677,7 +2689,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>12</v>
@@ -2689,13 +2701,13 @@
         <v>45138</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2706,10 +2718,10 @@
         <v>45111</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E9" s="15">
         <v>249</v>
@@ -2718,13 +2730,13 @@
         <v>45138</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2735,10 +2747,10 @@
         <v>42522</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" s="15">
         <v>169</v>
@@ -2747,13 +2759,13 @@
         <v>45086</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2764,10 +2776,10 @@
         <v>44950</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" s="15">
         <v>75</v>
@@ -2776,13 +2788,13 @@
         <v>45010</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="21">
@@ -2793,10 +2805,10 @@
         <v>44937</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12" s="12">
         <v>81</v>
@@ -2805,10 +2817,10 @@
         <v>44990</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I12" s="3"/>
     </row>
@@ -2820,10 +2832,10 @@
         <v>44831</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" s="7">
         <v>1</v>
@@ -2832,10 +2844,10 @@
         <v>44890</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I13" s="9"/>
     </row>
@@ -2847,10 +2859,10 @@
         <v>44817</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" s="7">
         <v>77</v>
@@ -2859,10 +2871,10 @@
         <v>44880</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I14" s="4"/>
     </row>
@@ -2874,10 +2886,10 @@
         <v>44594</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E15" s="5">
         <v>198</v>
@@ -2886,10 +2898,10 @@
         <v>44659</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -2901,10 +2913,10 @@
         <v>44336</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16" s="5">
         <v>94</v>
@@ -2913,13 +2925,13 @@
         <v>44394</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2930,10 +2942,10 @@
         <v>44342</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" s="5">
         <v>464</v>
@@ -2942,10 +2954,10 @@
         <v>44403</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -2957,10 +2969,10 @@
         <v>44104</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18" s="5">
         <v>13</v>
@@ -2969,10 +2981,10 @@
         <v>44104</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -2984,10 +2996,10 @@
         <v>44068</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E19" s="5">
         <v>40</v>
@@ -2996,10 +3008,10 @@
         <v>44061</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I19" s="2"/>
     </row>
@@ -3011,7 +3023,7 @@
         <v>44060</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>12</v>
@@ -3023,10 +3035,10 @@
         <v>44057</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -3038,7 +3050,7 @@
         <v>44056</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>12</v>
@@ -3050,13 +3062,13 @@
         <v>43914</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3067,10 +3079,10 @@
         <v>44040</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E22" s="5">
         <v>1043</v>
@@ -3079,13 +3091,13 @@
         <v>44104</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3096,10 +3108,10 @@
         <v>44040</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E23" s="5">
         <v>296</v>
@@ -3108,13 +3120,13 @@
         <v>44104</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3125,7 +3137,7 @@
         <v>44042</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>12</v>
@@ -3137,10 +3149,10 @@
         <v>44075</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I24" s="2"/>
     </row>
@@ -3152,10 +3164,10 @@
         <v>44022</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E25" s="5">
         <v>127</v>
@@ -3164,13 +3176,13 @@
         <v>44044</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3181,10 +3193,10 @@
         <v>44004</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E26" s="5">
         <v>71</v>
@@ -3193,10 +3205,10 @@
         <v>43973</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -3208,7 +3220,7 @@
         <v>44012</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>12</v>
@@ -3220,10 +3232,10 @@
         <v>44012</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I27" s="2"/>
     </row>
@@ -3235,7 +3247,7 @@
         <v>43985</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>12</v>
@@ -3247,10 +3259,10 @@
         <v>43904</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -3262,10 +3274,10 @@
         <v>43980</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E29" s="5">
         <v>231</v>
@@ -3274,10 +3286,10 @@
         <v>43980</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -3289,10 +3301,10 @@
         <v>44068</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E30" s="5">
         <v>72</v>
@@ -3301,10 +3313,10 @@
         <v>43958</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I30" s="2"/>
     </row>
@@ -3316,10 +3328,10 @@
         <v>43948</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E31" s="5">
         <v>136</v>
@@ -3328,10 +3340,10 @@
         <v>43906</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I31" s="2"/>
     </row>
@@ -3343,10 +3355,10 @@
         <v>43942</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E32" s="5">
         <v>5</v>
@@ -3355,10 +3367,10 @@
         <v>43942</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -3370,10 +3382,10 @@
         <v>43944</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -3382,10 +3394,10 @@
         <v>43941</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I33" s="2"/>
     </row>
@@ -3397,10 +3409,10 @@
         <v>43938</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E34" s="5">
         <v>13</v>
@@ -3409,10 +3421,10 @@
         <v>43938</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I34" s="2"/>
     </row>
@@ -3424,10 +3436,10 @@
         <v>43935</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E35" s="5">
         <v>51</v>
@@ -3436,10 +3448,10 @@
         <v>43906</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I35" s="2"/>
     </row>
@@ -3451,10 +3463,10 @@
         <v>43925</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E36" s="5">
         <v>110</v>
@@ -3463,10 +3475,10 @@
         <v>43927</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I36" s="2"/>
     </row>
@@ -3478,10 +3490,10 @@
         <v>43917</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E37" s="5">
         <v>37</v>
@@ -3490,10 +3502,10 @@
         <v>43916</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I37" s="2"/>
     </row>
@@ -3505,7 +3517,7 @@
         <v>43913</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>12</v>
@@ -3517,13 +3529,13 @@
         <v>43898</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -3534,10 +3546,10 @@
         <v>43910</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E39" s="5">
         <v>87</v>
@@ -3546,10 +3558,10 @@
         <v>43910</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I39" s="2"/>
     </row>
@@ -3561,10 +3573,10 @@
         <v>43913</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E40" s="5">
         <v>110</v>
@@ -3573,10 +3585,10 @@
         <v>43906</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I40" s="2"/>
     </row>
@@ -3588,10 +3600,10 @@
         <v>43510</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E41" s="5">
         <v>1</v>
@@ -3600,10 +3612,10 @@
         <v>43567</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I41" s="2"/>
     </row>
@@ -3615,22 +3627,22 @@
         <v>43486</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E42" s="5">
         <v>59</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I42" s="2"/>
     </row>
@@ -3642,7 +3654,7 @@
         <v>43479</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>12</v>
@@ -3654,10 +3666,10 @@
         <v>43542</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I43" s="2"/>
     </row>
@@ -3669,10 +3681,10 @@
         <v>43413</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E44" s="5">
         <v>51</v>
@@ -3681,10 +3693,10 @@
         <v>43131</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I44" s="2"/>
     </row>
@@ -3696,10 +3708,10 @@
         <v>43405</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E45" s="5">
         <v>92</v>
@@ -3708,10 +3720,10 @@
         <v>43465</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I45" s="2"/>
     </row>
@@ -3723,7 +3735,7 @@
         <v>43405</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>12</v>
@@ -3735,10 +3747,10 @@
         <v>43469</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I46" s="2"/>
     </row>
@@ -3750,10 +3762,10 @@
         <v>43382</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E47" s="5">
         <v>180</v>
@@ -3762,10 +3774,10 @@
         <v>43382</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I47" s="2"/>
     </row>
@@ -3777,10 +3789,10 @@
         <v>43363</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E48" s="5">
         <v>83</v>
@@ -3789,10 +3801,10 @@
         <v>43434</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I48" s="2"/>
     </row>
@@ -3804,10 +3816,10 @@
         <v>43276</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E49" s="5">
         <v>64</v>
@@ -3816,13 +3828,13 @@
         <v>43339</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3833,10 +3845,10 @@
         <v>43252</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E50" s="5">
         <v>149</v>
@@ -3845,10 +3857,10 @@
         <v>43312</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I50" s="2"/>
     </row>
@@ -3860,10 +3872,10 @@
         <v>43042</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E51" s="5">
         <v>477</v>
@@ -3872,13 +3884,13 @@
         <v>43112</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3889,22 +3901,22 @@
         <v>42990</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E52" s="5">
         <v>171</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I52" s="2"/>
     </row>
@@ -3916,10 +3928,10 @@
         <v>42496</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E53" s="5">
         <v>187</v>
@@ -3928,10 +3940,10 @@
         <v>42492</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I53" s="2"/>
     </row>
@@ -3943,10 +3955,10 @@
         <v>42495</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E54" s="5">
         <v>20</v>
@@ -3955,13 +3967,13 @@
         <v>42551</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3972,10 +3984,10 @@
         <v>42468</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E55" s="5">
         <v>154</v>
@@ -3984,10 +3996,10 @@
         <v>42528</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I55" s="2"/>
     </row>
@@ -3999,7 +4011,7 @@
         <v>42401</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>12</v>
@@ -4008,13 +4020,13 @@
         <v>60</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I56" s="2"/>
     </row>
@@ -4026,10 +4038,10 @@
         <v>42384</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E57" s="5">
         <v>131</v>
@@ -4038,10 +4050,10 @@
         <v>42405</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I57" s="2"/>
     </row>
@@ -4053,7 +4065,7 @@
         <v>42326</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>12</v>
@@ -4062,13 +4074,13 @@
         <v>241</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I58" s="2"/>
     </row>
@@ -4080,22 +4092,22 @@
         <v>42320</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I59" s="2"/>
     </row>
@@ -4107,7 +4119,7 @@
         <v>42180</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>12</v>
@@ -4119,10 +4131,10 @@
         <v>42240</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I60" s="2"/>
     </row>
@@ -4134,25 +4146,25 @@
         <v>42074</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F61" s="4">
         <v>42141</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4163,22 +4175,22 @@
         <v>42065</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I62" s="2"/>
     </row>
@@ -4190,10 +4202,10 @@
         <v>41850</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E63" s="5">
         <v>5</v>
@@ -4202,10 +4214,10 @@
         <v>41912</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I63" s="2"/>
     </row>
@@ -4217,10 +4229,10 @@
         <v>41821</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E64" s="5">
         <v>142</v>
@@ -4229,10 +4241,10 @@
         <v>41882</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I64" s="2"/>
     </row>
@@ -4244,10 +4256,10 @@
         <v>41729</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E65" s="5">
         <v>115</v>
@@ -4256,13 +4268,13 @@
         <v>41774</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -4273,10 +4285,10 @@
         <v>41596</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E66" s="5">
         <v>49</v>
@@ -4285,10 +4297,10 @@
         <v>41654</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I66" s="2"/>
     </row>
@@ -4300,10 +4312,10 @@
         <v>41547</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E67" s="5">
         <v>1</v>
@@ -4312,10 +4324,10 @@
         <v>41608</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I67" s="2"/>
     </row>
@@ -4327,10 +4339,10 @@
         <v>41502</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E68" s="5">
         <v>66</v>
@@ -4339,10 +4351,10 @@
         <v>41555</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I68" s="2"/>
     </row>
@@ -4354,10 +4366,10 @@
         <v>41438</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E69" s="5">
         <v>3</v>
@@ -4366,10 +4378,10 @@
         <v>41425</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I69" s="2"/>
     </row>
@@ -4381,10 +4393,10 @@
         <v>41417</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E70" s="5">
         <v>62</v>
@@ -4393,10 +4405,10 @@
         <v>41485</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I70" s="2"/>
     </row>
@@ -4408,22 +4420,22 @@
         <v>41285</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F71" s="4">
         <v>41347</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I71" s="2"/>
     </row>
@@ -4435,10 +4447,10 @@
         <v>41087</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E72" s="5">
         <v>51</v>
@@ -4447,10 +4459,10 @@
         <v>41148</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I72" s="2"/>
     </row>
@@ -4462,10 +4474,10 @@
         <v>41011</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E73" s="5">
         <v>150</v>
@@ -4474,13 +4486,13 @@
         <v>41071</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -4491,10 +4503,10 @@
         <v>40939</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E74" s="5">
         <v>70</v>
@@ -4503,13 +4515,13 @@
         <v>41000</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -4520,10 +4532,10 @@
         <v>40833</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E75" s="5">
         <v>110</v>
@@ -4532,10 +4544,10 @@
         <v>40833</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I75" s="1"/>
     </row>
@@ -4547,10 +4559,10 @@
         <v>40788</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E76" s="5">
         <v>16</v>
@@ -4559,10 +4571,10 @@
         <v>40846</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I76" s="1"/>
     </row>
@@ -4574,10 +4586,10 @@
         <v>40758</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E77" s="5">
         <v>9</v>
@@ -4586,10 +4598,10 @@
         <v>40816</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I77" s="1"/>
     </row>
@@ -4601,22 +4613,22 @@
         <v>40756</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E78" s="5">
         <v>98</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I78" s="1"/>
     </row>
@@ -4628,22 +4640,22 @@
         <v>40690</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E79" s="5">
         <v>21</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I79" s="1"/>
     </row>
@@ -4655,22 +4667,22 @@
         <v>40634</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E80" s="5">
         <v>98</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I80" s="1"/>
     </row>
@@ -4682,10 +4694,10 @@
         <v>40589</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E81" s="5">
         <v>5</v>
@@ -4694,10 +4706,10 @@
         <v>40644</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I81" s="1"/>
     </row>
@@ -4709,10 +4721,10 @@
         <v>40568</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E82" s="5">
         <v>122</v>
@@ -4721,10 +4733,10 @@
         <v>40592</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I82" s="1"/>
     </row>
@@ -4736,10 +4748,10 @@
         <v>40413</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E83" s="5">
         <v>89</v>
@@ -4748,10 +4760,10 @@
         <v>40452</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I83" s="1"/>
     </row>
@@ -4763,22 +4775,22 @@
         <v>40217</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E84" s="5">
         <v>26</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I84" s="1"/>
     </row>
@@ -4790,10 +4802,10 @@
         <v>40217</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E85" s="5">
         <v>165</v>
@@ -4802,10 +4814,10 @@
         <v>40217</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I85" s="1"/>
     </row>
@@ -4817,10 +4829,10 @@
         <v>40182</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E86" s="5">
         <v>8</v>
@@ -4829,10 +4841,10 @@
         <v>40210</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I86" s="1"/>
     </row>
@@ -4844,22 +4856,22 @@
         <v>40141</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E87" s="5">
         <v>66</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I87" s="1"/>
     </row>
@@ -4871,25 +4883,25 @@
         <v>40141</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E88" s="5">
         <v>103</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4900,22 +4912,22 @@
         <v>40094</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F89" s="4">
         <v>40147</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I89" s="2"/>
     </row>
@@ -4927,10 +4939,10 @@
         <v>40091</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E90" s="5">
         <v>63</v>
@@ -4939,10 +4951,10 @@
         <v>40148</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I90" s="2"/>
     </row>
@@ -4954,22 +4966,22 @@
         <v>40050</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F91" s="4">
         <v>39895</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I91" s="2"/>
     </row>
@@ -4981,10 +4993,10 @@
         <v>40008</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E92" s="5">
         <v>130</v>
@@ -4993,10 +5005,10 @@
         <v>39895</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I92" s="2"/>
     </row>
@@ -5008,10 +5020,10 @@
         <v>40008</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E93" s="5">
         <v>26</v>
@@ -5020,10 +5032,10 @@
         <v>40001</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I93" s="2"/>
     </row>
@@ -5035,10 +5047,10 @@
         <v>39895</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E94" s="5">
         <v>14</v>
@@ -5047,10 +5059,10 @@
         <v>39895</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I94" s="2"/>
     </row>
@@ -5062,10 +5074,10 @@
         <v>39996</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E95" s="5">
         <v>10</v>
@@ -5074,10 +5086,10 @@
         <v>40041</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I95" s="2"/>
     </row>
@@ -5089,7 +5101,7 @@
         <v>39932</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>12</v>
@@ -5101,13 +5113,13 @@
         <v>39994</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5118,10 +5130,10 @@
         <v>39918</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E97" s="5">
         <v>55</v>
@@ -5130,10 +5142,10 @@
         <v>39994</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I97" s="2"/>
     </row>
@@ -5145,10 +5157,10 @@
         <v>39882</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E98" s="5">
         <v>29</v>
@@ -5157,10 +5169,10 @@
         <v>39943</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I98" s="2"/>
     </row>
@@ -5172,10 +5184,10 @@
         <v>39881</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E99" s="5">
         <v>71</v>
@@ -5184,10 +5196,10 @@
         <v>39941</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I99" s="2"/>
     </row>
@@ -5199,10 +5211,10 @@
         <v>39878</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E100" s="5">
         <v>54</v>
@@ -5211,10 +5223,10 @@
         <v>39935</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I100" s="2"/>
     </row>
@@ -5226,10 +5238,10 @@
         <v>39877</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E101" s="5">
         <v>119</v>
@@ -5238,10 +5250,10 @@
         <v>39943</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I101" s="2"/>
     </row>
@@ -5253,10 +5265,10 @@
         <v>39864</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E102" s="5">
         <v>270</v>
@@ -5265,10 +5277,10 @@
         <v>39828</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I102" s="2"/>
     </row>
@@ -5280,10 +5292,10 @@
         <v>39825</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E103" s="5">
         <v>121</v>
@@ -5292,10 +5304,10 @@
         <v>39821</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I103" s="2"/>
     </row>
@@ -5308,18 +5320,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5467,11 +5479,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0557A4BC-595F-498F-986F-63860A4E78D3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3BDC996-7CD8-43BD-838D-50E4C5CE2932}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3BDC996-7CD8-43BD-838D-50E4C5CE2932}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0557A4BC-595F-498F-986F-63860A4E78D3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/warn-scraper/cache/ri/WARN Report.xlsx
+++ b/data/warn-scraper/cache/ri/WARN Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmwilsonri/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01782BF9-7B1D-43F3-9A17-101EF4844693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70C3DC47-185F-4EEC-9E76-FACDD6E8D11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="180">
   <si>
     <t>Rhode Island WARN Report</t>
   </si>
@@ -69,6 +69,21 @@
     <t>Union Address</t>
   </si>
   <si>
+    <t xml:space="preserve">The Claflin Company </t>
+  </si>
+  <si>
+    <t>Warwick</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Rhode Island laborers' Local Union 1322 of the Laborers' International Union of North America, AFL-CIO, 410 South Main Street, Providence, RI 02903.</t>
+  </si>
+  <si>
     <t>5/4/204</t>
   </si>
   <si>
@@ -78,12 +93,6 @@
     <t>Providence</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>There are 8 Unions representing 800 workers. All 1,029 workers are being retained.</t>
   </si>
   <si>
@@ -97,9 +106,6 @@
   </si>
   <si>
     <t>UPS (updated Warn from previous one)</t>
-  </si>
-  <si>
-    <t>Warwick</t>
   </si>
   <si>
     <t>16 (additional)</t>
@@ -726,7 +732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -884,6 +890,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1205,10 +1214,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.95"/>
@@ -1225,28 +1234,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="30.95">
       <c r="A3" s="59"/>
@@ -1288,41 +1297,41 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:9" s="34" customFormat="1" ht="28.5">
+      <c r="A5" s="29">
+        <v>45427</v>
+      </c>
+      <c r="B5" s="29">
+        <v>45432</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="29">
+      <c r="D5" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="58">
+        <v>30</v>
+      </c>
+      <c r="F5" s="33">
+        <v>45488</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A6" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="29">
         <v>45421</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="58">
-        <v>1029</v>
-      </c>
-      <c r="F5" s="33">
-        <v>45473</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A6" s="29">
-        <v>45414</v>
-      </c>
-      <c r="B6" s="29">
-        <v>45414</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>16</v>
@@ -1330,25 +1339,28 @@
       <c r="D6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="34">
-        <v>36</v>
-      </c>
-      <c r="F6" s="33" t="s">
+      <c r="E6" s="58">
+        <v>1029</v>
+      </c>
+      <c r="F6" s="33">
+        <v>45473</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="23" customFormat="1" ht="15">
+    </row>
+    <row r="7" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A7" s="29">
-        <v>45380</v>
+        <v>45414</v>
       </c>
       <c r="B7" s="29">
-        <v>45383</v>
+        <v>45414</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>19</v>
@@ -1356,19 +1368,18 @@
       <c r="D7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="34">
+        <v>36</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="33">
-        <v>45412</v>
-      </c>
       <c r="G7" s="23" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="38"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:9" s="23" customFormat="1" ht="15">
       <c r="A8" s="29">
@@ -1381,124 +1392,143 @@
         <v>22</v>
       </c>
       <c r="D8" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="34">
+      <c r="F8" s="33">
+        <v>45412</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="38"/>
+    </row>
+    <row r="9" spans="1:9" s="23" customFormat="1" ht="15">
+      <c r="A9" s="29">
+        <v>45380</v>
+      </c>
+      <c r="B9" s="29">
+        <v>45383</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="34">
         <v>1</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F9" s="33">
         <v>45443</v>
       </c>
-      <c r="G8" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="38"/>
-    </row>
-    <row r="9" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A9" s="29">
-        <v>45349</v>
-      </c>
-      <c r="B9" s="29">
-        <v>45349</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="37">
-        <v>48</v>
-      </c>
-      <c r="F9" s="33">
-        <v>45611</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="G9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="38"/>
     </row>
     <row r="10" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A10" s="29">
-        <v>45323</v>
+        <v>45349</v>
       </c>
       <c r="B10" s="29">
-        <v>45328</v>
+        <v>45349</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E10" s="37">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="F10" s="33">
-        <v>45384</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>27</v>
+        <v>45611</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A11" s="29">
-        <v>45316</v>
+        <v>45323</v>
       </c>
       <c r="B11" s="29">
-        <v>45316</v>
+        <v>45328</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="37">
+        <v>130</v>
+      </c>
+      <c r="F11" s="33">
+        <v>45384</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="37">
+    </row>
+    <row r="12" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A12" s="29">
+        <v>45316</v>
+      </c>
+      <c r="B12" s="29">
+        <v>45316</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="37">
         <v>1</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F12" s="33">
         <v>45316</v>
       </c>
-      <c r="G11" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="22"/>
-    </row>
-    <row r="12" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="G12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>12</v>
+      </c>
       <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="34"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="37"/>
       <c r="F13" s="33"/>
-    </row>
-    <row r="14" spans="1:9" s="24" customFormat="1" ht="14.25">
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
       <c r="C14" s="30"/>
@@ -1514,7 +1544,7 @@
       <c r="E15" s="34"/>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="1:9" s="23" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="16" spans="1:9" s="24" customFormat="1" ht="14.25">
       <c r="A16" s="29"/>
       <c r="B16" s="29"/>
       <c r="C16" s="30"/>
@@ -1522,57 +1552,55 @@
       <c r="E16" s="34"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A17" s="39"/>
+    <row r="17" spans="1:9" s="23" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A17" s="29"/>
       <c r="B17" s="29"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="E17" s="34"/>
       <c r="F17" s="33"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-    </row>
-    <row r="18" spans="1:9" s="23" customFormat="1" ht="15">
-      <c r="A18" s="29"/>
+    </row>
+    <row r="18" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A18" s="39"/>
       <c r="B18" s="29"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="E18" s="34"/>
       <c r="F18" s="33"/>
-      <c r="I18" s="38"/>
-    </row>
-    <row r="19" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="26"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+    </row>
+    <row r="19" spans="1:9" s="23" customFormat="1" ht="15">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="33"/>
+      <c r="I19" s="38"/>
     </row>
     <row r="20" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A20" s="40"/>
       <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="54"/>
       <c r="F20" s="48"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="26"/>
     </row>
     <row r="21" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A21" s="40"/>
       <c r="B21" s="40"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="55"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="54"/>
       <c r="F21" s="48"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
     </row>
     <row r="22" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A22" s="40"/>
@@ -1583,7 +1611,6 @@
       <c r="F22" s="48"/>
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
     </row>
     <row r="23" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A23" s="40"/>
@@ -1594,6 +1621,7 @@
       <c r="F23" s="48"/>
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
     </row>
     <row r="24" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A24" s="40"/>
@@ -1634,7 +1662,6 @@
       <c r="F27" s="48"/>
       <c r="G27" s="45"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
     </row>
     <row r="28" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A28" s="40"/>
@@ -1667,6 +1694,7 @@
       <c r="F30" s="48"/>
       <c r="G30" s="45"/>
       <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
     </row>
     <row r="31" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A31" s="40"/>
@@ -1677,17 +1705,17 @@
       <c r="F31" s="48"/>
       <c r="G31" s="45"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-    </row>
-    <row r="32" spans="1:9" s="21" customFormat="1" ht="15">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
+    </row>
+    <row r="32" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
     </row>
     <row r="33" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A33" s="31"/>
@@ -1720,8 +1748,8 @@
       <c r="H35" s="27"/>
     </row>
     <row r="36" spans="1:9" s="21" customFormat="1" ht="15">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="32"/>
       <c r="D36" s="32"/>
       <c r="E36" s="36"/>
@@ -1731,7 +1759,7 @@
     </row>
     <row r="37" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A37" s="28"/>
-      <c r="B37" s="31"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="32"/>
       <c r="D37" s="32"/>
       <c r="E37" s="36"/>
@@ -1750,7 +1778,7 @@
       <c r="H38" s="27"/>
     </row>
     <row r="39" spans="1:9" s="21" customFormat="1" ht="15">
-      <c r="A39" s="31"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="31"/>
       <c r="C39" s="32"/>
       <c r="D39" s="32"/>
@@ -1808,7 +1836,6 @@
       <c r="F44" s="35"/>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
     </row>
     <row r="45" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A45" s="31"/>
@@ -1819,6 +1846,7 @@
       <c r="F45" s="35"/>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
     </row>
     <row r="46" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A46" s="31"/>
@@ -1846,7 +1874,7 @@
       <c r="C48" s="32"/>
       <c r="D48" s="32"/>
       <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
+      <c r="F48" s="35"/>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
     </row>
@@ -1856,17 +1884,17 @@
       <c r="C49" s="32"/>
       <c r="D49" s="32"/>
       <c r="E49" s="36"/>
-      <c r="F49" s="35"/>
+      <c r="F49" s="36"/>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
     </row>
     <row r="50" spans="1:9" s="21" customFormat="1" ht="15">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="49"/>
+      <c r="A50" s="31"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="35"/>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
     </row>
@@ -1919,7 +1947,6 @@
       <c r="F55" s="49"/>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
     </row>
     <row r="56" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A56" s="25"/>
@@ -1930,6 +1957,7 @@
       <c r="F56" s="49"/>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
     </row>
     <row r="57" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A57" s="25"/>
@@ -1940,7 +1968,6 @@
       <c r="F57" s="49"/>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
     </row>
     <row r="58" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A58" s="25"/>
@@ -1948,9 +1975,10 @@
       <c r="C58" s="27"/>
       <c r="D58" s="27"/>
       <c r="E58" s="50"/>
-      <c r="F58" s="50"/>
+      <c r="F58" s="49"/>
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
     </row>
     <row r="59" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A59" s="25"/>
@@ -1958,7 +1986,7 @@
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
       <c r="E59" s="50"/>
-      <c r="F59" s="49"/>
+      <c r="F59" s="50"/>
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
     </row>
@@ -1971,7 +1999,6 @@
       <c r="F60" s="49"/>
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
     </row>
     <row r="61" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A61" s="25"/>
@@ -1982,6 +2009,7 @@
       <c r="F61" s="49"/>
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
     </row>
     <row r="62" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A62" s="25"/>
@@ -1989,7 +2017,7 @@
       <c r="C62" s="27"/>
       <c r="D62" s="27"/>
       <c r="E62" s="50"/>
-      <c r="F62" s="50"/>
+      <c r="F62" s="49"/>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
     </row>
@@ -1999,7 +2027,7 @@
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
       <c r="E63" s="50"/>
-      <c r="F63" s="49"/>
+      <c r="F63" s="50"/>
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
     </row>
@@ -2009,7 +2037,7 @@
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
       <c r="E64" s="50"/>
-      <c r="F64" s="50"/>
+      <c r="F64" s="49"/>
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
     </row>
@@ -2029,7 +2057,7 @@
       <c r="C66" s="27"/>
       <c r="D66" s="27"/>
       <c r="E66" s="50"/>
-      <c r="F66" s="49"/>
+      <c r="F66" s="50"/>
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
     </row>
@@ -2042,7 +2070,6 @@
       <c r="F67" s="49"/>
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
     </row>
     <row r="68" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A68" s="25"/>
@@ -2050,9 +2077,10 @@
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
       <c r="E68" s="50"/>
-      <c r="F68" s="50"/>
+      <c r="F68" s="49"/>
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
     </row>
     <row r="69" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A69" s="25"/>
@@ -2060,20 +2088,19 @@
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
       <c r="E69" s="50"/>
-      <c r="F69" s="49"/>
+      <c r="F69" s="50"/>
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
     </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="52"/>
-      <c r="F70" s="51"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="2"/>
+    <row r="70" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A70" s="25"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="4"/>
@@ -2084,7 +2111,7 @@
       <c r="F71" s="51"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
+      <c r="I71" s="2"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="4"/>
@@ -2095,7 +2122,7 @@
       <c r="F72" s="51"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-      <c r="I72" s="2"/>
+      <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="4"/>
@@ -2172,7 +2199,7 @@
       <c r="F79" s="51"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
+      <c r="I79" s="2"/>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="4"/>
@@ -2224,7 +2251,7 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="52"/>
-      <c r="F84" s="52"/>
+      <c r="F84" s="51"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -2257,7 +2284,7 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="52"/>
-      <c r="F87" s="51"/>
+      <c r="F87" s="52"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -2290,7 +2317,7 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="52"/>
-      <c r="F90" s="52"/>
+      <c r="F90" s="51"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -2301,7 +2328,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="52"/>
-      <c r="F91" s="51"/>
+      <c r="F91" s="52"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -2323,7 +2350,7 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="52"/>
-      <c r="F93" s="52"/>
+      <c r="F93" s="51"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -2345,10 +2372,10 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="52"/>
-      <c r="F95" s="51"/>
+      <c r="F95" s="52"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
-      <c r="I95" s="2"/>
+      <c r="I95" s="1"/>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="4"/>
@@ -2425,7 +2452,7 @@
       <c r="F102" s="51"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
+      <c r="I102" s="2"/>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="4"/>
@@ -2436,7 +2463,7 @@
       <c r="F103" s="51"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
-      <c r="I103" s="2"/>
+      <c r="I103" s="1"/>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="4"/>
@@ -2504,8 +2531,19 @@
       <c r="H109" s="1"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="1:9" ht="15.75"/>
+    <row r="110" spans="1:9">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="52"/>
+      <c r="F110" s="51"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="2"/>
+    </row>
     <row r="111" spans="1:9" ht="15.75"/>
+    <row r="112" spans="1:9" ht="15.75"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I2"/>
@@ -2537,28 +2575,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="30.95">
       <c r="A3" s="59"/>
@@ -2579,7 +2617,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>4</v>
@@ -2608,10 +2646,10 @@
         <v>45191</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" s="20">
         <v>136</v>
@@ -2620,10 +2658,10 @@
         <v>45252</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -2635,22 +2673,22 @@
         <v>45156</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -2662,10 +2700,10 @@
         <v>45153</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E7" s="16">
         <v>52</v>
@@ -2674,10 +2712,10 @@
         <v>45153</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="11"/>
     </row>
@@ -2689,10 +2727,10 @@
         <v>45112</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E8" s="15">
         <v>211</v>
@@ -2701,13 +2739,13 @@
         <v>45138</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2718,10 +2756,10 @@
         <v>45111</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E9" s="15">
         <v>249</v>
@@ -2730,13 +2768,13 @@
         <v>45138</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2747,10 +2785,10 @@
         <v>42522</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E10" s="15">
         <v>169</v>
@@ -2759,13 +2797,13 @@
         <v>45086</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2776,10 +2814,10 @@
         <v>44950</v>
       </c>
       <c r="C11" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>46</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>44</v>
       </c>
       <c r="E11" s="15">
         <v>75</v>
@@ -2788,13 +2826,13 @@
         <v>45010</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="21">
@@ -2805,10 +2843,10 @@
         <v>44937</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E12" s="12">
         <v>81</v>
@@ -2817,10 +2855,10 @@
         <v>44990</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="3"/>
     </row>
@@ -2832,10 +2870,10 @@
         <v>44831</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E13" s="7">
         <v>1</v>
@@ -2844,10 +2882,10 @@
         <v>44890</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
     </row>
@@ -2859,10 +2897,10 @@
         <v>44817</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E14" s="7">
         <v>77</v>
@@ -2871,10 +2909,10 @@
         <v>44880</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="4"/>
     </row>
@@ -2886,10 +2924,10 @@
         <v>44594</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E15" s="5">
         <v>198</v>
@@ -2898,10 +2936,10 @@
         <v>44659</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -2913,10 +2951,10 @@
         <v>44336</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E16" s="5">
         <v>94</v>
@@ -2925,13 +2963,13 @@
         <v>44394</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2942,10 +2980,10 @@
         <v>44342</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E17" s="5">
         <v>464</v>
@@ -2954,10 +2992,10 @@
         <v>44403</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -2969,10 +3007,10 @@
         <v>44104</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E18" s="5">
         <v>13</v>
@@ -2981,10 +3019,10 @@
         <v>44104</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -2996,10 +3034,10 @@
         <v>44068</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E19" s="5">
         <v>40</v>
@@ -3008,10 +3046,10 @@
         <v>44061</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="2"/>
     </row>
@@ -3023,10 +3061,10 @@
         <v>44060</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E20" s="5">
         <v>106</v>
@@ -3035,10 +3073,10 @@
         <v>44057</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -3050,10 +3088,10 @@
         <v>44056</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E21" s="5">
         <v>272</v>
@@ -3062,13 +3100,13 @@
         <v>43914</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3079,10 +3117,10 @@
         <v>44040</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E22" s="5">
         <v>1043</v>
@@ -3091,13 +3129,13 @@
         <v>44104</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3108,10 +3146,10 @@
         <v>44040</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E23" s="5">
         <v>296</v>
@@ -3120,13 +3158,13 @@
         <v>44104</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3137,10 +3175,10 @@
         <v>44042</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E24" s="5">
         <v>73</v>
@@ -3149,10 +3187,10 @@
         <v>44075</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I24" s="2"/>
     </row>
@@ -3164,10 +3202,10 @@
         <v>44022</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E25" s="5">
         <v>127</v>
@@ -3176,13 +3214,13 @@
         <v>44044</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3193,10 +3231,10 @@
         <v>44004</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E26" s="5">
         <v>71</v>
@@ -3205,10 +3243,10 @@
         <v>43973</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -3220,10 +3258,10 @@
         <v>44012</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E27" s="5">
         <v>65</v>
@@ -3232,10 +3270,10 @@
         <v>44012</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I27" s="2"/>
     </row>
@@ -3247,10 +3285,10 @@
         <v>43985</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E28" s="5">
         <v>65</v>
@@ -3259,10 +3297,10 @@
         <v>43904</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -3274,10 +3312,10 @@
         <v>43980</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E29" s="5">
         <v>231</v>
@@ -3286,10 +3324,10 @@
         <v>43980</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -3301,10 +3339,10 @@
         <v>44068</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E30" s="5">
         <v>72</v>
@@ -3313,10 +3351,10 @@
         <v>43958</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I30" s="2"/>
     </row>
@@ -3328,10 +3366,10 @@
         <v>43948</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E31" s="5">
         <v>136</v>
@@ -3340,10 +3378,10 @@
         <v>43906</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I31" s="2"/>
     </row>
@@ -3355,10 +3393,10 @@
         <v>43942</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E32" s="5">
         <v>5</v>
@@ -3367,10 +3405,10 @@
         <v>43942</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -3382,10 +3420,10 @@
         <v>43944</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -3394,10 +3432,10 @@
         <v>43941</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I33" s="2"/>
     </row>
@@ -3409,10 +3447,10 @@
         <v>43938</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E34" s="5">
         <v>13</v>
@@ -3421,10 +3459,10 @@
         <v>43938</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I34" s="2"/>
     </row>
@@ -3436,10 +3474,10 @@
         <v>43935</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E35" s="5">
         <v>51</v>
@@ -3448,10 +3486,10 @@
         <v>43906</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I35" s="2"/>
     </row>
@@ -3463,10 +3501,10 @@
         <v>43925</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E36" s="5">
         <v>110</v>
@@ -3475,10 +3513,10 @@
         <v>43927</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I36" s="2"/>
     </row>
@@ -3490,10 +3528,10 @@
         <v>43917</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E37" s="5">
         <v>37</v>
@@ -3502,10 +3540,10 @@
         <v>43916</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I37" s="2"/>
     </row>
@@ -3517,10 +3555,10 @@
         <v>43913</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E38" s="5">
         <v>146</v>
@@ -3529,13 +3567,13 @@
         <v>43898</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -3546,10 +3584,10 @@
         <v>43910</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E39" s="5">
         <v>87</v>
@@ -3558,10 +3596,10 @@
         <v>43910</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I39" s="2"/>
     </row>
@@ -3573,10 +3611,10 @@
         <v>43913</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E40" s="5">
         <v>110</v>
@@ -3585,10 +3623,10 @@
         <v>43906</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I40" s="2"/>
     </row>
@@ -3600,10 +3638,10 @@
         <v>43510</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E41" s="5">
         <v>1</v>
@@ -3612,10 +3650,10 @@
         <v>43567</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I41" s="2"/>
     </row>
@@ -3627,22 +3665,22 @@
         <v>43486</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E42" s="5">
         <v>59</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I42" s="2"/>
     </row>
@@ -3654,10 +3692,10 @@
         <v>43479</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E43" s="5">
         <v>62</v>
@@ -3666,10 +3704,10 @@
         <v>43542</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I43" s="2"/>
     </row>
@@ -3681,10 +3719,10 @@
         <v>43413</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E44" s="5">
         <v>51</v>
@@ -3693,10 +3731,10 @@
         <v>43131</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I44" s="2"/>
     </row>
@@ -3708,10 +3746,10 @@
         <v>43405</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E45" s="5">
         <v>92</v>
@@ -3720,10 +3758,10 @@
         <v>43465</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I45" s="2"/>
     </row>
@@ -3735,10 +3773,10 @@
         <v>43405</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E46" s="5">
         <v>181</v>
@@ -3747,10 +3785,10 @@
         <v>43469</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I46" s="2"/>
     </row>
@@ -3762,10 +3800,10 @@
         <v>43382</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E47" s="5">
         <v>180</v>
@@ -3774,10 +3812,10 @@
         <v>43382</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I47" s="2"/>
     </row>
@@ -3789,10 +3827,10 @@
         <v>43363</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E48" s="5">
         <v>83</v>
@@ -3801,10 +3839,10 @@
         <v>43434</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I48" s="2"/>
     </row>
@@ -3816,10 +3854,10 @@
         <v>43276</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E49" s="5">
         <v>64</v>
@@ -3828,13 +3866,13 @@
         <v>43339</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3845,10 +3883,10 @@
         <v>43252</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E50" s="5">
         <v>149</v>
@@ -3857,10 +3895,10 @@
         <v>43312</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I50" s="2"/>
     </row>
@@ -3872,10 +3910,10 @@
         <v>43042</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E51" s="5">
         <v>477</v>
@@ -3884,13 +3922,13 @@
         <v>43112</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3901,22 +3939,22 @@
         <v>42990</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E52" s="5">
         <v>171</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I52" s="2"/>
     </row>
@@ -3928,10 +3966,10 @@
         <v>42496</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E53" s="5">
         <v>187</v>
@@ -3940,10 +3978,10 @@
         <v>42492</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I53" s="2"/>
     </row>
@@ -3955,10 +3993,10 @@
         <v>42495</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E54" s="5">
         <v>20</v>
@@ -3967,13 +4005,13 @@
         <v>42551</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3984,10 +4022,10 @@
         <v>42468</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E55" s="5">
         <v>154</v>
@@ -3996,10 +4034,10 @@
         <v>42528</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I55" s="2"/>
     </row>
@@ -4011,22 +4049,22 @@
         <v>42401</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E56" s="5">
         <v>60</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I56" s="2"/>
     </row>
@@ -4038,10 +4076,10 @@
         <v>42384</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E57" s="5">
         <v>131</v>
@@ -4050,10 +4088,10 @@
         <v>42405</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I57" s="2"/>
     </row>
@@ -4065,22 +4103,22 @@
         <v>42326</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E58" s="5">
         <v>241</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I58" s="2"/>
     </row>
@@ -4092,22 +4130,22 @@
         <v>42320</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I59" s="2"/>
     </row>
@@ -4119,10 +4157,10 @@
         <v>42180</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E60" s="5">
         <v>70</v>
@@ -4131,10 +4169,10 @@
         <v>42240</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I60" s="2"/>
     </row>
@@ -4146,25 +4184,25 @@
         <v>42074</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F61" s="4">
         <v>42141</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4175,22 +4213,22 @@
         <v>42065</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I62" s="2"/>
     </row>
@@ -4202,10 +4240,10 @@
         <v>41850</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E63" s="5">
         <v>5</v>
@@ -4214,10 +4252,10 @@
         <v>41912</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I63" s="2"/>
     </row>
@@ -4229,10 +4267,10 @@
         <v>41821</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E64" s="5">
         <v>142</v>
@@ -4241,10 +4279,10 @@
         <v>41882</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I64" s="2"/>
     </row>
@@ -4256,10 +4294,10 @@
         <v>41729</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E65" s="5">
         <v>115</v>
@@ -4268,13 +4306,13 @@
         <v>41774</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -4285,10 +4323,10 @@
         <v>41596</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E66" s="5">
         <v>49</v>
@@ -4297,10 +4335,10 @@
         <v>41654</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I66" s="2"/>
     </row>
@@ -4312,10 +4350,10 @@
         <v>41547</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E67" s="5">
         <v>1</v>
@@ -4324,10 +4362,10 @@
         <v>41608</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I67" s="2"/>
     </row>
@@ -4339,10 +4377,10 @@
         <v>41502</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E68" s="5">
         <v>66</v>
@@ -4351,10 +4389,10 @@
         <v>41555</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I68" s="2"/>
     </row>
@@ -4366,10 +4404,10 @@
         <v>41438</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E69" s="5">
         <v>3</v>
@@ -4378,10 +4416,10 @@
         <v>41425</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I69" s="2"/>
     </row>
@@ -4393,10 +4431,10 @@
         <v>41417</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E70" s="5">
         <v>62</v>
@@ -4405,10 +4443,10 @@
         <v>41485</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I70" s="2"/>
     </row>
@@ -4420,22 +4458,22 @@
         <v>41285</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F71" s="4">
         <v>41347</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I71" s="2"/>
     </row>
@@ -4447,10 +4485,10 @@
         <v>41087</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E72" s="5">
         <v>51</v>
@@ -4459,10 +4497,10 @@
         <v>41148</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I72" s="2"/>
     </row>
@@ -4474,10 +4512,10 @@
         <v>41011</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E73" s="5">
         <v>150</v>
@@ -4486,13 +4524,13 @@
         <v>41071</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -4503,10 +4541,10 @@
         <v>40939</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E74" s="5">
         <v>70</v>
@@ -4515,13 +4553,13 @@
         <v>41000</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -4532,10 +4570,10 @@
         <v>40833</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E75" s="5">
         <v>110</v>
@@ -4544,10 +4582,10 @@
         <v>40833</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I75" s="1"/>
     </row>
@@ -4559,10 +4597,10 @@
         <v>40788</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E76" s="5">
         <v>16</v>
@@ -4571,10 +4609,10 @@
         <v>40846</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I76" s="1"/>
     </row>
@@ -4586,10 +4624,10 @@
         <v>40758</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E77" s="5">
         <v>9</v>
@@ -4598,10 +4636,10 @@
         <v>40816</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I77" s="1"/>
     </row>
@@ -4613,22 +4651,22 @@
         <v>40756</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E78" s="5">
         <v>98</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I78" s="1"/>
     </row>
@@ -4640,22 +4678,22 @@
         <v>40690</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E79" s="5">
         <v>21</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I79" s="1"/>
     </row>
@@ -4667,22 +4705,22 @@
         <v>40634</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E80" s="5">
         <v>98</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I80" s="1"/>
     </row>
@@ -4694,10 +4732,10 @@
         <v>40589</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E81" s="5">
         <v>5</v>
@@ -4706,10 +4744,10 @@
         <v>40644</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I81" s="1"/>
     </row>
@@ -4721,10 +4759,10 @@
         <v>40568</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E82" s="5">
         <v>122</v>
@@ -4733,10 +4771,10 @@
         <v>40592</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I82" s="1"/>
     </row>
@@ -4748,10 +4786,10 @@
         <v>40413</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E83" s="5">
         <v>89</v>
@@ -4760,10 +4798,10 @@
         <v>40452</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I83" s="1"/>
     </row>
@@ -4775,22 +4813,22 @@
         <v>40217</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E84" s="5">
         <v>26</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I84" s="1"/>
     </row>
@@ -4802,10 +4840,10 @@
         <v>40217</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E85" s="5">
         <v>165</v>
@@ -4814,10 +4852,10 @@
         <v>40217</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I85" s="1"/>
     </row>
@@ -4829,10 +4867,10 @@
         <v>40182</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E86" s="5">
         <v>8</v>
@@ -4841,10 +4879,10 @@
         <v>40210</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I86" s="1"/>
     </row>
@@ -4856,22 +4894,22 @@
         <v>40141</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E87" s="5">
         <v>66</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I87" s="1"/>
     </row>
@@ -4883,25 +4921,25 @@
         <v>40141</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E88" s="5">
         <v>103</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4912,22 +4950,22 @@
         <v>40094</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F89" s="4">
         <v>40147</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I89" s="2"/>
     </row>
@@ -4939,10 +4977,10 @@
         <v>40091</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E90" s="5">
         <v>63</v>
@@ -4951,10 +4989,10 @@
         <v>40148</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I90" s="2"/>
     </row>
@@ -4966,22 +5004,22 @@
         <v>40050</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F91" s="4">
         <v>39895</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I91" s="2"/>
     </row>
@@ -4993,10 +5031,10 @@
         <v>40008</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E92" s="5">
         <v>130</v>
@@ -5005,10 +5043,10 @@
         <v>39895</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I92" s="2"/>
     </row>
@@ -5020,10 +5058,10 @@
         <v>40008</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E93" s="5">
         <v>26</v>
@@ -5032,10 +5070,10 @@
         <v>40001</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I93" s="2"/>
     </row>
@@ -5047,10 +5085,10 @@
         <v>39895</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E94" s="5">
         <v>14</v>
@@ -5059,10 +5097,10 @@
         <v>39895</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I94" s="2"/>
     </row>
@@ -5074,10 +5112,10 @@
         <v>39996</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E95" s="5">
         <v>10</v>
@@ -5086,10 +5124,10 @@
         <v>40041</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I95" s="2"/>
     </row>
@@ -5101,10 +5139,10 @@
         <v>39932</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E96" s="5">
         <v>171</v>
@@ -5113,13 +5151,13 @@
         <v>39994</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5130,10 +5168,10 @@
         <v>39918</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E97" s="5">
         <v>55</v>
@@ -5142,10 +5180,10 @@
         <v>39994</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I97" s="2"/>
     </row>
@@ -5157,10 +5195,10 @@
         <v>39882</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="E98" s="5">
         <v>29</v>
@@ -5169,10 +5207,10 @@
         <v>39943</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I98" s="2"/>
     </row>
@@ -5184,10 +5222,10 @@
         <v>39881</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E99" s="5">
         <v>71</v>
@@ -5196,10 +5234,10 @@
         <v>39941</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I99" s="2"/>
     </row>
@@ -5211,10 +5249,10 @@
         <v>39878</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E100" s="5">
         <v>54</v>
@@ -5223,10 +5261,10 @@
         <v>39935</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I100" s="2"/>
     </row>
@@ -5238,10 +5276,10 @@
         <v>39877</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E101" s="5">
         <v>119</v>
@@ -5250,10 +5288,10 @@
         <v>39943</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I101" s="2"/>
     </row>
@@ -5265,10 +5303,10 @@
         <v>39864</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E102" s="5">
         <v>270</v>
@@ -5277,10 +5315,10 @@
         <v>39828</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I102" s="2"/>
     </row>
@@ -5292,10 +5330,10 @@
         <v>39825</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E103" s="5">
         <v>121</v>
@@ -5304,10 +5342,10 @@
         <v>39821</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I103" s="2"/>
     </row>
@@ -5320,21 +5358,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001D7CA4A7758DDF4F8A78677D3B22BD47" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3acca51fa395f9313e35082b17373cba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e19eab3b-0a92-46fc-9552-a493c76cdc00" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="877bd2ecca759b9e790c141c767e061f" ns2:_="">
     <xsd:import namespace="e19eab3b-0a92-46fc-9552-a493c76cdc00"/>
@@ -5478,8 +5501,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3BDC996-7CD8-43BD-838D-50E4C5CE2932}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{526D1213-C5F8-4F2A-BB65-47A3B48FEA3A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5487,5 +5525,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{526D1213-C5F8-4F2A-BB65-47A3B48FEA3A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3BDC996-7CD8-43BD-838D-50E4C5CE2932}"/>
 </file>
--- a/data/warn-scraper/cache/ri/WARN Report.xlsx
+++ b/data/warn-scraper/cache/ri/WARN Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27630"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27904"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmwilsonri/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70C3DC47-185F-4EEC-9E76-FACDD6E8D11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="8_{BBA632B8-8CF0-FE4B-B185-E43E47968B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F6A3429-B6C3-4680-B8C5-6F58907DE1F7}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="182">
   <si>
     <t>Rhode Island WARN Report</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>Kirby Perkins Construction</t>
+  </si>
+  <si>
+    <t>Middletown</t>
   </si>
   <si>
     <t>Company Name (* Denotes Covid 19 Related WARN)</t>
@@ -1214,10 +1220,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.95"/>
@@ -1518,13 +1524,27 @@
       <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="22"/>
+      <c r="A13" s="29">
+        <v>45481</v>
+      </c>
+      <c r="B13" s="29">
+        <v>45485</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="37">
+        <v>58</v>
+      </c>
+      <c r="F13" s="33">
+        <v>45541</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>12</v>
+      </c>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
     </row>
@@ -2544,6 +2564,8 @@
     </row>
     <row r="111" spans="1:9" ht="15.75"/>
     <row r="112" spans="1:9" ht="15.75"/>
+    <row r="113" ht="15.75"/>
+    <row r="114" ht="15.75"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I2"/>
@@ -2617,7 +2639,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>4</v>
@@ -2646,10 +2668,10 @@
         <v>45191</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" s="20">
         <v>136</v>
@@ -2673,16 +2695,16 @@
         <v>45156</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>12</v>
@@ -2700,10 +2722,10 @@
         <v>45153</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E7" s="16">
         <v>52</v>
@@ -2727,7 +2749,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>17</v>
@@ -2739,13 +2761,13 @@
         <v>45138</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2756,10 +2778,10 @@
         <v>45111</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E9" s="15">
         <v>249</v>
@@ -2768,13 +2790,13 @@
         <v>45138</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2785,10 +2807,10 @@
         <v>42522</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E10" s="15">
         <v>169</v>
@@ -2803,7 +2825,7 @@
         <v>13</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2814,10 +2836,10 @@
         <v>44950</v>
       </c>
       <c r="C11" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>46</v>
       </c>
       <c r="E11" s="15">
         <v>75</v>
@@ -2832,7 +2854,7 @@
         <v>13</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="21">
@@ -2843,10 +2865,10 @@
         <v>44937</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E12" s="12">
         <v>81</v>
@@ -2870,7 +2892,7 @@
         <v>44831</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>11</v>
@@ -2897,10 +2919,10 @@
         <v>44817</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E14" s="7">
         <v>77</v>
@@ -2924,10 +2946,10 @@
         <v>44594</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E15" s="5">
         <v>198</v>
@@ -2951,10 +2973,10 @@
         <v>44336</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E16" s="5">
         <v>94</v>
@@ -2969,7 +2991,7 @@
         <v>13</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2980,10 +3002,10 @@
         <v>44342</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E17" s="5">
         <v>464</v>
@@ -3007,7 +3029,7 @@
         <v>44104</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>31</v>
@@ -3034,10 +3056,10 @@
         <v>44068</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E19" s="5">
         <v>40</v>
@@ -3061,7 +3083,7 @@
         <v>44060</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>17</v>
@@ -3088,7 +3110,7 @@
         <v>44056</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>17</v>
@@ -3106,7 +3128,7 @@
         <v>13</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3117,10 +3139,10 @@
         <v>44040</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E22" s="5">
         <v>1043</v>
@@ -3135,7 +3157,7 @@
         <v>13</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3146,10 +3168,10 @@
         <v>44040</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E23" s="5">
         <v>296</v>
@@ -3164,7 +3186,7 @@
         <v>13</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3175,7 +3197,7 @@
         <v>44042</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>17</v>
@@ -3202,10 +3224,10 @@
         <v>44022</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E25" s="5">
         <v>127</v>
@@ -3220,7 +3242,7 @@
         <v>13</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3231,10 +3253,10 @@
         <v>44004</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E26" s="5">
         <v>71</v>
@@ -3258,7 +3280,7 @@
         <v>44012</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>17</v>
@@ -3285,7 +3307,7 @@
         <v>43985</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>17</v>
@@ -3312,10 +3334,10 @@
         <v>43980</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E29" s="5">
         <v>231</v>
@@ -3339,10 +3361,10 @@
         <v>44068</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E30" s="5">
         <v>72</v>
@@ -3366,10 +3388,10 @@
         <v>43948</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E31" s="5">
         <v>136</v>
@@ -3393,10 +3415,10 @@
         <v>43942</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E32" s="5">
         <v>5</v>
@@ -3420,10 +3442,10 @@
         <v>43944</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -3447,10 +3469,10 @@
         <v>43938</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E34" s="5">
         <v>13</v>
@@ -3474,10 +3496,10 @@
         <v>43935</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E35" s="5">
         <v>51</v>
@@ -3501,10 +3523,10 @@
         <v>43925</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E36" s="5">
         <v>110</v>
@@ -3528,10 +3550,10 @@
         <v>43917</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E37" s="5">
         <v>37</v>
@@ -3555,7 +3577,7 @@
         <v>43913</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>17</v>
@@ -3573,7 +3595,7 @@
         <v>13</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -3584,10 +3606,10 @@
         <v>43910</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E39" s="5">
         <v>87</v>
@@ -3611,7 +3633,7 @@
         <v>43913</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>11</v>
@@ -3638,10 +3660,10 @@
         <v>43510</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E41" s="5">
         <v>1</v>
@@ -3665,7 +3687,7 @@
         <v>43486</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>11</v>
@@ -3674,7 +3696,7 @@
         <v>59</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>13</v>
@@ -3692,7 +3714,7 @@
         <v>43479</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>17</v>
@@ -3719,7 +3741,7 @@
         <v>43413</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>11</v>
@@ -3746,7 +3768,7 @@
         <v>43405</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>11</v>
@@ -3773,7 +3795,7 @@
         <v>43405</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>17</v>
@@ -3800,10 +3822,10 @@
         <v>43382</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E47" s="5">
         <v>180</v>
@@ -3827,10 +3849,10 @@
         <v>43363</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E48" s="5">
         <v>83</v>
@@ -3854,10 +3876,10 @@
         <v>43276</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E49" s="5">
         <v>64</v>
@@ -3872,7 +3894,7 @@
         <v>13</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3883,10 +3905,10 @@
         <v>43252</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E50" s="5">
         <v>149</v>
@@ -3910,10 +3932,10 @@
         <v>43042</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E51" s="5">
         <v>477</v>
@@ -3928,7 +3950,7 @@
         <v>13</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3939,16 +3961,16 @@
         <v>42990</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E52" s="5">
         <v>171</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>13</v>
@@ -3966,7 +3988,7 @@
         <v>42496</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>27</v>
@@ -3993,10 +4015,10 @@
         <v>42495</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E54" s="5">
         <v>20</v>
@@ -4011,7 +4033,7 @@
         <v>13</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4022,10 +4044,10 @@
         <v>42468</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E55" s="5">
         <v>154</v>
@@ -4049,7 +4071,7 @@
         <v>42401</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>17</v>
@@ -4058,7 +4080,7 @@
         <v>60</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>13</v>
@@ -4076,7 +4098,7 @@
         <v>42384</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>11</v>
@@ -4103,7 +4125,7 @@
         <v>42326</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>17</v>
@@ -4112,7 +4134,7 @@
         <v>241</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>12</v>
@@ -4130,16 +4152,16 @@
         <v>42320</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>13</v>
@@ -4157,7 +4179,7 @@
         <v>42180</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>17</v>
@@ -4184,13 +4206,13 @@
         <v>42074</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F61" s="4">
         <v>42141</v>
@@ -4202,7 +4224,7 @@
         <v>13</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4213,16 +4235,16 @@
         <v>42065</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>12</v>
@@ -4240,10 +4262,10 @@
         <v>41850</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E63" s="5">
         <v>5</v>
@@ -4267,10 +4289,10 @@
         <v>41821</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E64" s="5">
         <v>142</v>
@@ -4294,10 +4316,10 @@
         <v>41729</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E65" s="5">
         <v>115</v>
@@ -4312,7 +4334,7 @@
         <v>13</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -4323,10 +4345,10 @@
         <v>41596</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E66" s="5">
         <v>49</v>
@@ -4350,7 +4372,7 @@
         <v>41547</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>11</v>
@@ -4377,7 +4399,7 @@
         <v>41502</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>11</v>
@@ -4404,10 +4426,10 @@
         <v>41438</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E69" s="5">
         <v>3</v>
@@ -4431,7 +4453,7 @@
         <v>41417</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>11</v>
@@ -4458,13 +4480,13 @@
         <v>41285</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F71" s="4">
         <v>41347</v>
@@ -4485,7 +4507,7 @@
         <v>41087</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>27</v>
@@ -4512,10 +4534,10 @@
         <v>41011</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E73" s="5">
         <v>150</v>
@@ -4530,7 +4552,7 @@
         <v>13</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -4541,10 +4563,10 @@
         <v>40939</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E74" s="5">
         <v>70</v>
@@ -4559,7 +4581,7 @@
         <v>13</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -4570,10 +4592,10 @@
         <v>40833</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E75" s="5">
         <v>110</v>
@@ -4597,10 +4619,10 @@
         <v>40788</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E76" s="5">
         <v>16</v>
@@ -4624,10 +4646,10 @@
         <v>40758</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E77" s="5">
         <v>9</v>
@@ -4651,16 +4673,16 @@
         <v>40756</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E78" s="5">
         <v>98</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>13</v>
@@ -4678,16 +4700,16 @@
         <v>40690</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E79" s="5">
         <v>21</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>13</v>
@@ -4705,16 +4727,16 @@
         <v>40634</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E80" s="5">
         <v>98</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>13</v>
@@ -4732,10 +4754,10 @@
         <v>40589</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E81" s="5">
         <v>5</v>
@@ -4759,7 +4781,7 @@
         <v>40568</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>11</v>
@@ -4786,10 +4808,10 @@
         <v>40413</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E83" s="5">
         <v>89</v>
@@ -4813,16 +4835,16 @@
         <v>40217</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E84" s="5">
         <v>26</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>12</v>
@@ -4840,10 +4862,10 @@
         <v>40217</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E85" s="5">
         <v>165</v>
@@ -4867,7 +4889,7 @@
         <v>40182</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>11</v>
@@ -4894,7 +4916,7 @@
         <v>40141</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>11</v>
@@ -4903,7 +4925,7 @@
         <v>66</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>13</v>
@@ -4921,16 +4943,16 @@
         <v>40141</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E88" s="5">
         <v>103</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>13</v>
@@ -4939,7 +4961,7 @@
         <v>13</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4950,13 +4972,13 @@
         <v>40094</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F89" s="4">
         <v>40147</v>
@@ -4977,10 +4999,10 @@
         <v>40091</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E90" s="5">
         <v>63</v>
@@ -5004,13 +5026,13 @@
         <v>40050</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F91" s="4">
         <v>39895</v>
@@ -5031,7 +5053,7 @@
         <v>40008</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>25</v>
@@ -5058,10 +5080,10 @@
         <v>40008</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E93" s="5">
         <v>26</v>
@@ -5085,10 +5107,10 @@
         <v>39895</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E94" s="5">
         <v>14</v>
@@ -5112,10 +5134,10 @@
         <v>39996</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E95" s="5">
         <v>10</v>
@@ -5139,7 +5161,7 @@
         <v>39932</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>17</v>
@@ -5157,7 +5179,7 @@
         <v>13</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5168,10 +5190,10 @@
         <v>39918</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E97" s="5">
         <v>55</v>
@@ -5195,10 +5217,10 @@
         <v>39882</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="E98" s="5">
         <v>29</v>
@@ -5222,10 +5244,10 @@
         <v>39881</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E99" s="5">
         <v>71</v>
@@ -5249,10 +5271,10 @@
         <v>39878</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E100" s="5">
         <v>54</v>
@@ -5276,7 +5298,7 @@
         <v>39877</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>11</v>
@@ -5303,10 +5325,10 @@
         <v>39864</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E102" s="5">
         <v>270</v>
@@ -5330,10 +5352,10 @@
         <v>39825</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E103" s="5">
         <v>121</v>
@@ -5358,6 +5380,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001D7CA4A7758DDF4F8A78677D3B22BD47" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3acca51fa395f9313e35082b17373cba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e19eab3b-0a92-46fc-9552-a493c76cdc00" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="877bd2ecca759b9e790c141c767e061f" ns2:_="">
     <xsd:import namespace="e19eab3b-0a92-46fc-9552-a493c76cdc00"/>
@@ -5501,7 +5529,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5510,20 +5538,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3BDC996-7CD8-43BD-838D-50E4C5CE2932}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{526D1213-C5F8-4F2A-BB65-47A3B48FEA3A}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0557A4BC-595F-498F-986F-63860A4E78D3}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3BDC996-7CD8-43BD-838D-50E4C5CE2932}"/>
 </file>
--- a/data/warn-scraper/cache/ri/WARN Report.xlsx
+++ b/data/warn-scraper/cache/ri/WARN Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27904"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27923"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmwilsonri/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="8_{BBA632B8-8CF0-FE4B-B185-E43E47968B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F6A3429-B6C3-4680-B8C5-6F58907DE1F7}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="8_{BBA632B8-8CF0-FE4B-B185-E43E47968B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E007D39D-5596-47F7-AC02-843E25C298D5}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="183">
   <si>
     <t>Rhode Island WARN Report</t>
   </si>
@@ -141,6 +141,12 @@
     <t>Middletown</t>
   </si>
   <si>
+    <t>Ennovi Advanced Mobility Solutions Rhode Island Inc</t>
+  </si>
+  <si>
+    <t>East Providence</t>
+  </si>
+  <si>
     <t>Company Name (* Denotes Covid 19 Related WARN)</t>
   </si>
   <si>
@@ -208,9 +214,6 @@
   </si>
   <si>
     <t>Santander</t>
-  </si>
-  <si>
-    <t>East Providence</t>
   </si>
   <si>
     <t>Angelica</t>
@@ -894,11 +897,11 @@
     <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1223,7 +1226,7 @@
   <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.95"/>
@@ -1264,15 +1267,15 @@
       <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="30.95">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="46"/>
       <c r="F3" s="46"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
     </row>
     <row r="4" spans="1:9" s="56" customFormat="1" ht="18">
       <c r="A4" s="47" t="s">
@@ -1328,7 +1331,7 @@
       <c r="H5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="59" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1545,16 +1548,36 @@
       <c r="G13" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="22"/>
+      <c r="H13" s="22" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="33"/>
+      <c r="A14" s="29">
+        <v>45504</v>
+      </c>
+      <c r="B14" s="29">
+        <v>45504</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="34">
+        <v>205</v>
+      </c>
+      <c r="F14" s="33">
+        <v>45658</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:9" s="24" customFormat="1" ht="14.25">
       <c r="A15" s="29"/>
@@ -2621,15 +2644,15 @@
       <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" ht="30.95">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
     </row>
     <row r="4" spans="1:9" ht="21">
       <c r="A4" s="3" t="s">
@@ -2639,7 +2662,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>4</v>
@@ -2668,10 +2691,10 @@
         <v>45191</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E5" s="20">
         <v>136</v>
@@ -2695,16 +2718,16 @@
         <v>45156</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>12</v>
@@ -2722,10 +2745,10 @@
         <v>45153</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E7" s="16">
         <v>52</v>
@@ -2749,7 +2772,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>17</v>
@@ -2761,13 +2784,13 @@
         <v>45138</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2778,10 +2801,10 @@
         <v>45111</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E9" s="15">
         <v>249</v>
@@ -2790,13 +2813,13 @@
         <v>45138</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2807,10 +2830,10 @@
         <v>42522</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E10" s="15">
         <v>169</v>
@@ -2825,7 +2848,7 @@
         <v>13</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2836,10 +2859,10 @@
         <v>44950</v>
       </c>
       <c r="C11" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>48</v>
       </c>
       <c r="E11" s="15">
         <v>75</v>
@@ -2854,7 +2877,7 @@
         <v>13</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="21">
@@ -2865,10 +2888,10 @@
         <v>44937</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E12" s="12">
         <v>81</v>
@@ -2892,7 +2915,7 @@
         <v>44831</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>11</v>
@@ -2919,10 +2942,10 @@
         <v>44817</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E14" s="7">
         <v>77</v>
@@ -2946,10 +2969,10 @@
         <v>44594</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E15" s="5">
         <v>198</v>
@@ -2973,10 +2996,10 @@
         <v>44336</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16" s="5">
         <v>94</v>
@@ -2991,7 +3014,7 @@
         <v>13</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3002,10 +3025,10 @@
         <v>44342</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E17" s="5">
         <v>464</v>
@@ -3029,7 +3052,7 @@
         <v>44104</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>31</v>
@@ -3056,10 +3079,10 @@
         <v>44068</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E19" s="5">
         <v>40</v>
@@ -3083,7 +3106,7 @@
         <v>44060</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>17</v>
@@ -3110,7 +3133,7 @@
         <v>44056</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>17</v>
@@ -3128,7 +3151,7 @@
         <v>13</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3139,10 +3162,10 @@
         <v>44040</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E22" s="5">
         <v>1043</v>
@@ -3157,7 +3180,7 @@
         <v>13</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3168,10 +3191,10 @@
         <v>44040</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="E23" s="5">
         <v>296</v>
@@ -3186,7 +3209,7 @@
         <v>13</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3197,7 +3220,7 @@
         <v>44042</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>17</v>
@@ -3224,10 +3247,10 @@
         <v>44022</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E25" s="5">
         <v>127</v>
@@ -3242,7 +3265,7 @@
         <v>13</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3253,10 +3276,10 @@
         <v>44004</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E26" s="5">
         <v>71</v>
@@ -3280,7 +3303,7 @@
         <v>44012</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>17</v>
@@ -3307,7 +3330,7 @@
         <v>43985</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>17</v>
@@ -3334,10 +3357,10 @@
         <v>43980</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E29" s="5">
         <v>231</v>
@@ -3361,10 +3384,10 @@
         <v>44068</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E30" s="5">
         <v>72</v>
@@ -3388,10 +3411,10 @@
         <v>43948</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E31" s="5">
         <v>136</v>
@@ -3415,10 +3438,10 @@
         <v>43942</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E32" s="5">
         <v>5</v>
@@ -3442,10 +3465,10 @@
         <v>43944</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -3469,10 +3492,10 @@
         <v>43938</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E34" s="5">
         <v>13</v>
@@ -3496,10 +3519,10 @@
         <v>43935</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E35" s="5">
         <v>51</v>
@@ -3523,10 +3546,10 @@
         <v>43925</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E36" s="5">
         <v>110</v>
@@ -3550,10 +3573,10 @@
         <v>43917</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E37" s="5">
         <v>37</v>
@@ -3577,7 +3600,7 @@
         <v>43913</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>17</v>
@@ -3595,7 +3618,7 @@
         <v>13</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -3606,10 +3629,10 @@
         <v>43910</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E39" s="5">
         <v>87</v>
@@ -3633,7 +3656,7 @@
         <v>43913</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>11</v>
@@ -3660,10 +3683,10 @@
         <v>43510</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E41" s="5">
         <v>1</v>
@@ -3687,7 +3710,7 @@
         <v>43486</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>11</v>
@@ -3696,7 +3719,7 @@
         <v>59</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>13</v>
@@ -3714,7 +3737,7 @@
         <v>43479</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>17</v>
@@ -3741,7 +3764,7 @@
         <v>43413</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>11</v>
@@ -3768,7 +3791,7 @@
         <v>43405</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>11</v>
@@ -3795,7 +3818,7 @@
         <v>43405</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>17</v>
@@ -3822,10 +3845,10 @@
         <v>43382</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E47" s="5">
         <v>180</v>
@@ -3849,10 +3872,10 @@
         <v>43363</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E48" s="5">
         <v>83</v>
@@ -3876,10 +3899,10 @@
         <v>43276</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E49" s="5">
         <v>64</v>
@@ -3894,7 +3917,7 @@
         <v>13</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3905,10 +3928,10 @@
         <v>43252</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E50" s="5">
         <v>149</v>
@@ -3932,10 +3955,10 @@
         <v>43042</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E51" s="5">
         <v>477</v>
@@ -3950,7 +3973,7 @@
         <v>13</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3961,16 +3984,16 @@
         <v>42990</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E52" s="5">
         <v>171</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>13</v>
@@ -3988,7 +4011,7 @@
         <v>42496</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>27</v>
@@ -4015,10 +4038,10 @@
         <v>42495</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E54" s="5">
         <v>20</v>
@@ -4033,7 +4056,7 @@
         <v>13</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4044,10 +4067,10 @@
         <v>42468</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E55" s="5">
         <v>154</v>
@@ -4071,7 +4094,7 @@
         <v>42401</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>17</v>
@@ -4080,7 +4103,7 @@
         <v>60</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>13</v>
@@ -4098,7 +4121,7 @@
         <v>42384</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>11</v>
@@ -4125,7 +4148,7 @@
         <v>42326</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>17</v>
@@ -4134,7 +4157,7 @@
         <v>241</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>12</v>
@@ -4152,16 +4175,16 @@
         <v>42320</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>13</v>
@@ -4179,7 +4202,7 @@
         <v>42180</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>17</v>
@@ -4206,13 +4229,13 @@
         <v>42074</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F61" s="4">
         <v>42141</v>
@@ -4224,7 +4247,7 @@
         <v>13</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4235,16 +4258,16 @@
         <v>42065</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>12</v>
@@ -4262,10 +4285,10 @@
         <v>41850</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E63" s="5">
         <v>5</v>
@@ -4289,10 +4312,10 @@
         <v>41821</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E64" s="5">
         <v>142</v>
@@ -4316,10 +4339,10 @@
         <v>41729</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E65" s="5">
         <v>115</v>
@@ -4334,7 +4357,7 @@
         <v>13</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -4345,10 +4368,10 @@
         <v>41596</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E66" s="5">
         <v>49</v>
@@ -4372,7 +4395,7 @@
         <v>41547</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>11</v>
@@ -4399,7 +4422,7 @@
         <v>41502</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>11</v>
@@ -4426,10 +4449,10 @@
         <v>41438</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E69" s="5">
         <v>3</v>
@@ -4453,7 +4476,7 @@
         <v>41417</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>11</v>
@@ -4480,13 +4503,13 @@
         <v>41285</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F71" s="4">
         <v>41347</v>
@@ -4507,7 +4530,7 @@
         <v>41087</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>27</v>
@@ -4534,10 +4557,10 @@
         <v>41011</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E73" s="5">
         <v>150</v>
@@ -4552,7 +4575,7 @@
         <v>13</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -4563,10 +4586,10 @@
         <v>40939</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E74" s="5">
         <v>70</v>
@@ -4581,7 +4604,7 @@
         <v>13</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -4592,10 +4615,10 @@
         <v>40833</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E75" s="5">
         <v>110</v>
@@ -4619,10 +4642,10 @@
         <v>40788</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E76" s="5">
         <v>16</v>
@@ -4646,10 +4669,10 @@
         <v>40758</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E77" s="5">
         <v>9</v>
@@ -4673,16 +4696,16 @@
         <v>40756</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E78" s="5">
         <v>98</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>13</v>
@@ -4700,16 +4723,16 @@
         <v>40690</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E79" s="5">
         <v>21</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>13</v>
@@ -4727,16 +4750,16 @@
         <v>40634</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E80" s="5">
         <v>98</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>13</v>
@@ -4754,10 +4777,10 @@
         <v>40589</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E81" s="5">
         <v>5</v>
@@ -4781,7 +4804,7 @@
         <v>40568</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>11</v>
@@ -4808,10 +4831,10 @@
         <v>40413</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E83" s="5">
         <v>89</v>
@@ -4835,16 +4858,16 @@
         <v>40217</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E84" s="5">
         <v>26</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>12</v>
@@ -4862,10 +4885,10 @@
         <v>40217</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E85" s="5">
         <v>165</v>
@@ -4889,7 +4912,7 @@
         <v>40182</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>11</v>
@@ -4916,7 +4939,7 @@
         <v>40141</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>11</v>
@@ -4925,7 +4948,7 @@
         <v>66</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>13</v>
@@ -4943,16 +4966,16 @@
         <v>40141</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E88" s="5">
         <v>103</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>13</v>
@@ -4961,7 +4984,7 @@
         <v>13</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4972,13 +4995,13 @@
         <v>40094</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F89" s="4">
         <v>40147</v>
@@ -4999,10 +5022,10 @@
         <v>40091</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E90" s="5">
         <v>63</v>
@@ -5026,13 +5049,13 @@
         <v>40050</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F91" s="4">
         <v>39895</v>
@@ -5053,7 +5076,7 @@
         <v>40008</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>25</v>
@@ -5080,10 +5103,10 @@
         <v>40008</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E93" s="5">
         <v>26</v>
@@ -5107,10 +5130,10 @@
         <v>39895</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E94" s="5">
         <v>14</v>
@@ -5134,10 +5157,10 @@
         <v>39996</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E95" s="5">
         <v>10</v>
@@ -5161,7 +5184,7 @@
         <v>39932</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>17</v>
@@ -5179,7 +5202,7 @@
         <v>13</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5190,10 +5213,10 @@
         <v>39918</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E97" s="5">
         <v>55</v>
@@ -5217,10 +5240,10 @@
         <v>39882</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E98" s="5">
         <v>29</v>
@@ -5244,10 +5267,10 @@
         <v>39881</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E99" s="5">
         <v>71</v>
@@ -5271,10 +5294,10 @@
         <v>39878</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E100" s="5">
         <v>54</v>
@@ -5298,7 +5321,7 @@
         <v>39877</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>11</v>
@@ -5325,10 +5348,10 @@
         <v>39864</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E102" s="5">
         <v>270</v>
@@ -5352,10 +5375,10 @@
         <v>39825</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E103" s="5">
         <v>121</v>

--- a/data/warn-scraper/cache/ri/WARN Report.xlsx
+++ b/data/warn-scraper/cache/ri/WARN Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27923"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmwilsonri/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edwine.Paul\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="8_{BBA632B8-8CF0-FE4B-B185-E43E47968B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E007D39D-5596-47F7-AC02-843E25C298D5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9EF860-FEDF-4E31-ADBD-4AB22949362B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="1" r:id="rId1"/>
@@ -1223,13 +1223,13 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" customWidth="1"/>
@@ -1266,7 +1266,7 @@
       <c r="H2" s="61"/>
       <c r="I2" s="61"/>
     </row>
-    <row r="3" spans="1:9" ht="30.95">
+    <row r="3" spans="1:9" ht="31.5">
       <c r="A3" s="60"/>
       <c r="B3" s="60"/>
       <c r="C3" s="60"/>
@@ -1306,278 +1306,278 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="34" customFormat="1" ht="28.5">
+    <row r="5" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A5" s="29">
+        <v>45504</v>
+      </c>
+      <c r="B5" s="29">
+        <v>45504</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="34">
+        <v>205</v>
+      </c>
+      <c r="F5" s="33">
+        <v>45658</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A6" s="29">
+        <v>45481</v>
+      </c>
+      <c r="B6" s="29">
+        <v>45485</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="37">
+        <v>58</v>
+      </c>
+      <c r="F6" s="33">
+        <v>45541</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="1:9" s="34" customFormat="1" ht="28.5">
+      <c r="A7" s="29">
         <v>45427</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B7" s="29">
         <v>45432</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="58">
+      <c r="E7" s="58">
         <v>30</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F7" s="33">
         <v>45488</v>
       </c>
-      <c r="G5" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="59" t="s">
+      <c r="G7" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="59" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A6" s="29" t="s">
+    <row r="8" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B8" s="29">
         <v>45421</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D8" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E8" s="58">
         <v>1029</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F8" s="33">
         <v>45473</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="23" t="s">
+      <c r="G8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A7" s="29">
+    <row r="9" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A9" s="29">
         <v>45414</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B9" s="29">
         <v>45414</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C9" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D9" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E9" s="34">
         <v>36</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F9" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="23" customFormat="1" ht="15">
-      <c r="A8" s="29">
+      <c r="G9" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="23" customFormat="1" ht="15">
+      <c r="A10" s="29">
         <v>45380</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B10" s="29">
         <v>45383</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C10" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E10" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F10" s="33">
         <v>45412</v>
       </c>
-      <c r="G8" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="38"/>
-    </row>
-    <row r="9" spans="1:9" s="23" customFormat="1" ht="15">
-      <c r="A9" s="29">
+      <c r="G10" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="38"/>
+    </row>
+    <row r="11" spans="1:9" s="23" customFormat="1" ht="15">
+      <c r="A11" s="29">
         <v>45380</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B11" s="29">
         <v>45383</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C11" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D11" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E11" s="34">
         <v>1</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F11" s="33">
         <v>45443</v>
       </c>
-      <c r="G9" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="38"/>
-    </row>
-    <row r="10" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A10" s="29">
-        <v>45349</v>
-      </c>
-      <c r="B10" s="29">
-        <v>45349</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="37">
-        <v>48</v>
-      </c>
-      <c r="F10" s="33">
-        <v>45611</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A11" s="29">
-        <v>45323</v>
-      </c>
-      <c r="B11" s="29">
-        <v>45328</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="37">
-        <v>130</v>
-      </c>
-      <c r="F11" s="33">
-        <v>45384</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>29</v>
-      </c>
+      <c r="G11" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="38"/>
     </row>
     <row r="12" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A12" s="29">
-        <v>45316</v>
+        <v>45349</v>
       </c>
       <c r="B12" s="29">
-        <v>45316</v>
+        <v>45349</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E12" s="37">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="F12" s="33">
-        <v>45316</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="22"/>
+        <v>45611</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A13" s="29">
-        <v>45481</v>
+        <v>45323</v>
       </c>
       <c r="B13" s="29">
-        <v>45485</v>
+        <v>45328</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E13" s="37">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="F13" s="33">
-        <v>45541</v>
+        <v>45384</v>
       </c>
       <c r="G13" s="22" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="22"/>
+        <v>13</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A14" s="29">
-        <v>45504</v>
+        <v>45316</v>
       </c>
       <c r="B14" s="29">
-        <v>45504</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="34">
-        <v>205</v>
+        <v>45316</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="37">
+        <v>1</v>
       </c>
       <c r="F14" s="33">
-        <v>45658</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>12</v>
-      </c>
+        <v>45316</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:9" s="24" customFormat="1" ht="14.25">
       <c r="A15" s="29"/>
@@ -2585,10 +2585,6 @@
       <c r="H110" s="1"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="1:9" ht="15.75"/>
-    <row r="112" spans="1:9" ht="15.75"/>
-    <row r="113" ht="15.75"/>
-    <row r="114" ht="15.75"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I2"/>
@@ -2609,7 +2605,7 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
@@ -2643,7 +2639,7 @@
       <c r="H2" s="61"/>
       <c r="I2" s="61"/>
     </row>
-    <row r="3" spans="1:9" ht="30.95">
+    <row r="3" spans="1:9" ht="31.5">
       <c r="A3" s="60"/>
       <c r="B3" s="60"/>
       <c r="C3" s="60"/>
@@ -2907,7 +2903,7 @@
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" ht="17.100000000000001" thickBot="1">
+    <row r="13" spans="1:9" ht="16.5" thickBot="1">
       <c r="A13" s="4">
         <v>44827</v>
       </c>
@@ -5409,6 +5405,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001D7CA4A7758DDF4F8A78677D3B22BD47" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3acca51fa395f9313e35082b17373cba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e19eab3b-0a92-46fc-9552-a493c76cdc00" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="877bd2ecca759b9e790c141c767e061f" ns2:_="">
     <xsd:import namespace="e19eab3b-0a92-46fc-9552-a493c76cdc00"/>
@@ -5552,23 +5557,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3BDC996-7CD8-43BD-838D-50E4C5CE2932}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3BDC996-7CD8-43BD-838D-50E4C5CE2932}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{526D1213-C5F8-4F2A-BB65-47A3B48FEA3A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0557A4BC-595F-498F-986F-63860A4E78D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0557A4BC-595F-498F-986F-63860A4E78D3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{526D1213-C5F8-4F2A-BB65-47A3B48FEA3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e19eab3b-0a92-46fc-9552-a493c76cdc00"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/warn-scraper/cache/ri/WARN Report.xlsx
+++ b/data/warn-scraper/cache/ri/WARN Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edwine.Paul\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmwilsonri/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9EF860-FEDF-4E31-ADBD-4AB22949362B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{657082E9-D912-42E1-9B6D-1025B22C8FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="185">
   <si>
     <t>Rhode Island WARN Report</t>
   </si>
@@ -69,18 +69,39 @@
     <t>Union Address</t>
   </si>
   <si>
+    <t>Riley Power Group</t>
+  </si>
+  <si>
+    <t>North Kingstown</t>
+  </si>
+  <si>
+    <t>10/21/24 (for within 14 days after)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Ennovi Advanced Mobility Solutions Rhode Island Inc</t>
+  </si>
+  <si>
+    <t>East Providence</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Kirby Perkins Construction</t>
+  </si>
+  <si>
+    <t>Middletown</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Claflin Company </t>
   </si>
   <si>
     <t>Warwick</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Rhode Island laborers' Local Union 1322 of the Laborers' International Union of North America, AFL-CIO, 410 South Main Street, Providence, RI 02903.</t>
   </si>
   <si>
@@ -135,18 +156,6 @@
     <t>Rhode Island</t>
   </si>
   <si>
-    <t>Kirby Perkins Construction</t>
-  </si>
-  <si>
-    <t>Middletown</t>
-  </si>
-  <si>
-    <t>Ennovi Advanced Mobility Solutions Rhode Island Inc</t>
-  </si>
-  <si>
-    <t>East Providence</t>
-  </si>
-  <si>
     <t>Company Name (* Denotes Covid 19 Related WARN)</t>
   </si>
   <si>
@@ -358,9 +367,6 @@
   </si>
   <si>
     <t>Pinnacle Logistics</t>
-  </si>
-  <si>
-    <t>North Kingstown</t>
   </si>
   <si>
     <t>Memorial Hospital of Rhode Island</t>
@@ -741,7 +747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -902,6 +908,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1223,13 +1232,13 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" customWidth="1"/>
@@ -1243,30 +1252,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-    </row>
-    <row r="3" spans="1:9" ht="31.5">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+    </row>
+    <row r="3" spans="1:9" ht="30.95">
       <c r="A3" s="60"/>
       <c r="B3" s="60"/>
       <c r="C3" s="60"/>
@@ -1306,169 +1315,168 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="23" customFormat="1" ht="14.25">
+    <row r="5" spans="1:9" s="56" customFormat="1" ht="28.5">
       <c r="A5" s="29">
+        <v>45524</v>
+      </c>
+      <c r="B5" s="29">
+        <v>45526</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="34">
+        <v>117</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="1:9" s="56" customFormat="1" ht="18">
+      <c r="A6" s="29">
         <v>45504</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B6" s="29">
         <v>45504</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="34">
+      <c r="C6" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="34">
         <v>205</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F6" s="33">
         <v>45658</v>
       </c>
-      <c r="G5" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A6" s="29">
+      <c r="G6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="1:9" s="56" customFormat="1" ht="18">
+      <c r="A7" s="29">
         <v>45481</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B7" s="29">
         <v>45485</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="37">
+      <c r="C7" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="37">
         <v>58</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F7" s="33">
         <v>45541</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="22"/>
-    </row>
-    <row r="7" spans="1:9" s="34" customFormat="1" ht="28.5">
-      <c r="A7" s="29">
+      <c r="G7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:9" s="34" customFormat="1" ht="28.5">
+      <c r="A8" s="29">
         <v>45427</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B8" s="29">
         <v>45432</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="58">
+      <c r="C8" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="58">
         <v>30</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F8" s="33">
         <v>45488</v>
       </c>
-      <c r="G7" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="59" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A8" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="29">
+      <c r="G8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A9" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="29">
         <v>45421</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="58">
+      <c r="C9" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="58">
         <v>1029</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F9" s="33">
         <v>45473</v>
       </c>
-      <c r="G8" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A9" s="29">
+      <c r="G9" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A10" s="29">
         <v>45414</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B10" s="29">
         <v>45414</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="34">
+      <c r="C10" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="34">
         <v>36</v>
       </c>
-      <c r="F9" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="23" customFormat="1" ht="15">
-      <c r="A10" s="29">
-        <v>45380</v>
-      </c>
-      <c r="B10" s="29">
-        <v>45383</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="33">
-        <v>45412</v>
+      <c r="F10" s="33" t="s">
+        <v>28</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="38"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:9" s="23" customFormat="1" ht="15">
       <c r="A11" s="29">
@@ -1478,114 +1486,133 @@
         <v>45383</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="34">
+        <v>20</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="33">
+        <v>45412</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="38"/>
+    </row>
+    <row r="12" spans="1:9" s="23" customFormat="1" ht="15">
+      <c r="A12" s="29">
+        <v>45380</v>
+      </c>
+      <c r="B12" s="29">
+        <v>45383</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="34">
         <v>1</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F12" s="33">
         <v>45443</v>
       </c>
-      <c r="G11" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="38"/>
-    </row>
-    <row r="12" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A12" s="29">
-        <v>45349</v>
-      </c>
-      <c r="B12" s="29">
-        <v>45349</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="37">
-        <v>48</v>
-      </c>
-      <c r="F12" s="33">
-        <v>45611</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="38"/>
     </row>
     <row r="13" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A13" s="29">
-        <v>45323</v>
+        <v>45349</v>
       </c>
       <c r="B13" s="29">
-        <v>45328</v>
+        <v>45349</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E13" s="37">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="F13" s="33">
-        <v>45384</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>29</v>
+        <v>45611</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A14" s="29">
+        <v>45323</v>
+      </c>
+      <c r="B14" s="29">
+        <v>45328</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="37">
+        <v>130</v>
+      </c>
+      <c r="F14" s="33">
+        <v>45384</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A15" s="29">
         <v>45316</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B15" s="29">
         <v>45316</v>
       </c>
-      <c r="C14" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="37">
+      <c r="C15" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="37">
         <v>1</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F15" s="33">
         <v>45316</v>
       </c>
-      <c r="G14" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="22"/>
-    </row>
-    <row r="15" spans="1:9" s="24" customFormat="1" ht="14.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="33"/>
+      <c r="G15" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="22"/>
     </row>
     <row r="16" spans="1:9" s="24" customFormat="1" ht="14.25">
       <c r="A16" s="29"/>
@@ -1595,7 +1622,7 @@
       <c r="E16" s="34"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="1:9" s="23" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="17" spans="1:9" s="24" customFormat="1" ht="14.25">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
       <c r="C17" s="30"/>
@@ -1603,57 +1630,55 @@
       <c r="E17" s="34"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A18" s="39"/>
+    <row r="18" spans="1:9" s="23" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A18" s="29"/>
       <c r="B18" s="29"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="E18" s="34"/>
       <c r="F18" s="33"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-    </row>
-    <row r="19" spans="1:9" s="23" customFormat="1" ht="15">
-      <c r="A19" s="29"/>
+    </row>
+    <row r="19" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A19" s="39"/>
       <c r="B19" s="29"/>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="E19" s="34"/>
       <c r="F19" s="33"/>
-      <c r="I19" s="38"/>
-    </row>
-    <row r="20" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="26"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+    </row>
+    <row r="20" spans="1:9" s="23" customFormat="1" ht="15">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="33"/>
+      <c r="I20" s="38"/>
     </row>
     <row r="21" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A21" s="40"/>
       <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="54"/>
       <c r="F21" s="48"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="26"/>
     </row>
     <row r="22" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A22" s="40"/>
       <c r="B22" s="40"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="55"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="54"/>
       <c r="F22" s="48"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
     </row>
     <row r="23" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A23" s="40"/>
@@ -1664,7 +1689,6 @@
       <c r="F23" s="48"/>
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
     </row>
     <row r="24" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A24" s="40"/>
@@ -1675,6 +1699,7 @@
       <c r="F24" s="48"/>
       <c r="G24" s="45"/>
       <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
     </row>
     <row r="25" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A25" s="40"/>
@@ -1715,7 +1740,6 @@
       <c r="F28" s="48"/>
       <c r="G28" s="45"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
     </row>
     <row r="29" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A29" s="40"/>
@@ -1748,6 +1772,7 @@
       <c r="F31" s="48"/>
       <c r="G31" s="45"/>
       <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
     </row>
     <row r="32" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A32" s="40"/>
@@ -1758,17 +1783,17 @@
       <c r="F32" s="48"/>
       <c r="G32" s="45"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-    </row>
-    <row r="33" spans="1:9" s="21" customFormat="1" ht="15">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
+    </row>
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
     </row>
     <row r="34" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A34" s="31"/>
@@ -1801,8 +1826,8 @@
       <c r="H36" s="27"/>
     </row>
     <row r="37" spans="1:9" s="21" customFormat="1" ht="15">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="32"/>
       <c r="D37" s="32"/>
       <c r="E37" s="36"/>
@@ -1812,7 +1837,7 @@
     </row>
     <row r="38" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A38" s="28"/>
-      <c r="B38" s="31"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="32"/>
       <c r="D38" s="32"/>
       <c r="E38" s="36"/>
@@ -1831,7 +1856,7 @@
       <c r="H39" s="27"/>
     </row>
     <row r="40" spans="1:9" s="21" customFormat="1" ht="15">
-      <c r="A40" s="31"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="31"/>
       <c r="C40" s="32"/>
       <c r="D40" s="32"/>
@@ -1889,7 +1914,6 @@
       <c r="F45" s="35"/>
       <c r="G45" s="27"/>
       <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
     </row>
     <row r="46" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A46" s="31"/>
@@ -1900,6 +1924,7 @@
       <c r="F46" s="35"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
     </row>
     <row r="47" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A47" s="31"/>
@@ -1927,7 +1952,7 @@
       <c r="C49" s="32"/>
       <c r="D49" s="32"/>
       <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
+      <c r="F49" s="35"/>
       <c r="G49" s="27"/>
       <c r="H49" s="27"/>
     </row>
@@ -1937,17 +1962,17 @@
       <c r="C50" s="32"/>
       <c r="D50" s="32"/>
       <c r="E50" s="36"/>
-      <c r="F50" s="35"/>
+      <c r="F50" s="36"/>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
     </row>
     <row r="51" spans="1:9" s="21" customFormat="1" ht="15">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="49"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="35"/>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
     </row>
@@ -2000,7 +2025,6 @@
       <c r="F56" s="49"/>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
     </row>
     <row r="57" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A57" s="25"/>
@@ -2011,6 +2035,7 @@
       <c r="F57" s="49"/>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
     </row>
     <row r="58" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A58" s="25"/>
@@ -2021,7 +2046,6 @@
       <c r="F58" s="49"/>
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
     </row>
     <row r="59" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A59" s="25"/>
@@ -2029,9 +2053,10 @@
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
       <c r="E59" s="50"/>
-      <c r="F59" s="50"/>
+      <c r="F59" s="49"/>
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
     </row>
     <row r="60" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A60" s="25"/>
@@ -2039,7 +2064,7 @@
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
       <c r="E60" s="50"/>
-      <c r="F60" s="49"/>
+      <c r="F60" s="50"/>
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
     </row>
@@ -2052,7 +2077,6 @@
       <c r="F61" s="49"/>
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
     </row>
     <row r="62" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A62" s="25"/>
@@ -2063,6 +2087,7 @@
       <c r="F62" s="49"/>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
     </row>
     <row r="63" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A63" s="25"/>
@@ -2070,7 +2095,7 @@
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
       <c r="E63" s="50"/>
-      <c r="F63" s="50"/>
+      <c r="F63" s="49"/>
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
     </row>
@@ -2080,7 +2105,7 @@
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
       <c r="E64" s="50"/>
-      <c r="F64" s="49"/>
+      <c r="F64" s="50"/>
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
     </row>
@@ -2090,7 +2115,7 @@
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
       <c r="E65" s="50"/>
-      <c r="F65" s="50"/>
+      <c r="F65" s="49"/>
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
     </row>
@@ -2110,7 +2135,7 @@
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
       <c r="E67" s="50"/>
-      <c r="F67" s="49"/>
+      <c r="F67" s="50"/>
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
     </row>
@@ -2123,7 +2148,6 @@
       <c r="F68" s="49"/>
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
     </row>
     <row r="69" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A69" s="25"/>
@@ -2131,9 +2155,10 @@
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
       <c r="E69" s="50"/>
-      <c r="F69" s="50"/>
+      <c r="F69" s="49"/>
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
     </row>
     <row r="70" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A70" s="25"/>
@@ -2141,20 +2166,19 @@
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
       <c r="E70" s="50"/>
-      <c r="F70" s="49"/>
+      <c r="F70" s="50"/>
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
     </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="52"/>
-      <c r="F71" s="51"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="2"/>
+    <row r="71" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A71" s="25"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="4"/>
@@ -2165,7 +2189,7 @@
       <c r="F72" s="51"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
+      <c r="I72" s="2"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="4"/>
@@ -2176,7 +2200,7 @@
       <c r="F73" s="51"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
-      <c r="I73" s="2"/>
+      <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="4"/>
@@ -2253,7 +2277,7 @@
       <c r="F80" s="51"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
+      <c r="I80" s="2"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="4"/>
@@ -2305,7 +2329,7 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="52"/>
-      <c r="F85" s="52"/>
+      <c r="F85" s="51"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -2338,7 +2362,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="52"/>
-      <c r="F88" s="51"/>
+      <c r="F88" s="52"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -2371,7 +2395,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="52"/>
-      <c r="F91" s="52"/>
+      <c r="F91" s="51"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -2382,7 +2406,7 @@
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="52"/>
-      <c r="F92" s="51"/>
+      <c r="F92" s="52"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -2404,7 +2428,7 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="52"/>
-      <c r="F94" s="52"/>
+      <c r="F94" s="51"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -2426,10 +2450,10 @@
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="52"/>
-      <c r="F96" s="51"/>
+      <c r="F96" s="52"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
-      <c r="I96" s="2"/>
+      <c r="I96" s="1"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="4"/>
@@ -2506,7 +2530,7 @@
       <c r="F103" s="51"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
+      <c r="I103" s="2"/>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="4"/>
@@ -2517,7 +2541,7 @@
       <c r="F104" s="51"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
-      <c r="I104" s="2"/>
+      <c r="I104" s="1"/>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="4"/>
@@ -2585,6 +2609,22 @@
       <c r="H110" s="1"/>
       <c r="I110" s="2"/>
     </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="52"/>
+      <c r="F111" s="51"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="2"/>
+    </row>
+    <row r="112" spans="1:9" ht="15.75"/>
+    <row r="113" ht="15.75"/>
+    <row r="114" ht="15.75"/>
+    <row r="115" ht="15.75"/>
+    <row r="116" ht="15.75"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I2"/>
@@ -2605,7 +2645,7 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
@@ -2616,30 +2656,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-    </row>
-    <row r="3" spans="1:9" ht="31.5">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+    </row>
+    <row r="3" spans="1:9" ht="30.95">
       <c r="A3" s="60"/>
       <c r="B3" s="60"/>
       <c r="C3" s="60"/>
@@ -2658,7 +2698,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>4</v>
@@ -2687,10 +2727,10 @@
         <v>45191</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E5" s="20">
         <v>136</v>
@@ -2699,10 +2739,10 @@
         <v>45252</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -2714,22 +2754,22 @@
         <v>45156</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -2741,10 +2781,10 @@
         <v>45153</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E7" s="16">
         <v>52</v>
@@ -2753,10 +2793,10 @@
         <v>45153</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I7" s="11"/>
     </row>
@@ -2768,10 +2808,10 @@
         <v>45112</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E8" s="15">
         <v>211</v>
@@ -2780,13 +2820,13 @@
         <v>45138</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2797,10 +2837,10 @@
         <v>45111</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E9" s="15">
         <v>249</v>
@@ -2809,13 +2849,13 @@
         <v>45138</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2826,10 +2866,10 @@
         <v>42522</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E10" s="15">
         <v>169</v>
@@ -2838,13 +2878,13 @@
         <v>45086</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2855,10 +2895,10 @@
         <v>44950</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E11" s="15">
         <v>75</v>
@@ -2867,13 +2907,13 @@
         <v>45010</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="21">
@@ -2884,10 +2924,10 @@
         <v>44937</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E12" s="12">
         <v>81</v>
@@ -2896,14 +2936,14 @@
         <v>44990</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" ht="16.5" thickBot="1">
+    <row r="13" spans="1:9" ht="17.100000000000001" thickBot="1">
       <c r="A13" s="4">
         <v>44827</v>
       </c>
@@ -2911,10 +2951,10 @@
         <v>44831</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E13" s="7">
         <v>1</v>
@@ -2923,10 +2963,10 @@
         <v>44890</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I13" s="9"/>
     </row>
@@ -2938,10 +2978,10 @@
         <v>44817</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E14" s="7">
         <v>77</v>
@@ -2950,10 +2990,10 @@
         <v>44880</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I14" s="4"/>
     </row>
@@ -2965,10 +3005,10 @@
         <v>44594</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E15" s="5">
         <v>198</v>
@@ -2977,10 +3017,10 @@
         <v>44659</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -2992,10 +3032,10 @@
         <v>44336</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E16" s="5">
         <v>94</v>
@@ -3004,13 +3044,13 @@
         <v>44394</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3021,10 +3061,10 @@
         <v>44342</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E17" s="5">
         <v>464</v>
@@ -3033,10 +3073,10 @@
         <v>44403</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -3048,10 +3088,10 @@
         <v>44104</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E18" s="5">
         <v>13</v>
@@ -3060,10 +3100,10 @@
         <v>44104</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -3075,10 +3115,10 @@
         <v>44068</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E19" s="5">
         <v>40</v>
@@ -3087,10 +3127,10 @@
         <v>44061</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I19" s="2"/>
     </row>
@@ -3102,10 +3142,10 @@
         <v>44060</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E20" s="5">
         <v>106</v>
@@ -3114,10 +3154,10 @@
         <v>44057</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -3129,10 +3169,10 @@
         <v>44056</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E21" s="5">
         <v>272</v>
@@ -3141,13 +3181,13 @@
         <v>43914</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3158,10 +3198,10 @@
         <v>44040</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E22" s="5">
         <v>1043</v>
@@ -3170,13 +3210,13 @@
         <v>44104</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3187,10 +3227,10 @@
         <v>44040</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E23" s="5">
         <v>296</v>
@@ -3199,13 +3239,13 @@
         <v>44104</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3216,10 +3256,10 @@
         <v>44042</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E24" s="5">
         <v>73</v>
@@ -3228,10 +3268,10 @@
         <v>44075</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I24" s="2"/>
     </row>
@@ -3243,10 +3283,10 @@
         <v>44022</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E25" s="5">
         <v>127</v>
@@ -3255,13 +3295,13 @@
         <v>44044</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3272,10 +3312,10 @@
         <v>44004</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E26" s="5">
         <v>71</v>
@@ -3284,10 +3324,10 @@
         <v>43973</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -3299,10 +3339,10 @@
         <v>44012</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E27" s="5">
         <v>65</v>
@@ -3311,10 +3351,10 @@
         <v>44012</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I27" s="2"/>
     </row>
@@ -3326,10 +3366,10 @@
         <v>43985</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E28" s="5">
         <v>65</v>
@@ -3338,10 +3378,10 @@
         <v>43904</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -3353,10 +3393,10 @@
         <v>43980</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E29" s="5">
         <v>231</v>
@@ -3365,10 +3405,10 @@
         <v>43980</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -3380,10 +3420,10 @@
         <v>44068</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E30" s="5">
         <v>72</v>
@@ -3392,10 +3432,10 @@
         <v>43958</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I30" s="2"/>
     </row>
@@ -3407,10 +3447,10 @@
         <v>43948</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E31" s="5">
         <v>136</v>
@@ -3419,10 +3459,10 @@
         <v>43906</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I31" s="2"/>
     </row>
@@ -3434,10 +3474,10 @@
         <v>43942</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E32" s="5">
         <v>5</v>
@@ -3446,10 +3486,10 @@
         <v>43942</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -3461,10 +3501,10 @@
         <v>43944</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -3473,10 +3513,10 @@
         <v>43941</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I33" s="2"/>
     </row>
@@ -3488,10 +3528,10 @@
         <v>43938</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E34" s="5">
         <v>13</v>
@@ -3500,10 +3540,10 @@
         <v>43938</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I34" s="2"/>
     </row>
@@ -3515,10 +3555,10 @@
         <v>43935</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E35" s="5">
         <v>51</v>
@@ -3527,10 +3567,10 @@
         <v>43906</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I35" s="2"/>
     </row>
@@ -3542,10 +3582,10 @@
         <v>43925</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E36" s="5">
         <v>110</v>
@@ -3554,10 +3594,10 @@
         <v>43927</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I36" s="2"/>
     </row>
@@ -3569,10 +3609,10 @@
         <v>43917</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E37" s="5">
         <v>37</v>
@@ -3581,10 +3621,10 @@
         <v>43916</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I37" s="2"/>
     </row>
@@ -3596,10 +3636,10 @@
         <v>43913</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E38" s="5">
         <v>146</v>
@@ -3608,13 +3648,13 @@
         <v>43898</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -3625,10 +3665,10 @@
         <v>43910</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E39" s="5">
         <v>87</v>
@@ -3637,10 +3677,10 @@
         <v>43910</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I39" s="2"/>
     </row>
@@ -3652,10 +3692,10 @@
         <v>43913</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E40" s="5">
         <v>110</v>
@@ -3664,10 +3704,10 @@
         <v>43906</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I40" s="2"/>
     </row>
@@ -3679,10 +3719,10 @@
         <v>43510</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E41" s="5">
         <v>1</v>
@@ -3691,10 +3731,10 @@
         <v>43567</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I41" s="2"/>
     </row>
@@ -3706,22 +3746,22 @@
         <v>43486</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E42" s="5">
         <v>59</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I42" s="2"/>
     </row>
@@ -3733,10 +3773,10 @@
         <v>43479</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E43" s="5">
         <v>62</v>
@@ -3745,10 +3785,10 @@
         <v>43542</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I43" s="2"/>
     </row>
@@ -3760,10 +3800,10 @@
         <v>43413</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E44" s="5">
         <v>51</v>
@@ -3772,10 +3812,10 @@
         <v>43131</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I44" s="2"/>
     </row>
@@ -3787,10 +3827,10 @@
         <v>43405</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E45" s="5">
         <v>92</v>
@@ -3799,10 +3839,10 @@
         <v>43465</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I45" s="2"/>
     </row>
@@ -3814,10 +3854,10 @@
         <v>43405</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E46" s="5">
         <v>181</v>
@@ -3826,10 +3866,10 @@
         <v>43469</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I46" s="2"/>
     </row>
@@ -3841,10 +3881,10 @@
         <v>43382</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E47" s="5">
         <v>180</v>
@@ -3853,10 +3893,10 @@
         <v>43382</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I47" s="2"/>
     </row>
@@ -3868,10 +3908,10 @@
         <v>43363</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E48" s="5">
         <v>83</v>
@@ -3880,10 +3920,10 @@
         <v>43434</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I48" s="2"/>
     </row>
@@ -3895,10 +3935,10 @@
         <v>43276</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E49" s="5">
         <v>64</v>
@@ -3907,13 +3947,13 @@
         <v>43339</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3924,10 +3964,10 @@
         <v>43252</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="E50" s="5">
         <v>149</v>
@@ -3936,10 +3976,10 @@
         <v>43312</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I50" s="2"/>
     </row>
@@ -3951,10 +3991,10 @@
         <v>43042</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E51" s="5">
         <v>477</v>
@@ -3963,13 +4003,13 @@
         <v>43112</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3980,22 +4020,22 @@
         <v>42990</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E52" s="5">
         <v>171</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I52" s="2"/>
     </row>
@@ -4007,10 +4047,10 @@
         <v>42496</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E53" s="5">
         <v>187</v>
@@ -4019,10 +4059,10 @@
         <v>42492</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I53" s="2"/>
     </row>
@@ -4034,10 +4074,10 @@
         <v>42495</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E54" s="5">
         <v>20</v>
@@ -4046,13 +4086,13 @@
         <v>42551</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4063,10 +4103,10 @@
         <v>42468</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E55" s="5">
         <v>154</v>
@@ -4075,10 +4115,10 @@
         <v>42528</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I55" s="2"/>
     </row>
@@ -4090,22 +4130,22 @@
         <v>42401</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E56" s="5">
         <v>60</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I56" s="2"/>
     </row>
@@ -4117,10 +4157,10 @@
         <v>42384</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E57" s="5">
         <v>131</v>
@@ -4129,10 +4169,10 @@
         <v>42405</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I57" s="2"/>
     </row>
@@ -4144,22 +4184,22 @@
         <v>42326</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E58" s="5">
         <v>241</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I58" s="2"/>
     </row>
@@ -4171,22 +4211,22 @@
         <v>42320</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I59" s="2"/>
     </row>
@@ -4198,10 +4238,10 @@
         <v>42180</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E60" s="5">
         <v>70</v>
@@ -4210,10 +4250,10 @@
         <v>42240</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I60" s="2"/>
     </row>
@@ -4225,25 +4265,25 @@
         <v>42074</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F61" s="4">
         <v>42141</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4254,22 +4294,22 @@
         <v>42065</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I62" s="2"/>
     </row>
@@ -4281,10 +4321,10 @@
         <v>41850</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E63" s="5">
         <v>5</v>
@@ -4293,10 +4333,10 @@
         <v>41912</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I63" s="2"/>
     </row>
@@ -4308,10 +4348,10 @@
         <v>41821</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E64" s="5">
         <v>142</v>
@@ -4320,10 +4360,10 @@
         <v>41882</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I64" s="2"/>
     </row>
@@ -4335,10 +4375,10 @@
         <v>41729</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E65" s="5">
         <v>115</v>
@@ -4347,13 +4387,13 @@
         <v>41774</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -4364,10 +4404,10 @@
         <v>41596</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E66" s="5">
         <v>49</v>
@@ -4376,10 +4416,10 @@
         <v>41654</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I66" s="2"/>
     </row>
@@ -4391,10 +4431,10 @@
         <v>41547</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E67" s="5">
         <v>1</v>
@@ -4403,10 +4443,10 @@
         <v>41608</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I67" s="2"/>
     </row>
@@ -4418,10 +4458,10 @@
         <v>41502</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E68" s="5">
         <v>66</v>
@@ -4430,10 +4470,10 @@
         <v>41555</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I68" s="2"/>
     </row>
@@ -4445,10 +4485,10 @@
         <v>41438</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E69" s="5">
         <v>3</v>
@@ -4457,10 +4497,10 @@
         <v>41425</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I69" s="2"/>
     </row>
@@ -4472,10 +4512,10 @@
         <v>41417</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E70" s="5">
         <v>62</v>
@@ -4484,10 +4524,10 @@
         <v>41485</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I70" s="2"/>
     </row>
@@ -4499,22 +4539,22 @@
         <v>41285</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F71" s="4">
         <v>41347</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I71" s="2"/>
     </row>
@@ -4526,10 +4566,10 @@
         <v>41087</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E72" s="5">
         <v>51</v>
@@ -4538,10 +4578,10 @@
         <v>41148</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I72" s="2"/>
     </row>
@@ -4553,10 +4593,10 @@
         <v>41011</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E73" s="5">
         <v>150</v>
@@ -4565,13 +4605,13 @@
         <v>41071</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -4582,10 +4622,10 @@
         <v>40939</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E74" s="5">
         <v>70</v>
@@ -4594,13 +4634,13 @@
         <v>41000</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -4611,10 +4651,10 @@
         <v>40833</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="E75" s="5">
         <v>110</v>
@@ -4623,10 +4663,10 @@
         <v>40833</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I75" s="1"/>
     </row>
@@ -4638,10 +4678,10 @@
         <v>40788</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E76" s="5">
         <v>16</v>
@@ -4650,10 +4690,10 @@
         <v>40846</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I76" s="1"/>
     </row>
@@ -4665,10 +4705,10 @@
         <v>40758</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E77" s="5">
         <v>9</v>
@@ -4677,10 +4717,10 @@
         <v>40816</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I77" s="1"/>
     </row>
@@ -4692,22 +4732,22 @@
         <v>40756</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E78" s="5">
         <v>98</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I78" s="1"/>
     </row>
@@ -4719,22 +4759,22 @@
         <v>40690</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E79" s="5">
         <v>21</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I79" s="1"/>
     </row>
@@ -4746,22 +4786,22 @@
         <v>40634</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E80" s="5">
         <v>98</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I80" s="1"/>
     </row>
@@ -4773,10 +4813,10 @@
         <v>40589</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E81" s="5">
         <v>5</v>
@@ -4785,10 +4825,10 @@
         <v>40644</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I81" s="1"/>
     </row>
@@ -4800,10 +4840,10 @@
         <v>40568</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E82" s="5">
         <v>122</v>
@@ -4812,10 +4852,10 @@
         <v>40592</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I82" s="1"/>
     </row>
@@ -4827,10 +4867,10 @@
         <v>40413</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E83" s="5">
         <v>89</v>
@@ -4839,10 +4879,10 @@
         <v>40452</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I83" s="1"/>
     </row>
@@ -4854,22 +4894,22 @@
         <v>40217</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E84" s="5">
         <v>26</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I84" s="1"/>
     </row>
@@ -4881,10 +4921,10 @@
         <v>40217</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E85" s="5">
         <v>165</v>
@@ -4893,10 +4933,10 @@
         <v>40217</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I85" s="1"/>
     </row>
@@ -4908,10 +4948,10 @@
         <v>40182</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E86" s="5">
         <v>8</v>
@@ -4920,10 +4960,10 @@
         <v>40210</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I86" s="1"/>
     </row>
@@ -4935,22 +4975,22 @@
         <v>40141</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E87" s="5">
         <v>66</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I87" s="1"/>
     </row>
@@ -4962,25 +5002,25 @@
         <v>40141</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E88" s="5">
         <v>103</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4991,22 +5031,22 @@
         <v>40094</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F89" s="4">
         <v>40147</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I89" s="2"/>
     </row>
@@ -5018,10 +5058,10 @@
         <v>40091</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E90" s="5">
         <v>63</v>
@@ -5030,10 +5070,10 @@
         <v>40148</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I90" s="2"/>
     </row>
@@ -5045,22 +5085,22 @@
         <v>40050</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F91" s="4">
         <v>39895</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I91" s="2"/>
     </row>
@@ -5072,10 +5112,10 @@
         <v>40008</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E92" s="5">
         <v>130</v>
@@ -5084,10 +5124,10 @@
         <v>39895</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I92" s="2"/>
     </row>
@@ -5099,10 +5139,10 @@
         <v>40008</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E93" s="5">
         <v>26</v>
@@ -5111,10 +5151,10 @@
         <v>40001</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I93" s="2"/>
     </row>
@@ -5126,10 +5166,10 @@
         <v>39895</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E94" s="5">
         <v>14</v>
@@ -5138,10 +5178,10 @@
         <v>39895</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I94" s="2"/>
     </row>
@@ -5153,10 +5193,10 @@
         <v>39996</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E95" s="5">
         <v>10</v>
@@ -5165,10 +5205,10 @@
         <v>40041</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I95" s="2"/>
     </row>
@@ -5180,10 +5220,10 @@
         <v>39932</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E96" s="5">
         <v>171</v>
@@ -5192,13 +5232,13 @@
         <v>39994</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5209,10 +5249,10 @@
         <v>39918</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E97" s="5">
         <v>55</v>
@@ -5221,10 +5261,10 @@
         <v>39994</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I97" s="2"/>
     </row>
@@ -5236,10 +5276,10 @@
         <v>39882</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E98" s="5">
         <v>29</v>
@@ -5248,10 +5288,10 @@
         <v>39943</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I98" s="2"/>
     </row>
@@ -5263,10 +5303,10 @@
         <v>39881</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E99" s="5">
         <v>71</v>
@@ -5275,10 +5315,10 @@
         <v>39941</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I99" s="2"/>
     </row>
@@ -5290,10 +5330,10 @@
         <v>39878</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E100" s="5">
         <v>54</v>
@@ -5302,10 +5342,10 @@
         <v>39935</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I100" s="2"/>
     </row>
@@ -5317,10 +5357,10 @@
         <v>39877</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E101" s="5">
         <v>119</v>
@@ -5329,10 +5369,10 @@
         <v>39943</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I101" s="2"/>
     </row>
@@ -5344,10 +5384,10 @@
         <v>39864</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E102" s="5">
         <v>270</v>
@@ -5356,10 +5396,10 @@
         <v>39828</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I102" s="2"/>
     </row>
@@ -5371,10 +5411,10 @@
         <v>39825</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E103" s="5">
         <v>121</v>
@@ -5383,10 +5423,10 @@
         <v>39821</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I103" s="2"/>
     </row>
@@ -5405,15 +5445,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001D7CA4A7758DDF4F8A78677D3B22BD47" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3acca51fa395f9313e35082b17373cba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e19eab3b-0a92-46fc-9552-a493c76cdc00" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="877bd2ecca759b9e790c141c767e061f" ns2:_="">
     <xsd:import namespace="e19eab3b-0a92-46fc-9552-a493c76cdc00"/>
@@ -5557,37 +5588,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3BDC996-7CD8-43BD-838D-50E4C5CE2932}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3BDC996-7CD8-43BD-838D-50E4C5CE2932}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0557A4BC-595F-498F-986F-63860A4E78D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{526D1213-C5F8-4F2A-BB65-47A3B48FEA3A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{526D1213-C5F8-4F2A-BB65-47A3B48FEA3A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e19eab3b-0a92-46fc-9552-a493c76cdc00"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0557A4BC-595F-498F-986F-63860A4E78D3}"/>
 </file>
--- a/data/warn-scraper/cache/ri/WARN Report.xlsx
+++ b/data/warn-scraper/cache/ri/WARN Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmwilsonri/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{657082E9-D912-42E1-9B6D-1025B22C8FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F3C677E-37B6-4F59-9AD9-6C35D95C9612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="187">
   <si>
     <t>Rhode Island WARN Report</t>
   </si>
@@ -69,18 +69,27 @@
     <t>Union Address</t>
   </si>
   <si>
+    <t>Kaleo</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
     <t>Riley Power Group</t>
   </si>
   <si>
     <t>North Kingstown</t>
   </si>
   <si>
-    <t>10/21/24 (for within 14 days after)</t>
+    <t>11/22/24 (or within 14 days after)</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>10/21/24 (or within 14 days after)</t>
+  </si>
+  <si>
     <t>Ennovi Advanced Mobility Solutions Rhode Island Inc</t>
   </si>
   <si>
@@ -151,9 +160,6 @@
   </si>
   <si>
     <t>Los Angeles Times Communications LLC</t>
-  </si>
-  <si>
-    <t>Rhode Island</t>
   </si>
   <si>
     <t>Company Name (* Denotes Covid 19 Related WARN)</t>
@@ -906,11 +912,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1232,10 +1238,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.95"/>
@@ -1276,15 +1282,15 @@
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9" ht="30.95">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="46"/>
       <c r="F3" s="46"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:9" s="56" customFormat="1" ht="18">
       <c r="A4" s="47" t="s">
@@ -1315,322 +1321,354 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="56" customFormat="1" ht="28.5">
+    <row r="5" spans="1:9" s="56" customFormat="1" ht="18">
       <c r="A5" s="29">
-        <v>45524</v>
+        <v>45567</v>
       </c>
       <c r="B5" s="29">
-        <v>45526</v>
+        <v>45567</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="29" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="34">
+        <v>1</v>
+      </c>
+      <c r="F5" s="60">
+        <v>45626</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="1:9" s="56" customFormat="1" ht="28.5">
+      <c r="A6" s="29">
+        <v>45560</v>
+      </c>
+      <c r="B6" s="29">
+        <v>45560</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="34">
+        <v>13</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="1:9" s="56" customFormat="1" ht="28.5">
+      <c r="A7" s="29">
+        <v>45524</v>
+      </c>
+      <c r="B7" s="29">
+        <v>45526</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="34">
         <v>117</v>
       </c>
-      <c r="F5" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="23"/>
-    </row>
-    <row r="6" spans="1:9" s="56" customFormat="1" ht="18">
-      <c r="A6" s="29">
+      <c r="F7" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="1:9" s="56" customFormat="1" ht="18">
+      <c r="A8" s="29">
         <v>45504</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B8" s="29">
         <v>45504</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="34">
+      <c r="C8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="34">
         <v>205</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F8" s="33">
         <v>45658</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="23"/>
-    </row>
-    <row r="7" spans="1:9" s="56" customFormat="1" ht="18">
-      <c r="A7" s="29">
+      <c r="G8" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="1:9" s="56" customFormat="1" ht="18">
+      <c r="A9" s="29">
         <v>45481</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B9" s="29">
         <v>45485</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="37">
+      <c r="C9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="37">
         <v>58</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F9" s="33">
         <v>45541</v>
       </c>
-      <c r="G7" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="1:9" s="34" customFormat="1" ht="28.5">
-      <c r="A8" s="29">
+      <c r="G9" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="1:9" s="34" customFormat="1" ht="28.5">
+      <c r="A10" s="29">
         <v>45427</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B10" s="29">
         <v>45432</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="58">
+      <c r="C10" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="58">
         <v>30</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F10" s="33">
         <v>45488</v>
       </c>
-      <c r="G8" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="59" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A9" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="29">
+      <c r="G10" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="59" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A11" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="29">
         <v>45421</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C11" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="58">
+        <v>1029</v>
+      </c>
+      <c r="F11" s="33">
+        <v>45473</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A12" s="29">
+        <v>45414</v>
+      </c>
+      <c r="B12" s="29">
+        <v>45414</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="34">
+        <v>36</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="23" customFormat="1" ht="15">
+      <c r="A13" s="29">
+        <v>45380</v>
+      </c>
+      <c r="B13" s="29">
+        <v>45383</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="58">
-        <v>1029</v>
-      </c>
-      <c r="F9" s="33">
-        <v>45473</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A10" s="29">
-        <v>45414</v>
-      </c>
-      <c r="B10" s="29">
-        <v>45414</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="34">
-        <v>36</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="23" customFormat="1" ht="15">
-      <c r="A11" s="29">
+      <c r="E13" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="33">
+        <v>45412</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="38"/>
+    </row>
+    <row r="14" spans="1:9" s="23" customFormat="1" ht="15">
+      <c r="A14" s="29">
         <v>45380</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B14" s="29">
         <v>45383</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="33">
-        <v>45412</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="38"/>
-    </row>
-    <row r="12" spans="1:9" s="23" customFormat="1" ht="15">
-      <c r="A12" s="29">
-        <v>45380</v>
-      </c>
-      <c r="B12" s="29">
-        <v>45383</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="34">
+      <c r="C14" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="34">
         <v>1</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F14" s="33">
         <v>45443</v>
       </c>
-      <c r="G12" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="38"/>
-    </row>
-    <row r="13" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A13" s="29">
-        <v>45349</v>
-      </c>
-      <c r="B13" s="29">
-        <v>45349</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="37">
-        <v>48</v>
-      </c>
-      <c r="F13" s="33">
-        <v>45611</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A14" s="29">
-        <v>45323</v>
-      </c>
-      <c r="B14" s="29">
-        <v>45328</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="37">
-        <v>130</v>
-      </c>
-      <c r="F14" s="33">
-        <v>45384</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>36</v>
-      </c>
+      <c r="G14" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="38"/>
     </row>
     <row r="15" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A15" s="29">
+        <v>45349</v>
+      </c>
+      <c r="B15" s="29">
+        <v>45349</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="37">
+        <v>48</v>
+      </c>
+      <c r="F15" s="33">
+        <v>45611</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A16" s="29">
+        <v>45323</v>
+      </c>
+      <c r="B16" s="29">
+        <v>45328</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="37">
+        <v>130</v>
+      </c>
+      <c r="F16" s="33">
+        <v>45384</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A17" s="29">
         <v>45316</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B17" s="29">
         <v>45316</v>
       </c>
-      <c r="C15" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="37">
+      <c r="C17" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="37">
         <v>1</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F17" s="33">
         <v>45316</v>
       </c>
-      <c r="G15" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="22"/>
-    </row>
-    <row r="16" spans="1:9" s="24" customFormat="1" ht="14.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="33"/>
-    </row>
-    <row r="17" spans="1:9" s="24" customFormat="1" ht="14.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="33"/>
-    </row>
-    <row r="18" spans="1:9" s="23" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="G17" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="22"/>
+    </row>
+    <row r="18" spans="1:9" s="24" customFormat="1" ht="14.25">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
       <c r="C18" s="30"/>
@@ -1638,68 +1676,63 @@
       <c r="E18" s="34"/>
       <c r="F18" s="33"/>
     </row>
-    <row r="19" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A19" s="39"/>
+    <row r="19" spans="1:9" s="24" customFormat="1" ht="14.25">
+      <c r="A19" s="29"/>
       <c r="B19" s="29"/>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="E19" s="34"/>
       <c r="F19" s="33"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-    </row>
-    <row r="20" spans="1:9" s="23" customFormat="1" ht="15">
+    </row>
+    <row r="20" spans="1:9" s="23" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A20" s="29"/>
       <c r="B20" s="29"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="E20" s="34"/>
       <c r="F20" s="33"/>
-      <c r="I20" s="38"/>
     </row>
     <row r="21" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="26"/>
-    </row>
-    <row r="22" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+    </row>
+    <row r="22" spans="1:9" s="23" customFormat="1" ht="15">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="33"/>
+      <c r="I22" s="38"/>
     </row>
     <row r="23" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A23" s="40"/>
       <c r="B23" s="40"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="55"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="54"/>
       <c r="F23" s="48"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="26"/>
     </row>
     <row r="24" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A24" s="40"/>
       <c r="B24" s="40"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="55"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="54"/>
       <c r="F24" s="48"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
     </row>
     <row r="25" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A25" s="40"/>
@@ -1720,6 +1753,7 @@
       <c r="F26" s="48"/>
       <c r="G26" s="45"/>
       <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
     </row>
     <row r="27" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A27" s="40"/>
@@ -1750,7 +1784,6 @@
       <c r="F29" s="48"/>
       <c r="G29" s="45"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
     </row>
     <row r="30" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A30" s="40"/>
@@ -1761,7 +1794,6 @@
       <c r="F30" s="48"/>
       <c r="G30" s="45"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
     </row>
     <row r="31" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A31" s="40"/>
@@ -1783,6 +1815,7 @@
       <c r="F32" s="48"/>
       <c r="G32" s="45"/>
       <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
     </row>
     <row r="33" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A33" s="40"/>
@@ -1795,25 +1828,26 @@
       <c r="H33" s="45"/>
       <c r="I33" s="45"/>
     </row>
-    <row r="34" spans="1:9" s="21" customFormat="1" ht="15">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-    </row>
-    <row r="35" spans="1:9" s="21" customFormat="1" ht="15">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
+    <row r="34" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+    </row>
+    <row r="35" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
     </row>
     <row r="36" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A36" s="31"/>
@@ -1836,8 +1870,8 @@
       <c r="H37" s="27"/>
     </row>
     <row r="38" spans="1:9" s="21" customFormat="1" ht="15">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="32"/>
       <c r="D38" s="32"/>
       <c r="E38" s="36"/>
@@ -1846,7 +1880,7 @@
       <c r="H38" s="27"/>
     </row>
     <row r="39" spans="1:9" s="21" customFormat="1" ht="15">
-      <c r="A39" s="28"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="31"/>
       <c r="C39" s="32"/>
       <c r="D39" s="32"/>
@@ -1857,7 +1891,7 @@
     </row>
     <row r="40" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A40" s="28"/>
-      <c r="B40" s="31"/>
+      <c r="B40" s="28"/>
       <c r="C40" s="32"/>
       <c r="D40" s="32"/>
       <c r="E40" s="36"/>
@@ -1866,7 +1900,7 @@
       <c r="H40" s="27"/>
     </row>
     <row r="41" spans="1:9" s="21" customFormat="1" ht="15">
-      <c r="A41" s="31"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="31"/>
       <c r="C41" s="32"/>
       <c r="D41" s="32"/>
@@ -1876,7 +1910,7 @@
       <c r="H41" s="27"/>
     </row>
     <row r="42" spans="1:9" s="21" customFormat="1" ht="15">
-      <c r="A42" s="31"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="31"/>
       <c r="C42" s="32"/>
       <c r="D42" s="32"/>
@@ -1924,7 +1958,6 @@
       <c r="F46" s="35"/>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
     </row>
     <row r="47" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A47" s="31"/>
@@ -1945,6 +1978,7 @@
       <c r="F48" s="35"/>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
     </row>
     <row r="49" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A49" s="31"/>
@@ -1962,7 +1996,7 @@
       <c r="C50" s="32"/>
       <c r="D50" s="32"/>
       <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
+      <c r="F50" s="35"/>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
     </row>
@@ -1977,22 +2011,22 @@
       <c r="H51" s="27"/>
     </row>
     <row r="52" spans="1:9" s="21" customFormat="1" ht="15">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="49"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
     </row>
     <row r="53" spans="1:9" s="21" customFormat="1" ht="15">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="49"/>
+      <c r="A53" s="31"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="35"/>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
     </row>
@@ -2035,7 +2069,6 @@
       <c r="F57" s="49"/>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
     </row>
     <row r="58" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A58" s="25"/>
@@ -2064,7 +2097,7 @@
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
       <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
+      <c r="F60" s="49"/>
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
     </row>
@@ -2077,6 +2110,7 @@
       <c r="F61" s="49"/>
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
     </row>
     <row r="62" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A62" s="25"/>
@@ -2084,10 +2118,9 @@
       <c r="C62" s="27"/>
       <c r="D62" s="27"/>
       <c r="E62" s="50"/>
-      <c r="F62" s="49"/>
+      <c r="F62" s="50"/>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
     </row>
     <row r="63" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A63" s="25"/>
@@ -2105,9 +2138,10 @@
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
       <c r="E64" s="50"/>
-      <c r="F64" s="50"/>
+      <c r="F64" s="49"/>
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
     </row>
     <row r="65" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A65" s="25"/>
@@ -2135,7 +2169,7 @@
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
       <c r="E67" s="50"/>
-      <c r="F67" s="50"/>
+      <c r="F67" s="49"/>
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
     </row>
@@ -2145,7 +2179,7 @@
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
       <c r="E68" s="50"/>
-      <c r="F68" s="49"/>
+      <c r="F68" s="50"/>
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
     </row>
@@ -2155,10 +2189,9 @@
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
       <c r="E69" s="50"/>
-      <c r="F69" s="49"/>
+      <c r="F69" s="50"/>
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
     </row>
     <row r="70" spans="1:9" s="21" customFormat="1" ht="15">
       <c r="A70" s="25"/>
@@ -2166,7 +2199,7 @@
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
       <c r="E70" s="50"/>
-      <c r="F70" s="50"/>
+      <c r="F70" s="49"/>
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
     </row>
@@ -2179,28 +2212,27 @@
       <c r="F71" s="49"/>
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="51"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="2"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="52"/>
-      <c r="F73" s="51"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
+      <c r="I71" s="27"/>
+    </row>
+    <row r="72" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A72" s="25"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+    </row>
+    <row r="73" spans="1:9" s="21" customFormat="1" ht="15">
+      <c r="A73" s="25"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="49"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="4"/>
@@ -2222,7 +2254,7 @@
       <c r="F75" s="51"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="2"/>
+      <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="4"/>
@@ -2288,7 +2320,7 @@
       <c r="F81" s="51"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
+      <c r="I81" s="2"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="4"/>
@@ -2299,7 +2331,7 @@
       <c r="F82" s="51"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
+      <c r="I82" s="2"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="4"/>
@@ -2340,7 +2372,7 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="52"/>
-      <c r="F86" s="52"/>
+      <c r="F86" s="51"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -2351,7 +2383,7 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="52"/>
-      <c r="F87" s="52"/>
+      <c r="F87" s="51"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -2373,7 +2405,7 @@
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="52"/>
-      <c r="F89" s="51"/>
+      <c r="F89" s="52"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -2384,7 +2416,7 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="52"/>
-      <c r="F90" s="51"/>
+      <c r="F90" s="52"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -2406,7 +2438,7 @@
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="52"/>
-      <c r="F92" s="52"/>
+      <c r="F92" s="51"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -2428,7 +2460,7 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="52"/>
-      <c r="F94" s="51"/>
+      <c r="F94" s="52"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -2439,7 +2471,7 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="52"/>
-      <c r="F95" s="52"/>
+      <c r="F95" s="51"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -2450,7 +2482,7 @@
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="52"/>
-      <c r="F96" s="52"/>
+      <c r="F96" s="51"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -2461,10 +2493,10 @@
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="52"/>
-      <c r="F97" s="51"/>
+      <c r="F97" s="52"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
-      <c r="I97" s="2"/>
+      <c r="I97" s="1"/>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="4"/>
@@ -2472,10 +2504,10 @@
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="52"/>
-      <c r="F98" s="51"/>
+      <c r="F98" s="52"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
-      <c r="I98" s="2"/>
+      <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="4"/>
@@ -2541,7 +2573,7 @@
       <c r="F104" s="51"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
+      <c r="I104" s="2"/>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="4"/>
@@ -2563,7 +2595,7 @@
       <c r="F106" s="51"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
-      <c r="I106" s="2"/>
+      <c r="I106" s="1"/>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="4"/>
@@ -2620,11 +2652,33 @@
       <c r="H111" s="1"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="1:9" ht="15.75"/>
-    <row r="113" ht="15.75"/>
-    <row r="114" ht="15.75"/>
-    <row r="115" ht="15.75"/>
-    <row r="116" ht="15.75"/>
+    <row r="112" spans="1:9">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="52"/>
+      <c r="F112" s="51"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="2"/>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="52"/>
+      <c r="F113" s="51"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="2"/>
+    </row>
+    <row r="114" spans="1:9" ht="15.75"/>
+    <row r="115" spans="1:9" ht="15.75"/>
+    <row r="116" spans="1:9" ht="15.75"/>
+    <row r="117" spans="1:9" ht="15.75"/>
+    <row r="118" spans="1:9" ht="15.75"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I2"/>
@@ -2641,8 +2695,8 @@
   </sheetPr>
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.95"/>
@@ -2680,15 +2734,15 @@
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9" ht="30.95">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:9" ht="21">
       <c r="A4" s="3" t="s">
@@ -2698,7 +2752,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>4</v>
@@ -2727,10 +2781,10 @@
         <v>45191</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5" s="20">
         <v>136</v>
@@ -2739,10 +2793,10 @@
         <v>45252</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -2754,22 +2808,22 @@
         <v>45156</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -2781,10 +2835,10 @@
         <v>45153</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E7" s="16">
         <v>52</v>
@@ -2793,10 +2847,10 @@
         <v>45153</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I7" s="11"/>
     </row>
@@ -2808,10 +2862,10 @@
         <v>45112</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E8" s="15">
         <v>211</v>
@@ -2820,13 +2874,13 @@
         <v>45138</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2837,10 +2891,10 @@
         <v>45111</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E9" s="15">
         <v>249</v>
@@ -2849,13 +2903,13 @@
         <v>45138</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2866,10 +2920,10 @@
         <v>42522</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E10" s="15">
         <v>169</v>
@@ -2878,13 +2932,13 @@
         <v>45086</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2895,10 +2949,10 @@
         <v>44950</v>
       </c>
       <c r="C11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>53</v>
       </c>
       <c r="E11" s="15">
         <v>75</v>
@@ -2907,13 +2961,13 @@
         <v>45010</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="21">
@@ -2924,10 +2978,10 @@
         <v>44937</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E12" s="12">
         <v>81</v>
@@ -2936,10 +2990,10 @@
         <v>44990</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I12" s="3"/>
     </row>
@@ -2951,10 +3005,10 @@
         <v>44831</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E13" s="7">
         <v>1</v>
@@ -2963,10 +3017,10 @@
         <v>44890</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I13" s="9"/>
     </row>
@@ -2978,10 +3032,10 @@
         <v>44817</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E14" s="7">
         <v>77</v>
@@ -2990,10 +3044,10 @@
         <v>44880</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I14" s="4"/>
     </row>
@@ -3005,10 +3059,10 @@
         <v>44594</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E15" s="5">
         <v>198</v>
@@ -3017,10 +3071,10 @@
         <v>44659</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -3032,10 +3086,10 @@
         <v>44336</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E16" s="5">
         <v>94</v>
@@ -3044,13 +3098,13 @@
         <v>44394</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3061,10 +3115,10 @@
         <v>44342</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E17" s="5">
         <v>464</v>
@@ -3073,10 +3127,10 @@
         <v>44403</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -3088,10 +3142,10 @@
         <v>44104</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E18" s="5">
         <v>13</v>
@@ -3100,10 +3154,10 @@
         <v>44104</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -3115,10 +3169,10 @@
         <v>44068</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E19" s="5">
         <v>40</v>
@@ -3127,10 +3181,10 @@
         <v>44061</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I19" s="2"/>
     </row>
@@ -3142,10 +3196,10 @@
         <v>44060</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E20" s="5">
         <v>106</v>
@@ -3154,10 +3208,10 @@
         <v>44057</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -3169,10 +3223,10 @@
         <v>44056</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E21" s="5">
         <v>272</v>
@@ -3181,13 +3235,13 @@
         <v>43914</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3198,10 +3252,10 @@
         <v>44040</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E22" s="5">
         <v>1043</v>
@@ -3210,13 +3264,13 @@
         <v>44104</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3227,10 +3281,10 @@
         <v>44040</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E23" s="5">
         <v>296</v>
@@ -3239,13 +3293,13 @@
         <v>44104</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3256,10 +3310,10 @@
         <v>44042</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E24" s="5">
         <v>73</v>
@@ -3268,10 +3322,10 @@
         <v>44075</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I24" s="2"/>
     </row>
@@ -3283,10 +3337,10 @@
         <v>44022</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E25" s="5">
         <v>127</v>
@@ -3295,13 +3349,13 @@
         <v>44044</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3312,10 +3366,10 @@
         <v>44004</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E26" s="5">
         <v>71</v>
@@ -3324,10 +3378,10 @@
         <v>43973</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -3339,10 +3393,10 @@
         <v>44012</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E27" s="5">
         <v>65</v>
@@ -3351,10 +3405,10 @@
         <v>44012</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I27" s="2"/>
     </row>
@@ -3366,10 +3420,10 @@
         <v>43985</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E28" s="5">
         <v>65</v>
@@ -3378,10 +3432,10 @@
         <v>43904</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -3393,10 +3447,10 @@
         <v>43980</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E29" s="5">
         <v>231</v>
@@ -3405,10 +3459,10 @@
         <v>43980</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -3420,10 +3474,10 @@
         <v>44068</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E30" s="5">
         <v>72</v>
@@ -3432,10 +3486,10 @@
         <v>43958</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I30" s="2"/>
     </row>
@@ -3447,10 +3501,10 @@
         <v>43948</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E31" s="5">
         <v>136</v>
@@ -3459,10 +3513,10 @@
         <v>43906</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I31" s="2"/>
     </row>
@@ -3474,10 +3528,10 @@
         <v>43942</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E32" s="5">
         <v>5</v>
@@ -3486,10 +3540,10 @@
         <v>43942</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -3501,10 +3555,10 @@
         <v>43944</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -3513,10 +3567,10 @@
         <v>43941</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I33" s="2"/>
     </row>
@@ -3528,10 +3582,10 @@
         <v>43938</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E34" s="5">
         <v>13</v>
@@ -3540,10 +3594,10 @@
         <v>43938</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I34" s="2"/>
     </row>
@@ -3555,10 +3609,10 @@
         <v>43935</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E35" s="5">
         <v>51</v>
@@ -3567,10 +3621,10 @@
         <v>43906</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I35" s="2"/>
     </row>
@@ -3582,10 +3636,10 @@
         <v>43925</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E36" s="5">
         <v>110</v>
@@ -3594,10 +3648,10 @@
         <v>43927</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I36" s="2"/>
     </row>
@@ -3609,10 +3663,10 @@
         <v>43917</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E37" s="5">
         <v>37</v>
@@ -3621,10 +3675,10 @@
         <v>43916</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I37" s="2"/>
     </row>
@@ -3636,10 +3690,10 @@
         <v>43913</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E38" s="5">
         <v>146</v>
@@ -3648,13 +3702,13 @@
         <v>43898</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -3665,10 +3719,10 @@
         <v>43910</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E39" s="5">
         <v>87</v>
@@ -3677,10 +3731,10 @@
         <v>43910</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I39" s="2"/>
     </row>
@@ -3692,10 +3746,10 @@
         <v>43913</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E40" s="5">
         <v>110</v>
@@ -3704,10 +3758,10 @@
         <v>43906</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I40" s="2"/>
     </row>
@@ -3719,10 +3773,10 @@
         <v>43510</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E41" s="5">
         <v>1</v>
@@ -3731,10 +3785,10 @@
         <v>43567</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I41" s="2"/>
     </row>
@@ -3746,22 +3800,22 @@
         <v>43486</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E42" s="5">
         <v>59</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I42" s="2"/>
     </row>
@@ -3773,10 +3827,10 @@
         <v>43479</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E43" s="5">
         <v>62</v>
@@ -3785,10 +3839,10 @@
         <v>43542</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I43" s="2"/>
     </row>
@@ -3800,10 +3854,10 @@
         <v>43413</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E44" s="5">
         <v>51</v>
@@ -3812,10 +3866,10 @@
         <v>43131</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I44" s="2"/>
     </row>
@@ -3827,10 +3881,10 @@
         <v>43405</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E45" s="5">
         <v>92</v>
@@ -3839,10 +3893,10 @@
         <v>43465</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I45" s="2"/>
     </row>
@@ -3854,10 +3908,10 @@
         <v>43405</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E46" s="5">
         <v>181</v>
@@ -3866,10 +3920,10 @@
         <v>43469</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I46" s="2"/>
     </row>
@@ -3881,10 +3935,10 @@
         <v>43382</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E47" s="5">
         <v>180</v>
@@ -3893,10 +3947,10 @@
         <v>43382</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I47" s="2"/>
     </row>
@@ -3908,10 +3962,10 @@
         <v>43363</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E48" s="5">
         <v>83</v>
@@ -3920,10 +3974,10 @@
         <v>43434</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I48" s="2"/>
     </row>
@@ -3935,10 +3989,10 @@
         <v>43276</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E49" s="5">
         <v>64</v>
@@ -3947,13 +4001,13 @@
         <v>43339</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3964,10 +4018,10 @@
         <v>43252</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E50" s="5">
         <v>149</v>
@@ -3976,10 +4030,10 @@
         <v>43312</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I50" s="2"/>
     </row>
@@ -3991,10 +4045,10 @@
         <v>43042</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E51" s="5">
         <v>477</v>
@@ -4003,13 +4057,13 @@
         <v>43112</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4020,22 +4074,22 @@
         <v>42990</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E52" s="5">
         <v>171</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I52" s="2"/>
     </row>
@@ -4047,10 +4101,10 @@
         <v>42496</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E53" s="5">
         <v>187</v>
@@ -4059,10 +4113,10 @@
         <v>42492</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I53" s="2"/>
     </row>
@@ -4074,10 +4128,10 @@
         <v>42495</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E54" s="5">
         <v>20</v>
@@ -4086,13 +4140,13 @@
         <v>42551</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4103,10 +4157,10 @@
         <v>42468</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E55" s="5">
         <v>154</v>
@@ -4115,10 +4169,10 @@
         <v>42528</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I55" s="2"/>
     </row>
@@ -4130,22 +4184,22 @@
         <v>42401</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E56" s="5">
         <v>60</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I56" s="2"/>
     </row>
@@ -4157,10 +4211,10 @@
         <v>42384</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E57" s="5">
         <v>131</v>
@@ -4169,10 +4223,10 @@
         <v>42405</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I57" s="2"/>
     </row>
@@ -4184,22 +4238,22 @@
         <v>42326</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E58" s="5">
         <v>241</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I58" s="2"/>
     </row>
@@ -4211,22 +4265,22 @@
         <v>42320</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I59" s="2"/>
     </row>
@@ -4238,10 +4292,10 @@
         <v>42180</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E60" s="5">
         <v>70</v>
@@ -4250,10 +4304,10 @@
         <v>42240</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I60" s="2"/>
     </row>
@@ -4265,25 +4319,25 @@
         <v>42074</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F61" s="4">
         <v>42141</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4294,22 +4348,22 @@
         <v>42065</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I62" s="2"/>
     </row>
@@ -4321,10 +4375,10 @@
         <v>41850</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E63" s="5">
         <v>5</v>
@@ -4333,10 +4387,10 @@
         <v>41912</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I63" s="2"/>
     </row>
@@ -4348,10 +4402,10 @@
         <v>41821</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E64" s="5">
         <v>142</v>
@@ -4360,10 +4414,10 @@
         <v>41882</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I64" s="2"/>
     </row>
@@ -4375,10 +4429,10 @@
         <v>41729</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E65" s="5">
         <v>115</v>
@@ -4387,13 +4441,13 @@
         <v>41774</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -4404,10 +4458,10 @@
         <v>41596</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E66" s="5">
         <v>49</v>
@@ -4416,10 +4470,10 @@
         <v>41654</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I66" s="2"/>
     </row>
@@ -4431,10 +4485,10 @@
         <v>41547</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E67" s="5">
         <v>1</v>
@@ -4443,10 +4497,10 @@
         <v>41608</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I67" s="2"/>
     </row>
@@ -4458,10 +4512,10 @@
         <v>41502</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E68" s="5">
         <v>66</v>
@@ -4470,10 +4524,10 @@
         <v>41555</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I68" s="2"/>
     </row>
@@ -4485,10 +4539,10 @@
         <v>41438</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E69" s="5">
         <v>3</v>
@@ -4497,10 +4551,10 @@
         <v>41425</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I69" s="2"/>
     </row>
@@ -4512,10 +4566,10 @@
         <v>41417</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E70" s="5">
         <v>62</v>
@@ -4524,10 +4578,10 @@
         <v>41485</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I70" s="2"/>
     </row>
@@ -4539,22 +4593,22 @@
         <v>41285</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F71" s="4">
         <v>41347</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I71" s="2"/>
     </row>
@@ -4566,10 +4620,10 @@
         <v>41087</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E72" s="5">
         <v>51</v>
@@ -4578,10 +4632,10 @@
         <v>41148</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I72" s="2"/>
     </row>
@@ -4593,10 +4647,10 @@
         <v>41011</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E73" s="5">
         <v>150</v>
@@ -4605,13 +4659,13 @@
         <v>41071</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -4622,10 +4676,10 @@
         <v>40939</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E74" s="5">
         <v>70</v>
@@ -4634,13 +4688,13 @@
         <v>41000</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -4651,10 +4705,10 @@
         <v>40833</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E75" s="5">
         <v>110</v>
@@ -4663,10 +4717,10 @@
         <v>40833</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I75" s="1"/>
     </row>
@@ -4678,10 +4732,10 @@
         <v>40788</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E76" s="5">
         <v>16</v>
@@ -4690,10 +4744,10 @@
         <v>40846</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I76" s="1"/>
     </row>
@@ -4705,10 +4759,10 @@
         <v>40758</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E77" s="5">
         <v>9</v>
@@ -4717,10 +4771,10 @@
         <v>40816</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I77" s="1"/>
     </row>
@@ -4732,22 +4786,22 @@
         <v>40756</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E78" s="5">
         <v>98</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I78" s="1"/>
     </row>
@@ -4759,22 +4813,22 @@
         <v>40690</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E79" s="5">
         <v>21</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I79" s="1"/>
     </row>
@@ -4786,22 +4840,22 @@
         <v>40634</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E80" s="5">
         <v>98</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I80" s="1"/>
     </row>
@@ -4813,10 +4867,10 @@
         <v>40589</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E81" s="5">
         <v>5</v>
@@ -4825,10 +4879,10 @@
         <v>40644</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I81" s="1"/>
     </row>
@@ -4840,10 +4894,10 @@
         <v>40568</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E82" s="5">
         <v>122</v>
@@ -4852,10 +4906,10 @@
         <v>40592</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I82" s="1"/>
     </row>
@@ -4867,10 +4921,10 @@
         <v>40413</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E83" s="5">
         <v>89</v>
@@ -4879,10 +4933,10 @@
         <v>40452</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I83" s="1"/>
     </row>
@@ -4894,22 +4948,22 @@
         <v>40217</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E84" s="5">
         <v>26</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I84" s="1"/>
     </row>
@@ -4921,10 +4975,10 @@
         <v>40217</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E85" s="5">
         <v>165</v>
@@ -4933,10 +4987,10 @@
         <v>40217</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I85" s="1"/>
     </row>
@@ -4948,10 +5002,10 @@
         <v>40182</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E86" s="5">
         <v>8</v>
@@ -4960,10 +5014,10 @@
         <v>40210</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I86" s="1"/>
     </row>
@@ -4975,22 +5029,22 @@
         <v>40141</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E87" s="5">
         <v>66</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I87" s="1"/>
     </row>
@@ -5002,25 +5056,25 @@
         <v>40141</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E88" s="5">
         <v>103</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -5031,22 +5085,22 @@
         <v>40094</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F89" s="4">
         <v>40147</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I89" s="2"/>
     </row>
@@ -5058,10 +5112,10 @@
         <v>40091</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E90" s="5">
         <v>63</v>
@@ -5070,10 +5124,10 @@
         <v>40148</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I90" s="2"/>
     </row>
@@ -5085,22 +5139,22 @@
         <v>40050</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F91" s="4">
         <v>39895</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I91" s="2"/>
     </row>
@@ -5112,10 +5166,10 @@
         <v>40008</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E92" s="5">
         <v>130</v>
@@ -5124,10 +5178,10 @@
         <v>39895</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I92" s="2"/>
     </row>
@@ -5139,10 +5193,10 @@
         <v>40008</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E93" s="5">
         <v>26</v>
@@ -5151,10 +5205,10 @@
         <v>40001</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I93" s="2"/>
     </row>
@@ -5166,10 +5220,10 @@
         <v>39895</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E94" s="5">
         <v>14</v>
@@ -5178,10 +5232,10 @@
         <v>39895</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I94" s="2"/>
     </row>
@@ -5193,10 +5247,10 @@
         <v>39996</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E95" s="5">
         <v>10</v>
@@ -5205,10 +5259,10 @@
         <v>40041</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I95" s="2"/>
     </row>
@@ -5220,10 +5274,10 @@
         <v>39932</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E96" s="5">
         <v>171</v>
@@ -5232,13 +5286,13 @@
         <v>39994</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5249,10 +5303,10 @@
         <v>39918</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E97" s="5">
         <v>55</v>
@@ -5261,10 +5315,10 @@
         <v>39994</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I97" s="2"/>
     </row>
@@ -5276,10 +5330,10 @@
         <v>39882</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E98" s="5">
         <v>29</v>
@@ -5288,10 +5342,10 @@
         <v>39943</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I98" s="2"/>
     </row>
@@ -5303,10 +5357,10 @@
         <v>39881</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E99" s="5">
         <v>71</v>
@@ -5315,10 +5369,10 @@
         <v>39941</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I99" s="2"/>
     </row>
@@ -5330,10 +5384,10 @@
         <v>39878</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E100" s="5">
         <v>54</v>
@@ -5342,10 +5396,10 @@
         <v>39935</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I100" s="2"/>
     </row>
@@ -5357,10 +5411,10 @@
         <v>39877</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E101" s="5">
         <v>119</v>
@@ -5369,10 +5423,10 @@
         <v>39943</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I101" s="2"/>
     </row>
@@ -5384,10 +5438,10 @@
         <v>39864</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E102" s="5">
         <v>270</v>
@@ -5396,10 +5450,10 @@
         <v>39828</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I102" s="2"/>
     </row>
@@ -5411,10 +5465,10 @@
         <v>39825</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E103" s="5">
         <v>121</v>
@@ -5423,10 +5477,10 @@
         <v>39821</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I103" s="2"/>
     </row>
@@ -5445,6 +5499,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001D7CA4A7758DDF4F8A78677D3B22BD47" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3acca51fa395f9313e35082b17373cba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e19eab3b-0a92-46fc-9552-a493c76cdc00" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="877bd2ecca759b9e790c141c767e061f" ns2:_="">
     <xsd:import namespace="e19eab3b-0a92-46fc-9552-a493c76cdc00"/>
@@ -5588,23 +5651,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3BDC996-7CD8-43BD-838D-50E4C5CE2932}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{526D1213-C5F8-4F2A-BB65-47A3B48FEA3A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0557A4BC-595F-498F-986F-63860A4E78D3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0557A4BC-595F-498F-986F-63860A4E78D3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{526D1213-C5F8-4F2A-BB65-47A3B48FEA3A}"/>
 </file>
--- a/data/warn-scraper/cache/ri/WARN Report.xlsx
+++ b/data/warn-scraper/cache/ri/WARN Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmwilsonri/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathaniel.M.Wilson\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8DB80FF-FF91-4A66-8F91-75C7C7CF5EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D862E5-5953-4E8A-990D-A7C484A6E16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
+    <workbookView xWindow="5595" yWindow="945" windowWidth="18045" windowHeight="11760" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="1" r:id="rId1"/>
@@ -1254,13 +1254,13 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:S119"/>
+  <dimension ref="A1:S114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" customWidth="1"/>
@@ -1399,7 +1399,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:19" s="40" customFormat="1" ht="28.5">
+    <row r="7" spans="1:19" s="40" customFormat="1" ht="18">
       <c r="A7" s="13">
         <v>45560</v>
       </c>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:19" s="40" customFormat="1" ht="28.5">
+    <row r="8" spans="1:19" s="40" customFormat="1" ht="18">
       <c r="A8" s="13">
         <v>45524</v>
       </c>
@@ -2289,7 +2289,7 @@
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
     </row>
-    <row r="75" spans="1:9" ht="15.75">
+    <row r="75" spans="1:9">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="53"/>
@@ -2300,7 +2300,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="1:9" ht="15.75">
+    <row r="76" spans="1:9">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="53"/>
@@ -2311,7 +2311,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="1:9" ht="15.75">
+    <row r="77" spans="1:9">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="53"/>
@@ -2322,7 +2322,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="1:9" ht="15.75">
+    <row r="78" spans="1:9">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="53"/>
@@ -2333,7 +2333,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="1:9" ht="15.75">
+    <row r="79" spans="1:9">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="53"/>
@@ -2344,7 +2344,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="1:9" ht="15.75">
+    <row r="80" spans="1:9">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="53"/>
@@ -2355,7 +2355,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="1:9" ht="15.75">
+    <row r="81" spans="1:9">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="53"/>
@@ -2366,7 +2366,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="1:9" ht="15.75">
+    <row r="82" spans="1:9">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="53"/>
@@ -2377,7 +2377,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="1:9" ht="15.75">
+    <row r="83" spans="1:9">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="53"/>
@@ -2388,7 +2388,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="1:9" ht="15.75">
+    <row r="84" spans="1:9">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="53"/>
@@ -2399,7 +2399,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="1:9" ht="15.75">
+    <row r="85" spans="1:9">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="53"/>
@@ -2410,7 +2410,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:9" ht="15.75">
+    <row r="86" spans="1:9">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="53"/>
@@ -2421,7 +2421,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:9" ht="15.75">
+    <row r="87" spans="1:9">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="53"/>
@@ -2432,7 +2432,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="1:9" ht="15.75">
+    <row r="88" spans="1:9">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="53"/>
@@ -2443,7 +2443,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="1:9" ht="15.75">
+    <row r="89" spans="1:9">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="53"/>
@@ -2454,7 +2454,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="1:9" ht="15.75">
+    <row r="90" spans="1:9">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="53"/>
@@ -2465,7 +2465,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="1:9" ht="15.75">
+    <row r="91" spans="1:9">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="53"/>
@@ -2476,7 +2476,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="1:9" ht="15.75">
+    <row r="92" spans="1:9">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="53"/>
@@ -2487,7 +2487,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="1:9" ht="15.75">
+    <row r="93" spans="1:9">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="53"/>
@@ -2498,7 +2498,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="1:9" ht="15.75">
+    <row r="94" spans="1:9">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="53"/>
@@ -2509,7 +2509,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="1:9" ht="15.75">
+    <row r="95" spans="1:9">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="53"/>
@@ -2520,7 +2520,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="1:9" ht="15.75">
+    <row r="96" spans="1:9">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="53"/>
@@ -2531,7 +2531,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="1:9" ht="15.75">
+    <row r="97" spans="1:9">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="53"/>
@@ -2542,7 +2542,7 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="1:9" ht="15.75">
+    <row r="98" spans="1:9">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="53"/>
@@ -2553,7 +2553,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="1:9" ht="15.75">
+    <row r="99" spans="1:9">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="53"/>
@@ -2564,7 +2564,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="1:9" ht="15.75">
+    <row r="100" spans="1:9">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="53"/>
@@ -2575,7 +2575,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="1:9" ht="15.75">
+    <row r="101" spans="1:9">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="53"/>
@@ -2586,7 +2586,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="1:9" ht="15.75">
+    <row r="102" spans="1:9">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="53"/>
@@ -2597,7 +2597,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="1:9" ht="15.75">
+    <row r="103" spans="1:9">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="53"/>
@@ -2608,7 +2608,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="1:9" ht="15.75">
+    <row r="104" spans="1:9">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="53"/>
@@ -2619,7 +2619,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="1:9" ht="15.75">
+    <row r="105" spans="1:9">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="53"/>
@@ -2630,7 +2630,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="1:9" ht="15.75">
+    <row r="106" spans="1:9">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="53"/>
@@ -2641,7 +2641,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="1:9" ht="15.75">
+    <row r="107" spans="1:9">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="53"/>
@@ -2652,7 +2652,7 @@
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="1:9" ht="15.75">
+    <row r="108" spans="1:9">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="53"/>
@@ -2663,7 +2663,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="2"/>
     </row>
-    <row r="109" spans="1:9" ht="15.75">
+    <row r="109" spans="1:9">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="53"/>
@@ -2674,7 +2674,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="1:9" ht="15.75">
+    <row r="110" spans="1:9">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="53"/>
@@ -2685,7 +2685,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="1:9" ht="15.75">
+    <row r="111" spans="1:9">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="53"/>
@@ -2696,7 +2696,7 @@
       <c r="H111" s="1"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="1:9" ht="15.75">
+    <row r="112" spans="1:9">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="53"/>
@@ -2707,7 +2707,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="1:9" ht="15.75">
+    <row r="113" spans="1:9">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="53"/>
@@ -2718,7 +2718,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="1:9" ht="15.75">
+    <row r="114" spans="1:9">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="53"/>
@@ -2729,11 +2729,6 @@
       <c r="H114" s="1"/>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="1:9" ht="15.75"/>
-    <row r="116" spans="1:9" ht="15.75"/>
-    <row r="117" spans="1:9" ht="15.75"/>
-    <row r="118" spans="1:9" ht="15.75"/>
-    <row r="119" spans="1:9" ht="15.75"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I2"/>
@@ -2750,11 +2745,11 @@
   </sheetPr>
   <dimension ref="A1:N177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:N177"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
@@ -2788,7 +2783,7 @@
       <c r="H2" s="70"/>
       <c r="I2" s="70"/>
     </row>
-    <row r="3" spans="1:14" ht="30.95">
+    <row r="3" spans="1:14" ht="31.5">
       <c r="A3" s="69"/>
       <c r="B3" s="69"/>
       <c r="C3" s="69"/>
@@ -2828,7 +2823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75">
+    <row r="5" spans="1:14">
       <c r="A5" s="59">
         <v>45191</v>
       </c>
@@ -2860,7 +2855,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75">
+    <row r="6" spans="1:14">
       <c r="A6" s="59">
         <v>45156</v>
       </c>
@@ -2892,7 +2887,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75">
+    <row r="7" spans="1:14">
       <c r="A7" s="56">
         <v>45153</v>
       </c>
@@ -2924,7 +2919,7 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75">
+    <row r="8" spans="1:14">
       <c r="A8" s="59">
         <v>45112</v>
       </c>
@@ -2958,7 +2953,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75">
+    <row r="9" spans="1:14">
       <c r="A9" s="59">
         <v>45107</v>
       </c>
@@ -2992,7 +2987,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75">
+    <row r="10" spans="1:14">
       <c r="A10" s="59">
         <v>45063</v>
       </c>
@@ -3026,7 +3021,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75">
+    <row r="11" spans="1:14">
       <c r="A11" s="63">
         <v>44949</v>
       </c>
@@ -3060,7 +3055,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75">
+    <row r="12" spans="1:14">
       <c r="A12" s="56">
         <v>44930</v>
       </c>
@@ -3092,7 +3087,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75">
+    <row r="13" spans="1:14">
       <c r="A13" s="64">
         <v>44827</v>
       </c>
@@ -3124,7 +3119,7 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75">
+    <row r="14" spans="1:14">
       <c r="A14" s="64">
         <v>44817</v>
       </c>
@@ -3156,7 +3151,7 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75">
+    <row r="15" spans="1:14">
       <c r="A15" s="64">
         <v>44595</v>
       </c>
@@ -3188,7 +3183,7 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75">
+    <row r="16" spans="1:14">
       <c r="A16" s="64">
         <v>44334</v>
       </c>
@@ -3222,7 +3217,7 @@
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75">
+    <row r="17" spans="1:14">
       <c r="A17" s="64">
         <v>44342</v>
       </c>
@@ -3254,7 +3249,7 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75">
+    <row r="18" spans="1:14">
       <c r="A18" s="64">
         <v>44105</v>
       </c>
@@ -3286,7 +3281,7 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75">
+    <row r="19" spans="1:14">
       <c r="A19" s="64">
         <v>44064</v>
       </c>
@@ -3318,7 +3313,7 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75">
+    <row r="20" spans="1:14">
       <c r="A20" s="64">
         <v>44057</v>
       </c>
@@ -3350,7 +3345,7 @@
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75">
+    <row r="21" spans="1:14">
       <c r="A21" s="64">
         <v>44049</v>
       </c>
@@ -3384,7 +3379,7 @@
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75">
+    <row r="22" spans="1:14">
       <c r="A22" s="64">
         <v>44054</v>
       </c>
@@ -3418,7 +3413,7 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75">
+    <row r="23" spans="1:14">
       <c r="A23" s="64">
         <v>44054</v>
       </c>
@@ -3452,7 +3447,7 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75">
+    <row r="24" spans="1:14">
       <c r="A24" s="64">
         <v>44046</v>
       </c>
@@ -3484,7 +3479,7 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75">
+    <row r="25" spans="1:14">
       <c r="A25" s="64">
         <v>44027</v>
       </c>
@@ -3518,7 +3513,7 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75">
+    <row r="26" spans="1:14">
       <c r="A26" s="64">
         <v>44004</v>
       </c>
@@ -3550,7 +3545,7 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75">
+    <row r="27" spans="1:14">
       <c r="A27" s="64">
         <v>44012</v>
       </c>
@@ -3582,7 +3577,7 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75">
+    <row r="28" spans="1:14">
       <c r="A28" s="64">
         <v>43985</v>
       </c>
@@ -3614,7 +3609,7 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75">
+    <row r="29" spans="1:14">
       <c r="A29" s="64">
         <v>43980</v>
       </c>
@@ -3646,7 +3641,7 @@
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75">
+    <row r="30" spans="1:14">
       <c r="A30" s="56">
         <v>44063</v>
       </c>
@@ -3678,7 +3673,7 @@
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75">
+    <row r="31" spans="1:14">
       <c r="A31" s="56">
         <v>43948</v>
       </c>
@@ -3710,7 +3705,7 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75">
+    <row r="32" spans="1:14">
       <c r="A32" s="56">
         <v>43942</v>
       </c>
@@ -3742,7 +3737,7 @@
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75">
+    <row r="33" spans="1:14">
       <c r="A33" s="64">
         <v>43941</v>
       </c>
@@ -3774,7 +3769,7 @@
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75">
+    <row r="34" spans="1:14">
       <c r="A34" s="64">
         <v>43907</v>
       </c>
@@ -3806,7 +3801,7 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75">
+    <row r="35" spans="1:14">
       <c r="A35" s="64">
         <v>43927</v>
       </c>
@@ -3838,7 +3833,7 @@
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75">
+    <row r="36" spans="1:14">
       <c r="A36" s="64">
         <v>43925</v>
       </c>
@@ -3870,7 +3865,7 @@
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75">
+    <row r="37" spans="1:14">
       <c r="A37" s="64">
         <v>43916</v>
       </c>
@@ -3902,7 +3897,7 @@
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75">
+    <row r="38" spans="1:14">
       <c r="A38" s="64">
         <v>43916</v>
       </c>
@@ -3936,7 +3931,7 @@
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75">
+    <row r="39" spans="1:14">
       <c r="A39" s="64">
         <v>43910</v>
       </c>
@@ -3968,7 +3963,7 @@
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75">
+    <row r="40" spans="1:14">
       <c r="A40" s="64">
         <v>43909</v>
       </c>
@@ -4000,7 +3995,7 @@
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75">
+    <row r="41" spans="1:14">
       <c r="A41" s="64">
         <v>43509</v>
       </c>
@@ -4032,7 +4027,7 @@
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75">
+    <row r="42" spans="1:14">
       <c r="A42" s="64">
         <v>43486</v>
       </c>
@@ -4064,7 +4059,7 @@
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75">
+    <row r="43" spans="1:14">
       <c r="A43" s="64">
         <v>43479</v>
       </c>
@@ -4096,7 +4091,7 @@
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75">
+    <row r="44" spans="1:14">
       <c r="A44" s="64">
         <v>43405</v>
       </c>
@@ -4128,7 +4123,7 @@
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75">
+    <row r="45" spans="1:14">
       <c r="A45" s="64">
         <v>76277</v>
       </c>
@@ -4160,7 +4155,7 @@
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75">
+    <row r="46" spans="1:14">
       <c r="A46" s="64">
         <v>76268</v>
       </c>
@@ -4192,7 +4187,7 @@
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75">
+    <row r="47" spans="1:14">
       <c r="A47" s="64">
         <v>43382</v>
       </c>
@@ -4224,7 +4219,7 @@
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75">
+    <row r="48" spans="1:14">
       <c r="A48" s="64">
         <v>43362</v>
       </c>
@@ -4256,7 +4251,7 @@
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75">
+    <row r="49" spans="1:14">
       <c r="A49" s="64">
         <v>43273</v>
       </c>
@@ -4290,7 +4285,7 @@
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75">
+    <row r="50" spans="1:14">
       <c r="A50" s="64">
         <v>43252</v>
       </c>
@@ -4322,7 +4317,7 @@
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75">
+    <row r="51" spans="1:14">
       <c r="A51" s="64">
         <v>43042</v>
       </c>
@@ -4356,7 +4351,7 @@
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75">
+    <row r="52" spans="1:14">
       <c r="A52" s="64">
         <v>42986</v>
       </c>
@@ -4388,7 +4383,7 @@
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75">
+    <row r="53" spans="1:14">
       <c r="A53" s="64">
         <v>42495</v>
       </c>
@@ -4420,7 +4415,7 @@
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
     </row>
-    <row r="54" spans="1:14" ht="15.75">
+    <row r="54" spans="1:14">
       <c r="A54" s="64">
         <v>42494</v>
       </c>
@@ -4454,7 +4449,7 @@
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
     </row>
-    <row r="55" spans="1:14" ht="15.75">
+    <row r="55" spans="1:14">
       <c r="A55" s="64">
         <v>42468</v>
       </c>
@@ -4486,7 +4481,7 @@
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
     </row>
-    <row r="56" spans="1:14" ht="15.75">
+    <row r="56" spans="1:14">
       <c r="A56" s="64">
         <v>42401</v>
       </c>
@@ -4518,7 +4513,7 @@
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75">
+    <row r="57" spans="1:14">
       <c r="A57" s="64">
         <v>42384</v>
       </c>
@@ -4550,7 +4545,7 @@
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75">
+    <row r="58" spans="1:14">
       <c r="A58" s="64">
         <v>42326</v>
       </c>
@@ -4582,7 +4577,7 @@
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75">
+    <row r="59" spans="1:14">
       <c r="A59" s="64">
         <v>42318</v>
       </c>
@@ -4614,7 +4609,7 @@
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75">
+    <row r="60" spans="1:14">
       <c r="A60" s="64">
         <v>42178</v>
       </c>
@@ -4646,7 +4641,7 @@
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75">
+    <row r="61" spans="1:14">
       <c r="A61" s="64">
         <v>42069</v>
       </c>
@@ -4680,7 +4675,7 @@
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75">
+    <row r="62" spans="1:14">
       <c r="A62" s="64">
         <v>42062</v>
       </c>
@@ -4712,7 +4707,7 @@
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75">
+    <row r="63" spans="1:14">
       <c r="A63" s="64">
         <v>41850</v>
       </c>
@@ -4744,7 +4739,7 @@
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75">
+    <row r="64" spans="1:14">
       <c r="A64" s="64">
         <v>41820</v>
       </c>
@@ -4776,7 +4771,7 @@
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
     </row>
-    <row r="65" spans="1:14" ht="15.75">
+    <row r="65" spans="1:14">
       <c r="A65" s="64">
         <v>41724</v>
       </c>
@@ -4810,7 +4805,7 @@
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
     </row>
-    <row r="66" spans="1:14" ht="15.75">
+    <row r="66" spans="1:14">
       <c r="A66" s="64">
         <v>41593</v>
       </c>
@@ -4842,7 +4837,7 @@
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
     </row>
-    <row r="67" spans="1:14" ht="15.75">
+    <row r="67" spans="1:14">
       <c r="A67" s="64">
         <v>41547</v>
       </c>
@@ -4874,7 +4869,7 @@
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
     </row>
-    <row r="68" spans="1:14" ht="15.75">
+    <row r="68" spans="1:14">
       <c r="A68" s="64">
         <v>41495</v>
       </c>
@@ -4906,7 +4901,7 @@
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
     </row>
-    <row r="69" spans="1:14" ht="15.75">
+    <row r="69" spans="1:14">
       <c r="A69" s="64">
         <v>41425</v>
       </c>
@@ -4938,7 +4933,7 @@
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
     </row>
-    <row r="70" spans="1:14" ht="15.75">
+    <row r="70" spans="1:14">
       <c r="A70" s="64">
         <v>41416</v>
       </c>
@@ -4970,7 +4965,7 @@
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
     </row>
-    <row r="71" spans="1:14" ht="15.75">
+    <row r="71" spans="1:14">
       <c r="A71" s="64">
         <v>41285</v>
       </c>
@@ -5002,7 +4997,7 @@
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
     </row>
-    <row r="72" spans="1:14" ht="15.75">
+    <row r="72" spans="1:14">
       <c r="A72" s="64">
         <v>41087</v>
       </c>
@@ -5034,7 +5029,7 @@
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
     </row>
-    <row r="73" spans="1:14" ht="15.75">
+    <row r="73" spans="1:14">
       <c r="A73" s="64">
         <v>41011</v>
       </c>
@@ -5068,7 +5063,7 @@
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
     </row>
-    <row r="74" spans="1:14" ht="15.75">
+    <row r="74" spans="1:14">
       <c r="A74" s="64">
         <v>40938</v>
       </c>
@@ -5102,7 +5097,7 @@
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
     </row>
-    <row r="75" spans="1:14" ht="15.75">
+    <row r="75" spans="1:14">
       <c r="A75" s="64">
         <v>40833</v>
       </c>
@@ -5134,7 +5129,7 @@
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
     </row>
-    <row r="76" spans="1:14" ht="15.75">
+    <row r="76" spans="1:14">
       <c r="A76" s="64">
         <v>40785</v>
       </c>
@@ -5166,7 +5161,7 @@
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
     </row>
-    <row r="77" spans="1:14" ht="15.75">
+    <row r="77" spans="1:14">
       <c r="A77" s="64">
         <v>40752</v>
       </c>
@@ -5198,7 +5193,7 @@
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
     </row>
-    <row r="78" spans="1:14" ht="15.75">
+    <row r="78" spans="1:14">
       <c r="A78" s="64">
         <v>40753</v>
       </c>
@@ -5230,7 +5225,7 @@
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
     </row>
-    <row r="79" spans="1:14" ht="15.75">
+    <row r="79" spans="1:14">
       <c r="A79" s="64">
         <v>40688</v>
       </c>
@@ -5262,7 +5257,7 @@
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
     </row>
-    <row r="80" spans="1:14" ht="15.75">
+    <row r="80" spans="1:14">
       <c r="A80" s="64">
         <v>40634</v>
       </c>
@@ -5294,7 +5289,7 @@
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
     </row>
-    <row r="81" spans="1:14" ht="15.75">
+    <row r="81" spans="1:14">
       <c r="A81" s="64">
         <v>40589</v>
       </c>
@@ -5326,7 +5321,7 @@
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
     </row>
-    <row r="82" spans="1:14" ht="15.75">
+    <row r="82" spans="1:14">
       <c r="A82" s="64">
         <v>40565</v>
       </c>
@@ -5358,7 +5353,7 @@
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
     </row>
-    <row r="83" spans="1:14" ht="15.75">
+    <row r="83" spans="1:14">
       <c r="A83" s="64">
         <v>40410</v>
       </c>
@@ -5390,7 +5385,7 @@
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
     </row>
-    <row r="84" spans="1:14" ht="15.75">
+    <row r="84" spans="1:14">
       <c r="A84" s="64">
         <v>40392</v>
       </c>
@@ -5422,7 +5417,7 @@
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
     </row>
-    <row r="85" spans="1:14" ht="15.75">
+    <row r="85" spans="1:14">
       <c r="A85" s="64">
         <v>40214</v>
       </c>
@@ -5454,7 +5449,7 @@
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
     </row>
-    <row r="86" spans="1:14" ht="15.75">
+    <row r="86" spans="1:14">
       <c r="A86" s="64">
         <v>40178</v>
       </c>
@@ -5486,7 +5481,7 @@
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
     </row>
-    <row r="87" spans="1:14" ht="15.75">
+    <row r="87" spans="1:14">
       <c r="A87" s="64">
         <v>40137</v>
       </c>
@@ -5518,7 +5513,7 @@
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
     </row>
-    <row r="88" spans="1:14" ht="15.75">
+    <row r="88" spans="1:14">
       <c r="A88" s="64">
         <v>40137</v>
       </c>
@@ -5552,7 +5547,7 @@
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
     </row>
-    <row r="89" spans="1:14" ht="15.75">
+    <row r="89" spans="1:14">
       <c r="A89" s="64">
         <v>40094</v>
       </c>
@@ -5584,7 +5579,7 @@
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
     </row>
-    <row r="90" spans="1:14" ht="15.75">
+    <row r="90" spans="1:14">
       <c r="A90" s="64">
         <v>40091</v>
       </c>
@@ -5616,7 +5611,7 @@
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
     </row>
-    <row r="91" spans="1:14" ht="15.75">
+    <row r="91" spans="1:14">
       <c r="A91" s="64">
         <v>40046</v>
       </c>
@@ -5648,7 +5643,7 @@
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
     </row>
-    <row r="92" spans="1:14" ht="15.75">
+    <row r="92" spans="1:14">
       <c r="A92" s="64">
         <v>40007</v>
       </c>
@@ -5680,7 +5675,7 @@
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
     </row>
-    <row r="93" spans="1:14" ht="15.75">
+    <row r="93" spans="1:14">
       <c r="A93" s="64">
         <v>40007</v>
       </c>
@@ -5712,7 +5707,7 @@
       <c r="M93" s="5"/>
       <c r="N93" s="5"/>
     </row>
-    <row r="94" spans="1:14" ht="15.75">
+    <row r="94" spans="1:14">
       <c r="A94" s="64">
         <v>39995</v>
       </c>
@@ -5744,7 +5739,7 @@
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
     </row>
-    <row r="95" spans="1:14" ht="15.75">
+    <row r="95" spans="1:14">
       <c r="A95" s="64">
         <v>39980</v>
       </c>
@@ -5776,7 +5771,7 @@
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
     </row>
-    <row r="96" spans="1:14" ht="15.75">
+    <row r="96" spans="1:14">
       <c r="A96" s="64">
         <v>39931</v>
       </c>
@@ -5810,7 +5805,7 @@
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
     </row>
-    <row r="97" spans="1:14" ht="15.75">
+    <row r="97" spans="1:14">
       <c r="A97" s="64">
         <v>39918</v>
       </c>
@@ -5842,7 +5837,7 @@
       <c r="M97" s="5"/>
       <c r="N97" s="5"/>
     </row>
-    <row r="98" spans="1:14" ht="15.75">
+    <row r="98" spans="1:14">
       <c r="A98" s="64">
         <v>39883</v>
       </c>
@@ -5874,7 +5869,7 @@
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
     </row>
-    <row r="99" spans="1:14" ht="15.75">
+    <row r="99" spans="1:14">
       <c r="A99" s="64">
         <v>39881</v>
       </c>
@@ -5906,7 +5901,7 @@
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
     </row>
-    <row r="100" spans="1:14" ht="15.75">
+    <row r="100" spans="1:14">
       <c r="A100" s="64">
         <v>39876</v>
       </c>
@@ -5938,7 +5933,7 @@
       <c r="M100" s="5"/>
       <c r="N100" s="5"/>
     </row>
-    <row r="101" spans="1:14" ht="15.75">
+    <row r="101" spans="1:14">
       <c r="A101" s="64">
         <v>39877</v>
       </c>
@@ -5970,7 +5965,7 @@
       <c r="M101" s="5"/>
       <c r="N101" s="5"/>
     </row>
-    <row r="102" spans="1:14" ht="15.75">
+    <row r="102" spans="1:14">
       <c r="A102" s="64">
         <v>39863</v>
       </c>
@@ -6002,7 +5997,7 @@
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>
     </row>
-    <row r="103" spans="1:14" ht="15.75">
+    <row r="103" spans="1:14">
       <c r="A103" s="64">
         <v>39832</v>
       </c>
@@ -6034,7 +6029,7 @@
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
     </row>
-    <row r="104" spans="1:14" ht="15.75">
+    <row r="104" spans="1:14">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -6050,7 +6045,7 @@
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
     </row>
-    <row r="105" spans="1:14" ht="15.75">
+    <row r="105" spans="1:14">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -6066,7 +6061,7 @@
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
     </row>
-    <row r="106" spans="1:14" ht="15.75">
+    <row r="106" spans="1:14">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -6082,7 +6077,7 @@
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
     </row>
-    <row r="107" spans="1:14" ht="15.75">
+    <row r="107" spans="1:14">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -6098,7 +6093,7 @@
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
     </row>
-    <row r="108" spans="1:14" ht="15.75">
+    <row r="108" spans="1:14">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -6114,7 +6109,7 @@
       <c r="M108" s="5"/>
       <c r="N108" s="5"/>
     </row>
-    <row r="109" spans="1:14" ht="15.75">
+    <row r="109" spans="1:14">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -6130,7 +6125,7 @@
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
     </row>
-    <row r="110" spans="1:14" ht="15.75">
+    <row r="110" spans="1:14">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -6146,7 +6141,7 @@
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
     </row>
-    <row r="111" spans="1:14" ht="15.75">
+    <row r="111" spans="1:14">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -6162,7 +6157,7 @@
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
     </row>
-    <row r="112" spans="1:14" ht="15.75">
+    <row r="112" spans="1:14">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -6178,7 +6173,7 @@
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
     </row>
-    <row r="113" spans="1:14" ht="15.75">
+    <row r="113" spans="1:14">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -6194,7 +6189,7 @@
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
     </row>
-    <row r="114" spans="1:14" ht="15.75">
+    <row r="114" spans="1:14">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -6210,7 +6205,7 @@
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
     </row>
-    <row r="115" spans="1:14" ht="15.75">
+    <row r="115" spans="1:14">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -6226,7 +6221,7 @@
       <c r="M115" s="5"/>
       <c r="N115" s="5"/>
     </row>
-    <row r="116" spans="1:14" ht="15.75">
+    <row r="116" spans="1:14">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -6242,7 +6237,7 @@
       <c r="M116" s="5"/>
       <c r="N116" s="5"/>
     </row>
-    <row r="117" spans="1:14" ht="15.75">
+    <row r="117" spans="1:14">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -6258,7 +6253,7 @@
       <c r="M117" s="5"/>
       <c r="N117" s="5"/>
     </row>
-    <row r="118" spans="1:14" ht="15.75">
+    <row r="118" spans="1:14">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -6274,7 +6269,7 @@
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
     </row>
-    <row r="119" spans="1:14" ht="15.75">
+    <row r="119" spans="1:14">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -6290,7 +6285,7 @@
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
     </row>
-    <row r="120" spans="1:14" ht="15.75">
+    <row r="120" spans="1:14">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -6306,7 +6301,7 @@
       <c r="M120" s="5"/>
       <c r="N120" s="5"/>
     </row>
-    <row r="121" spans="1:14" ht="15.75">
+    <row r="121" spans="1:14">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -6322,7 +6317,7 @@
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
     </row>
-    <row r="122" spans="1:14" ht="15.75">
+    <row r="122" spans="1:14">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -6338,7 +6333,7 @@
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
     </row>
-    <row r="123" spans="1:14" ht="15.75">
+    <row r="123" spans="1:14">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -6354,7 +6349,7 @@
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
     </row>
-    <row r="124" spans="1:14" ht="15.75">
+    <row r="124" spans="1:14">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -6370,7 +6365,7 @@
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
     </row>
-    <row r="125" spans="1:14" ht="15.75">
+    <row r="125" spans="1:14">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -6386,7 +6381,7 @@
       <c r="M125" s="5"/>
       <c r="N125" s="5"/>
     </row>
-    <row r="126" spans="1:14" ht="15.75">
+    <row r="126" spans="1:14">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -6402,7 +6397,7 @@
       <c r="M126" s="5"/>
       <c r="N126" s="5"/>
     </row>
-    <row r="127" spans="1:14" ht="15.75">
+    <row r="127" spans="1:14">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -6418,7 +6413,7 @@
       <c r="M127" s="5"/>
       <c r="N127" s="5"/>
     </row>
-    <row r="128" spans="1:14" ht="15.75">
+    <row r="128" spans="1:14">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -6434,7 +6429,7 @@
       <c r="M128" s="5"/>
       <c r="N128" s="5"/>
     </row>
-    <row r="129" spans="1:14" ht="15.75">
+    <row r="129" spans="1:14">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -6450,7 +6445,7 @@
       <c r="M129" s="5"/>
       <c r="N129" s="5"/>
     </row>
-    <row r="130" spans="1:14" ht="15.75">
+    <row r="130" spans="1:14">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -6466,7 +6461,7 @@
       <c r="M130" s="5"/>
       <c r="N130" s="5"/>
     </row>
-    <row r="131" spans="1:14" ht="15.75">
+    <row r="131" spans="1:14">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -6482,7 +6477,7 @@
       <c r="M131" s="5"/>
       <c r="N131" s="5"/>
     </row>
-    <row r="132" spans="1:14" ht="15.75">
+    <row r="132" spans="1:14">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -6498,7 +6493,7 @@
       <c r="M132" s="5"/>
       <c r="N132" s="5"/>
     </row>
-    <row r="133" spans="1:14" ht="15.75">
+    <row r="133" spans="1:14">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -6514,7 +6509,7 @@
       <c r="M133" s="5"/>
       <c r="N133" s="5"/>
     </row>
-    <row r="134" spans="1:14" ht="15.75">
+    <row r="134" spans="1:14">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -6530,7 +6525,7 @@
       <c r="M134" s="5"/>
       <c r="N134" s="5"/>
     </row>
-    <row r="135" spans="1:14" ht="15.75">
+    <row r="135" spans="1:14">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -6546,7 +6541,7 @@
       <c r="M135" s="5"/>
       <c r="N135" s="5"/>
     </row>
-    <row r="136" spans="1:14" ht="15.75">
+    <row r="136" spans="1:14">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -6562,7 +6557,7 @@
       <c r="M136" s="5"/>
       <c r="N136" s="5"/>
     </row>
-    <row r="137" spans="1:14" ht="15.75">
+    <row r="137" spans="1:14">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -6578,7 +6573,7 @@
       <c r="M137" s="5"/>
       <c r="N137" s="5"/>
     </row>
-    <row r="138" spans="1:14" ht="15.75">
+    <row r="138" spans="1:14">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -6594,7 +6589,7 @@
       <c r="M138" s="5"/>
       <c r="N138" s="5"/>
     </row>
-    <row r="139" spans="1:14" ht="15.75">
+    <row r="139" spans="1:14">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -6610,7 +6605,7 @@
       <c r="M139" s="5"/>
       <c r="N139" s="5"/>
     </row>
-    <row r="140" spans="1:14" ht="15.75">
+    <row r="140" spans="1:14">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -6626,7 +6621,7 @@
       <c r="M140" s="5"/>
       <c r="N140" s="5"/>
     </row>
-    <row r="141" spans="1:14" ht="15.75">
+    <row r="141" spans="1:14">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -6642,7 +6637,7 @@
       <c r="M141" s="5"/>
       <c r="N141" s="5"/>
     </row>
-    <row r="142" spans="1:14" ht="15.75">
+    <row r="142" spans="1:14">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -6658,7 +6653,7 @@
       <c r="M142" s="5"/>
       <c r="N142" s="5"/>
     </row>
-    <row r="143" spans="1:14" ht="15.75">
+    <row r="143" spans="1:14">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -6674,7 +6669,7 @@
       <c r="M143" s="5"/>
       <c r="N143" s="5"/>
     </row>
-    <row r="144" spans="1:14" ht="15.75">
+    <row r="144" spans="1:14">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -6690,7 +6685,7 @@
       <c r="M144" s="5"/>
       <c r="N144" s="5"/>
     </row>
-    <row r="145" spans="1:14" ht="15.75">
+    <row r="145" spans="1:14">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -6706,7 +6701,7 @@
       <c r="M145" s="5"/>
       <c r="N145" s="5"/>
     </row>
-    <row r="146" spans="1:14" ht="15.75">
+    <row r="146" spans="1:14">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -6722,7 +6717,7 @@
       <c r="M146" s="5"/>
       <c r="N146" s="5"/>
     </row>
-    <row r="147" spans="1:14" ht="15.75">
+    <row r="147" spans="1:14">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -6738,7 +6733,7 @@
       <c r="M147" s="5"/>
       <c r="N147" s="5"/>
     </row>
-    <row r="148" spans="1:14" ht="15.75">
+    <row r="148" spans="1:14">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -6754,7 +6749,7 @@
       <c r="M148" s="5"/>
       <c r="N148" s="5"/>
     </row>
-    <row r="149" spans="1:14" ht="15.75">
+    <row r="149" spans="1:14">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -6770,7 +6765,7 @@
       <c r="M149" s="5"/>
       <c r="N149" s="5"/>
     </row>
-    <row r="150" spans="1:14" ht="15.75">
+    <row r="150" spans="1:14">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -6786,7 +6781,7 @@
       <c r="M150" s="5"/>
       <c r="N150" s="5"/>
     </row>
-    <row r="151" spans="1:14" ht="15.75">
+    <row r="151" spans="1:14">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -6802,7 +6797,7 @@
       <c r="M151" s="5"/>
       <c r="N151" s="5"/>
     </row>
-    <row r="152" spans="1:14" ht="15.75">
+    <row r="152" spans="1:14">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -6818,7 +6813,7 @@
       <c r="M152" s="5"/>
       <c r="N152" s="5"/>
     </row>
-    <row r="153" spans="1:14" ht="15.75">
+    <row r="153" spans="1:14">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -6834,7 +6829,7 @@
       <c r="M153" s="5"/>
       <c r="N153" s="5"/>
     </row>
-    <row r="154" spans="1:14" ht="15.75">
+    <row r="154" spans="1:14">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -6850,7 +6845,7 @@
       <c r="M154" s="5"/>
       <c r="N154" s="5"/>
     </row>
-    <row r="155" spans="1:14" ht="15.75">
+    <row r="155" spans="1:14">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -6866,7 +6861,7 @@
       <c r="M155" s="5"/>
       <c r="N155" s="5"/>
     </row>
-    <row r="156" spans="1:14" ht="15.75">
+    <row r="156" spans="1:14">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -6882,7 +6877,7 @@
       <c r="M156" s="5"/>
       <c r="N156" s="5"/>
     </row>
-    <row r="157" spans="1:14" ht="15.75">
+    <row r="157" spans="1:14">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -6898,7 +6893,7 @@
       <c r="M157" s="5"/>
       <c r="N157" s="5"/>
     </row>
-    <row r="158" spans="1:14" ht="15.75">
+    <row r="158" spans="1:14">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -6914,7 +6909,7 @@
       <c r="M158" s="5"/>
       <c r="N158" s="5"/>
     </row>
-    <row r="159" spans="1:14" ht="15.75">
+    <row r="159" spans="1:14">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -6930,7 +6925,7 @@
       <c r="M159" s="5"/>
       <c r="N159" s="5"/>
     </row>
-    <row r="160" spans="1:14" ht="15.75">
+    <row r="160" spans="1:14">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -6946,7 +6941,7 @@
       <c r="M160" s="5"/>
       <c r="N160" s="5"/>
     </row>
-    <row r="161" spans="1:14" ht="15.75">
+    <row r="161" spans="1:14">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -6962,7 +6957,7 @@
       <c r="M161" s="5"/>
       <c r="N161" s="5"/>
     </row>
-    <row r="162" spans="1:14" ht="15.75">
+    <row r="162" spans="1:14">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -6978,7 +6973,7 @@
       <c r="M162" s="5"/>
       <c r="N162" s="5"/>
     </row>
-    <row r="163" spans="1:14" ht="15.75">
+    <row r="163" spans="1:14">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -6994,7 +6989,7 @@
       <c r="M163" s="5"/>
       <c r="N163" s="5"/>
     </row>
-    <row r="164" spans="1:14" ht="15.75">
+    <row r="164" spans="1:14">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -7010,7 +7005,7 @@
       <c r="M164" s="5"/>
       <c r="N164" s="5"/>
     </row>
-    <row r="165" spans="1:14" ht="15.75">
+    <row r="165" spans="1:14">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -7026,7 +7021,7 @@
       <c r="M165" s="5"/>
       <c r="N165" s="5"/>
     </row>
-    <row r="166" spans="1:14" ht="15.75">
+    <row r="166" spans="1:14">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -7042,7 +7037,7 @@
       <c r="M166" s="5"/>
       <c r="N166" s="5"/>
     </row>
-    <row r="167" spans="1:14" ht="15.75">
+    <row r="167" spans="1:14">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -7058,7 +7053,7 @@
       <c r="M167" s="5"/>
       <c r="N167" s="5"/>
     </row>
-    <row r="168" spans="1:14" ht="15.75">
+    <row r="168" spans="1:14">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -7074,7 +7069,7 @@
       <c r="M168" s="5"/>
       <c r="N168" s="5"/>
     </row>
-    <row r="169" spans="1:14" ht="15.75">
+    <row r="169" spans="1:14">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -7090,7 +7085,7 @@
       <c r="M169" s="5"/>
       <c r="N169" s="5"/>
     </row>
-    <row r="170" spans="1:14" ht="15.75">
+    <row r="170" spans="1:14">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -7106,7 +7101,7 @@
       <c r="M170" s="5"/>
       <c r="N170" s="5"/>
     </row>
-    <row r="171" spans="1:14" ht="15.75">
+    <row r="171" spans="1:14">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -7122,7 +7117,7 @@
       <c r="M171" s="5"/>
       <c r="N171" s="5"/>
     </row>
-    <row r="172" spans="1:14" ht="15.75">
+    <row r="172" spans="1:14">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -7138,7 +7133,7 @@
       <c r="M172" s="5"/>
       <c r="N172" s="5"/>
     </row>
-    <row r="173" spans="1:14" ht="15.75">
+    <row r="173" spans="1:14">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -7154,7 +7149,7 @@
       <c r="M173" s="5"/>
       <c r="N173" s="5"/>
     </row>
-    <row r="174" spans="1:14" ht="15.75">
+    <row r="174" spans="1:14">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -7170,7 +7165,7 @@
       <c r="M174" s="5"/>
       <c r="N174" s="5"/>
     </row>
-    <row r="175" spans="1:14" ht="15.75">
+    <row r="175" spans="1:14">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -7186,7 +7181,7 @@
       <c r="M175" s="5"/>
       <c r="N175" s="5"/>
     </row>
-    <row r="176" spans="1:14" ht="15.75">
+    <row r="176" spans="1:14">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -7202,7 +7197,7 @@
       <c r="M176" s="5"/>
       <c r="N176" s="5"/>
     </row>
-    <row r="177" spans="1:14" ht="15.75">
+    <row r="177" spans="1:14">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -7233,15 +7228,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001D7CA4A7758DDF4F8A78677D3B22BD47" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3acca51fa395f9313e35082b17373cba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e19eab3b-0a92-46fc-9552-a493c76cdc00" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="877bd2ecca759b9e790c141c767e061f" ns2:_="">
     <xsd:import namespace="e19eab3b-0a92-46fc-9552-a493c76cdc00"/>
@@ -7385,14 +7371,46 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3BDC996-7CD8-43BD-838D-50E4C5CE2932}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3BDC996-7CD8-43BD-838D-50E4C5CE2932}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0557A4BC-595F-498F-986F-63860A4E78D3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{526D1213-C5F8-4F2A-BB65-47A3B48FEA3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e19eab3b-0a92-46fc-9552-a493c76cdc00"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{526D1213-C5F8-4F2A-BB65-47A3B48FEA3A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0557A4BC-595F-498F-986F-63860A4E78D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/warn-scraper/cache/ri/WARN Report.xlsx
+++ b/data/warn-scraper/cache/ri/WARN Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathaniel.M.Wilson\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmwilsonri/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D862E5-5953-4E8A-990D-A7C484A6E16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81BA42DD-9B85-4EF2-8AAC-31B263980A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5595" yWindow="945" windowWidth="18045" windowHeight="11760" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="191">
   <si>
     <t>Rhode Island WARN Report</t>
   </si>
@@ -69,6 +69,18 @@
     <t>Union Address</t>
   </si>
   <si>
+    <t>Gannett Publishing</t>
+  </si>
+  <si>
+    <t>Providence</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Teamsters Local 251, 1201 Elmwood Ave., Prov., RI 02907, Teamsters Local 3, Graphic Communications Conference, 1073 Hancock St., Suite 303, Quincy, MA 02169</t>
+  </si>
+  <si>
     <t>CVS</t>
   </si>
   <si>
@@ -102,9 +114,6 @@
     <t>East Providence</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Kirby Perkins Construction</t>
   </si>
   <si>
@@ -124,9 +133,6 @@
   </si>
   <si>
     <t>ASM GLOBAL</t>
-  </si>
-  <si>
-    <t>Providence</t>
   </si>
   <si>
     <t>There are 8 Unions representing 800 workers. All 1,029 workers are being retained.</t>
@@ -749,7 +755,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -758,9 +764,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -797,9 +800,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -858,15 +858,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -874,9 +865,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -899,9 +887,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -931,11 +916,35 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1254,1481 +1263,1529 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:S114"/>
+  <dimension ref="A1:S122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A5" sqref="A5:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="45.75" style="54" customWidth="1"/>
+    <col min="3" max="3" width="45.75" style="48" customWidth="1"/>
     <col min="4" max="4" width="31.125" customWidth="1"/>
-    <col min="5" max="5" width="24.375" style="37" customWidth="1"/>
-    <col min="6" max="6" width="28.375" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.375" style="35" customWidth="1"/>
+    <col min="6" max="6" width="28.375" style="35" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="71.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
     </row>
     <row r="3" spans="1:19" ht="31.5">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-    </row>
-    <row r="4" spans="1:19" s="40" customFormat="1" ht="18">
-      <c r="A4" s="31" t="s">
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+    </row>
+    <row r="4" spans="1:19" s="38" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="55" customFormat="1" ht="15">
-      <c r="A5" s="56">
+    <row r="5" spans="1:19" s="62" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A5" s="50">
+        <v>45608</v>
+      </c>
+      <c r="B5" s="50">
+        <v>45608</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="51">
+        <v>136</v>
+      </c>
+      <c r="F5" s="67">
+        <v>45726</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+    </row>
+    <row r="6" spans="1:19" s="49" customFormat="1" ht="15">
+      <c r="A6" s="50">
         <v>45571</v>
       </c>
-      <c r="B5" s="56">
+      <c r="B6" s="50">
         <v>45572</v>
       </c>
-      <c r="C5" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="57" t="s">
+      <c r="C6" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="51">
+        <v>632</v>
+      </c>
+      <c r="F6" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+    </row>
+    <row r="7" spans="1:19" s="38" customFormat="1" ht="18">
+      <c r="A7" s="67">
+        <v>45567</v>
+      </c>
+      <c r="B7" s="67">
+        <v>45567</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="64">
+        <v>1</v>
+      </c>
+      <c r="F7" s="68">
+        <v>45626</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+    </row>
+    <row r="8" spans="1:19" s="38" customFormat="1" ht="28.5">
+      <c r="A8" s="67">
+        <v>45560</v>
+      </c>
+      <c r="B8" s="67">
+        <v>45560</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="64">
+        <v>13</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="64"/>
+    </row>
+    <row r="9" spans="1:19" s="38" customFormat="1" ht="28.5">
+      <c r="A9" s="67">
+        <v>45524</v>
+      </c>
+      <c r="B9" s="67">
+        <v>45526</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="64">
+        <v>117</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="64"/>
+    </row>
+    <row r="10" spans="1:19" s="38" customFormat="1" ht="18">
+      <c r="A10" s="67">
+        <v>45504</v>
+      </c>
+      <c r="B10" s="67">
+        <v>45504</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="64">
+        <v>205</v>
+      </c>
+      <c r="F10" s="67">
+        <v>45658</v>
+      </c>
+      <c r="G10" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="64"/>
+    </row>
+    <row r="11" spans="1:19" s="38" customFormat="1" ht="18">
+      <c r="A11" s="67">
+        <v>45481</v>
+      </c>
+      <c r="B11" s="67">
+        <v>45485</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="69">
+        <v>58</v>
+      </c>
+      <c r="F11" s="67">
+        <v>45541</v>
+      </c>
+      <c r="G11" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="67"/>
+    </row>
+    <row r="12" spans="1:19" s="17" customFormat="1" ht="28.5">
+      <c r="A12" s="67">
+        <v>45427</v>
+      </c>
+      <c r="B12" s="67">
+        <v>45432</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="70">
+        <v>30</v>
+      </c>
+      <c r="F12" s="67">
+        <v>45488</v>
+      </c>
+      <c r="G12" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="6" customFormat="1" ht="15">
+      <c r="A13" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="67">
+        <v>45421</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="58">
-        <v>632</v>
-      </c>
-      <c r="F5" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-    </row>
-    <row r="6" spans="1:19" s="40" customFormat="1" ht="18">
-      <c r="A6" s="13">
-        <v>45567</v>
-      </c>
-      <c r="B6" s="13">
-        <v>45567</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="18">
+      <c r="E13" s="70">
+        <v>1029</v>
+      </c>
+      <c r="F13" s="67">
+        <v>45473</v>
+      </c>
+      <c r="G13" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="6" customFormat="1" ht="15">
+      <c r="A14" s="67">
+        <v>45414</v>
+      </c>
+      <c r="B14" s="67">
+        <v>45414</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="64">
+        <v>36</v>
+      </c>
+      <c r="F14" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="64"/>
+    </row>
+    <row r="15" spans="1:19" s="6" customFormat="1" ht="15.75">
+      <c r="A15" s="67">
+        <v>45380</v>
+      </c>
+      <c r="B15" s="67">
+        <v>45383</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="67">
+        <v>45412</v>
+      </c>
+      <c r="G15" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="71"/>
+    </row>
+    <row r="16" spans="1:19" s="6" customFormat="1" ht="15.75">
+      <c r="A16" s="67">
+        <v>45380</v>
+      </c>
+      <c r="B16" s="67">
+        <v>45383</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="64">
         <v>1</v>
       </c>
-      <c r="F6" s="44">
-        <v>45626</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:19" s="40" customFormat="1" ht="18">
-      <c r="A7" s="13">
-        <v>45560</v>
-      </c>
-      <c r="B7" s="13">
-        <v>45560</v>
-      </c>
-      <c r="C7" s="47" t="s">
+      <c r="F16" s="67">
+        <v>45443</v>
+      </c>
+      <c r="G16" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="71"/>
+    </row>
+    <row r="17" spans="1:9" s="6" customFormat="1" ht="15">
+      <c r="A17" s="67">
+        <v>45349</v>
+      </c>
+      <c r="B17" s="67">
+        <v>45349</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="69">
+        <v>48</v>
+      </c>
+      <c r="F17" s="67">
+        <v>45611</v>
+      </c>
+      <c r="G17" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="64"/>
+    </row>
+    <row r="18" spans="1:9" s="6" customFormat="1" ht="15">
+      <c r="A18" s="67">
+        <v>45323</v>
+      </c>
+      <c r="B18" s="67">
+        <v>45328</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="69">
+        <v>130</v>
+      </c>
+      <c r="F18" s="67">
+        <v>45384</v>
+      </c>
+      <c r="G18" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="67" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="6" customFormat="1" ht="15">
+      <c r="A19" s="67">
+        <v>45316</v>
+      </c>
+      <c r="B19" s="67">
+        <v>45316</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="18">
-        <v>13</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:19" s="40" customFormat="1" ht="18">
-      <c r="A8" s="13">
-        <v>45524</v>
-      </c>
-      <c r="B8" s="13">
-        <v>45526</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="18">
-        <v>117</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:19" s="40" customFormat="1" ht="18">
-      <c r="A9" s="13">
-        <v>45504</v>
-      </c>
-      <c r="B9" s="13">
-        <v>45504</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="18">
-        <v>205</v>
-      </c>
-      <c r="F9" s="17">
-        <v>45658</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:19" s="40" customFormat="1" ht="18">
-      <c r="A10" s="13">
-        <v>45481</v>
-      </c>
-      <c r="B10" s="13">
-        <v>45485</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="21">
-        <v>58</v>
-      </c>
-      <c r="F10" s="17">
-        <v>45541</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:19" s="18" customFormat="1" ht="28.5">
-      <c r="A11" s="13">
-        <v>45427</v>
-      </c>
-      <c r="B11" s="13">
-        <v>45432</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="42">
-        <v>30</v>
-      </c>
-      <c r="F11" s="17">
-        <v>45488</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="43" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" s="7" customFormat="1" ht="15">
-      <c r="A12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="13">
-        <v>45421</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="42">
-        <v>1029</v>
-      </c>
-      <c r="F12" s="17">
-        <v>45473</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="7" customFormat="1" ht="15">
-      <c r="A13" s="13">
-        <v>45414</v>
-      </c>
-      <c r="B13" s="13">
-        <v>45414</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="18">
-        <v>36</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="7" customFormat="1" ht="15">
-      <c r="A14" s="13">
-        <v>45380</v>
-      </c>
-      <c r="B14" s="13">
-        <v>45383</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="17">
-        <v>45412</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="22"/>
-    </row>
-    <row r="15" spans="1:19" s="7" customFormat="1" ht="15">
-      <c r="A15" s="13">
-        <v>45380</v>
-      </c>
-      <c r="B15" s="13">
-        <v>45383</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="18">
+      <c r="E19" s="69">
         <v>1</v>
       </c>
-      <c r="F15" s="17">
-        <v>45443</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="22"/>
-    </row>
-    <row r="16" spans="1:19" s="7" customFormat="1" ht="15">
-      <c r="A16" s="13">
-        <v>45349</v>
-      </c>
-      <c r="B16" s="13">
-        <v>45349</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="21">
-        <v>48</v>
-      </c>
-      <c r="F16" s="17">
-        <v>45611</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="7" customFormat="1" ht="15">
-      <c r="A17" s="13">
-        <v>45323</v>
-      </c>
-      <c r="B17" s="13">
-        <v>45328</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="21">
-        <v>130</v>
-      </c>
-      <c r="F17" s="17">
-        <v>45384</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="7" customFormat="1" ht="15">
-      <c r="A18" s="13">
+      <c r="F19" s="67">
         <v>45316</v>
       </c>
-      <c r="B18" s="13">
-        <v>45316</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="21">
-        <v>1</v>
-      </c>
-      <c r="F18" s="17">
-        <v>45316</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" s="8" customFormat="1" ht="15">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="1:9" s="8" customFormat="1" ht="15">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" spans="1:9" s="7" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="17"/>
-    </row>
-    <row r="22" spans="1:9" s="7" customFormat="1" ht="15">
-      <c r="A22" s="23"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9" s="7" customFormat="1" ht="15">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="17"/>
-      <c r="I23" s="22"/>
-    </row>
-    <row r="24" spans="1:9" s="7" customFormat="1" ht="15">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="1:9" s="7" customFormat="1" ht="15">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-    </row>
-    <row r="26" spans="1:9" s="7" customFormat="1" ht="15">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-    </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" ht="15">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-    </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" ht="15">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-    </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" ht="15">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-    </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" ht="15">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-    </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" ht="15">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-    </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" ht="15">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-    </row>
-    <row r="33" spans="1:9" s="7" customFormat="1" ht="15">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-    </row>
-    <row r="34" spans="1:9" s="7" customFormat="1" ht="15">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-    </row>
-    <row r="35" spans="1:9" s="7" customFormat="1" ht="15">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-    </row>
-    <row r="36" spans="1:9" s="7" customFormat="1" ht="15">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-    </row>
-    <row r="37" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
+      <c r="G19" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="67"/>
+    </row>
+    <row r="20" spans="1:9" s="7" customFormat="1" ht="15">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="1:9" s="7" customFormat="1" ht="15">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:9" s="6" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:9" s="6" customFormat="1" ht="15">
+      <c r="A23" s="21"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" s="6" customFormat="1" ht="15">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="16"/>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="1:9" s="6" customFormat="1" ht="15">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" s="6" customFormat="1" ht="15">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+    </row>
+    <row r="27" spans="1:9" s="6" customFormat="1" ht="15">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+    </row>
+    <row r="28" spans="1:9" s="6" customFormat="1" ht="15">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+    </row>
+    <row r="29" spans="1:9" s="6" customFormat="1" ht="15">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+    </row>
+    <row r="30" spans="1:9" s="6" customFormat="1" ht="15">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+    </row>
+    <row r="31" spans="1:9" s="6" customFormat="1" ht="15">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+    </row>
+    <row r="32" spans="1:9" s="6" customFormat="1" ht="15">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+    </row>
+    <row r="33" spans="1:9" s="6" customFormat="1" ht="15">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+    </row>
+    <row r="34" spans="1:9" s="6" customFormat="1" ht="15">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+    </row>
+    <row r="35" spans="1:9" s="6" customFormat="1" ht="15">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+    </row>
+    <row r="36" spans="1:9" s="6" customFormat="1" ht="15">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+    </row>
+    <row r="37" spans="1:9" s="6" customFormat="1" ht="15">
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
     </row>
     <row r="38" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A42" s="12"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A43" s="12"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
     </row>
     <row r="49" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
     </row>
     <row r="51" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
     </row>
     <row r="54" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="20"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="19"/>
       <c r="F54" s="19"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
     </row>
     <row r="55" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
     </row>
     <row r="56" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
     </row>
     <row r="57" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
     </row>
     <row r="58" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
     </row>
     <row r="59" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="52"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
     </row>
     <row r="61" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
     </row>
     <row r="62" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
     </row>
     <row r="63" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
     </row>
     <row r="64" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="52"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
     </row>
     <row r="65" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="52"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
     </row>
     <row r="66" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="52"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
     </row>
     <row r="67" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="52"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
     </row>
     <row r="68" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="52"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
     </row>
     <row r="69" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
     </row>
     <row r="70" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="52"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
     </row>
     <row r="71" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="52"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
     </row>
     <row r="72" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="52"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
     </row>
     <row r="73" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="52"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="34"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
     </row>
     <row r="74" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="52"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="2"/>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+    </row>
+    <row r="75" spans="1:9" s="5" customFormat="1" ht="15">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+    </row>
+    <row r="76" spans="1:9" ht="15.75">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
-      <c r="C76" s="53"/>
+      <c r="C76" s="47"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="35"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="33"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="1:9" ht="15.75">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
-      <c r="C77" s="53"/>
+      <c r="C77" s="47"/>
       <c r="D77" s="1"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="35"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="33"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
-      <c r="I77" s="2"/>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:9" ht="15.75">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
-      <c r="C78" s="53"/>
+      <c r="C78" s="47"/>
       <c r="D78" s="1"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="35"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="33"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" ht="15.75">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
-      <c r="C79" s="53"/>
+      <c r="C79" s="47"/>
       <c r="D79" s="1"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="35"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="33"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" ht="15.75">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
-      <c r="C80" s="53"/>
+      <c r="C80" s="47"/>
       <c r="D80" s="1"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="35"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="33"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" ht="15.75">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
-      <c r="C81" s="53"/>
+      <c r="C81" s="47"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="35"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="33"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" ht="15.75">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="53"/>
+      <c r="C82" s="47"/>
       <c r="D82" s="1"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="35"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="33"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" ht="15.75">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
-      <c r="C83" s="53"/>
+      <c r="C83" s="47"/>
       <c r="D83" s="1"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="35"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="33"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" ht="15.75">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
-      <c r="C84" s="53"/>
+      <c r="C84" s="47"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="35"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="33"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="1:9" ht="15.75">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
-      <c r="C85" s="53"/>
+      <c r="C85" s="47"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="35"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="33"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" ht="15.75">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
-      <c r="C86" s="53"/>
+      <c r="C86" s="47"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="35"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="33"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" ht="15.75">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
-      <c r="C87" s="53"/>
+      <c r="C87" s="47"/>
       <c r="D87" s="1"/>
-      <c r="E87" s="36"/>
-      <c r="F87" s="35"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="33"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" ht="15.75">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
-      <c r="C88" s="53"/>
+      <c r="C88" s="47"/>
       <c r="D88" s="1"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="35"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="33"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" ht="15.75">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
-      <c r="C89" s="53"/>
+      <c r="C89" s="47"/>
       <c r="D89" s="1"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="36"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="33"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" ht="15.75">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
-      <c r="C90" s="53"/>
+      <c r="C90" s="47"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="36"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="34"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" ht="15.75">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
-      <c r="C91" s="53"/>
+      <c r="C91" s="47"/>
       <c r="D91" s="1"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="36"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="34"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" ht="15.75">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
-      <c r="C92" s="53"/>
+      <c r="C92" s="47"/>
       <c r="D92" s="1"/>
-      <c r="E92" s="36"/>
-      <c r="F92" s="35"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="34"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" ht="15.75">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
-      <c r="C93" s="53"/>
+      <c r="C93" s="47"/>
       <c r="D93" s="1"/>
-      <c r="E93" s="36"/>
-      <c r="F93" s="35"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="33"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" ht="15.75">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
-      <c r="C94" s="53"/>
+      <c r="C94" s="47"/>
       <c r="D94" s="1"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="35"/>
+      <c r="E94" s="34"/>
+      <c r="F94" s="33"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" ht="15.75">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
-      <c r="C95" s="53"/>
+      <c r="C95" s="47"/>
       <c r="D95" s="1"/>
-      <c r="E95" s="36"/>
-      <c r="F95" s="36"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="33"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" ht="15.75">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
-      <c r="C96" s="53"/>
+      <c r="C96" s="47"/>
       <c r="D96" s="1"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="35"/>
+      <c r="E96" s="34"/>
+      <c r="F96" s="34"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" ht="15.75">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
-      <c r="C97" s="53"/>
+      <c r="C97" s="47"/>
       <c r="D97" s="1"/>
-      <c r="E97" s="36"/>
-      <c r="F97" s="35"/>
+      <c r="E97" s="34"/>
+      <c r="F97" s="33"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" ht="15.75">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
-      <c r="C98" s="53"/>
+      <c r="C98" s="47"/>
       <c r="D98" s="1"/>
-      <c r="E98" s="36"/>
-      <c r="F98" s="36"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="33"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" ht="15.75">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
-      <c r="C99" s="53"/>
+      <c r="C99" s="47"/>
       <c r="D99" s="1"/>
-      <c r="E99" s="36"/>
-      <c r="F99" s="36"/>
+      <c r="E99" s="34"/>
+      <c r="F99" s="34"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" ht="15.75">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
-      <c r="C100" s="53"/>
+      <c r="C100" s="47"/>
       <c r="D100" s="1"/>
-      <c r="E100" s="36"/>
-      <c r="F100" s="35"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="34"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
-      <c r="I100" s="2"/>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="1:9" ht="15.75">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
-      <c r="C101" s="53"/>
+      <c r="C101" s="47"/>
       <c r="D101" s="1"/>
-      <c r="E101" s="36"/>
-      <c r="F101" s="35"/>
+      <c r="E101" s="34"/>
+      <c r="F101" s="33"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" ht="15.75">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
-      <c r="C102" s="53"/>
+      <c r="C102" s="47"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="36"/>
-      <c r="F102" s="35"/>
+      <c r="E102" s="34"/>
+      <c r="F102" s="33"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" ht="15.75">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
-      <c r="C103" s="53"/>
+      <c r="C103" s="47"/>
       <c r="D103" s="1"/>
-      <c r="E103" s="36"/>
-      <c r="F103" s="35"/>
+      <c r="E103" s="34"/>
+      <c r="F103" s="33"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" ht="15.75">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
-      <c r="C104" s="53"/>
+      <c r="C104" s="47"/>
       <c r="D104" s="1"/>
-      <c r="E104" s="36"/>
-      <c r="F104" s="35"/>
+      <c r="E104" s="34"/>
+      <c r="F104" s="33"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" ht="15.75">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
-      <c r="C105" s="53"/>
+      <c r="C105" s="47"/>
       <c r="D105" s="1"/>
-      <c r="E105" s="36"/>
-      <c r="F105" s="35"/>
+      <c r="E105" s="34"/>
+      <c r="F105" s="33"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" ht="15.75">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
-      <c r="C106" s="53"/>
+      <c r="C106" s="47"/>
       <c r="D106" s="1"/>
-      <c r="E106" s="36"/>
-      <c r="F106" s="35"/>
+      <c r="E106" s="34"/>
+      <c r="F106" s="33"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" ht="15.75">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
-      <c r="C107" s="53"/>
+      <c r="C107" s="47"/>
       <c r="D107" s="1"/>
-      <c r="E107" s="36"/>
-      <c r="F107" s="35"/>
+      <c r="E107" s="34"/>
+      <c r="F107" s="33"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="I107" s="2"/>
+    </row>
+    <row r="108" spans="1:9" ht="15.75">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
-      <c r="C108" s="53"/>
+      <c r="C108" s="47"/>
       <c r="D108" s="1"/>
-      <c r="E108" s="36"/>
-      <c r="F108" s="35"/>
+      <c r="E108" s="34"/>
+      <c r="F108" s="33"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
-      <c r="I108" s="2"/>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="I108" s="1"/>
+    </row>
+    <row r="109" spans="1:9" ht="15.75">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
-      <c r="C109" s="53"/>
+      <c r="C109" s="47"/>
       <c r="D109" s="1"/>
-      <c r="E109" s="36"/>
-      <c r="F109" s="35"/>
+      <c r="E109" s="34"/>
+      <c r="F109" s="33"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" ht="15.75">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
-      <c r="C110" s="53"/>
+      <c r="C110" s="47"/>
       <c r="D110" s="1"/>
-      <c r="E110" s="36"/>
-      <c r="F110" s="35"/>
+      <c r="E110" s="34"/>
+      <c r="F110" s="33"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="2"/>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" ht="15.75">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
-      <c r="C111" s="53"/>
+      <c r="C111" s="47"/>
       <c r="D111" s="1"/>
-      <c r="E111" s="36"/>
-      <c r="F111" s="35"/>
+      <c r="E111" s="34"/>
+      <c r="F111" s="33"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" ht="15.75">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
-      <c r="C112" s="53"/>
+      <c r="C112" s="47"/>
       <c r="D112" s="1"/>
-      <c r="E112" s="36"/>
-      <c r="F112" s="35"/>
+      <c r="E112" s="34"/>
+      <c r="F112" s="33"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" ht="15.75">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
-      <c r="C113" s="53"/>
+      <c r="C113" s="47"/>
       <c r="D113" s="1"/>
-      <c r="E113" s="36"/>
-      <c r="F113" s="35"/>
+      <c r="E113" s="34"/>
+      <c r="F113" s="33"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" ht="15.75">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
-      <c r="C114" s="53"/>
+      <c r="C114" s="47"/>
       <c r="D114" s="1"/>
-      <c r="E114" s="36"/>
-      <c r="F114" s="35"/>
+      <c r="E114" s="34"/>
+      <c r="F114" s="33"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="2"/>
     </row>
+    <row r="115" spans="1:9" ht="15.75">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="47"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="34"/>
+      <c r="F115" s="33"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="2"/>
+    </row>
+    <row r="116" spans="1:9" ht="15.75"/>
+    <row r="117" spans="1:9" ht="15.75"/>
+    <row r="118" spans="1:9" ht="15.75"/>
+    <row r="119" spans="1:9" ht="15.75"/>
+    <row r="120" spans="1:9" ht="15.75"/>
+    <row r="121" spans="1:9" ht="15.75"/>
+    <row r="122" spans="1:9" ht="15.75"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I2"/>
@@ -2745,11 +2802,11 @@
   </sheetPr>
   <dimension ref="A1:N177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:N177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
@@ -2760,39 +2817,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-    </row>
-    <row r="3" spans="1:14" ht="31.5">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+    </row>
+    <row r="3" spans="1:14" ht="30.95">
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
     </row>
     <row r="4" spans="1:14" ht="21">
       <c r="A4" s="3" t="s">
@@ -2802,7 +2859,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>4</v>
@@ -2823,94 +2880,94 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="59">
+    <row r="5" spans="1:14" ht="15.75">
+      <c r="A5" s="52">
         <v>45191</v>
       </c>
-      <c r="B5" s="59">
+      <c r="B5" s="52">
         <v>45191</v>
       </c>
-      <c r="C5" s="60" t="s">
-        <v>44</v>
+      <c r="C5" s="53" t="s">
+        <v>46</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="61">
+        <v>47</v>
+      </c>
+      <c r="E5" s="54">
         <v>136</v>
       </c>
-      <c r="F5" s="59">
+      <c r="F5" s="52">
         <v>45252</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="62"/>
+        <v>17</v>
+      </c>
+      <c r="I5" s="55"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="59">
+    <row r="6" spans="1:14" ht="15.75">
+      <c r="A6" s="52">
         <v>45156</v>
       </c>
-      <c r="B6" s="59">
+      <c r="B6" s="52">
         <v>45156</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="62"/>
+      <c r="E6" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="55"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="56">
+    <row r="7" spans="1:14" ht="15.75">
+      <c r="A7" s="50">
         <v>45153</v>
       </c>
-      <c r="B7" s="59">
+      <c r="B7" s="52">
         <v>45153</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="57">
+        <v>53</v>
+      </c>
+      <c r="E7" s="51">
         <v>52</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="50">
         <v>45153</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -2919,33 +2976,33 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="59">
+    <row r="8" spans="1:14" ht="15.75">
+      <c r="A8" s="52">
         <v>45112</v>
       </c>
-      <c r="B8" s="59">
+      <c r="B8" s="52">
         <v>45112</v>
       </c>
-      <c r="C8" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="61">
+      <c r="C8" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="54">
         <v>211</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="52">
         <v>45138</v>
       </c>
-      <c r="G8" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="61" t="s">
-        <v>54</v>
+      <c r="G8" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>56</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -2953,33 +3010,33 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="59">
+    <row r="9" spans="1:14" ht="15.75">
+      <c r="A9" s="52">
         <v>45107</v>
       </c>
-      <c r="B9" s="59">
+      <c r="B9" s="52">
         <v>45111</v>
       </c>
-      <c r="C9" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="61" t="s">
+      <c r="C9" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="54">
+        <v>249</v>
+      </c>
+      <c r="F9" s="52">
+        <v>45138</v>
+      </c>
+      <c r="G9" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="61">
-        <v>249</v>
-      </c>
-      <c r="F9" s="59">
-        <v>45138</v>
-      </c>
-      <c r="G9" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="61" t="s">
-        <v>54</v>
+      <c r="H9" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>56</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -2987,33 +3044,33 @@
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="59">
+    <row r="10" spans="1:14" ht="15.75">
+      <c r="A10" s="52">
         <v>45063</v>
       </c>
-      <c r="B10" s="59">
+      <c r="B10" s="52">
         <v>42522</v>
       </c>
-      <c r="C10" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="61">
+      <c r="C10" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="54">
         <v>169</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="52">
         <v>45086</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -3021,33 +3078,33 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="63">
+    <row r="11" spans="1:14" ht="15.75">
+      <c r="A11" s="56">
         <v>44949</v>
       </c>
-      <c r="B11" s="59">
+      <c r="B11" s="52">
         <v>44950</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="61">
+      <c r="E11" s="54">
         <v>75</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F11" s="52">
         <v>45010</v>
       </c>
-      <c r="G11" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="61" t="s">
-        <v>60</v>
+      <c r="G11" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="54" t="s">
+        <v>62</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -3055,126 +3112,126 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="56">
+    <row r="12" spans="1:14" ht="15.75">
+      <c r="A12" s="50">
         <v>44930</v>
       </c>
-      <c r="B12" s="56">
+      <c r="B12" s="50">
         <v>44937</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="57">
+        <v>64</v>
+      </c>
+      <c r="E12" s="51">
         <v>81</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="50">
         <v>44990</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="62"/>
+        <v>17</v>
+      </c>
+      <c r="I12" s="55"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="64">
+    <row r="13" spans="1:14" ht="15.75">
+      <c r="A13" s="57">
         <v>44827</v>
       </c>
-      <c r="B13" s="64">
+      <c r="B13" s="57">
         <v>44831</v>
       </c>
-      <c r="C13" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="66">
+      <c r="C13" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="59">
         <v>1</v>
       </c>
-      <c r="F13" s="64">
+      <c r="F13" s="57">
         <v>44890</v>
       </c>
-      <c r="G13" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="67"/>
+      <c r="G13" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="60"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="64">
+    <row r="14" spans="1:14" ht="15.75">
+      <c r="A14" s="57">
         <v>44817</v>
       </c>
-      <c r="B14" s="64">
+      <c r="B14" s="57">
         <v>44817</v>
       </c>
-      <c r="C14" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="66">
+      <c r="C14" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="59">
         <v>77</v>
       </c>
-      <c r="F14" s="64">
+      <c r="F14" s="57">
         <v>44880</v>
       </c>
-      <c r="G14" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="64"/>
+      <c r="G14" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="57"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="64">
+    <row r="15" spans="1:14" ht="15.75">
+      <c r="A15" s="57">
         <v>44595</v>
       </c>
-      <c r="B15" s="64">
+      <c r="B15" s="57">
         <v>44594</v>
       </c>
-      <c r="C15" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="68">
+      <c r="C15" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="61">
         <v>198</v>
       </c>
-      <c r="F15" s="64">
+      <c r="F15" s="57">
         <v>44659</v>
       </c>
-      <c r="G15" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="52" t="s">
-        <v>13</v>
+      <c r="G15" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -3183,33 +3240,33 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="64">
+    <row r="16" spans="1:14" ht="15.75">
+      <c r="A16" s="57">
         <v>44334</v>
       </c>
-      <c r="B16" s="64">
+      <c r="B16" s="57">
         <v>44336</v>
       </c>
-      <c r="C16" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="68">
+      <c r="C16" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="61">
         <v>94</v>
       </c>
-      <c r="F16" s="64">
+      <c r="F16" s="57">
         <v>44394</v>
       </c>
-      <c r="G16" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="52" t="s">
-        <v>68</v>
+      <c r="G16" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="46" t="s">
+        <v>70</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -3217,30 +3274,30 @@
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="64">
+    <row r="17" spans="1:14" ht="15.75">
+      <c r="A17" s="57">
         <v>44342</v>
       </c>
-      <c r="B17" s="64">
+      <c r="B17" s="57">
         <v>44342</v>
       </c>
-      <c r="C17" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="68">
+      <c r="C17" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="61">
         <v>464</v>
       </c>
-      <c r="F17" s="64">
+      <c r="F17" s="57">
         <v>44403</v>
       </c>
-      <c r="G17" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="52" t="s">
-        <v>13</v>
+      <c r="G17" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -3249,30 +3306,30 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="64">
+    <row r="18" spans="1:14" ht="15.75">
+      <c r="A18" s="57">
         <v>44105</v>
       </c>
-      <c r="B18" s="64">
+      <c r="B18" s="57">
         <v>44104</v>
       </c>
-      <c r="C18" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="68">
+      <c r="C18" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="61">
         <v>13</v>
       </c>
-      <c r="F18" s="64">
+      <c r="F18" s="57">
         <v>44104</v>
       </c>
-      <c r="G18" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="52" t="s">
-        <v>13</v>
+      <c r="G18" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -3281,30 +3338,30 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="64">
+    <row r="19" spans="1:14" ht="15.75">
+      <c r="A19" s="57">
         <v>44064</v>
       </c>
-      <c r="B19" s="64">
+      <c r="B19" s="57">
         <v>44068</v>
       </c>
-      <c r="C19" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="68">
+      <c r="C19" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="61">
         <v>40</v>
       </c>
-      <c r="F19" s="64">
+      <c r="F19" s="57">
         <v>44061</v>
       </c>
-      <c r="G19" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="52" t="s">
-        <v>13</v>
+      <c r="G19" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -3313,30 +3370,30 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="64">
+    <row r="20" spans="1:14" ht="15.75">
+      <c r="A20" s="57">
         <v>44057</v>
       </c>
-      <c r="B20" s="64">
+      <c r="B20" s="57">
         <v>44060</v>
       </c>
-      <c r="C20" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="68">
+      <c r="C20" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="61">
         <v>106</v>
       </c>
-      <c r="F20" s="64">
+      <c r="F20" s="57">
         <v>44057</v>
       </c>
-      <c r="G20" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="52" t="s">
-        <v>13</v>
+      <c r="G20" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -3345,33 +3402,33 @@
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="64">
+    <row r="21" spans="1:14" ht="15.75">
+      <c r="A21" s="57">
         <v>44049</v>
       </c>
-      <c r="B21" s="64">
+      <c r="B21" s="57">
         <v>44056</v>
       </c>
-      <c r="C21" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="68">
+      <c r="C21" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="61">
         <v>272</v>
       </c>
-      <c r="F21" s="64">
+      <c r="F21" s="57">
         <v>43914</v>
       </c>
-      <c r="G21" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="52" t="s">
-        <v>74</v>
+      <c r="G21" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>76</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -3379,33 +3436,33 @@
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="64">
+    <row r="22" spans="1:14" ht="15.75">
+      <c r="A22" s="57">
         <v>44054</v>
       </c>
-      <c r="B22" s="64">
+      <c r="B22" s="57">
         <v>44040</v>
       </c>
-      <c r="C22" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="52" t="s">
+      <c r="C22" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="61">
+        <v>1043</v>
+      </c>
+      <c r="F22" s="57">
+        <v>44104</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="46" t="s">
         <v>76</v>
-      </c>
-      <c r="E22" s="68">
-        <v>1043</v>
-      </c>
-      <c r="F22" s="64">
-        <v>44104</v>
-      </c>
-      <c r="G22" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="52" t="s">
-        <v>74</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -3413,33 +3470,33 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="64">
+    <row r="23" spans="1:14" ht="15.75">
+      <c r="A23" s="57">
         <v>44054</v>
       </c>
-      <c r="B23" s="64">
+      <c r="B23" s="57">
         <v>44040</v>
       </c>
-      <c r="C23" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="52" t="s">
+      <c r="C23" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="61">
+        <v>296</v>
+      </c>
+      <c r="F23" s="57">
+        <v>44104</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="46" t="s">
         <v>76</v>
-      </c>
-      <c r="E23" s="68">
-        <v>296</v>
-      </c>
-      <c r="F23" s="64">
-        <v>44104</v>
-      </c>
-      <c r="G23" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" s="52" t="s">
-        <v>74</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -3447,30 +3504,30 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
     </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="64">
+    <row r="24" spans="1:14" ht="15.75">
+      <c r="A24" s="57">
         <v>44046</v>
       </c>
-      <c r="B24" s="64">
+      <c r="B24" s="57">
         <v>44042</v>
       </c>
-      <c r="C24" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="68">
+      <c r="C24" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="61">
         <v>73</v>
       </c>
-      <c r="F24" s="64">
+      <c r="F24" s="57">
         <v>44075</v>
       </c>
-      <c r="G24" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="52" t="s">
-        <v>13</v>
+      <c r="G24" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -3479,33 +3536,33 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="64">
+    <row r="25" spans="1:14" ht="15.75">
+      <c r="A25" s="57">
         <v>44027</v>
       </c>
-      <c r="B25" s="64">
+      <c r="B25" s="57">
         <v>44022</v>
       </c>
-      <c r="C25" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="68">
+      <c r="C25" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="61">
         <v>127</v>
       </c>
-      <c r="F25" s="64">
+      <c r="F25" s="57">
         <v>44044</v>
       </c>
-      <c r="G25" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="52" t="s">
-        <v>60</v>
+      <c r="G25" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="46" t="s">
+        <v>62</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -3513,30 +3570,30 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="64">
+    <row r="26" spans="1:14" ht="15.75">
+      <c r="A26" s="57">
         <v>44004</v>
       </c>
-      <c r="B26" s="64">
+      <c r="B26" s="57">
         <v>44004</v>
       </c>
-      <c r="C26" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="68">
+      <c r="C26" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="61">
         <v>71</v>
       </c>
-      <c r="F26" s="64">
+      <c r="F26" s="57">
         <v>43973</v>
       </c>
-      <c r="G26" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="52" t="s">
-        <v>13</v>
+      <c r="G26" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -3545,30 +3602,30 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="64">
+    <row r="27" spans="1:14" ht="15.75">
+      <c r="A27" s="57">
         <v>44012</v>
       </c>
-      <c r="B27" s="64">
+      <c r="B27" s="57">
         <v>44012</v>
       </c>
-      <c r="C27" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="68">
+      <c r="C27" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="61">
         <v>65</v>
       </c>
-      <c r="F27" s="64">
+      <c r="F27" s="57">
         <v>44012</v>
       </c>
-      <c r="G27" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="52" t="s">
-        <v>13</v>
+      <c r="G27" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -3577,30 +3634,30 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
     </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="64">
+    <row r="28" spans="1:14" ht="15.75">
+      <c r="A28" s="57">
         <v>43985</v>
       </c>
-      <c r="B28" s="64">
+      <c r="B28" s="57">
         <v>43985</v>
       </c>
-      <c r="C28" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="68">
+      <c r="C28" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="61">
         <v>65</v>
       </c>
-      <c r="F28" s="64">
+      <c r="F28" s="57">
         <v>43904</v>
       </c>
-      <c r="G28" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="52" t="s">
-        <v>13</v>
+      <c r="G28" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -3609,30 +3666,30 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="64">
+    <row r="29" spans="1:14" ht="15.75">
+      <c r="A29" s="57">
         <v>43980</v>
       </c>
-      <c r="B29" s="64">
+      <c r="B29" s="57">
         <v>43980</v>
       </c>
-      <c r="C29" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="68">
+      <c r="C29" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="61">
         <v>231</v>
       </c>
-      <c r="F29" s="64">
+      <c r="F29" s="57">
         <v>43980</v>
       </c>
-      <c r="G29" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="52" t="s">
-        <v>13</v>
+      <c r="G29" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -3641,30 +3698,30 @@
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="56">
+    <row r="30" spans="1:14" ht="15.75">
+      <c r="A30" s="50">
         <v>44063</v>
       </c>
-      <c r="B30" s="56">
+      <c r="B30" s="50">
         <v>44068</v>
       </c>
-      <c r="C30" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="68">
+      <c r="C30" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="61">
         <v>72</v>
       </c>
-      <c r="F30" s="64">
+      <c r="F30" s="57">
         <v>43958</v>
       </c>
-      <c r="G30" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="52" t="s">
-        <v>13</v>
+      <c r="G30" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -3673,30 +3730,30 @@
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
     </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="56">
+    <row r="31" spans="1:14" ht="15.75">
+      <c r="A31" s="50">
         <v>43948</v>
       </c>
-      <c r="B31" s="64">
+      <c r="B31" s="57">
         <v>43948</v>
       </c>
-      <c r="C31" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="68">
+      <c r="C31" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="61">
         <v>136</v>
       </c>
-      <c r="F31" s="64">
+      <c r="F31" s="57">
         <v>43906</v>
       </c>
-      <c r="G31" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="52" t="s">
-        <v>13</v>
+      <c r="G31" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -3705,30 +3762,30 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
     </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="56">
+    <row r="32" spans="1:14" ht="15.75">
+      <c r="A32" s="50">
         <v>43942</v>
       </c>
-      <c r="B32" s="64">
+      <c r="B32" s="57">
         <v>43942</v>
       </c>
-      <c r="C32" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="68">
+      <c r="C32" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="61">
         <v>5</v>
       </c>
-      <c r="F32" s="64">
+      <c r="F32" s="57">
         <v>43942</v>
       </c>
-      <c r="G32" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="52" t="s">
-        <v>13</v>
+      <c r="G32" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -3737,30 +3794,30 @@
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
     </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="64">
+    <row r="33" spans="1:14" ht="15.75">
+      <c r="A33" s="57">
         <v>43941</v>
       </c>
-      <c r="B33" s="64">
+      <c r="B33" s="57">
         <v>43944</v>
       </c>
-      <c r="C33" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" s="68">
+      <c r="C33" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="61">
         <v>1</v>
       </c>
-      <c r="F33" s="64">
+      <c r="F33" s="57">
         <v>43941</v>
       </c>
-      <c r="G33" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="52" t="s">
-        <v>13</v>
+      <c r="G33" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -3769,30 +3826,30 @@
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
     </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="64">
+    <row r="34" spans="1:14" ht="15.75">
+      <c r="A34" s="57">
         <v>43907</v>
       </c>
-      <c r="B34" s="64">
+      <c r="B34" s="57">
         <v>43938</v>
       </c>
-      <c r="C34" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="68">
+      <c r="C34" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="61">
         <v>13</v>
       </c>
-      <c r="F34" s="64">
+      <c r="F34" s="57">
         <v>43938</v>
       </c>
-      <c r="G34" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="52" t="s">
-        <v>13</v>
+      <c r="G34" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -3801,30 +3858,30 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="64">
+    <row r="35" spans="1:14" ht="15.75">
+      <c r="A35" s="57">
         <v>43927</v>
       </c>
-      <c r="B35" s="64">
+      <c r="B35" s="57">
         <v>43935</v>
       </c>
-      <c r="C35" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="68">
+      <c r="C35" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="61">
         <v>51</v>
       </c>
-      <c r="F35" s="64">
+      <c r="F35" s="57">
         <v>43906</v>
       </c>
-      <c r="G35" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="52" t="s">
-        <v>13</v>
+      <c r="G35" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -3833,30 +3890,30 @@
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
     </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="64">
+    <row r="36" spans="1:14" ht="15.75">
+      <c r="A36" s="57">
         <v>43925</v>
       </c>
-      <c r="B36" s="64">
+      <c r="B36" s="57">
         <v>43925</v>
       </c>
-      <c r="C36" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" s="68">
+      <c r="C36" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="61">
         <v>110</v>
       </c>
-      <c r="F36" s="64">
+      <c r="F36" s="57">
         <v>43927</v>
       </c>
-      <c r="G36" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="52" t="s">
-        <v>13</v>
+      <c r="G36" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -3865,30 +3922,30 @@
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
     </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="64">
+    <row r="37" spans="1:14" ht="15.75">
+      <c r="A37" s="57">
         <v>43916</v>
       </c>
-      <c r="B37" s="64">
+      <c r="B37" s="57">
         <v>43917</v>
       </c>
-      <c r="C37" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="D37" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="68">
+      <c r="C37" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="61">
         <v>37</v>
       </c>
-      <c r="F37" s="64">
+      <c r="F37" s="57">
         <v>43916</v>
       </c>
-      <c r="G37" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="52" t="s">
-        <v>13</v>
+      <c r="G37" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -3897,33 +3954,33 @@
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
     </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="64">
+    <row r="38" spans="1:14" ht="15.75">
+      <c r="A38" s="57">
         <v>43916</v>
       </c>
-      <c r="B38" s="64">
+      <c r="B38" s="57">
         <v>43913</v>
       </c>
-      <c r="C38" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" s="68">
+      <c r="C38" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="61">
         <v>146</v>
       </c>
-      <c r="F38" s="64">
+      <c r="F38" s="57">
         <v>43898</v>
       </c>
-      <c r="G38" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="52" t="s">
-        <v>97</v>
+      <c r="G38" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="46" t="s">
+        <v>99</v>
       </c>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -3931,30 +3988,30 @@
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
     </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="64">
+    <row r="39" spans="1:14" ht="15.75">
+      <c r="A39" s="57">
         <v>43910</v>
       </c>
-      <c r="B39" s="64">
+      <c r="B39" s="57">
         <v>43910</v>
       </c>
-      <c r="C39" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="E39" s="68">
+      <c r="C39" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="61">
         <v>87</v>
       </c>
-      <c r="F39" s="64">
+      <c r="F39" s="57">
         <v>43910</v>
       </c>
-      <c r="G39" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="52" t="s">
-        <v>13</v>
+      <c r="G39" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
@@ -3963,30 +4020,30 @@
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
     </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="64">
+    <row r="40" spans="1:14" ht="15.75">
+      <c r="A40" s="57">
         <v>43909</v>
       </c>
-      <c r="B40" s="64">
+      <c r="B40" s="57">
         <v>43913</v>
       </c>
-      <c r="C40" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" s="68">
+      <c r="C40" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="61">
         <v>110</v>
       </c>
-      <c r="F40" s="64">
+      <c r="F40" s="57">
         <v>43906</v>
       </c>
-      <c r="G40" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="52" t="s">
-        <v>13</v>
+      <c r="G40" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -3995,30 +4052,30 @@
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
     </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="64">
+    <row r="41" spans="1:14" ht="15.75">
+      <c r="A41" s="57">
         <v>43509</v>
       </c>
-      <c r="B41" s="64">
+      <c r="B41" s="57">
         <v>43510</v>
       </c>
-      <c r="C41" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="E41" s="68">
+      <c r="C41" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="61">
         <v>1</v>
       </c>
-      <c r="F41" s="64">
+      <c r="F41" s="57">
         <v>43567</v>
       </c>
-      <c r="G41" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41" s="52" t="s">
-        <v>13</v>
+      <c r="G41" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
@@ -4027,30 +4084,30 @@
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
     </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="64">
+    <row r="42" spans="1:14" ht="15.75">
+      <c r="A42" s="57">
         <v>43486</v>
       </c>
-      <c r="B42" s="64">
+      <c r="B42" s="57">
         <v>43486</v>
       </c>
-      <c r="C42" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="D42" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="68">
+      <c r="C42" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="61">
         <v>59</v>
       </c>
-      <c r="F42" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="G42" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H42" s="52" t="s">
-        <v>13</v>
+      <c r="F42" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
@@ -4059,30 +4116,30 @@
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
     </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="64">
+    <row r="43" spans="1:14" ht="15.75">
+      <c r="A43" s="57">
         <v>43479</v>
       </c>
-      <c r="B43" s="64">
+      <c r="B43" s="57">
         <v>43479</v>
       </c>
-      <c r="C43" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="68">
+      <c r="C43" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="61">
         <v>62</v>
       </c>
-      <c r="F43" s="64">
+      <c r="F43" s="57">
         <v>43542</v>
       </c>
-      <c r="G43" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H43" s="52" t="s">
-        <v>13</v>
+      <c r="G43" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -4091,30 +4148,30 @@
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
     </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="64">
+    <row r="44" spans="1:14" ht="15.75">
+      <c r="A44" s="57">
         <v>43405</v>
       </c>
-      <c r="B44" s="64">
+      <c r="B44" s="57">
         <v>43413</v>
       </c>
-      <c r="C44" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="D44" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="68">
+      <c r="C44" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="61">
         <v>51</v>
       </c>
-      <c r="F44" s="64">
+      <c r="F44" s="57">
         <v>43131</v>
       </c>
-      <c r="G44" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" s="52" t="s">
-        <v>13</v>
+      <c r="G44" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
@@ -4123,30 +4180,30 @@
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
     </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="64">
+    <row r="45" spans="1:14" ht="15.75">
+      <c r="A45" s="57">
         <v>76277</v>
       </c>
-      <c r="B45" s="64">
+      <c r="B45" s="57">
         <v>43405</v>
       </c>
-      <c r="C45" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="D45" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="68">
+      <c r="C45" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="61">
         <v>92</v>
       </c>
-      <c r="F45" s="64">
+      <c r="F45" s="57">
         <v>43465</v>
       </c>
-      <c r="G45" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H45" s="52" t="s">
-        <v>13</v>
+      <c r="G45" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
@@ -4155,30 +4212,30 @@
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
     </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="64">
+    <row r="46" spans="1:14" ht="15.75">
+      <c r="A46" s="57">
         <v>76268</v>
       </c>
-      <c r="B46" s="64">
+      <c r="B46" s="57">
         <v>43405</v>
       </c>
-      <c r="C46" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="D46" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="E46" s="68">
+      <c r="C46" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="61">
         <v>181</v>
       </c>
-      <c r="F46" s="64">
+      <c r="F46" s="57">
         <v>43469</v>
       </c>
-      <c r="G46" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H46" s="52" t="s">
-        <v>13</v>
+      <c r="G46" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
@@ -4187,30 +4244,30 @@
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
     </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="64">
+    <row r="47" spans="1:14" ht="15.75">
+      <c r="A47" s="57">
         <v>43382</v>
       </c>
-      <c r="B47" s="64">
+      <c r="B47" s="57">
         <v>43382</v>
       </c>
-      <c r="C47" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="E47" s="68">
+      <c r="C47" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="61">
         <v>180</v>
       </c>
-      <c r="F47" s="64">
+      <c r="F47" s="57">
         <v>43382</v>
       </c>
-      <c r="G47" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H47" s="52" t="s">
-        <v>13</v>
+      <c r="G47" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -4219,30 +4276,30 @@
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
     </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="64">
+    <row r="48" spans="1:14" ht="15.75">
+      <c r="A48" s="57">
         <v>43362</v>
       </c>
-      <c r="B48" s="64">
+      <c r="B48" s="57">
         <v>43363</v>
       </c>
-      <c r="C48" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="D48" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="E48" s="68">
+      <c r="C48" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="E48" s="61">
         <v>83</v>
       </c>
-      <c r="F48" s="64">
+      <c r="F48" s="57">
         <v>43434</v>
       </c>
-      <c r="G48" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H48" s="52" t="s">
-        <v>13</v>
+      <c r="G48" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -4251,33 +4308,33 @@
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="1:14">
-      <c r="A49" s="64">
+    <row r="49" spans="1:14" ht="15.75">
+      <c r="A49" s="57">
         <v>43273</v>
       </c>
-      <c r="B49" s="64">
+      <c r="B49" s="57">
         <v>43276</v>
       </c>
-      <c r="C49" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="D49" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="E49" s="68">
+      <c r="C49" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="61">
         <v>64</v>
       </c>
-      <c r="F49" s="64">
+      <c r="F49" s="57">
         <v>43339</v>
       </c>
-      <c r="G49" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H49" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I49" s="52" t="s">
-        <v>112</v>
+      <c r="G49" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="46" t="s">
+        <v>114</v>
       </c>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -4285,30 +4342,30 @@
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
     </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="64">
+    <row r="50" spans="1:14" ht="15.75">
+      <c r="A50" s="57">
         <v>43252</v>
       </c>
-      <c r="B50" s="64">
+      <c r="B50" s="57">
         <v>43252</v>
       </c>
-      <c r="C50" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="D50" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" s="68">
+      <c r="C50" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="61">
         <v>149</v>
       </c>
-      <c r="F50" s="64">
+      <c r="F50" s="57">
         <v>43312</v>
       </c>
-      <c r="G50" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H50" s="52" t="s">
-        <v>13</v>
+      <c r="G50" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -4317,33 +4374,33 @@
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
     </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="64">
+    <row r="51" spans="1:14" ht="15.75">
+      <c r="A51" s="57">
         <v>43042</v>
       </c>
-      <c r="B51" s="64">
+      <c r="B51" s="57">
         <v>43042</v>
       </c>
-      <c r="C51" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="D51" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="E51" s="68">
+      <c r="C51" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="61">
         <v>477</v>
       </c>
-      <c r="F51" s="64">
+      <c r="F51" s="57">
         <v>43112</v>
       </c>
-      <c r="G51" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H51" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I51" s="52" t="s">
-        <v>115</v>
+      <c r="G51" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="46" t="s">
+        <v>117</v>
       </c>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
@@ -4351,30 +4408,30 @@
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
     </row>
-    <row r="52" spans="1:14">
-      <c r="A52" s="64">
+    <row r="52" spans="1:14" ht="15.75">
+      <c r="A52" s="57">
         <v>42986</v>
       </c>
-      <c r="B52" s="64">
+      <c r="B52" s="57">
         <v>42990</v>
       </c>
-      <c r="C52" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="D52" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="E52" s="68">
+      <c r="C52" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" s="61">
         <v>171</v>
       </c>
-      <c r="F52" s="68" t="s">
-        <v>117</v>
-      </c>
-      <c r="G52" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H52" s="52" t="s">
-        <v>13</v>
+      <c r="F52" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="G52" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
@@ -4383,30 +4440,30 @@
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
     </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="64">
+    <row r="53" spans="1:14" ht="15.75">
+      <c r="A53" s="57">
         <v>42495</v>
       </c>
-      <c r="B53" s="64">
+      <c r="B53" s="57">
         <v>42496</v>
       </c>
-      <c r="C53" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="D53" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="E53" s="68">
+      <c r="C53" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" s="61">
         <v>187</v>
       </c>
-      <c r="F53" s="64">
+      <c r="F53" s="57">
         <v>42492</v>
       </c>
-      <c r="G53" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H53" s="52" t="s">
-        <v>13</v>
+      <c r="G53" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
@@ -4415,33 +4472,33 @@
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
     </row>
-    <row r="54" spans="1:14">
-      <c r="A54" s="64">
+    <row r="54" spans="1:14" ht="15.75">
+      <c r="A54" s="57">
         <v>42494</v>
       </c>
-      <c r="B54" s="64">
+      <c r="B54" s="57">
         <v>42495</v>
       </c>
-      <c r="C54" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="D54" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="E54" s="68">
+      <c r="C54" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" s="61">
         <v>20</v>
       </c>
-      <c r="F54" s="64">
+      <c r="F54" s="57">
         <v>42551</v>
       </c>
-      <c r="G54" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H54" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I54" s="52" t="s">
-        <v>121</v>
+      <c r="G54" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="46" t="s">
+        <v>123</v>
       </c>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
@@ -4449,30 +4506,30 @@
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
     </row>
-    <row r="55" spans="1:14">
-      <c r="A55" s="64">
+    <row r="55" spans="1:14" ht="15.75">
+      <c r="A55" s="57">
         <v>42468</v>
       </c>
-      <c r="B55" s="64">
+      <c r="B55" s="57">
         <v>42468</v>
       </c>
-      <c r="C55" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="D55" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="E55" s="68">
+      <c r="C55" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" s="61">
         <v>154</v>
       </c>
-      <c r="F55" s="64">
+      <c r="F55" s="57">
         <v>42528</v>
       </c>
-      <c r="G55" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" s="52" t="s">
-        <v>13</v>
+      <c r="G55" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
@@ -4481,30 +4538,30 @@
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
     </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="64">
+    <row r="56" spans="1:14" ht="15.75">
+      <c r="A56" s="57">
         <v>42401</v>
       </c>
-      <c r="B56" s="64">
+      <c r="B56" s="57">
         <v>42401</v>
       </c>
-      <c r="C56" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="D56" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="E56" s="68">
+      <c r="C56" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="61">
         <v>60</v>
       </c>
-      <c r="F56" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="G56" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H56" s="52" t="s">
-        <v>13</v>
+      <c r="F56" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="G56" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
@@ -4513,30 +4570,30 @@
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
     </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="64">
+    <row r="57" spans="1:14" ht="15.75">
+      <c r="A57" s="57">
         <v>42384</v>
       </c>
-      <c r="B57" s="64">
+      <c r="B57" s="57">
         <v>42384</v>
       </c>
-      <c r="C57" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="D57" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="E57" s="68">
+      <c r="C57" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="61">
         <v>131</v>
       </c>
-      <c r="F57" s="64">
+      <c r="F57" s="57">
         <v>42405</v>
       </c>
-      <c r="G57" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H57" s="52" t="s">
-        <v>13</v>
+      <c r="G57" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
@@ -4545,30 +4602,30 @@
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
     </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="64">
+    <row r="58" spans="1:14" ht="15.75">
+      <c r="A58" s="57">
         <v>42326</v>
       </c>
-      <c r="B58" s="64">
+      <c r="B58" s="57">
         <v>42326</v>
       </c>
-      <c r="C58" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="D58" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="E58" s="68">
+      <c r="C58" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="D58" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="61">
         <v>241</v>
       </c>
-      <c r="F58" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="G58" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="52" t="s">
-        <v>13</v>
+      <c r="F58" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="G58" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -4577,30 +4634,30 @@
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
     </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="64">
+    <row r="59" spans="1:14" ht="15.75">
+      <c r="A59" s="57">
         <v>42318</v>
       </c>
-      <c r="B59" s="64">
+      <c r="B59" s="57">
         <v>42320</v>
       </c>
-      <c r="C59" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="D59" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="E59" s="68" t="s">
-        <v>129</v>
-      </c>
-      <c r="F59" s="68" t="s">
+      <c r="C59" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="G59" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H59" s="52" t="s">
-        <v>13</v>
+      <c r="D59" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="F59" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="G59" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
@@ -4609,30 +4666,30 @@
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
     </row>
-    <row r="60" spans="1:14">
-      <c r="A60" s="64">
+    <row r="60" spans="1:14" ht="15.75">
+      <c r="A60" s="57">
         <v>42178</v>
       </c>
-      <c r="B60" s="64">
+      <c r="B60" s="57">
         <v>42180</v>
       </c>
-      <c r="C60" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="D60" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="E60" s="68">
+      <c r="C60" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="61">
         <v>70</v>
       </c>
-      <c r="F60" s="64">
+      <c r="F60" s="57">
         <v>42240</v>
       </c>
-      <c r="G60" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" s="52" t="s">
-        <v>13</v>
+      <c r="G60" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
@@ -4641,33 +4698,33 @@
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
     </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="64">
+    <row r="61" spans="1:14" ht="15.75">
+      <c r="A61" s="57">
         <v>42069</v>
       </c>
-      <c r="B61" s="64">
+      <c r="B61" s="57">
         <v>42074</v>
       </c>
-      <c r="C61" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="D61" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="E61" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="F61" s="64">
+      <c r="C61" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D61" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="F61" s="57">
         <v>42141</v>
       </c>
-      <c r="G61" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H61" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I61" s="52" t="s">
-        <v>134</v>
+      <c r="G61" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="46" t="s">
+        <v>136</v>
       </c>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
@@ -4675,30 +4732,30 @@
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
     </row>
-    <row r="62" spans="1:14">
-      <c r="A62" s="64">
+    <row r="62" spans="1:14" ht="15.75">
+      <c r="A62" s="57">
         <v>42062</v>
       </c>
-      <c r="B62" s="64">
+      <c r="B62" s="57">
         <v>42065</v>
       </c>
-      <c r="C62" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="D62" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="E62" s="68" t="s">
-        <v>135</v>
-      </c>
-      <c r="F62" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="G62" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H62" s="52" t="s">
-        <v>13</v>
+      <c r="C62" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="E62" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="F62" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="G62" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
@@ -4707,30 +4764,30 @@
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
     </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="64">
+    <row r="63" spans="1:14" ht="15.75">
+      <c r="A63" s="57">
         <v>41850</v>
       </c>
-      <c r="B63" s="64">
+      <c r="B63" s="57">
         <v>41850</v>
       </c>
-      <c r="C63" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="D63" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="E63" s="68">
+      <c r="C63" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D63" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="E63" s="61">
         <v>5</v>
       </c>
-      <c r="F63" s="64">
+      <c r="F63" s="57">
         <v>41912</v>
       </c>
-      <c r="G63" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63" s="52" t="s">
-        <v>13</v>
+      <c r="G63" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
@@ -4739,30 +4796,30 @@
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
     </row>
-    <row r="64" spans="1:14">
-      <c r="A64" s="64">
+    <row r="64" spans="1:14" ht="15.75">
+      <c r="A64" s="57">
         <v>41820</v>
       </c>
-      <c r="B64" s="64">
+      <c r="B64" s="57">
         <v>41821</v>
       </c>
-      <c r="C64" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="D64" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="E64" s="68">
+      <c r="C64" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="D64" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E64" s="61">
         <v>142</v>
       </c>
-      <c r="F64" s="64">
+      <c r="F64" s="57">
         <v>41882</v>
       </c>
-      <c r="G64" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" s="52" t="s">
-        <v>13</v>
+      <c r="G64" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
@@ -4771,33 +4828,33 @@
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
     </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="64">
+    <row r="65" spans="1:14" ht="15.75">
+      <c r="A65" s="57">
         <v>41724</v>
       </c>
-      <c r="B65" s="64">
+      <c r="B65" s="57">
         <v>41729</v>
       </c>
-      <c r="C65" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="D65" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="E65" s="68">
+      <c r="C65" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="D65" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E65" s="61">
         <v>115</v>
       </c>
-      <c r="F65" s="64">
+      <c r="F65" s="57">
         <v>41774</v>
       </c>
-      <c r="G65" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H65" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I65" s="52" t="s">
-        <v>141</v>
+      <c r="G65" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="46" t="s">
+        <v>143</v>
       </c>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
@@ -4805,30 +4862,30 @@
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
     </row>
-    <row r="66" spans="1:14">
-      <c r="A66" s="64">
+    <row r="66" spans="1:14" ht="15.75">
+      <c r="A66" s="57">
         <v>41593</v>
       </c>
-      <c r="B66" s="64">
+      <c r="B66" s="57">
         <v>41596</v>
       </c>
-      <c r="C66" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="D66" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="E66" s="68">
+      <c r="C66" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D66" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="E66" s="61">
         <v>49</v>
       </c>
-      <c r="F66" s="64">
+      <c r="F66" s="57">
         <v>41654</v>
       </c>
-      <c r="G66" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H66" s="52" t="s">
-        <v>13</v>
+      <c r="G66" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
@@ -4837,30 +4894,30 @@
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
     </row>
-    <row r="67" spans="1:14">
-      <c r="A67" s="64">
+    <row r="67" spans="1:14" ht="15.75">
+      <c r="A67" s="57">
         <v>41547</v>
       </c>
-      <c r="B67" s="64">
+      <c r="B67" s="57">
         <v>41547</v>
       </c>
-      <c r="C67" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="D67" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="E67" s="68">
+      <c r="C67" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="61">
         <v>1</v>
       </c>
-      <c r="F67" s="64">
+      <c r="F67" s="57">
         <v>41608</v>
       </c>
-      <c r="G67" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H67" s="52" t="s">
-        <v>13</v>
+      <c r="G67" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
@@ -4869,30 +4926,30 @@
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
     </row>
-    <row r="68" spans="1:14">
-      <c r="A68" s="64">
+    <row r="68" spans="1:14" ht="15.75">
+      <c r="A68" s="57">
         <v>41495</v>
       </c>
-      <c r="B68" s="64">
+      <c r="B68" s="57">
         <v>41502</v>
       </c>
-      <c r="C68" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="D68" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="E68" s="68">
+      <c r="C68" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" s="61">
         <v>66</v>
       </c>
-      <c r="F68" s="64">
+      <c r="F68" s="57">
         <v>41555</v>
       </c>
-      <c r="G68" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H68" s="52" t="s">
-        <v>13</v>
+      <c r="G68" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
@@ -4901,30 +4958,30 @@
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
     </row>
-    <row r="69" spans="1:14">
-      <c r="A69" s="64">
+    <row r="69" spans="1:14" ht="15.75">
+      <c r="A69" s="57">
         <v>41425</v>
       </c>
-      <c r="B69" s="64">
+      <c r="B69" s="57">
         <v>41438</v>
       </c>
-      <c r="C69" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="D69" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="E69" s="68">
+      <c r="C69" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D69" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="E69" s="61">
         <v>3</v>
       </c>
-      <c r="F69" s="64">
+      <c r="F69" s="57">
         <v>41425</v>
       </c>
-      <c r="G69" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H69" s="52" t="s">
-        <v>13</v>
+      <c r="G69" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
@@ -4933,30 +4990,30 @@
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
     </row>
-    <row r="70" spans="1:14">
-      <c r="A70" s="64">
+    <row r="70" spans="1:14" ht="15.75">
+      <c r="A70" s="57">
         <v>41416</v>
       </c>
-      <c r="B70" s="64">
+      <c r="B70" s="57">
         <v>41417</v>
       </c>
-      <c r="C70" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="D70" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="E70" s="68">
+      <c r="C70" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="D70" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" s="61">
         <v>62</v>
       </c>
-      <c r="F70" s="64">
+      <c r="F70" s="57">
         <v>41485</v>
       </c>
-      <c r="G70" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H70" s="52" t="s">
-        <v>21</v>
+      <c r="G70" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="46" t="s">
+        <v>12</v>
       </c>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
@@ -4965,30 +5022,30 @@
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
     </row>
-    <row r="71" spans="1:14">
-      <c r="A71" s="64">
+    <row r="71" spans="1:14" ht="15.75">
+      <c r="A71" s="57">
         <v>41285</v>
       </c>
-      <c r="B71" s="64">
+      <c r="B71" s="57">
         <v>41285</v>
       </c>
-      <c r="C71" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="D71" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="E71" s="68" t="s">
-        <v>129</v>
-      </c>
-      <c r="F71" s="64">
+      <c r="C71" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="D71" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="E71" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="F71" s="57">
         <v>41347</v>
       </c>
-      <c r="G71" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H71" s="52" t="s">
-        <v>13</v>
+      <c r="G71" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
@@ -4997,30 +5054,30 @@
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
     </row>
-    <row r="72" spans="1:14">
-      <c r="A72" s="64">
+    <row r="72" spans="1:14" ht="15.75">
+      <c r="A72" s="57">
         <v>41087</v>
       </c>
-      <c r="B72" s="64">
+      <c r="B72" s="57">
         <v>41087</v>
       </c>
-      <c r="C72" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="D72" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="E72" s="68">
+      <c r="C72" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E72" s="61">
         <v>51</v>
       </c>
-      <c r="F72" s="64">
+      <c r="F72" s="57">
         <v>41148</v>
       </c>
-      <c r="G72" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H72" s="52" t="s">
-        <v>13</v>
+      <c r="G72" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
@@ -5029,33 +5086,33 @@
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
     </row>
-    <row r="73" spans="1:14">
-      <c r="A73" s="64">
+    <row r="73" spans="1:14" ht="15.75">
+      <c r="A73" s="57">
         <v>41011</v>
       </c>
-      <c r="B73" s="64">
+      <c r="B73" s="57">
         <v>41011</v>
       </c>
-      <c r="C73" s="52" t="s">
+      <c r="C73" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D73" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="E73" s="61">
         <v>150</v>
       </c>
-      <c r="D73" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="E73" s="68">
-        <v>150</v>
-      </c>
-      <c r="F73" s="64">
+      <c r="F73" s="57">
         <v>41071</v>
       </c>
-      <c r="G73" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H73" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I73" s="52" t="s">
-        <v>151</v>
+      <c r="G73" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="46" t="s">
+        <v>153</v>
       </c>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
@@ -5063,33 +5120,33 @@
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
     </row>
-    <row r="74" spans="1:14">
-      <c r="A74" s="64">
+    <row r="74" spans="1:14" ht="15.75">
+      <c r="A74" s="57">
         <v>40938</v>
       </c>
-      <c r="B74" s="64">
+      <c r="B74" s="57">
         <v>40939</v>
       </c>
-      <c r="C74" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="D74" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="E74" s="68">
+      <c r="C74" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="D74" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="E74" s="61">
         <v>70</v>
       </c>
-      <c r="F74" s="64">
+      <c r="F74" s="57">
         <v>41000</v>
       </c>
-      <c r="G74" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H74" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I74" s="52" t="s">
-        <v>153</v>
+      <c r="G74" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="46" t="s">
+        <v>155</v>
       </c>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
@@ -5097,449 +5154,449 @@
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
     </row>
-    <row r="75" spans="1:14">
-      <c r="A75" s="64">
+    <row r="75" spans="1:14" ht="15.75">
+      <c r="A75" s="57">
         <v>40833</v>
       </c>
-      <c r="B75" s="64">
+      <c r="B75" s="57">
         <v>40833</v>
       </c>
-      <c r="C75" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="D75" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="E75" s="68">
+      <c r="C75" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="D75" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75" s="61">
         <v>110</v>
       </c>
-      <c r="F75" s="64">
+      <c r="F75" s="57">
         <v>40833</v>
       </c>
-      <c r="G75" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H75" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" s="52"/>
+      <c r="G75" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" s="46"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
     </row>
-    <row r="76" spans="1:14">
-      <c r="A76" s="64">
+    <row r="76" spans="1:14" ht="15.75">
+      <c r="A76" s="57">
         <v>40785</v>
       </c>
-      <c r="B76" s="64">
+      <c r="B76" s="57">
         <v>40788</v>
       </c>
-      <c r="C76" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="D76" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="E76" s="68">
+      <c r="C76" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="D76" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E76" s="61">
         <v>16</v>
       </c>
-      <c r="F76" s="64">
+      <c r="F76" s="57">
         <v>40846</v>
       </c>
-      <c r="G76" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H76" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="I76" s="52"/>
+      <c r="G76" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" s="46"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
     </row>
-    <row r="77" spans="1:14">
-      <c r="A77" s="64">
+    <row r="77" spans="1:14" ht="15.75">
+      <c r="A77" s="57">
         <v>40752</v>
       </c>
-      <c r="B77" s="64">
+      <c r="B77" s="57">
         <v>40758</v>
       </c>
-      <c r="C77" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="D77" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="E77" s="68">
+      <c r="C77" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="D77" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E77" s="61">
         <v>9</v>
       </c>
-      <c r="F77" s="64">
+      <c r="F77" s="57">
         <v>40816</v>
       </c>
-      <c r="G77" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H77" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="I77" s="52"/>
+      <c r="G77" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" s="46"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
     </row>
-    <row r="78" spans="1:14">
-      <c r="A78" s="64">
+    <row r="78" spans="1:14" ht="15.75">
+      <c r="A78" s="57">
         <v>40753</v>
       </c>
-      <c r="B78" s="64">
+      <c r="B78" s="57">
         <v>40756</v>
       </c>
-      <c r="C78" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="D78" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="E78" s="68">
+      <c r="C78" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="D78" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="61">
         <v>98</v>
       </c>
-      <c r="F78" s="68" t="s">
-        <v>158</v>
-      </c>
-      <c r="G78" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H78" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="I78" s="52"/>
+      <c r="F78" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="G78" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" s="46"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
     </row>
-    <row r="79" spans="1:14">
-      <c r="A79" s="64">
+    <row r="79" spans="1:14" ht="15.75">
+      <c r="A79" s="57">
         <v>40688</v>
       </c>
-      <c r="B79" s="64">
+      <c r="B79" s="57">
         <v>40690</v>
       </c>
-      <c r="C79" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="D79" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="E79" s="68">
+      <c r="C79" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="D79" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="E79" s="61">
         <v>21</v>
       </c>
-      <c r="F79" s="68" t="s">
-        <v>161</v>
-      </c>
-      <c r="G79" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H79" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="I79" s="52"/>
+      <c r="F79" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="G79" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" s="46"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
     </row>
-    <row r="80" spans="1:14">
-      <c r="A80" s="64">
+    <row r="80" spans="1:14" ht="15.75">
+      <c r="A80" s="57">
         <v>40634</v>
       </c>
-      <c r="B80" s="64">
+      <c r="B80" s="57">
         <v>40634</v>
       </c>
-      <c r="C80" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="D80" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="E80" s="68">
+      <c r="C80" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="D80" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="61">
         <v>98</v>
       </c>
-      <c r="F80" s="68" t="s">
-        <v>163</v>
-      </c>
-      <c r="G80" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H80" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="I80" s="52"/>
+      <c r="F80" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="G80" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80" s="46"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
     </row>
-    <row r="81" spans="1:14">
-      <c r="A81" s="64">
+    <row r="81" spans="1:14" ht="15.75">
+      <c r="A81" s="57">
         <v>40589</v>
       </c>
-      <c r="B81" s="64">
+      <c r="B81" s="57">
         <v>40589</v>
       </c>
-      <c r="C81" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="D81" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="E81" s="68">
+      <c r="C81" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="D81" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="E81" s="61">
         <v>5</v>
       </c>
-      <c r="F81" s="64">
+      <c r="F81" s="57">
         <v>40644</v>
       </c>
-      <c r="G81" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H81" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="I81" s="52"/>
+      <c r="G81" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" s="46"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
     </row>
-    <row r="82" spans="1:14">
-      <c r="A82" s="64">
+    <row r="82" spans="1:14" ht="15.75">
+      <c r="A82" s="57">
         <v>40565</v>
       </c>
-      <c r="B82" s="64">
+      <c r="B82" s="57">
         <v>40568</v>
       </c>
-      <c r="C82" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="D82" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="E82" s="68">
+      <c r="C82" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="D82" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" s="61">
         <v>122</v>
       </c>
-      <c r="F82" s="64">
+      <c r="F82" s="57">
         <v>40592</v>
       </c>
-      <c r="G82" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H82" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="I82" s="52"/>
+      <c r="G82" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" s="46"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
     </row>
-    <row r="83" spans="1:14">
-      <c r="A83" s="64">
+    <row r="83" spans="1:14" ht="15.75">
+      <c r="A83" s="57">
         <v>40410</v>
       </c>
-      <c r="B83" s="64">
+      <c r="B83" s="57">
         <v>40413</v>
       </c>
-      <c r="C83" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="D83" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="E83" s="68">
+      <c r="C83" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="D83" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="E83" s="61">
         <v>89</v>
       </c>
-      <c r="F83" s="64">
+      <c r="F83" s="57">
         <v>40452</v>
       </c>
-      <c r="G83" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H83" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="I83" s="52"/>
+      <c r="G83" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I83" s="46"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
     </row>
-    <row r="84" spans="1:14">
-      <c r="A84" s="64">
+    <row r="84" spans="1:14" ht="15.75">
+      <c r="A84" s="57">
         <v>40392</v>
       </c>
-      <c r="B84" s="64">
+      <c r="B84" s="57">
         <v>40217</v>
       </c>
-      <c r="C84" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="D84" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="E84" s="68">
+      <c r="C84" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D84" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="E84" s="61">
         <v>26</v>
       </c>
-      <c r="F84" s="68" t="s">
-        <v>169</v>
-      </c>
-      <c r="G84" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H84" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="I84" s="52"/>
+      <c r="F84" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="G84" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" s="46"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
     </row>
-    <row r="85" spans="1:14">
-      <c r="A85" s="64">
+    <row r="85" spans="1:14" ht="15.75">
+      <c r="A85" s="57">
         <v>40214</v>
       </c>
-      <c r="B85" s="64">
+      <c r="B85" s="57">
         <v>40217</v>
       </c>
-      <c r="C85" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="D85" s="52" t="s">
+      <c r="C85" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D85" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="E85" s="61">
         <v>165</v>
       </c>
-      <c r="E85" s="68">
-        <v>165</v>
-      </c>
-      <c r="F85" s="64">
+      <c r="F85" s="57">
         <v>40217</v>
       </c>
-      <c r="G85" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="I85" s="52"/>
+      <c r="G85" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" s="46"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
     </row>
-    <row r="86" spans="1:14">
-      <c r="A86" s="64">
+    <row r="86" spans="1:14" ht="15.75">
+      <c r="A86" s="57">
         <v>40178</v>
       </c>
-      <c r="B86" s="64">
+      <c r="B86" s="57">
         <v>40182</v>
       </c>
-      <c r="C86" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="D86" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="E86" s="68">
+      <c r="C86" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="D86" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E86" s="61">
         <v>8</v>
       </c>
-      <c r="F86" s="64">
+      <c r="F86" s="57">
         <v>40210</v>
       </c>
-      <c r="G86" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H86" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="I86" s="52"/>
+      <c r="G86" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I86" s="46"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
     </row>
-    <row r="87" spans="1:14">
-      <c r="A87" s="64">
+    <row r="87" spans="1:14" ht="15.75">
+      <c r="A87" s="57">
         <v>40137</v>
       </c>
-      <c r="B87" s="64">
+      <c r="B87" s="57">
         <v>40141</v>
       </c>
-      <c r="C87" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="D87" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="E87" s="68">
+      <c r="C87" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="D87" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E87" s="61">
         <v>66</v>
       </c>
-      <c r="F87" s="68" t="s">
-        <v>172</v>
-      </c>
-      <c r="G87" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H87" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="I87" s="52"/>
+      <c r="F87" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="G87" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I87" s="46"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
     </row>
-    <row r="88" spans="1:14">
-      <c r="A88" s="64">
+    <row r="88" spans="1:14" ht="15.75">
+      <c r="A88" s="57">
         <v>40137</v>
       </c>
-      <c r="B88" s="64">
+      <c r="B88" s="57">
         <v>40141</v>
       </c>
-      <c r="C88" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="D88" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="E88" s="68">
+      <c r="C88" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="D88" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="E88" s="61">
         <v>103</v>
       </c>
-      <c r="F88" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="G88" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H88" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I88" s="52" t="s">
-        <v>175</v>
+      <c r="F88" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="G88" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="46" t="s">
+        <v>177</v>
       </c>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
@@ -5547,30 +5604,30 @@
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
     </row>
-    <row r="89" spans="1:14">
-      <c r="A89" s="64">
+    <row r="89" spans="1:14" ht="15.75">
+      <c r="A89" s="57">
         <v>40094</v>
       </c>
-      <c r="B89" s="64">
+      <c r="B89" s="57">
         <v>40094</v>
       </c>
-      <c r="C89" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="D89" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="E89" s="68" t="s">
-        <v>176</v>
-      </c>
-      <c r="F89" s="64">
+      <c r="C89" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D89" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="F89" s="57">
         <v>40147</v>
       </c>
-      <c r="G89" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H89" s="52" t="s">
-        <v>13</v>
+      <c r="G89" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
@@ -5579,30 +5636,30 @@
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
     </row>
-    <row r="90" spans="1:14">
-      <c r="A90" s="64">
+    <row r="90" spans="1:14" ht="15.75">
+      <c r="A90" s="57">
         <v>40091</v>
       </c>
-      <c r="B90" s="64">
+      <c r="B90" s="57">
         <v>40091</v>
       </c>
-      <c r="C90" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="D90" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="E90" s="68">
+      <c r="C90" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="D90" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="E90" s="61">
         <v>63</v>
       </c>
-      <c r="F90" s="64">
+      <c r="F90" s="57">
         <v>40148</v>
       </c>
-      <c r="G90" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90" s="52" t="s">
-        <v>13</v>
+      <c r="G90" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
@@ -5611,30 +5668,30 @@
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
     </row>
-    <row r="91" spans="1:14">
-      <c r="A91" s="64">
+    <row r="91" spans="1:14" ht="15.75">
+      <c r="A91" s="57">
         <v>40046</v>
       </c>
-      <c r="B91" s="64">
+      <c r="B91" s="57">
         <v>40050</v>
       </c>
-      <c r="C91" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="D91" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="E91" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="F91" s="64">
+      <c r="C91" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="D91" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="E91" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" s="57">
         <v>39895</v>
       </c>
-      <c r="G91" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H91" s="52" t="s">
-        <v>13</v>
+      <c r="G91" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
@@ -5643,30 +5700,30 @@
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
     </row>
-    <row r="92" spans="1:14">
-      <c r="A92" s="64">
+    <row r="92" spans="1:14" ht="15.75">
+      <c r="A92" s="57">
         <v>40007</v>
       </c>
-      <c r="B92" s="64">
+      <c r="B92" s="57">
         <v>40008</v>
       </c>
-      <c r="C92" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="D92" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="E92" s="68">
+      <c r="C92" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="D92" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="E92" s="61">
         <v>130</v>
       </c>
-      <c r="F92" s="64">
+      <c r="F92" s="57">
         <v>39895</v>
       </c>
-      <c r="G92" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H92" s="52" t="s">
-        <v>13</v>
+      <c r="G92" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
@@ -5675,30 +5732,30 @@
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
     </row>
-    <row r="93" spans="1:14">
-      <c r="A93" s="64">
+    <row r="93" spans="1:14" ht="15.75">
+      <c r="A93" s="57">
         <v>40007</v>
       </c>
-      <c r="B93" s="64">
+      <c r="B93" s="57">
         <v>40008</v>
       </c>
-      <c r="C93" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="D93" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="E93" s="68">
+      <c r="C93" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="D93" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" s="61">
         <v>26</v>
       </c>
-      <c r="F93" s="64">
+      <c r="F93" s="57">
         <v>40001</v>
       </c>
-      <c r="G93" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H93" s="52" t="s">
-        <v>13</v>
+      <c r="G93" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
@@ -5707,30 +5764,30 @@
       <c r="M93" s="5"/>
       <c r="N93" s="5"/>
     </row>
-    <row r="94" spans="1:14">
-      <c r="A94" s="64">
+    <row r="94" spans="1:14" ht="15.75">
+      <c r="A94" s="57">
         <v>39995</v>
       </c>
-      <c r="B94" s="64">
+      <c r="B94" s="57">
         <v>39895</v>
       </c>
-      <c r="C94" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="D94" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="E94" s="68">
+      <c r="C94" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="D94" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="E94" s="61">
         <v>14</v>
       </c>
-      <c r="F94" s="64">
+      <c r="F94" s="57">
         <v>39895</v>
       </c>
-      <c r="G94" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94" s="52" t="s">
-        <v>13</v>
+      <c r="G94" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
@@ -5739,30 +5796,30 @@
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
     </row>
-    <row r="95" spans="1:14">
-      <c r="A95" s="64">
+    <row r="95" spans="1:14" ht="15.75">
+      <c r="A95" s="57">
         <v>39980</v>
       </c>
-      <c r="B95" s="64">
+      <c r="B95" s="57">
         <v>39996</v>
       </c>
-      <c r="C95" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="D95" s="52" t="s">
-        <v>182</v>
-      </c>
-      <c r="E95" s="68">
+      <c r="C95" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D95" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="E95" s="61">
         <v>10</v>
       </c>
-      <c r="F95" s="64">
+      <c r="F95" s="57">
         <v>40041</v>
       </c>
-      <c r="G95" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H95" s="52" t="s">
-        <v>13</v>
+      <c r="G95" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
@@ -5771,33 +5828,33 @@
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
     </row>
-    <row r="96" spans="1:14">
-      <c r="A96" s="64">
+    <row r="96" spans="1:14" ht="15.75">
+      <c r="A96" s="57">
         <v>39931</v>
       </c>
-      <c r="B96" s="64">
+      <c r="B96" s="57">
         <v>39932</v>
       </c>
-      <c r="C96" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="D96" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="E96" s="68">
+      <c r="C96" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="D96" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="61">
         <v>171</v>
       </c>
-      <c r="F96" s="64">
+      <c r="F96" s="57">
         <v>39994</v>
       </c>
-      <c r="G96" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H96" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I96" s="52" t="s">
-        <v>184</v>
+      <c r="G96" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I96" s="46" t="s">
+        <v>186</v>
       </c>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
@@ -5805,30 +5862,30 @@
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
     </row>
-    <row r="97" spans="1:14">
-      <c r="A97" s="64">
+    <row r="97" spans="1:14" ht="15.75">
+      <c r="A97" s="57">
         <v>39918</v>
       </c>
-      <c r="B97" s="64">
+      <c r="B97" s="57">
         <v>39918</v>
       </c>
-      <c r="C97" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="D97" s="52" t="s">
-        <v>185</v>
-      </c>
-      <c r="E97" s="68">
+      <c r="C97" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="D97" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="E97" s="61">
         <v>55</v>
       </c>
-      <c r="F97" s="64">
+      <c r="F97" s="57">
         <v>39994</v>
       </c>
-      <c r="G97" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H97" s="52" t="s">
-        <v>13</v>
+      <c r="G97" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
@@ -5837,30 +5894,30 @@
       <c r="M97" s="5"/>
       <c r="N97" s="5"/>
     </row>
-    <row r="98" spans="1:14">
-      <c r="A98" s="64">
+    <row r="98" spans="1:14" ht="15.75">
+      <c r="A98" s="57">
         <v>39883</v>
       </c>
-      <c r="B98" s="64">
+      <c r="B98" s="57">
         <v>39882</v>
       </c>
-      <c r="C98" s="52" t="s">
+      <c r="C98" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D98" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="D98" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="E98" s="68">
+      <c r="E98" s="61">
         <v>29</v>
       </c>
-      <c r="F98" s="64">
+      <c r="F98" s="57">
         <v>39943</v>
       </c>
-      <c r="G98" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H98" s="52" t="s">
-        <v>13</v>
+      <c r="G98" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
@@ -5869,30 +5926,30 @@
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
     </row>
-    <row r="99" spans="1:14">
-      <c r="A99" s="64">
+    <row r="99" spans="1:14" ht="15.75">
+      <c r="A99" s="57">
         <v>39881</v>
       </c>
-      <c r="B99" s="64">
+      <c r="B99" s="57">
         <v>39881</v>
       </c>
-      <c r="C99" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="D99" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="E99" s="68">
+      <c r="C99" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="D99" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99" s="61">
         <v>71</v>
       </c>
-      <c r="F99" s="64">
+      <c r="F99" s="57">
         <v>39941</v>
       </c>
-      <c r="G99" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" s="52" t="s">
-        <v>13</v>
+      <c r="G99" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
@@ -5901,30 +5958,30 @@
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
     </row>
-    <row r="100" spans="1:14">
-      <c r="A100" s="64">
+    <row r="100" spans="1:14" ht="15.75">
+      <c r="A100" s="57">
         <v>39876</v>
       </c>
-      <c r="B100" s="64">
+      <c r="B100" s="57">
         <v>39878</v>
       </c>
-      <c r="C100" s="52" t="s">
-        <v>186</v>
-      </c>
-      <c r="D100" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="E100" s="68">
+      <c r="C100" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="D100" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E100" s="61">
         <v>54</v>
       </c>
-      <c r="F100" s="64">
+      <c r="F100" s="57">
         <v>39935</v>
       </c>
-      <c r="G100" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H100" s="52" t="s">
-        <v>13</v>
+      <c r="G100" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
@@ -5933,30 +5990,30 @@
       <c r="M100" s="5"/>
       <c r="N100" s="5"/>
     </row>
-    <row r="101" spans="1:14">
-      <c r="A101" s="64">
+    <row r="101" spans="1:14" ht="15.75">
+      <c r="A101" s="57">
         <v>39877</v>
       </c>
-      <c r="B101" s="64">
+      <c r="B101" s="57">
         <v>39877</v>
       </c>
-      <c r="C101" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="D101" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="E101" s="68">
+      <c r="C101" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="D101" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E101" s="61">
         <v>119</v>
       </c>
-      <c r="F101" s="64">
+      <c r="F101" s="57">
         <v>39943</v>
       </c>
-      <c r="G101" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H101" s="52" t="s">
-        <v>13</v>
+      <c r="G101" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
@@ -5965,30 +6022,30 @@
       <c r="M101" s="5"/>
       <c r="N101" s="5"/>
     </row>
-    <row r="102" spans="1:14">
-      <c r="A102" s="64">
+    <row r="102" spans="1:14" ht="15.75">
+      <c r="A102" s="57">
         <v>39863</v>
       </c>
-      <c r="B102" s="64">
+      <c r="B102" s="57">
         <v>39864</v>
       </c>
-      <c r="C102" s="52" t="s">
-        <v>187</v>
-      </c>
-      <c r="D102" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="E102" s="68">
+      <c r="C102" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D102" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="E102" s="61">
         <v>270</v>
       </c>
-      <c r="F102" s="64">
+      <c r="F102" s="57">
         <v>39828</v>
       </c>
-      <c r="G102" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H102" s="52" t="s">
-        <v>13</v>
+      <c r="G102" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
@@ -5997,30 +6054,30 @@
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>
     </row>
-    <row r="103" spans="1:14">
-      <c r="A103" s="64">
+    <row r="103" spans="1:14" ht="15.75">
+      <c r="A103" s="57">
         <v>39832</v>
       </c>
-      <c r="B103" s="64">
+      <c r="B103" s="57">
         <v>39825</v>
       </c>
-      <c r="C103" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="D103" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="E103" s="68">
+      <c r="C103" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="D103" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="E103" s="61">
         <v>121</v>
       </c>
-      <c r="F103" s="64">
+      <c r="F103" s="57">
         <v>39821</v>
       </c>
-      <c r="G103" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H103" s="52" t="s">
-        <v>13</v>
+      <c r="G103" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
@@ -6029,7 +6086,7 @@
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" ht="15.75">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -6045,7 +6102,7 @@
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" ht="15.75">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -6061,7 +6118,7 @@
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" ht="15.75">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -6077,7 +6134,7 @@
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" ht="15.75">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -6093,7 +6150,7 @@
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" ht="15.75">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -6109,7 +6166,7 @@
       <c r="M108" s="5"/>
       <c r="N108" s="5"/>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" ht="15.75">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -6125,7 +6182,7 @@
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" ht="15.75">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -6141,7 +6198,7 @@
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" ht="15.75">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -6157,7 +6214,7 @@
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" ht="15.75">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -6173,7 +6230,7 @@
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" ht="15.75">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -6189,7 +6246,7 @@
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" ht="15.75">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -6205,7 +6262,7 @@
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" ht="15.75">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -6221,7 +6278,7 @@
       <c r="M115" s="5"/>
       <c r="N115" s="5"/>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" ht="15.75">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -6237,7 +6294,7 @@
       <c r="M116" s="5"/>
       <c r="N116" s="5"/>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" ht="15.75">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -6253,7 +6310,7 @@
       <c r="M117" s="5"/>
       <c r="N117" s="5"/>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" ht="15.75">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -6269,7 +6326,7 @@
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" ht="15.75">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -6285,7 +6342,7 @@
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" ht="15.75">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -6301,7 +6358,7 @@
       <c r="M120" s="5"/>
       <c r="N120" s="5"/>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" ht="15.75">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -6317,7 +6374,7 @@
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" ht="15.75">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -6333,7 +6390,7 @@
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" ht="15.75">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -6349,7 +6406,7 @@
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" ht="15.75">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -6365,7 +6422,7 @@
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" ht="15.75">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -6381,7 +6438,7 @@
       <c r="M125" s="5"/>
       <c r="N125" s="5"/>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" ht="15.75">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -6397,7 +6454,7 @@
       <c r="M126" s="5"/>
       <c r="N126" s="5"/>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" ht="15.75">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -6413,7 +6470,7 @@
       <c r="M127" s="5"/>
       <c r="N127" s="5"/>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" ht="15.75">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -6429,7 +6486,7 @@
       <c r="M128" s="5"/>
       <c r="N128" s="5"/>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" ht="15.75">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -6445,7 +6502,7 @@
       <c r="M129" s="5"/>
       <c r="N129" s="5"/>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" ht="15.75">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -6461,7 +6518,7 @@
       <c r="M130" s="5"/>
       <c r="N130" s="5"/>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" ht="15.75">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -6477,7 +6534,7 @@
       <c r="M131" s="5"/>
       <c r="N131" s="5"/>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" ht="15.75">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -6493,7 +6550,7 @@
       <c r="M132" s="5"/>
       <c r="N132" s="5"/>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" ht="15.75">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -6509,7 +6566,7 @@
       <c r="M133" s="5"/>
       <c r="N133" s="5"/>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" ht="15.75">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -6525,7 +6582,7 @@
       <c r="M134" s="5"/>
       <c r="N134" s="5"/>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" ht="15.75">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -6541,7 +6598,7 @@
       <c r="M135" s="5"/>
       <c r="N135" s="5"/>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" ht="15.75">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -6557,7 +6614,7 @@
       <c r="M136" s="5"/>
       <c r="N136" s="5"/>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" ht="15.75">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -6573,7 +6630,7 @@
       <c r="M137" s="5"/>
       <c r="N137" s="5"/>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" ht="15.75">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -6589,7 +6646,7 @@
       <c r="M138" s="5"/>
       <c r="N138" s="5"/>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" ht="15.75">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -6605,7 +6662,7 @@
       <c r="M139" s="5"/>
       <c r="N139" s="5"/>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" ht="15.75">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -6621,7 +6678,7 @@
       <c r="M140" s="5"/>
       <c r="N140" s="5"/>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" ht="15.75">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -6637,7 +6694,7 @@
       <c r="M141" s="5"/>
       <c r="N141" s="5"/>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" ht="15.75">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -6653,7 +6710,7 @@
       <c r="M142" s="5"/>
       <c r="N142" s="5"/>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" ht="15.75">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -6669,7 +6726,7 @@
       <c r="M143" s="5"/>
       <c r="N143" s="5"/>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" ht="15.75">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -6685,7 +6742,7 @@
       <c r="M144" s="5"/>
       <c r="N144" s="5"/>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" ht="15.75">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -6701,7 +6758,7 @@
       <c r="M145" s="5"/>
       <c r="N145" s="5"/>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" ht="15.75">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -6717,7 +6774,7 @@
       <c r="M146" s="5"/>
       <c r="N146" s="5"/>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" ht="15.75">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -6733,7 +6790,7 @@
       <c r="M147" s="5"/>
       <c r="N147" s="5"/>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" ht="15.75">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -6749,7 +6806,7 @@
       <c r="M148" s="5"/>
       <c r="N148" s="5"/>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" ht="15.75">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -6765,7 +6822,7 @@
       <c r="M149" s="5"/>
       <c r="N149" s="5"/>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" ht="15.75">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -6781,7 +6838,7 @@
       <c r="M150" s="5"/>
       <c r="N150" s="5"/>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" ht="15.75">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -6797,7 +6854,7 @@
       <c r="M151" s="5"/>
       <c r="N151" s="5"/>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" ht="15.75">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -6813,7 +6870,7 @@
       <c r="M152" s="5"/>
       <c r="N152" s="5"/>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" ht="15.75">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -6829,7 +6886,7 @@
       <c r="M153" s="5"/>
       <c r="N153" s="5"/>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" ht="15.75">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -6845,7 +6902,7 @@
       <c r="M154" s="5"/>
       <c r="N154" s="5"/>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" ht="15.75">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -6861,7 +6918,7 @@
       <c r="M155" s="5"/>
       <c r="N155" s="5"/>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" ht="15.75">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -6877,7 +6934,7 @@
       <c r="M156" s="5"/>
       <c r="N156" s="5"/>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" ht="15.75">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -6893,7 +6950,7 @@
       <c r="M157" s="5"/>
       <c r="N157" s="5"/>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" ht="15.75">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -6909,7 +6966,7 @@
       <c r="M158" s="5"/>
       <c r="N158" s="5"/>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" ht="15.75">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -6925,7 +6982,7 @@
       <c r="M159" s="5"/>
       <c r="N159" s="5"/>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" ht="15.75">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -6941,7 +6998,7 @@
       <c r="M160" s="5"/>
       <c r="N160" s="5"/>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" ht="15.75">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -6957,7 +7014,7 @@
       <c r="M161" s="5"/>
       <c r="N161" s="5"/>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" ht="15.75">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -6973,7 +7030,7 @@
       <c r="M162" s="5"/>
       <c r="N162" s="5"/>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" ht="15.75">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -6989,7 +7046,7 @@
       <c r="M163" s="5"/>
       <c r="N163" s="5"/>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" ht="15.75">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -7005,7 +7062,7 @@
       <c r="M164" s="5"/>
       <c r="N164" s="5"/>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" ht="15.75">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -7021,7 +7078,7 @@
       <c r="M165" s="5"/>
       <c r="N165" s="5"/>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" ht="15.75">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -7037,7 +7094,7 @@
       <c r="M166" s="5"/>
       <c r="N166" s="5"/>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" ht="15.75">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -7053,7 +7110,7 @@
       <c r="M167" s="5"/>
       <c r="N167" s="5"/>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" ht="15.75">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -7069,7 +7126,7 @@
       <c r="M168" s="5"/>
       <c r="N168" s="5"/>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" ht="15.75">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -7085,7 +7142,7 @@
       <c r="M169" s="5"/>
       <c r="N169" s="5"/>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" ht="15.75">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -7101,7 +7158,7 @@
       <c r="M170" s="5"/>
       <c r="N170" s="5"/>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" ht="15.75">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -7117,7 +7174,7 @@
       <c r="M171" s="5"/>
       <c r="N171" s="5"/>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" ht="15.75">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -7133,7 +7190,7 @@
       <c r="M172" s="5"/>
       <c r="N172" s="5"/>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" ht="15.75">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -7149,7 +7206,7 @@
       <c r="M173" s="5"/>
       <c r="N173" s="5"/>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" ht="15.75">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -7165,7 +7222,7 @@
       <c r="M174" s="5"/>
       <c r="N174" s="5"/>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" ht="15.75">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -7181,7 +7238,7 @@
       <c r="M175" s="5"/>
       <c r="N175" s="5"/>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" ht="15.75">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -7197,7 +7254,7 @@
       <c r="M176" s="5"/>
       <c r="N176" s="5"/>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" ht="15.75">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -7222,9 +7279,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7372,45 +7432,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3BDC996-7CD8-43BD-838D-50E4C5CE2932}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0557A4BC-595F-498F-986F-63860A4E78D3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{526D1213-C5F8-4F2A-BB65-47A3B48FEA3A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e19eab3b-0a92-46fc-9552-a493c76cdc00"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{526D1213-C5F8-4F2A-BB65-47A3B48FEA3A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0557A4BC-595F-498F-986F-63860A4E78D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3BDC996-7CD8-43BD-838D-50E4C5CE2932}"/>
 </file>
--- a/data/warn-scraper/cache/ri/WARN Report.xlsx
+++ b/data/warn-scraper/cache/ri/WARN Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28317"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmwilsonri/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81BA42DD-9B85-4EF2-8AAC-31B263980A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="318" documentId="8_{BBA632B8-8CF0-FE4B-B185-E43E47968B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5297028D-B5D0-4E5C-8E09-4F93512687F4}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{3D1EFEF8-FCA9-F542-BC18-3671B549873E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="194">
   <si>
     <t>Rhode Island WARN Report</t>
   </si>
@@ -69,6 +69,21 @@
     <t>Union Address</t>
   </si>
   <si>
+    <t>CVS</t>
+  </si>
+  <si>
+    <t>1 CVS Drive, Woonsocket, RI</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNFI </t>
+  </si>
+  <si>
+    <t>Lincoln, RI</t>
+  </si>
+  <si>
     <t>Gannett Publishing</t>
   </si>
   <si>
@@ -81,16 +96,10 @@
     <t>Teamsters Local 251, 1201 Elmwood Ave., Prov., RI 02907, Teamsters Local 3, Graphic Communications Conference, 1073 Hancock St., Suite 303, Quincy, MA 02169</t>
   </si>
   <si>
-    <t>CVS</t>
-  </si>
-  <si>
     <t>Rhode Island</t>
   </si>
   <si>
     <t>12/8/2024 through 12/21/2024</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>Kaleo</t>
@@ -755,7 +764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -790,13 +799,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -828,16 +831,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -858,27 +852,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -919,17 +893,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -946,6 +914,52 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1263,956 +1277,991 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:S122"/>
+  <dimension ref="A1:S130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:I19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="45.75" style="48" customWidth="1"/>
+    <col min="3" max="3" width="45.75" style="80" customWidth="1"/>
     <col min="4" max="4" width="31.125" customWidth="1"/>
-    <col min="5" max="5" width="24.375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="28.375" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.375" style="30" customWidth="1"/>
+    <col min="6" max="6" width="28.375" style="70" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="71.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:19" ht="31.5">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-    </row>
-    <row r="4" spans="1:19" s="38" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="29" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+    </row>
+    <row r="4" spans="1:19" s="33" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="62" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A5" s="50">
+    <row r="5" spans="1:19" s="49" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A5" s="52">
+        <v>45621</v>
+      </c>
+      <c r="B5" s="52">
+        <v>45621</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="50">
+        <v>796</v>
+      </c>
+      <c r="F5" s="52">
+        <v>45682</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="50"/>
+    </row>
+    <row r="6" spans="1:19" s="33" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A6" s="37">
+        <v>45617</v>
+      </c>
+      <c r="B6" s="37">
+        <v>45617</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="38">
+        <v>121</v>
+      </c>
+      <c r="F6" s="52">
+        <v>45681</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="38"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+    </row>
+    <row r="7" spans="1:19" s="49" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A7" s="37">
         <v>45608</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B7" s="37">
         <v>45608</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C7" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="38">
+        <v>136</v>
+      </c>
+      <c r="F7" s="52">
+        <v>45726</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+    </row>
+    <row r="8" spans="1:19" s="36" customFormat="1" ht="15">
+      <c r="A8" s="37">
+        <v>45571</v>
+      </c>
+      <c r="B8" s="37">
+        <v>45572</v>
+      </c>
+      <c r="C8" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="51">
-        <v>136</v>
-      </c>
-      <c r="F5" s="67">
-        <v>45726</v>
-      </c>
-      <c r="G5" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="65" t="s">
+      <c r="D8" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="38">
+        <v>632</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+    </row>
+    <row r="9" spans="1:19" s="33" customFormat="1" ht="18">
+      <c r="A9" s="52">
+        <v>45567</v>
+      </c>
+      <c r="B9" s="52">
+        <v>45567</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="50">
+        <v>1</v>
+      </c>
+      <c r="F9" s="53">
+        <v>45626</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+    </row>
+    <row r="10" spans="1:19" s="33" customFormat="1" ht="28.5">
+      <c r="A10" s="52">
+        <v>45560</v>
+      </c>
+      <c r="B10" s="52">
+        <v>45560</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="50">
         <v>13</v>
       </c>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-    </row>
-    <row r="6" spans="1:19" s="49" customFormat="1" ht="15">
-      <c r="A6" s="50">
-        <v>45571</v>
-      </c>
-      <c r="B6" s="50">
-        <v>45572</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="51">
-        <v>632</v>
-      </c>
-      <c r="F6" s="64" t="s">
+      <c r="F10" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="50"/>
+    </row>
+    <row r="11" spans="1:19" s="33" customFormat="1" ht="28.5">
+      <c r="A11" s="52">
+        <v>45524</v>
+      </c>
+      <c r="B11" s="52">
+        <v>45526</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="50">
+        <v>117</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="50"/>
+    </row>
+    <row r="12" spans="1:19" s="33" customFormat="1" ht="18">
+      <c r="A12" s="52">
+        <v>45504</v>
+      </c>
+      <c r="B12" s="52">
+        <v>45504</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="50">
+        <v>205</v>
+      </c>
+      <c r="F12" s="52">
+        <v>45658</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="50"/>
+    </row>
+    <row r="13" spans="1:19" s="33" customFormat="1" ht="18">
+      <c r="A13" s="52">
+        <v>45481</v>
+      </c>
+      <c r="B13" s="52">
+        <v>45485</v>
+      </c>
+      <c r="C13" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="54">
+        <v>58</v>
+      </c>
+      <c r="F13" s="52">
+        <v>45541</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="52"/>
+    </row>
+    <row r="14" spans="1:19" s="16" customFormat="1" ht="28.5">
+      <c r="A14" s="52">
+        <v>45427</v>
+      </c>
+      <c r="B14" s="52">
+        <v>45432</v>
+      </c>
+      <c r="C14" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="55">
+        <v>30</v>
+      </c>
+      <c r="F14" s="52">
+        <v>45488</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="6" customFormat="1" ht="15">
+      <c r="A15" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="52">
+        <v>45421</v>
+      </c>
+      <c r="C15" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="E15" s="55">
+        <v>1029</v>
+      </c>
+      <c r="F15" s="52">
+        <v>45473</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="I15" s="50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="6" customFormat="1" ht="15">
+      <c r="A16" s="52">
+        <v>45414</v>
+      </c>
+      <c r="B16" s="52">
+        <v>45414</v>
+      </c>
+      <c r="C16" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="50">
+        <v>36</v>
+      </c>
+      <c r="F16" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-    </row>
-    <row r="7" spans="1:19" s="38" customFormat="1" ht="18">
-      <c r="A7" s="67">
-        <v>45567</v>
-      </c>
-      <c r="B7" s="67">
-        <v>45567</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="64">
+      <c r="H16" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="50"/>
+    </row>
+    <row r="17" spans="1:9" s="6" customFormat="1" ht="15.75">
+      <c r="A17" s="52">
+        <v>45380</v>
+      </c>
+      <c r="B17" s="52">
+        <v>45383</v>
+      </c>
+      <c r="C17" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="52">
+        <v>45412</v>
+      </c>
+      <c r="G17" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="56"/>
+    </row>
+    <row r="18" spans="1:9" s="6" customFormat="1" ht="15.75">
+      <c r="A18" s="52">
+        <v>45380</v>
+      </c>
+      <c r="B18" s="52">
+        <v>45383</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="50">
         <v>1</v>
       </c>
-      <c r="F7" s="68">
-        <v>45626</v>
-      </c>
-      <c r="G7" s="64" t="s">
+      <c r="F18" s="52">
+        <v>45443</v>
+      </c>
+      <c r="G18" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-    </row>
-    <row r="8" spans="1:19" s="38" customFormat="1" ht="28.5">
-      <c r="A8" s="67">
-        <v>45560</v>
-      </c>
-      <c r="B8" s="67">
-        <v>45560</v>
-      </c>
-      <c r="C8" s="51" t="s">
+      <c r="H18" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="56"/>
+    </row>
+    <row r="19" spans="1:9" s="6" customFormat="1" ht="15">
+      <c r="A19" s="52">
+        <v>45349</v>
+      </c>
+      <c r="B19" s="52">
+        <v>45349</v>
+      </c>
+      <c r="C19" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="54">
+        <v>48</v>
+      </c>
+      <c r="F19" s="52">
+        <v>45611</v>
+      </c>
+      <c r="G19" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="50"/>
+    </row>
+    <row r="20" spans="1:9" s="6" customFormat="1" ht="15">
+      <c r="A20" s="52">
+        <v>45323</v>
+      </c>
+      <c r="B20" s="52">
+        <v>45328</v>
+      </c>
+      <c r="C20" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="54">
+        <v>130</v>
+      </c>
+      <c r="F20" s="52">
+        <v>45384</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="6" customFormat="1" ht="15">
+      <c r="A21" s="52">
+        <v>45316</v>
+      </c>
+      <c r="B21" s="52">
+        <v>45316</v>
+      </c>
+      <c r="C21" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="64">
-        <v>13</v>
-      </c>
-      <c r="F8" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="64"/>
-    </row>
-    <row r="9" spans="1:19" s="38" customFormat="1" ht="28.5">
-      <c r="A9" s="67">
-        <v>45524</v>
-      </c>
-      <c r="B9" s="67">
-        <v>45526</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="64">
-        <v>117</v>
-      </c>
-      <c r="F9" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="64"/>
-    </row>
-    <row r="10" spans="1:19" s="38" customFormat="1" ht="18">
-      <c r="A10" s="67">
-        <v>45504</v>
-      </c>
-      <c r="B10" s="67">
-        <v>45504</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="64">
-        <v>205</v>
-      </c>
-      <c r="F10" s="67">
-        <v>45658</v>
-      </c>
-      <c r="G10" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="64"/>
-    </row>
-    <row r="11" spans="1:19" s="38" customFormat="1" ht="18">
-      <c r="A11" s="67">
-        <v>45481</v>
-      </c>
-      <c r="B11" s="67">
-        <v>45485</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="69">
-        <v>58</v>
-      </c>
-      <c r="F11" s="67">
-        <v>45541</v>
-      </c>
-      <c r="G11" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="67"/>
-    </row>
-    <row r="12" spans="1:19" s="17" customFormat="1" ht="28.5">
-      <c r="A12" s="67">
-        <v>45427</v>
-      </c>
-      <c r="B12" s="67">
-        <v>45432</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="70">
-        <v>30</v>
-      </c>
-      <c r="F12" s="67">
-        <v>45488</v>
-      </c>
-      <c r="G12" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="65" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="6" customFormat="1" ht="15">
-      <c r="A13" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="67">
-        <v>45421</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="70">
-        <v>1029</v>
-      </c>
-      <c r="F13" s="67">
-        <v>45473</v>
-      </c>
-      <c r="G13" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="64" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="6" customFormat="1" ht="15">
-      <c r="A14" s="67">
-        <v>45414</v>
-      </c>
-      <c r="B14" s="67">
-        <v>45414</v>
-      </c>
-      <c r="C14" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="64">
-        <v>36</v>
-      </c>
-      <c r="F14" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="64"/>
-    </row>
-    <row r="15" spans="1:19" s="6" customFormat="1" ht="15.75">
-      <c r="A15" s="67">
-        <v>45380</v>
-      </c>
-      <c r="B15" s="67">
-        <v>45383</v>
-      </c>
-      <c r="C15" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="67">
-        <v>45412</v>
-      </c>
-      <c r="G15" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="71"/>
-    </row>
-    <row r="16" spans="1:19" s="6" customFormat="1" ht="15.75">
-      <c r="A16" s="67">
-        <v>45380</v>
-      </c>
-      <c r="B16" s="67">
-        <v>45383</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="64">
+      <c r="E21" s="54">
         <v>1</v>
       </c>
-      <c r="F16" s="67">
-        <v>45443</v>
-      </c>
-      <c r="G16" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="71"/>
-    </row>
-    <row r="17" spans="1:9" s="6" customFormat="1" ht="15">
-      <c r="A17" s="67">
-        <v>45349</v>
-      </c>
-      <c r="B17" s="67">
-        <v>45349</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="69">
-        <v>48</v>
-      </c>
-      <c r="F17" s="67">
-        <v>45611</v>
-      </c>
-      <c r="G17" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="64"/>
-    </row>
-    <row r="18" spans="1:9" s="6" customFormat="1" ht="15">
-      <c r="A18" s="67">
-        <v>45323</v>
-      </c>
-      <c r="B18" s="67">
-        <v>45328</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="69">
-        <v>130</v>
-      </c>
-      <c r="F18" s="67">
-        <v>45384</v>
-      </c>
-      <c r="G18" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="67" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="6" customFormat="1" ht="15">
-      <c r="A19" s="67">
+      <c r="F21" s="52">
         <v>45316</v>
       </c>
-      <c r="B19" s="67">
-        <v>45316</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="69">
-        <v>1</v>
-      </c>
-      <c r="F19" s="67">
-        <v>45316</v>
-      </c>
-      <c r="G19" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="67"/>
-    </row>
-    <row r="20" spans="1:9" s="7" customFormat="1" ht="15">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="1:9" s="7" customFormat="1" ht="15">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="1:9" s="6" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A22" s="12"/>
+      <c r="G21" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="52"/>
+    </row>
+    <row r="22" spans="1:9" s="7" customFormat="1" ht="15">
       <c r="B22" s="12"/>
-      <c r="C22" s="42"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="13"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="1:9" s="6" customFormat="1" ht="15">
-      <c r="A23" s="21"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="62"/>
+    </row>
+    <row r="23" spans="1:9" s="7" customFormat="1" ht="15">
       <c r="B23" s="12"/>
-      <c r="C23" s="42"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" s="6" customFormat="1" ht="15">
-      <c r="A24" s="12"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="62"/>
+    </row>
+    <row r="24" spans="1:9" s="6" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="B24" s="12"/>
-      <c r="C24" s="42"/>
+      <c r="C24" s="75"/>
       <c r="D24" s="13"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="16"/>
-      <c r="I24" s="20"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="62"/>
     </row>
     <row r="25" spans="1:9" s="6" customFormat="1" ht="15">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="9"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9" s="6" customFormat="1" ht="15">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="62"/>
+      <c r="I26" s="18"/>
     </row>
     <row r="27" spans="1:9" s="6" customFormat="1" ht="15">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="45"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="9"/>
     </row>
     <row r="28" spans="1:9" s="6" customFormat="1" ht="15">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
     </row>
     <row r="29" spans="1:9" s="6" customFormat="1" ht="15">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
     </row>
     <row r="30" spans="1:9" s="6" customFormat="1" ht="15">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
     </row>
     <row r="31" spans="1:9" s="6" customFormat="1" ht="15">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
     </row>
     <row r="32" spans="1:9" s="6" customFormat="1" ht="15">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
     </row>
     <row r="33" spans="1:9" s="6" customFormat="1" ht="15">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
     </row>
     <row r="34" spans="1:9" s="6" customFormat="1" ht="15">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:9" s="6" customFormat="1" ht="15">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" s="6" customFormat="1" ht="15">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
     </row>
     <row r="37" spans="1:9" s="6" customFormat="1" ht="15">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-    </row>
-    <row r="38" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-    </row>
-    <row r="39" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+    </row>
+    <row r="38" spans="1:9" s="6" customFormat="1" ht="15">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+    </row>
+    <row r="39" spans="1:9" s="6" customFormat="1" ht="15">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A40" s="14"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="14"/>
-      <c r="C40" s="45"/>
+      <c r="C40" s="77"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="18"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="64"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A41" s="14"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="14"/>
-      <c r="C41" s="45"/>
+      <c r="C41" s="77"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="18"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="64"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="45"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="77"/>
       <c r="D42" s="15"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="18"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="64"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A43" s="11"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="14"/>
-      <c r="C43" s="45"/>
+      <c r="C43" s="77"/>
       <c r="D43" s="15"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="18"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="64"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A44" s="11"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="45"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="77"/>
       <c r="D44" s="15"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="18"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="64"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A45" s="14"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="14"/>
-      <c r="C45" s="45"/>
+      <c r="C45" s="77"/>
       <c r="D45" s="15"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="18"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="64"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:9" s="5" customFormat="1" ht="15">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
-      <c r="C46" s="45"/>
+      <c r="C46" s="77"/>
       <c r="D46" s="15"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="18"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="64"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:9" s="5" customFormat="1" ht="15">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
-      <c r="C47" s="45"/>
+      <c r="C47" s="77"/>
       <c r="D47" s="15"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="18"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="64"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:9" s="5" customFormat="1" ht="15">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
-      <c r="C48" s="45"/>
+      <c r="C48" s="77"/>
       <c r="D48" s="15"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="18"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="64"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
     </row>
     <row r="49" spans="1:9" s="5" customFormat="1" ht="15">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
-      <c r="C49" s="45"/>
+      <c r="C49" s="77"/>
       <c r="D49" s="15"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="18"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="64"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A50" s="14"/>
+      <c r="A50" s="11"/>
       <c r="B50" s="14"/>
-      <c r="C50" s="45"/>
+      <c r="C50" s="77"/>
       <c r="D50" s="15"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="18"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="64"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
     </row>
     <row r="51" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A51" s="14"/>
+      <c r="A51" s="11"/>
       <c r="B51" s="14"/>
-      <c r="C51" s="45"/>
+      <c r="C51" s="77"/>
       <c r="D51" s="15"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="18"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="64"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A52" s="14"/>
+      <c r="A52" s="11"/>
       <c r="B52" s="14"/>
-      <c r="C52" s="45"/>
+      <c r="C52" s="77"/>
       <c r="D52" s="15"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="18"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="64"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
     </row>
     <row r="53" spans="1:9" s="5" customFormat="1" ht="15">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
-      <c r="C53" s="45"/>
+      <c r="C53" s="77"/>
       <c r="D53" s="15"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="18"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="64"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
     </row>
     <row r="54" spans="1:9" s="5" customFormat="1" ht="15">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
-      <c r="C54" s="45"/>
+      <c r="C54" s="77"/>
       <c r="D54" s="15"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="64"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
     </row>
     <row r="55" spans="1:9" s="5" customFormat="1" ht="15">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
-      <c r="C55" s="45"/>
+      <c r="C55" s="77"/>
       <c r="D55" s="15"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="18"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="64"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
     </row>
     <row r="56" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="31"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="65"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
     </row>
     <row r="57" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="31"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="64"/>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
     </row>
     <row r="58" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A58" s="8"/>
+      <c r="A58" s="14"/>
       <c r="B58" s="8"/>
-      <c r="C58" s="46"/>
+      <c r="C58" s="78"/>
       <c r="D58" s="10"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="31"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="66"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
     </row>
     <row r="59" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A59" s="8"/>
+      <c r="A59" s="14"/>
       <c r="B59" s="8"/>
-      <c r="C59" s="46"/>
+      <c r="C59" s="78"/>
       <c r="D59" s="10"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="31"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="66"/>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A60" s="8"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="8"/>
-      <c r="C60" s="46"/>
+      <c r="C60" s="78"/>
       <c r="D60" s="10"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="31"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="66"/>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
     </row>
     <row r="61" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A61" s="8"/>
+      <c r="A61" s="14"/>
       <c r="B61" s="8"/>
-      <c r="C61" s="46"/>
+      <c r="C61" s="78"/>
       <c r="D61" s="10"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="31"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="66"/>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
     </row>
     <row r="62" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A62" s="8"/>
+      <c r="A62" s="14"/>
       <c r="B62" s="8"/>
-      <c r="C62" s="46"/>
+      <c r="C62" s="78"/>
       <c r="D62" s="10"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="31"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="66"/>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
     </row>
     <row r="63" spans="1:9" s="5" customFormat="1" ht="15">
-      <c r="A63" s="8"/>
+      <c r="A63" s="14"/>
       <c r="B63" s="8"/>
-      <c r="C63" s="46"/>
+      <c r="C63" s="78"/>
       <c r="D63" s="10"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="31"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="66"/>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
@@ -2220,209 +2269,208 @@
     <row r="64" spans="1:9" s="5" customFormat="1" ht="15">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
-      <c r="C64" s="46"/>
+      <c r="C64" s="78"/>
       <c r="D64" s="10"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="66"/>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
     </row>
     <row r="65" spans="1:9" s="5" customFormat="1" ht="15">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
-      <c r="C65" s="46"/>
+      <c r="C65" s="78"/>
       <c r="D65" s="10"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="31"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="66"/>
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
     </row>
     <row r="66" spans="1:9" s="5" customFormat="1" ht="15">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
-      <c r="C66" s="46"/>
+      <c r="C66" s="78"/>
       <c r="D66" s="10"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="31"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="67"/>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
     </row>
     <row r="67" spans="1:9" s="5" customFormat="1" ht="15">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
-      <c r="C67" s="46"/>
+      <c r="C67" s="78"/>
       <c r="D67" s="10"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="31"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="66"/>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
     </row>
     <row r="68" spans="1:9" s="5" customFormat="1" ht="15">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
-      <c r="C68" s="46"/>
+      <c r="C68" s="78"/>
       <c r="D68" s="10"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="66"/>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
     </row>
     <row r="69" spans="1:9" s="5" customFormat="1" ht="15">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
-      <c r="C69" s="46"/>
+      <c r="C69" s="78"/>
       <c r="D69" s="10"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="31"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="66"/>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
     </row>
     <row r="70" spans="1:9" s="5" customFormat="1" ht="15">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
-      <c r="C70" s="46"/>
+      <c r="C70" s="78"/>
       <c r="D70" s="10"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="67"/>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
     </row>
     <row r="71" spans="1:9" s="5" customFormat="1" ht="15">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
-      <c r="C71" s="46"/>
+      <c r="C71" s="78"/>
       <c r="D71" s="10"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="66"/>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
     </row>
     <row r="72" spans="1:9" s="5" customFormat="1" ht="15">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
-      <c r="C72" s="46"/>
+      <c r="C72" s="78"/>
       <c r="D72" s="10"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="31"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="67"/>
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
     </row>
     <row r="73" spans="1:9" s="5" customFormat="1" ht="15">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
-      <c r="C73" s="46"/>
+      <c r="C73" s="78"/>
       <c r="D73" s="10"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="31"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="67"/>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
     </row>
     <row r="74" spans="1:9" s="5" customFormat="1" ht="15">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
-      <c r="C74" s="46"/>
+      <c r="C74" s="78"/>
       <c r="D74" s="10"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="66"/>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
     </row>
     <row r="75" spans="1:9" s="5" customFormat="1" ht="15">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
-      <c r="C75" s="46"/>
+      <c r="C75" s="78"/>
       <c r="D75" s="10"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="31"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="66"/>
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
-    </row>
-    <row r="76" spans="1:9" ht="15.75">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="47"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="2"/>
-    </row>
-    <row r="77" spans="1:9" ht="15.75">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="47"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
+      <c r="I75" s="10"/>
+    </row>
+    <row r="76" spans="1:9" s="5" customFormat="1" ht="15">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="78"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+    </row>
+    <row r="77" spans="1:9" s="5" customFormat="1" ht="15">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="78"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
     </row>
     <row r="78" spans="1:9" ht="15.75">
-      <c r="A78" s="4"/>
+      <c r="A78" s="8"/>
       <c r="B78" s="4"/>
-      <c r="C78" s="47"/>
+      <c r="C78" s="79"/>
       <c r="D78" s="1"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="33"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="68"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" ht="15.75">
-      <c r="A79" s="4"/>
+      <c r="A79" s="8"/>
       <c r="B79" s="4"/>
-      <c r="C79" s="47"/>
+      <c r="C79" s="79"/>
       <c r="D79" s="1"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="33"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="68"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
-      <c r="I79" s="2"/>
+      <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9" ht="15.75">
-      <c r="A80" s="4"/>
+      <c r="A80" s="8"/>
       <c r="B80" s="4"/>
-      <c r="C80" s="47"/>
+      <c r="C80" s="79"/>
       <c r="D80" s="1"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="33"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="68"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="2"/>
     </row>
     <row r="81" spans="1:9" ht="15.75">
-      <c r="A81" s="4"/>
+      <c r="A81" s="8"/>
       <c r="B81" s="4"/>
-      <c r="C81" s="47"/>
+      <c r="C81" s="79"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="33"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="68"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="2"/>
     </row>
     <row r="82" spans="1:9" ht="15.75">
-      <c r="A82" s="4"/>
+      <c r="A82" s="8"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="47"/>
+      <c r="C82" s="79"/>
       <c r="D82" s="1"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="33"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="68"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="2"/>
     </row>
     <row r="83" spans="1:9" ht="15.75">
-      <c r="A83" s="4"/>
+      <c r="A83" s="8"/>
       <c r="B83" s="4"/>
-      <c r="C83" s="47"/>
+      <c r="C83" s="79"/>
       <c r="D83" s="1"/>
-      <c r="E83" s="34"/>
-      <c r="F83" s="33"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="68"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="2"/>
@@ -2430,10 +2478,10 @@
     <row r="84" spans="1:9" ht="15.75">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
-      <c r="C84" s="47"/>
+      <c r="C84" s="79"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="33"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="68"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="2"/>
@@ -2441,32 +2489,32 @@
     <row r="85" spans="1:9" ht="15.75">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
-      <c r="C85" s="47"/>
+      <c r="C85" s="79"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="33"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="68"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
+      <c r="I85" s="2"/>
     </row>
     <row r="86" spans="1:9" ht="15.75">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
-      <c r="C86" s="47"/>
+      <c r="C86" s="79"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="33"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="68"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
+      <c r="I86" s="2"/>
     </row>
     <row r="87" spans="1:9" ht="15.75">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
-      <c r="C87" s="47"/>
+      <c r="C87" s="79"/>
       <c r="D87" s="1"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="33"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="68"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -2474,10 +2522,10 @@
     <row r="88" spans="1:9" ht="15.75">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
-      <c r="C88" s="47"/>
+      <c r="C88" s="79"/>
       <c r="D88" s="1"/>
-      <c r="E88" s="34"/>
-      <c r="F88" s="33"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="68"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -2485,10 +2533,10 @@
     <row r="89" spans="1:9" ht="15.75">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
-      <c r="C89" s="47"/>
+      <c r="C89" s="79"/>
       <c r="D89" s="1"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="33"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="68"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -2496,10 +2544,10 @@
     <row r="90" spans="1:9" ht="15.75">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
-      <c r="C90" s="47"/>
+      <c r="C90" s="79"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="34"/>
-      <c r="F90" s="34"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="68"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -2507,10 +2555,10 @@
     <row r="91" spans="1:9" ht="15.75">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
-      <c r="C91" s="47"/>
+      <c r="C91" s="79"/>
       <c r="D91" s="1"/>
-      <c r="E91" s="34"/>
-      <c r="F91" s="34"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="68"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -2518,10 +2566,10 @@
     <row r="92" spans="1:9" ht="15.75">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
-      <c r="C92" s="47"/>
+      <c r="C92" s="79"/>
       <c r="D92" s="1"/>
-      <c r="E92" s="34"/>
-      <c r="F92" s="34"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="69"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -2529,10 +2577,10 @@
     <row r="93" spans="1:9" ht="15.75">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
-      <c r="C93" s="47"/>
+      <c r="C93" s="79"/>
       <c r="D93" s="1"/>
-      <c r="E93" s="34"/>
-      <c r="F93" s="33"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="69"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -2540,10 +2588,10 @@
     <row r="94" spans="1:9" ht="15.75">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
-      <c r="C94" s="47"/>
+      <c r="C94" s="79"/>
       <c r="D94" s="1"/>
-      <c r="E94" s="34"/>
-      <c r="F94" s="33"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="69"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -2551,10 +2599,10 @@
     <row r="95" spans="1:9" ht="15.75">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
-      <c r="C95" s="47"/>
+      <c r="C95" s="79"/>
       <c r="D95" s="1"/>
-      <c r="E95" s="34"/>
-      <c r="F95" s="33"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="68"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -2562,10 +2610,10 @@
     <row r="96" spans="1:9" ht="15.75">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
-      <c r="C96" s="47"/>
+      <c r="C96" s="79"/>
       <c r="D96" s="1"/>
-      <c r="E96" s="34"/>
-      <c r="F96" s="34"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="68"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -2573,10 +2621,10 @@
     <row r="97" spans="1:9" ht="15.75">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
-      <c r="C97" s="47"/>
+      <c r="C97" s="79"/>
       <c r="D97" s="1"/>
-      <c r="E97" s="34"/>
-      <c r="F97" s="33"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="68"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -2584,10 +2632,10 @@
     <row r="98" spans="1:9" ht="15.75">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
-      <c r="C98" s="47"/>
+      <c r="C98" s="79"/>
       <c r="D98" s="1"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="33"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="69"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -2595,10 +2643,10 @@
     <row r="99" spans="1:9" ht="15.75">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
-      <c r="C99" s="47"/>
+      <c r="C99" s="79"/>
       <c r="D99" s="1"/>
-      <c r="E99" s="34"/>
-      <c r="F99" s="34"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="68"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -2606,10 +2654,10 @@
     <row r="100" spans="1:9" ht="15.75">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
-      <c r="C100" s="47"/>
+      <c r="C100" s="79"/>
       <c r="D100" s="1"/>
-      <c r="E100" s="34"/>
-      <c r="F100" s="34"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="68"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -2617,32 +2665,32 @@
     <row r="101" spans="1:9" ht="15.75">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
-      <c r="C101" s="47"/>
+      <c r="C101" s="79"/>
       <c r="D101" s="1"/>
-      <c r="E101" s="34"/>
-      <c r="F101" s="33"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="69"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
-      <c r="I101" s="2"/>
+      <c r="I101" s="1"/>
     </row>
     <row r="102" spans="1:9" ht="15.75">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
-      <c r="C102" s="47"/>
+      <c r="C102" s="79"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="34"/>
-      <c r="F102" s="33"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="69"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
-      <c r="I102" s="2"/>
+      <c r="I102" s="1"/>
     </row>
     <row r="103" spans="1:9" ht="15.75">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
-      <c r="C103" s="47"/>
+      <c r="C103" s="79"/>
       <c r="D103" s="1"/>
-      <c r="E103" s="34"/>
-      <c r="F103" s="33"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="68"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="2"/>
@@ -2650,10 +2698,10 @@
     <row r="104" spans="1:9" ht="15.75">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
-      <c r="C104" s="47"/>
+      <c r="C104" s="79"/>
       <c r="D104" s="1"/>
-      <c r="E104" s="34"/>
-      <c r="F104" s="33"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="68"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="2"/>
@@ -2661,10 +2709,10 @@
     <row r="105" spans="1:9" ht="15.75">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
-      <c r="C105" s="47"/>
+      <c r="C105" s="79"/>
       <c r="D105" s="1"/>
-      <c r="E105" s="34"/>
-      <c r="F105" s="33"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="68"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="2"/>
@@ -2672,10 +2720,10 @@
     <row r="106" spans="1:9" ht="15.75">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
-      <c r="C106" s="47"/>
+      <c r="C106" s="79"/>
       <c r="D106" s="1"/>
-      <c r="E106" s="34"/>
-      <c r="F106" s="33"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="68"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="2"/>
@@ -2683,10 +2731,10 @@
     <row r="107" spans="1:9" ht="15.75">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
-      <c r="C107" s="47"/>
+      <c r="C107" s="79"/>
       <c r="D107" s="1"/>
-      <c r="E107" s="34"/>
-      <c r="F107" s="33"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="68"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="2"/>
@@ -2694,21 +2742,21 @@
     <row r="108" spans="1:9" ht="15.75">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
-      <c r="C108" s="47"/>
+      <c r="C108" s="79"/>
       <c r="D108" s="1"/>
-      <c r="E108" s="34"/>
-      <c r="F108" s="33"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="68"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
+      <c r="I108" s="2"/>
     </row>
     <row r="109" spans="1:9" ht="15.75">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
-      <c r="C109" s="47"/>
+      <c r="C109" s="79"/>
       <c r="D109" s="1"/>
-      <c r="E109" s="34"/>
-      <c r="F109" s="33"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="68"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="2"/>
@@ -2716,21 +2764,21 @@
     <row r="110" spans="1:9" ht="15.75">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
-      <c r="C110" s="47"/>
+      <c r="C110" s="79"/>
       <c r="D110" s="1"/>
-      <c r="E110" s="34"/>
-      <c r="F110" s="33"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="68"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
-      <c r="I110" s="2"/>
+      <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9" ht="15.75">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
-      <c r="C111" s="47"/>
+      <c r="C111" s="79"/>
       <c r="D111" s="1"/>
-      <c r="E111" s="34"/>
-      <c r="F111" s="33"/>
+      <c r="E111" s="29"/>
+      <c r="F111" s="68"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="2"/>
@@ -2738,10 +2786,10 @@
     <row r="112" spans="1:9" ht="15.75">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
-      <c r="C112" s="47"/>
+      <c r="C112" s="79"/>
       <c r="D112" s="1"/>
-      <c r="E112" s="34"/>
-      <c r="F112" s="33"/>
+      <c r="E112" s="29"/>
+      <c r="F112" s="68"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="2"/>
@@ -2749,10 +2797,10 @@
     <row r="113" spans="1:9" ht="15.75">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
-      <c r="C113" s="47"/>
+      <c r="C113" s="79"/>
       <c r="D113" s="1"/>
-      <c r="E113" s="34"/>
-      <c r="F113" s="33"/>
+      <c r="E113" s="29"/>
+      <c r="F113" s="68"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="2"/>
@@ -2760,10 +2808,10 @@
     <row r="114" spans="1:9" ht="15.75">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
-      <c r="C114" s="47"/>
+      <c r="C114" s="79"/>
       <c r="D114" s="1"/>
-      <c r="E114" s="34"/>
-      <c r="F114" s="33"/>
+      <c r="E114" s="29"/>
+      <c r="F114" s="68"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="2"/>
@@ -2771,21 +2819,61 @@
     <row r="115" spans="1:9" ht="15.75">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
-      <c r="C115" s="47"/>
+      <c r="C115" s="79"/>
       <c r="D115" s="1"/>
-      <c r="E115" s="34"/>
-      <c r="F115" s="33"/>
+      <c r="E115" s="29"/>
+      <c r="F115" s="68"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="1:9" ht="15.75"/>
-    <row r="117" spans="1:9" ht="15.75"/>
-    <row r="118" spans="1:9" ht="15.75"/>
-    <row r="119" spans="1:9" ht="15.75"/>
-    <row r="120" spans="1:9" ht="15.75"/>
-    <row r="121" spans="1:9" ht="15.75"/>
-    <row r="122" spans="1:9" ht="15.75"/>
+    <row r="116" spans="1:9" ht="15.75">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="79"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="29"/>
+      <c r="F116" s="68"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="2"/>
+    </row>
+    <row r="117" spans="1:9" ht="15.75">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="79"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="29"/>
+      <c r="F117" s="68"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="2"/>
+    </row>
+    <row r="118" spans="1:9" ht="15.75">
+      <c r="A118" s="4"/>
+    </row>
+    <row r="119" spans="1:9" ht="15.75">
+      <c r="A119" s="4"/>
+    </row>
+    <row r="120" spans="1:9" ht="15.75">
+      <c r="A120" s="4"/>
+    </row>
+    <row r="121" spans="1:9" ht="15.75">
+      <c r="A121" s="4"/>
+    </row>
+    <row r="122" spans="1:9" ht="15.75">
+      <c r="A122" s="4"/>
+    </row>
+    <row r="123" spans="1:9" ht="15.75">
+      <c r="A123" s="4"/>
+    </row>
+    <row r="124" spans="1:9" ht="15.75"/>
+    <row r="125" spans="1:9" ht="15.75"/>
+    <row r="126" spans="1:9" ht="15.75"/>
+    <row r="127" spans="1:9" ht="15.75"/>
+    <row r="128" spans="1:9" ht="15.75"/>
+    <row r="129" ht="15.75"/>
+    <row r="130" ht="15.75"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I2"/>
@@ -2800,10 +2888,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:N177"/>
+  <dimension ref="A1:N180"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:N177"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.95"/>
@@ -2817,39 +2905,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:14" ht="30.95">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
     </row>
     <row r="4" spans="1:14" ht="21">
       <c r="A4" s="3" t="s">
@@ -2859,7 +2947,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>4</v>
@@ -2880,96 +2968,71 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75">
-      <c r="A5" s="52">
+    <row r="5" spans="1:14" ht="21">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" ht="21">
+      <c r="A6" s="3"/>
+      <c r="B6" s="39">
         <v>45191</v>
       </c>
-      <c r="B5" s="52">
-        <v>45191</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="54">
+      <c r="C6" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="41">
         <v>136</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F6" s="39">
         <v>45252</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.75">
-      <c r="A6" s="52">
-        <v>45156</v>
-      </c>
-      <c r="B6" s="52">
-        <v>45156</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="55"/>
+      <c r="H6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="42"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75">
-      <c r="A7" s="50">
-        <v>45153</v>
-      </c>
-      <c r="B7" s="52">
-        <v>45153</v>
+    <row r="7" spans="1:14" ht="21">
+      <c r="A7" s="3"/>
+      <c r="B7" s="39">
+        <v>45156</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="51">
-        <v>52</v>
-      </c>
-      <c r="F7" s="50">
-        <v>45153</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="5"/>
+      <c r="F7" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="42"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -2977,33 +3040,31 @@
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="15.75">
-      <c r="A8" s="52">
-        <v>45112</v>
-      </c>
-      <c r="B8" s="52">
-        <v>45112</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="54">
-        <v>211</v>
-      </c>
-      <c r="F8" s="52">
-        <v>45138</v>
-      </c>
-      <c r="G8" s="54" t="s">
+      <c r="A8" s="39">
+        <v>45191</v>
+      </c>
+      <c r="B8" s="39">
+        <v>45153</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="54" t="s">
+      <c r="D8" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="E8" s="38">
+        <v>52</v>
+      </c>
+      <c r="F8" s="37">
+        <v>45153</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -3011,32 +3072,32 @@
       <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="15.75">
-      <c r="A9" s="52">
-        <v>45107</v>
-      </c>
-      <c r="B9" s="52">
-        <v>45111</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="54" t="s">
+      <c r="A9" s="39">
+        <v>45156</v>
+      </c>
+      <c r="B9" s="39">
+        <v>45112</v>
+      </c>
+      <c r="C9" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="54">
-        <v>249</v>
-      </c>
-      <c r="F9" s="52">
+      <c r="D9" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="41">
+        <v>211</v>
+      </c>
+      <c r="F9" s="39">
         <v>45138</v>
       </c>
-      <c r="G9" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="54" t="s">
-        <v>56</v>
+      <c r="G9" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>59</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -3045,32 +3106,32 @@
       <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="15.75">
-      <c r="A10" s="52">
-        <v>45063</v>
-      </c>
-      <c r="B10" s="52">
-        <v>42522</v>
-      </c>
-      <c r="C10" s="54" t="s">
+      <c r="A10" s="37">
+        <v>45153</v>
+      </c>
+      <c r="B10" s="39">
+        <v>45111</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="41">
+        <v>249</v>
+      </c>
+      <c r="F10" s="39">
+        <v>45138</v>
+      </c>
+      <c r="G10" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="H10" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="41" t="s">
         <v>59</v>
-      </c>
-      <c r="E10" s="54">
-        <v>169</v>
-      </c>
-      <c r="F10" s="52">
-        <v>45086</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -3079,32 +3140,32 @@
       <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14" ht="15.75">
-      <c r="A11" s="56">
-        <v>44949</v>
-      </c>
-      <c r="B11" s="52">
-        <v>44950</v>
-      </c>
-      <c r="C11" s="54" t="s">
+      <c r="A11" s="39">
+        <v>45112</v>
+      </c>
+      <c r="B11" s="39">
+        <v>42522</v>
+      </c>
+      <c r="C11" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="54">
-        <v>75</v>
-      </c>
-      <c r="F11" s="52">
-        <v>45010</v>
-      </c>
-      <c r="G11" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="54" t="s">
+      <c r="D11" s="41" t="s">
         <v>62</v>
+      </c>
+      <c r="E11" s="41">
+        <v>169</v>
+      </c>
+      <c r="F11" s="39">
+        <v>45086</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -3113,31 +3174,33 @@
       <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:14" ht="15.75">
-      <c r="A12" s="50">
-        <v>44930</v>
-      </c>
-      <c r="B12" s="50">
-        <v>44937</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="A12" s="39">
+        <v>45107</v>
+      </c>
+      <c r="B12" s="39">
+        <v>44950</v>
+      </c>
+      <c r="C12" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="51">
-        <v>81</v>
-      </c>
-      <c r="F12" s="50">
-        <v>44990</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="D12" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="41">
+        <v>75</v>
+      </c>
+      <c r="F12" s="39">
+        <v>45010</v>
+      </c>
+      <c r="G12" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="55"/>
+      <c r="I12" s="41" t="s">
+        <v>65</v>
+      </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -3145,31 +3208,31 @@
       <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="15.75">
-      <c r="A13" s="57">
-        <v>44827</v>
-      </c>
-      <c r="B13" s="57">
-        <v>44831</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="59">
-        <v>1</v>
-      </c>
-      <c r="F13" s="57">
-        <v>44890</v>
-      </c>
-      <c r="G13" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="60"/>
+      <c r="A13" s="39">
+        <v>45063</v>
+      </c>
+      <c r="B13" s="37">
+        <v>44937</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="38">
+        <v>81</v>
+      </c>
+      <c r="F13" s="37">
+        <v>44990</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="42"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -3177,31 +3240,31 @@
       <c r="N13" s="5"/>
     </row>
     <row r="14" spans="1:14" ht="15.75">
-      <c r="A14" s="57">
-        <v>44817</v>
-      </c>
-      <c r="B14" s="57">
-        <v>44817</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="59">
-        <v>77</v>
-      </c>
-      <c r="F14" s="57">
-        <v>44880</v>
-      </c>
-      <c r="G14" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="57"/>
+      <c r="A14" s="43">
+        <v>44949</v>
+      </c>
+      <c r="B14" s="44">
+        <v>44831</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="46">
+        <v>1</v>
+      </c>
+      <c r="F14" s="44">
+        <v>44890</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="47"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -3209,31 +3272,31 @@
       <c r="N14" s="5"/>
     </row>
     <row r="15" spans="1:14" ht="15.75">
-      <c r="A15" s="57">
-        <v>44595</v>
-      </c>
-      <c r="B15" s="57">
-        <v>44594</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="61">
-        <v>198</v>
-      </c>
-      <c r="F15" s="57">
-        <v>44659</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="5"/>
+      <c r="A15" s="37">
+        <v>44930</v>
+      </c>
+      <c r="B15" s="44">
+        <v>44817</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="46">
+        <v>77</v>
+      </c>
+      <c r="F15" s="44">
+        <v>44880</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="44"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -3241,33 +3304,31 @@
       <c r="N15" s="5"/>
     </row>
     <row r="16" spans="1:14" ht="15.75">
-      <c r="A16" s="57">
-        <v>44334</v>
-      </c>
-      <c r="B16" s="57">
-        <v>44336</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="61">
-        <v>94</v>
-      </c>
-      <c r="F16" s="57">
-        <v>44394</v>
-      </c>
-      <c r="G16" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="46" t="s">
+      <c r="A16" s="44">
+        <v>44827</v>
+      </c>
+      <c r="B16" s="44">
+        <v>44594</v>
+      </c>
+      <c r="C16" s="35" t="s">
         <v>70</v>
       </c>
+      <c r="D16" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="48">
+        <v>198</v>
+      </c>
+      <c r="F16" s="44">
+        <v>44659</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -3275,31 +3336,33 @@
       <c r="N16" s="5"/>
     </row>
     <row r="17" spans="1:14" ht="15.75">
-      <c r="A17" s="57">
-        <v>44342</v>
-      </c>
-      <c r="B17" s="57">
-        <v>44342</v>
-      </c>
-      <c r="C17" s="46" t="s">
+      <c r="A17" s="44">
+        <v>44817</v>
+      </c>
+      <c r="B17" s="44">
+        <v>44336</v>
+      </c>
+      <c r="C17" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="61">
-        <v>464</v>
-      </c>
-      <c r="F17" s="57">
-        <v>44403</v>
-      </c>
-      <c r="G17" s="46" t="s">
+      <c r="D17" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="48">
+        <v>94</v>
+      </c>
+      <c r="F17" s="44">
+        <v>44394</v>
+      </c>
+      <c r="G17" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="46" t="s">
+      <c r="H17" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="5"/>
+      <c r="I17" s="35" t="s">
+        <v>73</v>
+      </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -3307,29 +3370,29 @@
       <c r="N17" s="5"/>
     </row>
     <row r="18" spans="1:14" ht="15.75">
-      <c r="A18" s="57">
-        <v>44105</v>
-      </c>
-      <c r="B18" s="57">
-        <v>44104</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="61">
-        <v>13</v>
-      </c>
-      <c r="F18" s="57">
-        <v>44104</v>
-      </c>
-      <c r="G18" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="46" t="s">
-        <v>17</v>
+      <c r="A18" s="44">
+        <v>44595</v>
+      </c>
+      <c r="B18" s="44">
+        <v>44342</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="48">
+        <v>464</v>
+      </c>
+      <c r="F18" s="44">
+        <v>44403</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -3339,29 +3402,29 @@
       <c r="N18" s="5"/>
     </row>
     <row r="19" spans="1:14" ht="15.75">
-      <c r="A19" s="57">
-        <v>44064</v>
-      </c>
-      <c r="B19" s="57">
-        <v>44068</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="61">
-        <v>40</v>
-      </c>
-      <c r="F19" s="57">
-        <v>44061</v>
-      </c>
-      <c r="G19" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="46" t="s">
-        <v>17</v>
+      <c r="A19" s="44">
+        <v>44334</v>
+      </c>
+      <c r="B19" s="44">
+        <v>44104</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="48">
+        <v>13</v>
+      </c>
+      <c r="F19" s="44">
+        <v>44104</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -3371,29 +3434,29 @@
       <c r="N19" s="5"/>
     </row>
     <row r="20" spans="1:14" ht="15.75">
-      <c r="A20" s="57">
-        <v>44057</v>
-      </c>
-      <c r="B20" s="57">
-        <v>44060</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="61">
-        <v>106</v>
-      </c>
-      <c r="F20" s="57">
-        <v>44057</v>
-      </c>
-      <c r="G20" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="46" t="s">
-        <v>17</v>
+      <c r="A20" s="44">
+        <v>44342</v>
+      </c>
+      <c r="B20" s="44">
+        <v>44068</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="48">
+        <v>40</v>
+      </c>
+      <c r="F20" s="44">
+        <v>44061</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -3403,33 +3466,31 @@
       <c r="N20" s="5"/>
     </row>
     <row r="21" spans="1:14" ht="15.75">
-      <c r="A21" s="57">
-        <v>44049</v>
-      </c>
-      <c r="B21" s="57">
-        <v>44056</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="61">
-        <v>272</v>
-      </c>
-      <c r="F21" s="57">
-        <v>43914</v>
-      </c>
-      <c r="G21" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="46" t="s">
-        <v>76</v>
-      </c>
+      <c r="A21" s="44">
+        <v>44105</v>
+      </c>
+      <c r="B21" s="44">
+        <v>44060</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="48">
+        <v>106</v>
+      </c>
+      <c r="F21" s="44">
+        <v>44057</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
@@ -3437,32 +3498,32 @@
       <c r="N21" s="5"/>
     </row>
     <row r="22" spans="1:14" ht="15.75">
-      <c r="A22" s="57">
-        <v>44054</v>
-      </c>
-      <c r="B22" s="57">
-        <v>44040</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="46" t="s">
+      <c r="A22" s="44">
+        <v>44064</v>
+      </c>
+      <c r="B22" s="44">
+        <v>44056</v>
+      </c>
+      <c r="C22" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="61">
-        <v>1043</v>
-      </c>
-      <c r="F22" s="57">
-        <v>44104</v>
-      </c>
-      <c r="G22" s="46" t="s">
+      <c r="D22" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="48">
+        <v>272</v>
+      </c>
+      <c r="F22" s="44">
+        <v>43914</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="46" t="s">
-        <v>76</v>
+      <c r="I22" s="35" t="s">
+        <v>79</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -3471,32 +3532,32 @@
       <c r="N22" s="5"/>
     </row>
     <row r="23" spans="1:14" ht="15.75">
-      <c r="A23" s="57">
-        <v>44054</v>
-      </c>
-      <c r="B23" s="57">
+      <c r="A23" s="44">
+        <v>44057</v>
+      </c>
+      <c r="B23" s="44">
         <v>44040</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="48">
+        <v>1043</v>
+      </c>
+      <c r="F23" s="44">
+        <v>44104</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="35" t="s">
         <v>79</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="61">
-        <v>296</v>
-      </c>
-      <c r="F23" s="57">
-        <v>44104</v>
-      </c>
-      <c r="G23" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="46" t="s">
-        <v>76</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -3505,31 +3566,33 @@
       <c r="N23" s="5"/>
     </row>
     <row r="24" spans="1:14" ht="15.75">
-      <c r="A24" s="57">
-        <v>44046</v>
-      </c>
-      <c r="B24" s="57">
-        <v>44042</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="61">
-        <v>73</v>
-      </c>
-      <c r="F24" s="57">
-        <v>44075</v>
-      </c>
-      <c r="G24" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="46" t="s">
+      <c r="A24" s="44">
+        <v>44049</v>
+      </c>
+      <c r="B24" s="44">
+        <v>44040</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="48">
+        <v>296</v>
+      </c>
+      <c r="F24" s="44">
+        <v>44104</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="5"/>
+      <c r="I24" s="35" t="s">
+        <v>79</v>
+      </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
@@ -3537,33 +3600,31 @@
       <c r="N24" s="5"/>
     </row>
     <row r="25" spans="1:14" ht="15.75">
-      <c r="A25" s="57">
-        <v>44027</v>
-      </c>
-      <c r="B25" s="57">
-        <v>44022</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="61">
-        <v>127</v>
-      </c>
-      <c r="F25" s="57">
-        <v>44044</v>
-      </c>
-      <c r="G25" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="46" t="s">
-        <v>62</v>
-      </c>
+      <c r="A25" s="44">
+        <v>44054</v>
+      </c>
+      <c r="B25" s="44">
+        <v>44042</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="48">
+        <v>73</v>
+      </c>
+      <c r="F25" s="44">
+        <v>44075</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
@@ -3571,31 +3632,33 @@
       <c r="N25" s="5"/>
     </row>
     <row r="26" spans="1:14" ht="15.75">
-      <c r="A26" s="57">
-        <v>44004</v>
-      </c>
-      <c r="B26" s="57">
-        <v>44004</v>
-      </c>
-      <c r="C26" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="46" t="s">
+      <c r="A26" s="44">
+        <v>44054</v>
+      </c>
+      <c r="B26" s="44">
+        <v>44022</v>
+      </c>
+      <c r="C26" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="61">
-        <v>71</v>
-      </c>
-      <c r="F26" s="57">
-        <v>43973</v>
-      </c>
-      <c r="G26" s="46" t="s">
+      <c r="D26" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="48">
+        <v>127</v>
+      </c>
+      <c r="F26" s="44">
+        <v>44044</v>
+      </c>
+      <c r="G26" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="46" t="s">
+      <c r="H26" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="5"/>
+      <c r="I26" s="35" t="s">
+        <v>65</v>
+      </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
@@ -3603,29 +3666,29 @@
       <c r="N26" s="5"/>
     </row>
     <row r="27" spans="1:14" ht="15.75">
-      <c r="A27" s="57">
-        <v>44012</v>
-      </c>
-      <c r="B27" s="57">
-        <v>44012</v>
-      </c>
-      <c r="C27" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="61">
-        <v>65</v>
-      </c>
-      <c r="F27" s="57">
-        <v>44012</v>
-      </c>
-      <c r="G27" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="46" t="s">
-        <v>17</v>
+      <c r="A27" s="44">
+        <v>44046</v>
+      </c>
+      <c r="B27" s="44">
+        <v>44004</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="48">
+        <v>71</v>
+      </c>
+      <c r="F27" s="44">
+        <v>43973</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -3635,29 +3698,29 @@
       <c r="N27" s="5"/>
     </row>
     <row r="28" spans="1:14" ht="15.75">
-      <c r="A28" s="57">
-        <v>43985</v>
-      </c>
-      <c r="B28" s="57">
-        <v>43985</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="61">
+      <c r="A28" s="44">
+        <v>44027</v>
+      </c>
+      <c r="B28" s="44">
+        <v>44012</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="48">
         <v>65</v>
       </c>
-      <c r="F28" s="57">
-        <v>43904</v>
-      </c>
-      <c r="G28" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="46" t="s">
-        <v>17</v>
+      <c r="F28" s="44">
+        <v>44012</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -3667,29 +3730,29 @@
       <c r="N28" s="5"/>
     </row>
     <row r="29" spans="1:14" ht="15.75">
-      <c r="A29" s="57">
-        <v>43980</v>
-      </c>
-      <c r="B29" s="57">
-        <v>43980</v>
-      </c>
-      <c r="C29" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="61">
-        <v>231</v>
-      </c>
-      <c r="F29" s="57">
-        <v>43980</v>
-      </c>
-      <c r="G29" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="46" t="s">
-        <v>17</v>
+      <c r="A29" s="44">
+        <v>44004</v>
+      </c>
+      <c r="B29" s="44">
+        <v>43985</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="48">
+        <v>65</v>
+      </c>
+      <c r="F29" s="44">
+        <v>43904</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -3699,29 +3762,29 @@
       <c r="N29" s="5"/>
     </row>
     <row r="30" spans="1:14" ht="15.75">
-      <c r="A30" s="50">
-        <v>44063</v>
-      </c>
-      <c r="B30" s="50">
-        <v>44068</v>
-      </c>
-      <c r="C30" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="61">
-        <v>72</v>
-      </c>
-      <c r="F30" s="57">
-        <v>43958</v>
-      </c>
-      <c r="G30" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="46" t="s">
-        <v>17</v>
+      <c r="A30" s="44">
+        <v>44012</v>
+      </c>
+      <c r="B30" s="44">
+        <v>43980</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="48">
+        <v>231</v>
+      </c>
+      <c r="F30" s="44">
+        <v>43980</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -3731,29 +3794,29 @@
       <c r="N30" s="5"/>
     </row>
     <row r="31" spans="1:14" ht="15.75">
-      <c r="A31" s="50">
-        <v>43948</v>
-      </c>
-      <c r="B31" s="57">
-        <v>43948</v>
-      </c>
-      <c r="C31" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="E31" s="61">
-        <v>136</v>
-      </c>
-      <c r="F31" s="57">
-        <v>43906</v>
-      </c>
-      <c r="G31" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="46" t="s">
-        <v>17</v>
+      <c r="A31" s="44">
+        <v>43985</v>
+      </c>
+      <c r="B31" s="37">
+        <v>44068</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="48">
+        <v>72</v>
+      </c>
+      <c r="F31" s="44">
+        <v>43958</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -3763,29 +3826,29 @@
       <c r="N31" s="5"/>
     </row>
     <row r="32" spans="1:14" ht="15.75">
-      <c r="A32" s="50">
-        <v>43942</v>
-      </c>
-      <c r="B32" s="57">
-        <v>43942</v>
-      </c>
-      <c r="C32" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="46" t="s">
+      <c r="A32" s="44">
+        <v>43980</v>
+      </c>
+      <c r="B32" s="44">
+        <v>43948</v>
+      </c>
+      <c r="C32" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="61">
-        <v>5</v>
-      </c>
-      <c r="F32" s="57">
-        <v>43942</v>
-      </c>
-      <c r="G32" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="46" t="s">
-        <v>17</v>
+      <c r="D32" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="48">
+        <v>136</v>
+      </c>
+      <c r="F32" s="44">
+        <v>43906</v>
+      </c>
+      <c r="G32" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -3795,29 +3858,29 @@
       <c r="N32" s="5"/>
     </row>
     <row r="33" spans="1:14" ht="15.75">
-      <c r="A33" s="57">
-        <v>43941</v>
-      </c>
-      <c r="B33" s="57">
-        <v>43944</v>
-      </c>
-      <c r="C33" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="46" t="s">
+      <c r="A33" s="37">
+        <v>44063</v>
+      </c>
+      <c r="B33" s="44">
+        <v>43942</v>
+      </c>
+      <c r="C33" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="E33" s="61">
-        <v>1</v>
-      </c>
-      <c r="F33" s="57">
-        <v>43941</v>
-      </c>
-      <c r="G33" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="46" t="s">
-        <v>17</v>
+      <c r="D33" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="48">
+        <v>5</v>
+      </c>
+      <c r="F33" s="44">
+        <v>43942</v>
+      </c>
+      <c r="G33" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -3827,29 +3890,29 @@
       <c r="N33" s="5"/>
     </row>
     <row r="34" spans="1:14" ht="15.75">
-      <c r="A34" s="57">
-        <v>43907</v>
-      </c>
-      <c r="B34" s="57">
-        <v>43938</v>
-      </c>
-      <c r="C34" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="61">
-        <v>13</v>
-      </c>
-      <c r="F34" s="57">
-        <v>43938</v>
-      </c>
-      <c r="G34" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="46" t="s">
-        <v>17</v>
+      <c r="A34" s="37">
+        <v>43948</v>
+      </c>
+      <c r="B34" s="44">
+        <v>43944</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="48">
+        <v>1</v>
+      </c>
+      <c r="F34" s="44">
+        <v>43941</v>
+      </c>
+      <c r="G34" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -3859,29 +3922,29 @@
       <c r="N34" s="5"/>
     </row>
     <row r="35" spans="1:14" ht="15.75">
-      <c r="A35" s="57">
-        <v>43927</v>
-      </c>
-      <c r="B35" s="57">
-        <v>43935</v>
-      </c>
-      <c r="C35" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="E35" s="61">
-        <v>51</v>
-      </c>
-      <c r="F35" s="57">
-        <v>43906</v>
-      </c>
-      <c r="G35" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="46" t="s">
-        <v>17</v>
+      <c r="A35" s="37">
+        <v>43942</v>
+      </c>
+      <c r="B35" s="44">
+        <v>43938</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="48">
+        <v>13</v>
+      </c>
+      <c r="F35" s="44">
+        <v>43938</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -3891,29 +3954,29 @@
       <c r="N35" s="5"/>
     </row>
     <row r="36" spans="1:14" ht="15.75">
-      <c r="A36" s="57">
-        <v>43925</v>
-      </c>
-      <c r="B36" s="57">
-        <v>43925</v>
-      </c>
-      <c r="C36" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="61">
-        <v>110</v>
-      </c>
-      <c r="F36" s="57">
-        <v>43927</v>
-      </c>
-      <c r="G36" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="46" t="s">
-        <v>17</v>
+      <c r="A36" s="44">
+        <v>43941</v>
+      </c>
+      <c r="B36" s="44">
+        <v>43935</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="48">
+        <v>51</v>
+      </c>
+      <c r="F36" s="44">
+        <v>43906</v>
+      </c>
+      <c r="G36" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -3923,29 +3986,29 @@
       <c r="N36" s="5"/>
     </row>
     <row r="37" spans="1:14" ht="15.75">
-      <c r="A37" s="57">
-        <v>43916</v>
-      </c>
-      <c r="B37" s="57">
-        <v>43917</v>
-      </c>
-      <c r="C37" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="61">
-        <v>37</v>
-      </c>
-      <c r="F37" s="57">
-        <v>43916</v>
-      </c>
-      <c r="G37" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="46" t="s">
-        <v>17</v>
+      <c r="A37" s="44">
+        <v>43907</v>
+      </c>
+      <c r="B37" s="44">
+        <v>43925</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="48">
+        <v>110</v>
+      </c>
+      <c r="F37" s="44">
+        <v>43927</v>
+      </c>
+      <c r="G37" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -3955,33 +4018,31 @@
       <c r="N37" s="5"/>
     </row>
     <row r="38" spans="1:14" ht="15.75">
-      <c r="A38" s="57">
+      <c r="A38" s="44">
+        <v>43927</v>
+      </c>
+      <c r="B38" s="44">
+        <v>43917</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="48">
+        <v>37</v>
+      </c>
+      <c r="F38" s="44">
         <v>43916</v>
       </c>
-      <c r="B38" s="57">
-        <v>43913</v>
-      </c>
-      <c r="C38" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="61">
-        <v>146</v>
-      </c>
-      <c r="F38" s="57">
-        <v>43898</v>
-      </c>
-      <c r="G38" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="46" t="s">
-        <v>99</v>
-      </c>
+      <c r="G38" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -3989,31 +4050,33 @@
       <c r="N38" s="5"/>
     </row>
     <row r="39" spans="1:14" ht="15.75">
-      <c r="A39" s="57">
-        <v>43910</v>
-      </c>
-      <c r="B39" s="57">
-        <v>43910</v>
-      </c>
-      <c r="C39" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" s="61">
-        <v>87</v>
-      </c>
-      <c r="F39" s="57">
-        <v>43910</v>
-      </c>
-      <c r="G39" s="46" t="s">
+      <c r="A39" s="44">
+        <v>43925</v>
+      </c>
+      <c r="B39" s="44">
+        <v>43913</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="48">
+        <v>146</v>
+      </c>
+      <c r="F39" s="44">
+        <v>43898</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" s="5"/>
+      <c r="I39" s="35" t="s">
+        <v>102</v>
+      </c>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
@@ -4021,29 +4084,29 @@
       <c r="N39" s="5"/>
     </row>
     <row r="40" spans="1:14" ht="15.75">
-      <c r="A40" s="57">
-        <v>43909</v>
-      </c>
-      <c r="B40" s="57">
-        <v>43913</v>
-      </c>
-      <c r="C40" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" s="61">
-        <v>110</v>
-      </c>
-      <c r="F40" s="57">
-        <v>43906</v>
-      </c>
-      <c r="G40" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" s="46" t="s">
-        <v>17</v>
+      <c r="A40" s="44">
+        <v>43916</v>
+      </c>
+      <c r="B40" s="44">
+        <v>43910</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="48">
+        <v>87</v>
+      </c>
+      <c r="F40" s="44">
+        <v>43910</v>
+      </c>
+      <c r="G40" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -4053,29 +4116,29 @@
       <c r="N40" s="5"/>
     </row>
     <row r="41" spans="1:14" ht="15.75">
-      <c r="A41" s="57">
-        <v>43509</v>
-      </c>
-      <c r="B41" s="57">
-        <v>43510</v>
-      </c>
-      <c r="C41" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="D41" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="E41" s="61">
-        <v>1</v>
-      </c>
-      <c r="F41" s="57">
-        <v>43567</v>
-      </c>
-      <c r="G41" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="46" t="s">
-        <v>17</v>
+      <c r="A41" s="44">
+        <v>43916</v>
+      </c>
+      <c r="B41" s="44">
+        <v>43913</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="48">
+        <v>110</v>
+      </c>
+      <c r="F41" s="44">
+        <v>43906</v>
+      </c>
+      <c r="G41" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
@@ -4085,29 +4148,29 @@
       <c r="N41" s="5"/>
     </row>
     <row r="42" spans="1:14" ht="15.75">
-      <c r="A42" s="57">
-        <v>43486</v>
-      </c>
-      <c r="B42" s="57">
-        <v>43486</v>
-      </c>
-      <c r="C42" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42" s="61">
-        <v>59</v>
-      </c>
-      <c r="F42" s="61" t="s">
+      <c r="A42" s="44">
+        <v>43910</v>
+      </c>
+      <c r="B42" s="44">
+        <v>43510</v>
+      </c>
+      <c r="C42" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="G42" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="46" t="s">
+      <c r="D42" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" s="48">
+        <v>1</v>
+      </c>
+      <c r="F42" s="44">
+        <v>43567</v>
+      </c>
+      <c r="G42" s="35" t="s">
         <v>17</v>
+      </c>
+      <c r="H42" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
@@ -4117,29 +4180,29 @@
       <c r="N42" s="5"/>
     </row>
     <row r="43" spans="1:14" ht="15.75">
-      <c r="A43" s="57">
-        <v>43479</v>
-      </c>
-      <c r="B43" s="57">
-        <v>43479</v>
-      </c>
-      <c r="C43" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="61">
-        <v>62</v>
-      </c>
-      <c r="F43" s="57">
-        <v>43542</v>
-      </c>
-      <c r="G43" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="46" t="s">
+      <c r="A43" s="44">
+        <v>43909</v>
+      </c>
+      <c r="B43" s="44">
+        <v>43486</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="48">
+        <v>59</v>
+      </c>
+      <c r="F43" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="G43" s="35" t="s">
         <v>17</v>
+      </c>
+      <c r="H43" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -4149,29 +4212,29 @@
       <c r="N43" s="5"/>
     </row>
     <row r="44" spans="1:14" ht="15.75">
-      <c r="A44" s="57">
-        <v>43405</v>
-      </c>
-      <c r="B44" s="57">
-        <v>43413</v>
-      </c>
-      <c r="C44" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="D44" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="61">
-        <v>51</v>
-      </c>
-      <c r="F44" s="57">
-        <v>43131</v>
-      </c>
-      <c r="G44" s="46" t="s">
+      <c r="A44" s="44">
+        <v>43509</v>
+      </c>
+      <c r="B44" s="44">
+        <v>43479</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="48">
+        <v>62</v>
+      </c>
+      <c r="F44" s="44">
+        <v>43542</v>
+      </c>
+      <c r="G44" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H44" s="46" t="s">
-        <v>17</v>
+      <c r="H44" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
@@ -4181,29 +4244,29 @@
       <c r="N44" s="5"/>
     </row>
     <row r="45" spans="1:14" ht="15.75">
-      <c r="A45" s="57">
-        <v>76277</v>
-      </c>
-      <c r="B45" s="57">
-        <v>43405</v>
-      </c>
-      <c r="C45" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="61">
-        <v>92</v>
-      </c>
-      <c r="F45" s="57">
-        <v>43465</v>
-      </c>
-      <c r="G45" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" s="46" t="s">
-        <v>17</v>
+      <c r="A45" s="44">
+        <v>43486</v>
+      </c>
+      <c r="B45" s="44">
+        <v>43413</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="48">
+        <v>51</v>
+      </c>
+      <c r="F45" s="44">
+        <v>43131</v>
+      </c>
+      <c r="G45" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
@@ -4213,29 +4276,29 @@
       <c r="N45" s="5"/>
     </row>
     <row r="46" spans="1:14" ht="15.75">
-      <c r="A46" s="57">
-        <v>76268</v>
-      </c>
-      <c r="B46" s="57">
+      <c r="A46" s="44">
+        <v>43479</v>
+      </c>
+      <c r="B46" s="44">
         <v>43405</v>
       </c>
-      <c r="C46" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="D46" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="61">
-        <v>181</v>
-      </c>
-      <c r="F46" s="57">
-        <v>43469</v>
-      </c>
-      <c r="G46" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="46" t="s">
+      <c r="C46" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="48">
+        <v>92</v>
+      </c>
+      <c r="F46" s="44">
+        <v>43465</v>
+      </c>
+      <c r="G46" s="35" t="s">
         <v>17</v>
+      </c>
+      <c r="H46" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
@@ -4245,29 +4308,29 @@
       <c r="N46" s="5"/>
     </row>
     <row r="47" spans="1:14" ht="15.75">
-      <c r="A47" s="57">
-        <v>43382</v>
-      </c>
-      <c r="B47" s="57">
-        <v>43382</v>
-      </c>
-      <c r="C47" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="D47" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47" s="61">
-        <v>180</v>
-      </c>
-      <c r="F47" s="57">
-        <v>43382</v>
-      </c>
-      <c r="G47" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="46" t="s">
+      <c r="A47" s="44">
+        <v>43405</v>
+      </c>
+      <c r="B47" s="44">
+        <v>43405</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="48">
+        <v>181</v>
+      </c>
+      <c r="F47" s="44">
+        <v>43469</v>
+      </c>
+      <c r="G47" s="35" t="s">
         <v>17</v>
+      </c>
+      <c r="H47" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -4277,29 +4340,29 @@
       <c r="N47" s="5"/>
     </row>
     <row r="48" spans="1:14" ht="15.75">
-      <c r="A48" s="57">
-        <v>43362</v>
-      </c>
-      <c r="B48" s="57">
-        <v>43363</v>
-      </c>
-      <c r="C48" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="D48" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="E48" s="61">
-        <v>83</v>
-      </c>
-      <c r="F48" s="57">
-        <v>43434</v>
-      </c>
-      <c r="G48" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" s="46" t="s">
+      <c r="A48" s="44">
+        <v>76277</v>
+      </c>
+      <c r="B48" s="44">
+        <v>43382</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="48">
+        <v>180</v>
+      </c>
+      <c r="F48" s="44">
+        <v>43382</v>
+      </c>
+      <c r="G48" s="35" t="s">
         <v>17</v>
+      </c>
+      <c r="H48" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -4309,33 +4372,31 @@
       <c r="N48" s="5"/>
     </row>
     <row r="49" spans="1:14" ht="15.75">
-      <c r="A49" s="57">
-        <v>43273</v>
-      </c>
-      <c r="B49" s="57">
-        <v>43276</v>
-      </c>
-      <c r="C49" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="D49" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" s="61">
-        <v>64</v>
-      </c>
-      <c r="F49" s="57">
-        <v>43339</v>
-      </c>
-      <c r="G49" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49" s="46" t="s">
+      <c r="A49" s="44">
+        <v>76268</v>
+      </c>
+      <c r="B49" s="44">
+        <v>43363</v>
+      </c>
+      <c r="C49" s="35" t="s">
         <v>114</v>
       </c>
+      <c r="D49" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" s="48">
+        <v>83</v>
+      </c>
+      <c r="F49" s="44">
+        <v>43434</v>
+      </c>
+      <c r="G49" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
@@ -4343,31 +4404,33 @@
       <c r="N49" s="5"/>
     </row>
     <row r="50" spans="1:14" ht="15.75">
-      <c r="A50" s="57">
-        <v>43252</v>
-      </c>
-      <c r="B50" s="57">
-        <v>43252</v>
-      </c>
-      <c r="C50" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="D50" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" s="61">
-        <v>149</v>
-      </c>
-      <c r="F50" s="57">
-        <v>43312</v>
-      </c>
-      <c r="G50" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="46" t="s">
+      <c r="A50" s="44">
+        <v>43382</v>
+      </c>
+      <c r="B50" s="44">
+        <v>43276</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="48">
+        <v>64</v>
+      </c>
+      <c r="F50" s="44">
+        <v>43339</v>
+      </c>
+      <c r="G50" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="I50" s="5"/>
+      <c r="H50" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="35" t="s">
+        <v>117</v>
+      </c>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
@@ -4375,33 +4438,31 @@
       <c r="N50" s="5"/>
     </row>
     <row r="51" spans="1:14" ht="15.75">
-      <c r="A51" s="57">
-        <v>43042</v>
-      </c>
-      <c r="B51" s="57">
-        <v>43042</v>
-      </c>
-      <c r="C51" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="D51" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" s="61">
-        <v>477</v>
-      </c>
-      <c r="F51" s="57">
-        <v>43112</v>
-      </c>
-      <c r="G51" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="46" t="s">
-        <v>117</v>
-      </c>
+      <c r="A51" s="44">
+        <v>43362</v>
+      </c>
+      <c r="B51" s="44">
+        <v>43252</v>
+      </c>
+      <c r="C51" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="48">
+        <v>149</v>
+      </c>
+      <c r="F51" s="44">
+        <v>43312</v>
+      </c>
+      <c r="G51" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
@@ -4409,31 +4470,33 @@
       <c r="N51" s="5"/>
     </row>
     <row r="52" spans="1:14" ht="15.75">
-      <c r="A52" s="57">
-        <v>42986</v>
-      </c>
-      <c r="B52" s="57">
-        <v>42990</v>
-      </c>
-      <c r="C52" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="D52" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="E52" s="61">
-        <v>171</v>
-      </c>
-      <c r="F52" s="61" t="s">
+      <c r="A52" s="44">
+        <v>43273</v>
+      </c>
+      <c r="B52" s="44">
+        <v>43042</v>
+      </c>
+      <c r="C52" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="G52" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" s="46" t="s">
+      <c r="D52" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="48">
+        <v>477</v>
+      </c>
+      <c r="F52" s="44">
+        <v>43112</v>
+      </c>
+      <c r="G52" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="I52" s="5"/>
+      <c r="H52" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" s="35" t="s">
+        <v>120</v>
+      </c>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
@@ -4441,29 +4504,29 @@
       <c r="N52" s="5"/>
     </row>
     <row r="53" spans="1:14" ht="15.75">
-      <c r="A53" s="57">
-        <v>42495</v>
-      </c>
-      <c r="B53" s="57">
-        <v>42496</v>
-      </c>
-      <c r="C53" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="D53" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="E53" s="61">
-        <v>187</v>
-      </c>
-      <c r="F53" s="57">
-        <v>42492</v>
-      </c>
-      <c r="G53" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" s="46" t="s">
+      <c r="A53" s="44">
+        <v>43252</v>
+      </c>
+      <c r="B53" s="44">
+        <v>42990</v>
+      </c>
+      <c r="C53" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="48">
+        <v>171</v>
+      </c>
+      <c r="F53" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="G53" s="35" t="s">
         <v>17</v>
+      </c>
+      <c r="H53" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
@@ -4473,33 +4536,31 @@
       <c r="N53" s="5"/>
     </row>
     <row r="54" spans="1:14" ht="15.75">
-      <c r="A54" s="57">
-        <v>42494</v>
-      </c>
-      <c r="B54" s="57">
-        <v>42495</v>
-      </c>
-      <c r="C54" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="D54" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="E54" s="61">
-        <v>20</v>
-      </c>
-      <c r="F54" s="57">
-        <v>42551</v>
-      </c>
-      <c r="G54" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" s="46" t="s">
+      <c r="A54" s="44">
+        <v>43042</v>
+      </c>
+      <c r="B54" s="44">
+        <v>42496</v>
+      </c>
+      <c r="C54" s="35" t="s">
         <v>123</v>
       </c>
+      <c r="D54" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" s="48">
+        <v>187</v>
+      </c>
+      <c r="F54" s="44">
+        <v>42492</v>
+      </c>
+      <c r="G54" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
@@ -4507,31 +4568,33 @@
       <c r="N54" s="5"/>
     </row>
     <row r="55" spans="1:14" ht="15.75">
-      <c r="A55" s="57">
-        <v>42468</v>
-      </c>
-      <c r="B55" s="57">
-        <v>42468</v>
-      </c>
-      <c r="C55" s="46" t="s">
+      <c r="A55" s="44">
+        <v>42986</v>
+      </c>
+      <c r="B55" s="44">
+        <v>42495</v>
+      </c>
+      <c r="C55" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="D55" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="E55" s="61">
-        <v>154</v>
-      </c>
-      <c r="F55" s="57">
-        <v>42528</v>
-      </c>
-      <c r="G55" s="46" t="s">
+      <c r="D55" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" s="48">
+        <v>20</v>
+      </c>
+      <c r="F55" s="44">
+        <v>42551</v>
+      </c>
+      <c r="G55" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H55" s="46" t="s">
+      <c r="H55" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="I55" s="5"/>
+      <c r="I55" s="35" t="s">
+        <v>126</v>
+      </c>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
@@ -4539,29 +4602,29 @@
       <c r="N55" s="5"/>
     </row>
     <row r="56" spans="1:14" ht="15.75">
-      <c r="A56" s="57">
-        <v>42401</v>
-      </c>
-      <c r="B56" s="57">
-        <v>42401</v>
-      </c>
-      <c r="C56" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="D56" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="61">
-        <v>60</v>
-      </c>
-      <c r="F56" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="G56" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="46" t="s">
-        <v>17</v>
+      <c r="A56" s="44">
+        <v>42495</v>
+      </c>
+      <c r="B56" s="44">
+        <v>42468</v>
+      </c>
+      <c r="C56" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56" s="48">
+        <v>154</v>
+      </c>
+      <c r="F56" s="44">
+        <v>42528</v>
+      </c>
+      <c r="G56" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
@@ -4571,29 +4634,29 @@
       <c r="N56" s="5"/>
     </row>
     <row r="57" spans="1:14" ht="15.75">
-      <c r="A57" s="57">
-        <v>42384</v>
-      </c>
-      <c r="B57" s="57">
-        <v>42384</v>
-      </c>
-      <c r="C57" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="D57" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" s="61">
-        <v>131</v>
-      </c>
-      <c r="F57" s="57">
-        <v>42405</v>
-      </c>
-      <c r="G57" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" s="46" t="s">
+      <c r="A57" s="44">
+        <v>42494</v>
+      </c>
+      <c r="B57" s="44">
+        <v>42401</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="48">
+        <v>60</v>
+      </c>
+      <c r="F57" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="G57" s="35" t="s">
         <v>17</v>
+      </c>
+      <c r="H57" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
@@ -4603,29 +4666,29 @@
       <c r="N57" s="5"/>
     </row>
     <row r="58" spans="1:14" ht="15.75">
-      <c r="A58" s="57">
-        <v>42326</v>
-      </c>
-      <c r="B58" s="57">
-        <v>42326</v>
-      </c>
-      <c r="C58" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="D58" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="61">
-        <v>241</v>
-      </c>
-      <c r="F58" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="G58" s="46" t="s">
+      <c r="A58" s="44">
+        <v>42468</v>
+      </c>
+      <c r="B58" s="44">
+        <v>42384</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E58" s="48">
+        <v>131</v>
+      </c>
+      <c r="F58" s="44">
+        <v>42405</v>
+      </c>
+      <c r="G58" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H58" s="46" t="s">
-        <v>17</v>
+      <c r="H58" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -4635,29 +4698,29 @@
       <c r="N58" s="5"/>
     </row>
     <row r="59" spans="1:14" ht="15.75">
-      <c r="A59" s="57">
-        <v>42318</v>
-      </c>
-      <c r="B59" s="57">
-        <v>42320</v>
-      </c>
-      <c r="C59" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="D59" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="E59" s="61" t="s">
+      <c r="A59" s="44">
+        <v>42401</v>
+      </c>
+      <c r="B59" s="44">
+        <v>42326</v>
+      </c>
+      <c r="C59" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="F59" s="61" t="s">
+      <c r="D59" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="48">
+        <v>241</v>
+      </c>
+      <c r="F59" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="G59" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="46" t="s">
-        <v>17</v>
+      <c r="G59" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
@@ -4667,29 +4730,29 @@
       <c r="N59" s="5"/>
     </row>
     <row r="60" spans="1:14" ht="15.75">
-      <c r="A60" s="57">
-        <v>42178</v>
-      </c>
-      <c r="B60" s="57">
-        <v>42180</v>
-      </c>
-      <c r="C60" s="46" t="s">
+      <c r="A60" s="44">
+        <v>42384</v>
+      </c>
+      <c r="B60" s="44">
+        <v>42320</v>
+      </c>
+      <c r="C60" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="D60" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="61">
-        <v>70</v>
-      </c>
-      <c r="F60" s="57">
-        <v>42240</v>
-      </c>
-      <c r="G60" s="46" t="s">
+      <c r="D60" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="F60" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="G60" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H60" s="46" t="s">
-        <v>17</v>
+      <c r="H60" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
@@ -4699,33 +4762,31 @@
       <c r="N60" s="5"/>
     </row>
     <row r="61" spans="1:14" ht="15.75">
-      <c r="A61" s="57">
-        <v>42069</v>
-      </c>
-      <c r="B61" s="57">
-        <v>42074</v>
-      </c>
-      <c r="C61" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="D61" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E61" s="61" t="s">
-        <v>135</v>
-      </c>
-      <c r="F61" s="57">
-        <v>42141</v>
-      </c>
-      <c r="G61" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61" s="46" t="s">
+      <c r="A61" s="44">
+        <v>42326</v>
+      </c>
+      <c r="B61" s="44">
+        <v>42180</v>
+      </c>
+      <c r="C61" s="35" t="s">
         <v>136</v>
       </c>
+      <c r="D61" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="48">
+        <v>70</v>
+      </c>
+      <c r="F61" s="44">
+        <v>42240</v>
+      </c>
+      <c r="G61" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
@@ -4733,31 +4794,33 @@
       <c r="N61" s="5"/>
     </row>
     <row r="62" spans="1:14" ht="15.75">
-      <c r="A62" s="57">
-        <v>42062</v>
-      </c>
-      <c r="B62" s="57">
-        <v>42065</v>
-      </c>
-      <c r="C62" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="D62" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="E62" s="61" t="s">
+      <c r="A62" s="44">
+        <v>42318</v>
+      </c>
+      <c r="B62" s="44">
+        <v>42074</v>
+      </c>
+      <c r="C62" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="F62" s="61" t="s">
+      <c r="D62" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="G62" s="46" t="s">
+      <c r="F62" s="44">
+        <v>42141</v>
+      </c>
+      <c r="G62" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H62" s="46" t="s">
+      <c r="H62" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="I62" s="5"/>
+      <c r="I62" s="35" t="s">
+        <v>139</v>
+      </c>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
@@ -4765,29 +4828,29 @@
       <c r="N62" s="5"/>
     </row>
     <row r="63" spans="1:14" ht="15.75">
-      <c r="A63" s="57">
-        <v>41850</v>
-      </c>
-      <c r="B63" s="57">
-        <v>41850</v>
-      </c>
-      <c r="C63" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="D63" s="46" t="s">
+      <c r="A63" s="44">
+        <v>42178</v>
+      </c>
+      <c r="B63" s="44">
+        <v>42065</v>
+      </c>
+      <c r="C63" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D63" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E63" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="E63" s="61">
-        <v>5</v>
-      </c>
-      <c r="F63" s="57">
-        <v>41912</v>
-      </c>
-      <c r="G63" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" s="46" t="s">
-        <v>17</v>
+      <c r="F63" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="G63" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
@@ -4797,29 +4860,29 @@
       <c r="N63" s="5"/>
     </row>
     <row r="64" spans="1:14" ht="15.75">
-      <c r="A64" s="57">
-        <v>41820</v>
-      </c>
-      <c r="B64" s="57">
-        <v>41821</v>
-      </c>
-      <c r="C64" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="D64" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="E64" s="61">
+      <c r="A64" s="44">
+        <v>42069</v>
+      </c>
+      <c r="B64" s="44">
+        <v>41850</v>
+      </c>
+      <c r="C64" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="F64" s="57">
-        <v>41882</v>
-      </c>
-      <c r="G64" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H64" s="46" t="s">
-        <v>17</v>
+      <c r="D64" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64" s="48">
+        <v>5</v>
+      </c>
+      <c r="F64" s="44">
+        <v>41912</v>
+      </c>
+      <c r="G64" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
@@ -4829,33 +4892,31 @@
       <c r="N64" s="5"/>
     </row>
     <row r="65" spans="1:14" ht="15.75">
-      <c r="A65" s="57">
-        <v>41724</v>
-      </c>
-      <c r="B65" s="57">
-        <v>41729</v>
-      </c>
-      <c r="C65" s="46" t="s">
+      <c r="A65" s="44">
+        <v>42062</v>
+      </c>
+      <c r="B65" s="44">
+        <v>41821</v>
+      </c>
+      <c r="C65" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E65" s="48">
         <v>142</v>
       </c>
-      <c r="D65" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="E65" s="61">
-        <v>115</v>
-      </c>
-      <c r="F65" s="57">
-        <v>41774</v>
-      </c>
-      <c r="G65" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I65" s="46" t="s">
-        <v>143</v>
-      </c>
+      <c r="F65" s="44">
+        <v>41882</v>
+      </c>
+      <c r="G65" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
@@ -4863,31 +4924,33 @@
       <c r="N65" s="5"/>
     </row>
     <row r="66" spans="1:14" ht="15.75">
-      <c r="A66" s="57">
-        <v>41593</v>
-      </c>
-      <c r="B66" s="57">
-        <v>41596</v>
-      </c>
-      <c r="C66" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="D66" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="E66" s="61">
-        <v>49</v>
-      </c>
-      <c r="F66" s="57">
-        <v>41654</v>
-      </c>
-      <c r="G66" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="46" t="s">
+      <c r="A66" s="44">
+        <v>41850</v>
+      </c>
+      <c r="B66" s="44">
+        <v>41729</v>
+      </c>
+      <c r="C66" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E66" s="48">
+        <v>115</v>
+      </c>
+      <c r="F66" s="44">
+        <v>41774</v>
+      </c>
+      <c r="G66" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="I66" s="5"/>
+      <c r="H66" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" s="35" t="s">
+        <v>146</v>
+      </c>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
@@ -4895,29 +4958,29 @@
       <c r="N66" s="5"/>
     </row>
     <row r="67" spans="1:14" ht="15.75">
-      <c r="A67" s="57">
-        <v>41547</v>
-      </c>
-      <c r="B67" s="57">
-        <v>41547</v>
-      </c>
-      <c r="C67" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="D67" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E67" s="61">
-        <v>1</v>
-      </c>
-      <c r="F67" s="57">
-        <v>41608</v>
-      </c>
-      <c r="G67" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" s="46" t="s">
+      <c r="A67" s="44">
+        <v>41820</v>
+      </c>
+      <c r="B67" s="44">
+        <v>41596</v>
+      </c>
+      <c r="C67" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="D67" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E67" s="48">
+        <v>49</v>
+      </c>
+      <c r="F67" s="44">
+        <v>41654</v>
+      </c>
+      <c r="G67" s="35" t="s">
         <v>17</v>
+      </c>
+      <c r="H67" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
@@ -4927,29 +4990,29 @@
       <c r="N67" s="5"/>
     </row>
     <row r="68" spans="1:14" ht="15.75">
-      <c r="A68" s="57">
-        <v>41495</v>
-      </c>
-      <c r="B68" s="57">
-        <v>41502</v>
-      </c>
-      <c r="C68" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="D68" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E68" s="61">
-        <v>66</v>
-      </c>
-      <c r="F68" s="57">
-        <v>41555</v>
-      </c>
-      <c r="G68" s="46" t="s">
+      <c r="A68" s="44">
+        <v>41724</v>
+      </c>
+      <c r="B68" s="44">
+        <v>41547</v>
+      </c>
+      <c r="C68" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68" s="48">
+        <v>1</v>
+      </c>
+      <c r="F68" s="44">
+        <v>41608</v>
+      </c>
+      <c r="G68" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H68" s="46" t="s">
-        <v>17</v>
+      <c r="H68" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
@@ -4959,29 +5022,29 @@
       <c r="N68" s="5"/>
     </row>
     <row r="69" spans="1:14" ht="15.75">
-      <c r="A69" s="57">
-        <v>41425</v>
-      </c>
-      <c r="B69" s="57">
-        <v>41438</v>
-      </c>
-      <c r="C69" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="D69" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="E69" s="61">
-        <v>3</v>
-      </c>
-      <c r="F69" s="57">
-        <v>41425</v>
-      </c>
-      <c r="G69" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H69" s="46" t="s">
-        <v>17</v>
+      <c r="A69" s="44">
+        <v>41593</v>
+      </c>
+      <c r="B69" s="44">
+        <v>41502</v>
+      </c>
+      <c r="C69" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69" s="48">
+        <v>66</v>
+      </c>
+      <c r="F69" s="44">
+        <v>41555</v>
+      </c>
+      <c r="G69" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
@@ -4991,28 +5054,28 @@
       <c r="N69" s="5"/>
     </row>
     <row r="70" spans="1:14" ht="15.75">
-      <c r="A70" s="57">
-        <v>41416</v>
-      </c>
-      <c r="B70" s="57">
-        <v>41417</v>
-      </c>
-      <c r="C70" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="D70" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E70" s="61">
-        <v>62</v>
-      </c>
-      <c r="F70" s="57">
-        <v>41485</v>
-      </c>
-      <c r="G70" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="46" t="s">
+      <c r="A70" s="44">
+        <v>41547</v>
+      </c>
+      <c r="B70" s="44">
+        <v>41438</v>
+      </c>
+      <c r="C70" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E70" s="48">
+        <v>3</v>
+      </c>
+      <c r="F70" s="44">
+        <v>41425</v>
+      </c>
+      <c r="G70" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" s="35" t="s">
         <v>12</v>
       </c>
       <c r="I70" s="5"/>
@@ -5023,28 +5086,28 @@
       <c r="N70" s="5"/>
     </row>
     <row r="71" spans="1:14" ht="15.75">
-      <c r="A71" s="57">
-        <v>41285</v>
-      </c>
-      <c r="B71" s="57">
-        <v>41285</v>
-      </c>
-      <c r="C71" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="D71" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="E71" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="F71" s="57">
-        <v>41347</v>
-      </c>
-      <c r="G71" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" s="46" t="s">
+      <c r="A71" s="44">
+        <v>41495</v>
+      </c>
+      <c r="B71" s="44">
+        <v>41417</v>
+      </c>
+      <c r="C71" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D71" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71" s="48">
+        <v>62</v>
+      </c>
+      <c r="F71" s="44">
+        <v>41485</v>
+      </c>
+      <c r="G71" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" s="35" t="s">
         <v>17</v>
       </c>
       <c r="I71" s="5"/>
@@ -5055,29 +5118,29 @@
       <c r="N71" s="5"/>
     </row>
     <row r="72" spans="1:14" ht="15.75">
-      <c r="A72" s="57">
-        <v>41087</v>
-      </c>
-      <c r="B72" s="57">
-        <v>41087</v>
-      </c>
-      <c r="C72" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="D72" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="E72" s="61">
-        <v>51</v>
-      </c>
-      <c r="F72" s="57">
-        <v>41148</v>
-      </c>
-      <c r="G72" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" s="46" t="s">
+      <c r="A72" s="44">
+        <v>41425</v>
+      </c>
+      <c r="B72" s="44">
+        <v>41285</v>
+      </c>
+      <c r="C72" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="D72" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="E72" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="F72" s="44">
+        <v>41347</v>
+      </c>
+      <c r="G72" s="35" t="s">
         <v>17</v>
+      </c>
+      <c r="H72" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
@@ -5087,33 +5150,31 @@
       <c r="N72" s="5"/>
     </row>
     <row r="73" spans="1:14" ht="15.75">
-      <c r="A73" s="57">
-        <v>41011</v>
-      </c>
-      <c r="B73" s="57">
-        <v>41011</v>
-      </c>
-      <c r="C73" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="D73" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="E73" s="61">
-        <v>150</v>
-      </c>
-      <c r="F73" s="57">
-        <v>41071</v>
-      </c>
-      <c r="G73" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I73" s="46" t="s">
-        <v>153</v>
-      </c>
+      <c r="A73" s="44">
+        <v>41416</v>
+      </c>
+      <c r="B73" s="44">
+        <v>41087</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E73" s="48">
+        <v>51</v>
+      </c>
+      <c r="F73" s="44">
+        <v>41148</v>
+      </c>
+      <c r="G73" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
@@ -5121,32 +5182,32 @@
       <c r="N73" s="5"/>
     </row>
     <row r="74" spans="1:14" ht="15.75">
-      <c r="A74" s="57">
-        <v>40938</v>
-      </c>
-      <c r="B74" s="57">
-        <v>40939</v>
-      </c>
-      <c r="C74" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="D74" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="E74" s="61">
-        <v>70</v>
-      </c>
-      <c r="F74" s="57">
-        <v>41000</v>
-      </c>
-      <c r="G74" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H74" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I74" s="46" t="s">
+      <c r="A74" s="44">
+        <v>41285</v>
+      </c>
+      <c r="B74" s="44">
+        <v>41011</v>
+      </c>
+      <c r="C74" s="35" t="s">
         <v>155</v>
+      </c>
+      <c r="D74" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E74" s="48">
+        <v>150</v>
+      </c>
+      <c r="F74" s="44">
+        <v>41071</v>
+      </c>
+      <c r="G74" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" s="35" t="s">
+        <v>156</v>
       </c>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
@@ -5155,31 +5216,33 @@
       <c r="N74" s="5"/>
     </row>
     <row r="75" spans="1:14" ht="15.75">
-      <c r="A75" s="57">
-        <v>40833</v>
-      </c>
-      <c r="B75" s="57">
-        <v>40833</v>
-      </c>
-      <c r="C75" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="D75" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="E75" s="61">
-        <v>110</v>
-      </c>
-      <c r="F75" s="57">
-        <v>40833</v>
-      </c>
-      <c r="G75" s="46" t="s">
-        <v>12</v>
-      </c>
-